--- a/Jogos_da_Semana_FlashScore_2024-10-12.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-12.xlsx
@@ -3113,10 +3113,10 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="H15" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I15" t="n">
         <v>5.5</v>
@@ -3185,7 +3185,7 @@
         <v>7.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF15" t="n">
         <v>67</v>
@@ -3203,7 +3203,7 @@
         <v>67</v>
       </c>
       <c r="AK15" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL15" t="n">
         <v>51</v>
@@ -3212,10 +3212,10 @@
         <v>1250</v>
       </c>
       <c r="AN15" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AO15" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AP15" t="n">
         <v>21</v>
@@ -3841,7 +3841,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="H19" t="n">
         <v>2.88</v>
@@ -3919,7 +3919,7 @@
         <v>67</v>
       </c>
       <c r="AG19" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AH19" t="n">
         <v>13</v>
@@ -3928,7 +3928,7 @@
         <v>12</v>
       </c>
       <c r="AJ19" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AK19" t="n">
         <v>29</v>
@@ -3940,7 +3940,7 @@
         <v>201</v>
       </c>
       <c r="AN19" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO19" t="n">
         <v>15</v>
@@ -7845,19 +7845,19 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="H41" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="I41" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="J41" t="n">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="K41" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="L41" t="n">
         <v>3.55</v>
@@ -7866,7 +7866,7 @@
         <v>1.07</v>
       </c>
       <c r="N41" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="O41" t="n">
         <v>1.32</v>
@@ -7878,115 +7878,115 @@
         <v>1.95</v>
       </c>
       <c r="R41" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="S41" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="T41" t="n">
-        <v>2.82</v>
+        <v>2.65</v>
       </c>
       <c r="U41" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="V41" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="W41" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="X41" t="n">
-        <v>11.75</v>
+        <v>10.75</v>
       </c>
       <c r="Y41" t="n">
         <v>9</v>
       </c>
       <c r="Z41" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AA41" t="n">
         <v>18.5</v>
       </c>
       <c r="AB41" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AC41" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="AD41" t="n">
-        <v>6</v>
+        <v>6.3</v>
       </c>
       <c r="AE41" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AF41" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AG41" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH41" t="n">
         <v>16</v>
       </c>
       <c r="AI41" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AJ41" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AK41" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AL41" t="n">
         <v>32</v>
       </c>
       <c r="AM41" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AN41" t="n">
-        <v>4.35</v>
+        <v>4.15</v>
       </c>
       <c r="AO41" t="n">
         <v>12</v>
       </c>
       <c r="AP41" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AQ41" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AR41" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="AS41" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="AT41" t="n">
-        <v>2.82</v>
+        <v>2.65</v>
       </c>
       <c r="AU41" t="n">
-        <v>6.5</v>
+        <v>7.1</v>
       </c>
       <c r="AV41" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="AW41" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="AX41" t="n">
         <v>16.5</v>
       </c>
       <c r="AY41" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AZ41" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="BA41" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="BB41" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BC41" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-12.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-12.xlsx
@@ -3131,10 +3131,10 @@
         <v>6</v>
       </c>
       <c r="M15" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O15" t="n">
         <v>1.33</v>
@@ -3841,7 +3841,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="H19" t="n">
         <v>2.88</v>
@@ -3919,7 +3919,7 @@
         <v>67</v>
       </c>
       <c r="AG19" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AH19" t="n">
         <v>13</v>
@@ -3928,7 +3928,7 @@
         <v>12</v>
       </c>
       <c r="AJ19" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AK19" t="n">
         <v>29</v>
@@ -3940,7 +3940,7 @@
         <v>201</v>
       </c>
       <c r="AN19" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO19" t="n">
         <v>15</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-12.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD41"/>
+  <dimension ref="A1:BD42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3841,7 +3841,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="H19" t="n">
         <v>2.88</v>
@@ -3919,7 +3919,7 @@
         <v>67</v>
       </c>
       <c r="AG19" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AH19" t="n">
         <v>13</v>
@@ -3928,7 +3928,7 @@
         <v>12</v>
       </c>
       <c r="AJ19" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AK19" t="n">
         <v>29</v>
@@ -3940,7 +3940,7 @@
         <v>201</v>
       </c>
       <c r="AN19" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO19" t="n">
         <v>15</v>
@@ -7452,7 +7452,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>AFurB3MH</t>
+          <t>x2szDPi5</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -7472,31 +7472,31 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Caernarfon</t>
+          <t>Barry</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Newtown</t>
+          <t>Briton Ferry</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.9</v>
+        <v>1.39</v>
       </c>
       <c r="H39" t="n">
-        <v>3.65</v>
+        <v>4.5</v>
       </c>
       <c r="I39" t="n">
-        <v>3.35</v>
+        <v>6.3</v>
       </c>
       <c r="J39" t="n">
-        <v>2.42</v>
+        <v>1.85</v>
       </c>
       <c r="K39" t="n">
-        <v>2.32</v>
+        <v>2.5</v>
       </c>
       <c r="L39" t="n">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="M39" t="n">
         <v>1.03</v>
@@ -7520,112 +7520,112 @@
         <v>1.29</v>
       </c>
       <c r="T39" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="U39" t="n">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="V39" t="n">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="W39" t="n">
-        <v>10.5</v>
+        <v>8.5</v>
       </c>
       <c r="X39" t="n">
-        <v>11.75</v>
+        <v>7.5</v>
       </c>
       <c r="Y39" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="Z39" t="n">
-        <v>18.5</v>
+        <v>9.75</v>
       </c>
       <c r="AA39" t="n">
-        <v>13.5</v>
+        <v>10.75</v>
       </c>
       <c r="AB39" t="n">
-        <v>18.5</v>
+        <v>22</v>
       </c>
       <c r="AC39" t="n">
         <v>9</v>
       </c>
       <c r="AD39" t="n">
-        <v>7.6</v>
+        <v>9.25</v>
       </c>
       <c r="AE39" t="n">
-        <v>11.75</v>
+        <v>17.5</v>
       </c>
       <c r="AF39" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="AG39" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AH39" t="n">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="AI39" t="n">
-        <v>11.75</v>
+        <v>20</v>
       </c>
       <c r="AJ39" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="AK39" t="n">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="AL39" t="n">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="AM39" t="n">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="AN39" t="n">
-        <v>4.15</v>
+        <v>3.4</v>
       </c>
       <c r="AO39" t="n">
-        <v>9.5</v>
+        <v>6.3</v>
       </c>
       <c r="AP39" t="n">
         <v>14.5</v>
       </c>
       <c r="AQ39" t="n">
-        <v>30</v>
+        <v>16.5</v>
       </c>
       <c r="AR39" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AS39" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AT39" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="AU39" t="n">
-        <v>6.5</v>
+        <v>7.8</v>
       </c>
       <c r="AV39" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="AW39" t="n">
-        <v>5.7</v>
+        <v>8</v>
       </c>
       <c r="AX39" t="n">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="AY39" t="n">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="AZ39" t="n">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="BA39" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="BB39" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="BC39" t="n">
-        <v>500</v>
+        <v>51</v>
       </c>
       <c r="BD39" t="n">
         <v>51</v>
@@ -7634,7 +7634,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>UHeq9siU</t>
+          <t>AFurB3MH</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -7654,160 +7654,160 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Flint</t>
+          <t>Caernarfon</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Bala</t>
+          <t>Newtown</t>
         </is>
       </c>
       <c r="G40" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H40" t="n">
         <v>3.65</v>
       </c>
-      <c r="H40" t="n">
-        <v>3.4</v>
-      </c>
       <c r="I40" t="n">
-        <v>1.88</v>
+        <v>3.35</v>
       </c>
       <c r="J40" t="n">
-        <v>4.1</v>
+        <v>2.42</v>
       </c>
       <c r="K40" t="n">
-        <v>2.12</v>
+        <v>2.32</v>
       </c>
       <c r="L40" t="n">
-        <v>2.52</v>
+        <v>3.75</v>
       </c>
       <c r="M40" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N40" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="O40" t="n">
-        <v>1.28</v>
+        <v>1.18</v>
       </c>
       <c r="P40" t="n">
-        <v>3.3</v>
+        <v>4.3</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.85</v>
+        <v>1.55</v>
       </c>
       <c r="R40" t="n">
-        <v>1.88</v>
+        <v>2.3</v>
       </c>
       <c r="S40" t="n">
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="T40" t="n">
-        <v>2.72</v>
+        <v>3.25</v>
       </c>
       <c r="U40" t="n">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="V40" t="n">
-        <v>1.98</v>
+        <v>2.4</v>
       </c>
       <c r="W40" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="X40" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH40" t="n">
         <v>21</v>
       </c>
-      <c r="Y40" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Z40" t="n">
-        <v>55</v>
-      </c>
-      <c r="AA40" t="n">
-        <v>32</v>
-      </c>
-      <c r="AB40" t="n">
-        <v>37</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>14</v>
-      </c>
-      <c r="AF40" t="n">
-        <v>60</v>
-      </c>
-      <c r="AG40" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AH40" t="n">
-        <v>9</v>
-      </c>
       <c r="AI40" t="n">
-        <v>8.25</v>
+        <v>11.75</v>
       </c>
       <c r="AJ40" t="n">
-        <v>16.5</v>
+        <v>50</v>
       </c>
       <c r="AK40" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AL40" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM40" t="n">
-        <v>450</v>
+        <v>200</v>
       </c>
       <c r="AN40" t="n">
-        <v>5.6</v>
+        <v>4.15</v>
       </c>
       <c r="AO40" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP40" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AQ40" t="n">
+        <v>30</v>
+      </c>
+      <c r="AR40" t="n">
+        <v>50</v>
+      </c>
+      <c r="AS40" t="n">
+        <v>150</v>
+      </c>
+      <c r="AT40" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU40" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AV40" t="n">
+        <v>45</v>
+      </c>
+      <c r="AW40" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AX40" t="n">
+        <v>18</v>
+      </c>
+      <c r="AY40" t="n">
         <v>21</v>
       </c>
-      <c r="AP40" t="n">
-        <v>27</v>
-      </c>
-      <c r="AQ40" t="n">
-        <v>110</v>
-      </c>
-      <c r="AR40" t="n">
-        <v>150</v>
-      </c>
-      <c r="AS40" t="n">
-        <v>350</v>
-      </c>
-      <c r="AT40" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="AU40" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AV40" t="n">
-        <v>65</v>
-      </c>
-      <c r="AW40" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AX40" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AY40" t="n">
-        <v>19</v>
-      </c>
       <c r="AZ40" t="n">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="BA40" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="BB40" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="BC40" t="n">
-        <v>51</v>
+        <v>500</v>
       </c>
       <c r="BD40" t="n">
         <v>51</v>
@@ -7816,7 +7816,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>KtygTpxn</t>
+          <t>UHeq9siU</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -7836,55 +7836,55 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Haverfordwest</t>
+          <t>Flint</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Connahs Q.</t>
+          <t>Bala</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.22</v>
+        <v>3.65</v>
       </c>
       <c r="H41" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="I41" t="n">
-        <v>2.95</v>
+        <v>1.88</v>
       </c>
       <c r="J41" t="n">
-        <v>2.9</v>
+        <v>4.1</v>
       </c>
       <c r="K41" t="n">
-        <v>2.07</v>
+        <v>2.12</v>
       </c>
       <c r="L41" t="n">
-        <v>3.55</v>
+        <v>2.52</v>
       </c>
       <c r="M41" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N41" t="n">
-        <v>7.1</v>
+        <v>7.5</v>
       </c>
       <c r="O41" t="n">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
       <c r="P41" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="R41" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="S41" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="T41" t="n">
-        <v>2.65</v>
+        <v>2.72</v>
       </c>
       <c r="U41" t="n">
         <v>1.75</v>
@@ -7893,105 +7893,287 @@
         <v>1.98</v>
       </c>
       <c r="W41" t="n">
-        <v>7.6</v>
+        <v>11.5</v>
       </c>
       <c r="X41" t="n">
-        <v>10.75</v>
+        <v>21</v>
       </c>
       <c r="Y41" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>37</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AH41" t="n">
         <v>9</v>
       </c>
-      <c r="Z41" t="n">
-        <v>22</v>
-      </c>
-      <c r="AA41" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AB41" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC41" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AE41" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AF41" t="n">
-        <v>65</v>
-      </c>
-      <c r="AG41" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AH41" t="n">
-        <v>16</v>
-      </c>
       <c r="AI41" t="n">
-        <v>10.75</v>
+        <v>8.25</v>
       </c>
       <c r="AJ41" t="n">
-        <v>37</v>
+        <v>16.5</v>
       </c>
       <c r="AK41" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AL41" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="AM41" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AN41" t="n">
-        <v>4.15</v>
+        <v>5.6</v>
       </c>
       <c r="AO41" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AP41" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="AQ41" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="AR41" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="AS41" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AT41" t="n">
-        <v>2.65</v>
+        <v>2.72</v>
       </c>
       <c r="AU41" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AV41" t="n">
         <v>65</v>
       </c>
       <c r="AW41" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AX41" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AY41" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ41" t="n">
+        <v>37</v>
+      </c>
+      <c r="BA41" t="n">
+        <v>70</v>
+      </c>
+      <c r="BB41" t="n">
+        <v>250</v>
+      </c>
+      <c r="BC41" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD41" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>KtygTpxn</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>12/10/2024</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>WALES - CYMRU PREMIER</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Haverfordwest</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Connahs Q.</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="H42" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I42" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="J42" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="K42" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="L42" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N42" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="O42" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P42" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S42" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="T42" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="U42" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V42" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="W42" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="X42" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>65</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>37</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>500</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP42" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ42" t="n">
+        <v>50</v>
+      </c>
+      <c r="AR42" t="n">
+        <v>90</v>
+      </c>
+      <c r="AS42" t="n">
+        <v>300</v>
+      </c>
+      <c r="AT42" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AU42" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AV42" t="n">
+        <v>65</v>
+      </c>
+      <c r="AW42" t="n">
         <v>4.9</v>
       </c>
-      <c r="AX41" t="n">
+      <c r="AX42" t="n">
         <v>16.5</v>
       </c>
-      <c r="AY41" t="n">
+      <c r="AY42" t="n">
         <v>24</v>
       </c>
-      <c r="AZ41" t="n">
+      <c r="AZ42" t="n">
         <v>80</v>
       </c>
-      <c r="BA41" t="n">
+      <c r="BA42" t="n">
         <v>110</v>
       </c>
-      <c r="BB41" t="n">
+      <c r="BB42" t="n">
         <v>300</v>
       </c>
-      <c r="BC41" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD41" t="n">
+      <c r="BC42" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD42" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-12.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-12.xlsx
@@ -2406,7 +2406,7 @@
         <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>6.5</v>
+        <v>6.45</v>
       </c>
       <c r="O11" t="n">
         <v>1.42</v>
@@ -4023,22 +4023,22 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="H20" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I20" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="J20" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="K20" t="n">
         <v>2.05</v>
       </c>
       <c r="L20" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M20" t="n">
         <v>1.08</v>
@@ -4053,10 +4053,10 @@
         <v>2.75</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="R20" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S20" t="n">
         <v>1.5</v>
@@ -4080,7 +4080,7 @@
         <v>9</v>
       </c>
       <c r="Z20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA20" t="n">
         <v>17</v>
@@ -4092,7 +4092,7 @@
         <v>7.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE20" t="n">
         <v>21</v>
@@ -4104,16 +4104,16 @@
         <v>11</v>
       </c>
       <c r="AH20" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI20" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ20" t="n">
         <v>51</v>
       </c>
       <c r="AK20" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL20" t="n">
         <v>51</v>
@@ -4122,19 +4122,19 @@
         <v>201</v>
       </c>
       <c r="AN20" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO20" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AP20" t="n">
         <v>23</v>
       </c>
       <c r="AQ20" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR20" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS20" t="n">
         <v>201</v>
@@ -4149,16 +4149,16 @@
         <v>67</v>
       </c>
       <c r="AW20" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AX20" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AY20" t="n">
         <v>41</v>
       </c>
       <c r="AZ20" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BA20" t="n">
         <v>151</v>
@@ -6834,7 +6834,7 @@
         <v>8.75</v>
       </c>
       <c r="AH35" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI35" t="n">
         <v>12</v>
@@ -6870,7 +6870,7 @@
         <v>350</v>
       </c>
       <c r="AT35" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="AU35" t="n">
         <v>7.8</v>
@@ -6879,7 +6879,7 @@
         <v>90</v>
       </c>
       <c r="AW35" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="AX35" t="n">
         <v>19.5</v>
@@ -6894,7 +6894,7 @@
         <v>175</v>
       </c>
       <c r="BB35" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="BC35" t="n">
         <v>51</v>
@@ -6935,10 +6935,10 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="H36" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I36" t="n">
         <v>2.2</v>
@@ -6995,7 +6995,7 @@
         <v>35</v>
       </c>
       <c r="AA36" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AB36" t="n">
         <v>28</v>
@@ -7004,7 +7004,7 @@
         <v>12</v>
       </c>
       <c r="AD36" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AE36" t="n">
         <v>12.5</v>
@@ -8027,37 +8027,37 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="H42" t="n">
         <v>3.2</v>
       </c>
       <c r="I42" t="n">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="J42" t="n">
-        <v>2.9</v>
+        <v>2.82</v>
       </c>
       <c r="K42" t="n">
         <v>2.07</v>
       </c>
       <c r="L42" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="M42" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N42" t="n">
         <v>7.1</v>
       </c>
       <c r="O42" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P42" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R42" t="n">
         <v>1.8</v>
@@ -8069,28 +8069,28 @@
         <v>2.65</v>
       </c>
       <c r="U42" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="V42" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="W42" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="X42" t="n">
         <v>10.75</v>
       </c>
       <c r="Y42" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="Z42" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AA42" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AB42" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AC42" t="n">
         <v>7.1</v>
@@ -8102,7 +8102,7 @@
         <v>13.5</v>
       </c>
       <c r="AF42" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AG42" t="n">
         <v>9.5</v>
@@ -8111,37 +8111,37 @@
         <v>16</v>
       </c>
       <c r="AI42" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AJ42" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AK42" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AL42" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AM42" t="n">
         <v>500</v>
       </c>
       <c r="AN42" t="n">
-        <v>4.15</v>
+        <v>4.1</v>
       </c>
       <c r="AO42" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AP42" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ42" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AR42" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AS42" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AT42" t="n">
         <v>2.65</v>
@@ -8153,22 +8153,22 @@
         <v>65</v>
       </c>
       <c r="AW42" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="AX42" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AY42" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ42" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="BA42" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="BB42" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="BC42" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-12.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-12.xlsx
@@ -2385,22 +2385,22 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="H11" t="n">
         <v>3.05</v>
       </c>
       <c r="I11" t="n">
-        <v>2.02</v>
+        <v>2.15</v>
       </c>
       <c r="J11" t="n">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="K11" t="n">
         <v>1.98</v>
       </c>
       <c r="L11" t="n">
-        <v>2.62</v>
+        <v>2.77</v>
       </c>
       <c r="M11" t="n">
         <v>1.04</v>
@@ -2412,19 +2412,19 @@
         <v>1.42</v>
       </c>
       <c r="P11" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="R11" t="n">
         <v>1.52</v>
       </c>
       <c r="S11" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="T11" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="U11" t="n">
         <v>1.93</v>
@@ -2433,22 +2433,22 @@
         <v>1.7</v>
       </c>
       <c r="W11" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X11" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AA11" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AB11" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AC11" t="n">
         <v>7.1</v>
@@ -2463,43 +2463,43 @@
         <v>100</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AH11" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="AI11" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="AJ11" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AK11" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AL11" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AM11" t="n">
         <v>201</v>
       </c>
       <c r="AN11" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="AO11" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AP11" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AQ11" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AR11" t="n">
         <v>175</v>
       </c>
       <c r="AS11" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AT11" t="n">
         <v>2.32</v>
@@ -2511,22 +2511,22 @@
         <v>80</v>
       </c>
       <c r="AW11" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="AX11" t="n">
-        <v>10.25</v>
+        <v>11.25</v>
       </c>
       <c r="AY11" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AZ11" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="BA11" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="BB11" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="BC11" t="n">
         <v>51</v>
@@ -3841,13 +3841,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="H19" t="n">
         <v>2.88</v>
       </c>
       <c r="I19" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J19" t="n">
         <v>3.4</v>
@@ -3919,7 +3919,7 @@
         <v>67</v>
       </c>
       <c r="AG19" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AH19" t="n">
         <v>13</v>
@@ -3928,7 +3928,7 @@
         <v>12</v>
       </c>
       <c r="AJ19" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AK19" t="n">
         <v>29</v>
@@ -3940,7 +3940,7 @@
         <v>201</v>
       </c>
       <c r="AN19" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO19" t="n">
         <v>15</v>
@@ -5661,22 +5661,22 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.37</v>
+        <v>2.55</v>
       </c>
       <c r="H29" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="I29" t="n">
-        <v>2.65</v>
+        <v>2.5</v>
       </c>
       <c r="J29" t="n">
-        <v>2.92</v>
+        <v>3.1</v>
       </c>
       <c r="K29" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="L29" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="M29" t="n">
         <v>1.05</v>
@@ -5685,7 +5685,7 @@
         <v>7.8</v>
       </c>
       <c r="O29" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P29" t="n">
         <v>3.45</v>
@@ -5694,13 +5694,13 @@
         <v>1.8</v>
       </c>
       <c r="R29" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S29" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="T29" t="n">
-        <v>2.87</v>
+        <v>2.82</v>
       </c>
       <c r="U29" t="n">
         <v>1.65</v>
@@ -5709,28 +5709,28 @@
         <v>2.1</v>
       </c>
       <c r="W29" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="X29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y29" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="Z29" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AA29" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AB29" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AC29" t="n">
         <v>7.8</v>
       </c>
       <c r="AD29" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AE29" t="n">
         <v>13.5</v>
@@ -5739,46 +5739,46 @@
         <v>55</v>
       </c>
       <c r="AG29" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI29" t="n">
         <v>9.5</v>
       </c>
-      <c r="AH29" t="n">
-        <v>14</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>10</v>
-      </c>
       <c r="AJ29" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AK29" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AL29" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AM29" t="n">
         <v>400</v>
       </c>
       <c r="AN29" t="n">
-        <v>4.4</v>
+        <v>4.55</v>
       </c>
       <c r="AO29" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AP29" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AQ29" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AR29" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AS29" t="n">
         <v>250</v>
       </c>
       <c r="AT29" t="n">
-        <v>2.87</v>
+        <v>2.82</v>
       </c>
       <c r="AU29" t="n">
         <v>7</v>
@@ -5787,16 +5787,16 @@
         <v>60</v>
       </c>
       <c r="AW29" t="n">
-        <v>4.65</v>
+        <v>4.5</v>
       </c>
       <c r="AX29" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ29" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="BA29" t="n">
         <v>90</v>
@@ -6834,7 +6834,7 @@
         <v>8.75</v>
       </c>
       <c r="AH35" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AI35" t="n">
         <v>12</v>
@@ -6870,7 +6870,7 @@
         <v>350</v>
       </c>
       <c r="AT35" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="AU35" t="n">
         <v>7.8</v>
@@ -6879,7 +6879,7 @@
         <v>90</v>
       </c>
       <c r="AW35" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="AX35" t="n">
         <v>19.5</v>
@@ -6894,7 +6894,7 @@
         <v>175</v>
       </c>
       <c r="BB35" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="BC35" t="n">
         <v>51</v>
@@ -6941,7 +6941,7 @@
         <v>3.45</v>
       </c>
       <c r="I36" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="J36" t="n">
         <v>3.35</v>
@@ -8027,28 +8027,28 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.18</v>
+        <v>2.07</v>
       </c>
       <c r="H42" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I42" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="J42" t="n">
-        <v>2.82</v>
+        <v>2.7</v>
       </c>
       <c r="K42" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="L42" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="M42" t="n">
         <v>1.06</v>
       </c>
       <c r="N42" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="O42" t="n">
         <v>1.31</v>
@@ -8060,112 +8060,112 @@
         <v>1.93</v>
       </c>
       <c r="R42" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="S42" t="n">
         <v>1.42</v>
       </c>
       <c r="T42" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="U42" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="V42" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="W42" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="X42" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="Y42" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="Z42" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AA42" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AB42" t="n">
         <v>27</v>
       </c>
       <c r="AC42" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AD42" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AE42" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AF42" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AG42" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AH42" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AI42" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AJ42" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AK42" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AL42" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AM42" t="n">
         <v>500</v>
       </c>
       <c r="AN42" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="AO42" t="n">
-        <v>11.5</v>
+        <v>10.75</v>
       </c>
       <c r="AP42" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AQ42" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AR42" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AS42" t="n">
         <v>250</v>
       </c>
       <c r="AT42" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="AU42" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AV42" t="n">
         <v>65</v>
       </c>
       <c r="AW42" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="AX42" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AY42" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AZ42" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="BA42" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="BB42" t="n">
         <v>350</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-12.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-12.xlsx
@@ -938,19 +938,19 @@
         <v>6.25</v>
       </c>
       <c r="J3" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="K3" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O3" t="n">
         <v>1.44</v>
@@ -965,10 +965,10 @@
         <v>1.53</v>
       </c>
       <c r="S3" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T3" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="U3" t="n">
         <v>2.25</v>
@@ -977,7 +977,7 @@
         <v>1.57</v>
       </c>
       <c r="W3" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="X3" t="n">
         <v>6.5</v>
@@ -995,7 +995,7 @@
         <v>41</v>
       </c>
       <c r="AC3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD3" t="n">
         <v>7</v>
@@ -1022,7 +1022,7 @@
         <v>51</v>
       </c>
       <c r="AL3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AM3" t="n">
         <v>201</v>
@@ -1034,19 +1034,19 @@
         <v>9</v>
       </c>
       <c r="AP3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS3" t="n">
         <v>251</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AU3" t="n">
         <v>10</v>
@@ -2406,7 +2406,7 @@
         <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>6.45</v>
+        <v>6.5</v>
       </c>
       <c r="O11" t="n">
         <v>1.42</v>
@@ -5172,7 +5172,7 @@
         <v>9</v>
       </c>
       <c r="Z26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA26" t="n">
         <v>10</v>
@@ -5211,7 +5211,7 @@
         <v>41</v>
       </c>
       <c r="AM26" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AN26" t="n">
         <v>3.75</v>
@@ -5226,7 +5226,7 @@
         <v>17</v>
       </c>
       <c r="AR26" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AS26" t="n">
         <v>81</v>
@@ -5244,7 +5244,7 @@
         <v>8.5</v>
       </c>
       <c r="AX26" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AY26" t="n">
         <v>29</v>
@@ -5297,13 +5297,13 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="H27" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="I27" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="J27" t="n">
         <v>2.82</v>
@@ -5479,13 +5479,13 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.82</v>
+        <v>2.75</v>
       </c>
       <c r="H28" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I28" t="n">
-        <v>2.42</v>
+        <v>2.37</v>
       </c>
       <c r="J28" t="n">
         <v>3.45</v>
@@ -5661,13 +5661,13 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="H29" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I29" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="J29" t="n">
         <v>3.1</v>
@@ -5846,10 +5846,10 @@
         <v>1.5</v>
       </c>
       <c r="H30" t="n">
-        <v>4.6</v>
+        <v>4.45</v>
       </c>
       <c r="I30" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="J30" t="n">
         <v>1.93</v>
@@ -6028,10 +6028,10 @@
         <v>1.75</v>
       </c>
       <c r="H31" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I31" t="n">
-        <v>4.15</v>
+        <v>4</v>
       </c>
       <c r="J31" t="n">
         <v>2.32</v>
@@ -6207,13 +6207,13 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="H32" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I32" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="J32" t="n">
         <v>3.2</v>
@@ -6389,13 +6389,13 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H33" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I33" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="J33" t="n">
         <v>3.7</v>
@@ -6571,13 +6571,13 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="H34" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="I34" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="J34" t="n">
         <v>3.15</v>
@@ -6753,40 +6753,40 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.07</v>
+        <v>1.78</v>
       </c>
       <c r="H35" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="I35" t="n">
-        <v>3.4</v>
+        <v>4.3</v>
       </c>
       <c r="J35" t="n">
-        <v>2.77</v>
+        <v>2.32</v>
       </c>
       <c r="K35" t="n">
-        <v>1.98</v>
+        <v>2.12</v>
       </c>
       <c r="L35" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M35" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N35" t="n">
-        <v>6.95</v>
+        <v>8.1</v>
       </c>
       <c r="O35" t="n">
-        <v>1.38</v>
+        <v>1.3</v>
       </c>
       <c r="P35" t="n">
-        <v>2.57</v>
+        <v>2.92</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.12</v>
+        <v>1.93</v>
       </c>
       <c r="R35" t="n">
-        <v>1.57</v>
+        <v>1.78</v>
       </c>
       <c r="S35" t="n">
         <v>1.47</v>
@@ -6795,106 +6795,106 @@
         <v>2.32</v>
       </c>
       <c r="U35" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V35" t="n">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="W35" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="X35" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y35" t="n">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="Z35" t="n">
-        <v>19</v>
+        <v>14.5</v>
       </c>
       <c r="AA35" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AB35" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="AC35" t="n">
-        <v>7.9</v>
+        <v>9.25</v>
       </c>
       <c r="AD35" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="AE35" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AF35" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AG35" t="n">
-        <v>8.75</v>
+        <v>11.75</v>
       </c>
       <c r="AH35" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="AI35" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AJ35" t="n">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="AK35" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AL35" t="n">
         <v>45</v>
       </c>
       <c r="AM35" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="AN35" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="AO35" t="n">
-        <v>11.25</v>
+        <v>8.75</v>
       </c>
       <c r="AP35" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>30</v>
+      </c>
+      <c r="AR35" t="n">
+        <v>60</v>
+      </c>
+      <c r="AS35" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT35" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AU35" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AV35" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW35" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX35" t="n">
         <v>23</v>
       </c>
-      <c r="AQ35" t="n">
-        <v>45</v>
-      </c>
-      <c r="AR35" t="n">
-        <v>100</v>
-      </c>
-      <c r="AS35" t="n">
+      <c r="AY35" t="n">
+        <v>28</v>
+      </c>
+      <c r="AZ35" t="n">
+        <v>120</v>
+      </c>
+      <c r="BA35" t="n">
+        <v>150</v>
+      </c>
+      <c r="BB35" t="n">
         <v>350</v>
-      </c>
-      <c r="AT35" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="AU35" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AV35" t="n">
-        <v>90</v>
-      </c>
-      <c r="AW35" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="AX35" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AY35" t="n">
-        <v>30</v>
-      </c>
-      <c r="AZ35" t="n">
-        <v>110</v>
-      </c>
-      <c r="BA35" t="n">
-        <v>175</v>
-      </c>
-      <c r="BB35" t="n">
-        <v>450</v>
       </c>
       <c r="BC35" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-12.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-12.xlsx
@@ -3659,19 +3659,19 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="H18" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I18" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="J18" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K18" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="L18" t="n">
         <v>3.1</v>
@@ -3689,22 +3689,22 @@
         <v>3</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="R18" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="S18" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="T18" t="n">
-        <v>2.77</v>
+        <v>2.72</v>
       </c>
       <c r="U18" t="n">
         <v>1.82</v>
       </c>
       <c r="V18" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="W18" t="n">
         <v>8</v>
@@ -3713,7 +3713,7 @@
         <v>12</v>
       </c>
       <c r="Y18" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="Z18" t="n">
         <v>27</v>
@@ -3722,7 +3722,7 @@
         <v>22</v>
       </c>
       <c r="AB18" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AC18" t="n">
         <v>7</v>
@@ -3746,7 +3746,7 @@
         <v>9.75</v>
       </c>
       <c r="AJ18" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AK18" t="n">
         <v>22</v>
@@ -3764,40 +3764,40 @@
         <v>13.5</v>
       </c>
       <c r="AP18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ18" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AR18" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AS18" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AT18" t="n">
-        <v>2.77</v>
+        <v>2.72</v>
       </c>
       <c r="AU18" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AV18" t="n">
         <v>65</v>
       </c>
       <c r="AW18" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="AX18" t="n">
         <v>13.5</v>
       </c>
       <c r="AY18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AZ18" t="n">
         <v>55</v>
       </c>
       <c r="BA18" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="BB18" t="n">
         <v>300</v>
@@ -5297,10 +5297,10 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="H27" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I27" t="n">
         <v>3</v>
@@ -5312,13 +5312,13 @@
         <v>2.12</v>
       </c>
       <c r="L27" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="M27" t="n">
         <v>1.07</v>
       </c>
       <c r="N27" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="O27" t="n">
         <v>1.32</v>
@@ -5342,13 +5342,13 @@
         <v>1.75</v>
       </c>
       <c r="V27" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="W27" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="X27" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="Y27" t="n">
         <v>9</v>
@@ -5363,19 +5363,19 @@
         <v>29</v>
       </c>
       <c r="AC27" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AD27" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AE27" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AF27" t="n">
         <v>65</v>
       </c>
       <c r="AG27" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AH27" t="n">
         <v>16</v>
@@ -5384,7 +5384,7 @@
         <v>10.75</v>
       </c>
       <c r="AJ27" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AK27" t="n">
         <v>26</v>
@@ -5396,19 +5396,19 @@
         <v>500</v>
       </c>
       <c r="AN27" t="n">
-        <v>4.2</v>
+        <v>4.15</v>
       </c>
       <c r="AO27" t="n">
         <v>11.5</v>
       </c>
       <c r="AP27" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AQ27" t="n">
         <v>45</v>
       </c>
       <c r="AR27" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AS27" t="n">
         <v>250</v>
@@ -5417,7 +5417,7 @@
         <v>2.77</v>
       </c>
       <c r="AU27" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AV27" t="n">
         <v>60</v>
@@ -5426,7 +5426,7 @@
         <v>5</v>
       </c>
       <c r="AX27" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AY27" t="n">
         <v>23</v>
@@ -5435,10 +5435,10 @@
         <v>75</v>
       </c>
       <c r="BA27" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="BB27" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BC27" t="n">
         <v>51</v>
@@ -6935,22 +6935,22 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.87</v>
+        <v>2.92</v>
       </c>
       <c r="H36" t="n">
-        <v>3.45</v>
+        <v>3.05</v>
       </c>
       <c r="I36" t="n">
-        <v>2.22</v>
+        <v>2.37</v>
       </c>
       <c r="J36" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="K36" t="n">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="L36" t="n">
-        <v>2.77</v>
+        <v>2.95</v>
       </c>
       <c r="M36" t="n">
         <v>1.01</v>
@@ -6959,124 +6959,124 @@
         <v>11.5</v>
       </c>
       <c r="O36" t="n">
-        <v>1.23</v>
+        <v>1.29</v>
       </c>
       <c r="P36" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="R36" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="S36" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="T36" t="n">
-        <v>3.04</v>
+        <v>2.47</v>
       </c>
       <c r="U36" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V36" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="W36" t="n">
-        <v>10.75</v>
+        <v>9</v>
       </c>
       <c r="X36" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Y36" t="n">
         <v>10.25</v>
       </c>
       <c r="Z36" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AA36" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB36" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AC36" t="n">
-        <v>12</v>
+        <v>9.25</v>
       </c>
       <c r="AD36" t="n">
-        <v>6.8</v>
+        <v>6</v>
       </c>
       <c r="AE36" t="n">
         <v>12.5</v>
       </c>
       <c r="AF36" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AG36" t="n">
-        <v>9.25</v>
+        <v>8.5</v>
       </c>
       <c r="AH36" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="AI36" t="n">
         <v>9</v>
       </c>
       <c r="AJ36" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AK36" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="AL36" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AM36" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AN36" t="n">
         <v>4.85</v>
       </c>
       <c r="AO36" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AP36" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AQ36" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AR36" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="AS36" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AT36" t="n">
-        <v>2.9</v>
+        <v>2.45</v>
       </c>
       <c r="AU36" t="n">
         <v>6.7</v>
       </c>
       <c r="AV36" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AW36" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="AX36" t="n">
-        <v>11.25</v>
+        <v>12.5</v>
       </c>
       <c r="AY36" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AZ36" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="BA36" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="BB36" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BC36" t="n">
         <v>51</v>
@@ -7117,148 +7117,148 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.95</v>
+        <v>2.27</v>
       </c>
       <c r="H37" t="n">
-        <v>3.35</v>
+        <v>2.95</v>
       </c>
       <c r="I37" t="n">
-        <v>3.55</v>
+        <v>3.2</v>
       </c>
       <c r="J37" t="n">
-        <v>2.62</v>
+        <v>2.85</v>
       </c>
       <c r="K37" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="L37" t="n">
-        <v>4.15</v>
+        <v>3.8</v>
       </c>
       <c r="M37" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N37" t="n">
-        <v>7.2</v>
+        <v>6.95</v>
       </c>
       <c r="O37" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="P37" t="n">
-        <v>2.65</v>
+        <v>2.57</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.07</v>
+        <v>2.12</v>
       </c>
       <c r="R37" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S37" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="T37" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U37" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="V37" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="W37" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="X37" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>20</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>80</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>45</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>45</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>700</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AP37" t="n">
+        <v>20</v>
+      </c>
+      <c r="AQ37" t="n">
+        <v>50</v>
+      </c>
+      <c r="AR37" t="n">
+        <v>80</v>
+      </c>
+      <c r="AS37" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT37" t="n">
         <v>2.37</v>
       </c>
-      <c r="U37" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V37" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="W37" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="X37" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>35</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AF37" t="n">
+      <c r="AU37" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV37" t="n">
+        <v>65</v>
+      </c>
+      <c r="AW37" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX37" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AY37" t="n">
+        <v>27</v>
+      </c>
+      <c r="AZ37" t="n">
         <v>100</v>
       </c>
-      <c r="AG37" t="n">
-        <v>9</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI37" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ37" t="n">
-        <v>50</v>
-      </c>
-      <c r="AK37" t="n">
-        <v>37</v>
-      </c>
-      <c r="AL37" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM37" t="n">
-        <v>900</v>
-      </c>
-      <c r="AN37" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="AO37" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AP37" t="n">
-        <v>22</v>
-      </c>
-      <c r="AQ37" t="n">
-        <v>40</v>
-      </c>
-      <c r="AR37" t="n">
-        <v>90</v>
-      </c>
-      <c r="AS37" t="n">
+      <c r="BA37" t="n">
+        <v>150</v>
+      </c>
+      <c r="BB37" t="n">
         <v>350</v>
-      </c>
-      <c r="AT37" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="AU37" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV37" t="n">
-        <v>90</v>
-      </c>
-      <c r="AW37" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="AX37" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY37" t="n">
-        <v>32</v>
-      </c>
-      <c r="AZ37" t="n">
-        <v>120</v>
-      </c>
-      <c r="BA37" t="n">
-        <v>175</v>
-      </c>
-      <c r="BB37" t="n">
-        <v>500</v>
       </c>
       <c r="BC37" t="n">
         <v>51</v>
@@ -8027,22 +8027,22 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="H42" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I42" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="J42" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="K42" t="n">
         <v>2.1</v>
       </c>
       <c r="L42" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="M42" t="n">
         <v>1.06</v>
@@ -8051,16 +8051,16 @@
         <v>7.2</v>
       </c>
       <c r="O42" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P42" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="R42" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="S42" t="n">
         <v>1.42</v>
@@ -8075,16 +8075,16 @@
         <v>1.98</v>
       </c>
       <c r="W42" t="n">
-        <v>7.7</v>
+        <v>7.3</v>
       </c>
       <c r="X42" t="n">
-        <v>10.25</v>
+        <v>9.5</v>
       </c>
       <c r="Y42" t="n">
         <v>8.5</v>
       </c>
       <c r="Z42" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AA42" t="n">
         <v>16.5</v>
@@ -8105,31 +8105,31 @@
         <v>65</v>
       </c>
       <c r="AG42" t="n">
-        <v>9.75</v>
+        <v>10.5</v>
       </c>
       <c r="AH42" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI42" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AJ42" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AK42" t="n">
         <v>30</v>
       </c>
       <c r="AL42" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AM42" t="n">
         <v>500</v>
       </c>
       <c r="AN42" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="AO42" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AP42" t="n">
         <v>19.5</v>
@@ -8147,28 +8147,28 @@
         <v>2.67</v>
       </c>
       <c r="AU42" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AV42" t="n">
         <v>65</v>
       </c>
       <c r="AW42" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="AX42" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AY42" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AZ42" t="n">
         <v>100</v>
       </c>
       <c r="BA42" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="BB42" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="BC42" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-12.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-12.xlsx
@@ -1484,7 +1484,7 @@
         <v>2.9</v>
       </c>
       <c r="J6" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K6" t="n">
         <v>1.95</v>
@@ -1505,10 +1505,10 @@
         <v>2.63</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="R6" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="S6" t="n">
         <v>1.53</v>
@@ -1517,19 +1517,19 @@
         <v>2.38</v>
       </c>
       <c r="U6" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V6" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="W6" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X6" t="n">
         <v>11</v>
       </c>
       <c r="Y6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z6" t="n">
         <v>23</v>
@@ -1547,7 +1547,7 @@
         <v>6</v>
       </c>
       <c r="AE6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF6" t="n">
         <v>67</v>
@@ -1565,7 +1565,7 @@
         <v>29</v>
       </c>
       <c r="AK6" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL6" t="n">
         <v>41</v>
@@ -1595,7 +1595,7 @@
         <v>2.38</v>
       </c>
       <c r="AU6" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV6" t="n">
         <v>67</v>
@@ -1604,10 +1604,10 @@
         <v>4.75</v>
       </c>
       <c r="AX6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ6" t="n">
         <v>51</v>
@@ -1616,7 +1616,7 @@
         <v>101</v>
       </c>
       <c r="BB6" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BC6" t="n">
         <v>126</v>
@@ -1663,13 +1663,13 @@
         <v>3</v>
       </c>
       <c r="I7" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="J7" t="n">
         <v>3.1</v>
       </c>
       <c r="K7" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="L7" t="n">
         <v>4.75</v>
@@ -1717,7 +1717,7 @@
         <v>21</v>
       </c>
       <c r="AA7" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB7" t="n">
         <v>41</v>
@@ -1857,22 +1857,22 @@
         <v>3.75</v>
       </c>
       <c r="M8" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O8" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P8" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R8" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S8" t="n">
         <v>1.4</v>
@@ -3113,22 +3113,22 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="H15" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="I15" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L15" t="n">
         <v>5.5</v>
-      </c>
-      <c r="J15" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="K15" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L15" t="n">
-        <v>6</v>
       </c>
       <c r="M15" t="n">
         <v>1.06</v>
@@ -3143,10 +3143,10 @@
         <v>3.25</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R15" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S15" t="n">
         <v>1.44</v>
@@ -3155,22 +3155,22 @@
         <v>2.63</v>
       </c>
       <c r="U15" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V15" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="W15" t="n">
         <v>6</v>
       </c>
       <c r="X15" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Y15" t="n">
         <v>8.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA15" t="n">
         <v>15</v>
@@ -3182,46 +3182,46 @@
         <v>9</v>
       </c>
       <c r="AD15" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE15" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF15" t="n">
         <v>67</v>
       </c>
       <c r="AG15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH15" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI15" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ15" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AK15" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL15" t="n">
         <v>51</v>
       </c>
       <c r="AM15" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="AO15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP15" t="n">
         <v>21</v>
       </c>
       <c r="AQ15" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR15" t="n">
         <v>51</v>
@@ -3239,22 +3239,22 @@
         <v>67</v>
       </c>
       <c r="AW15" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AX15" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AY15" t="n">
         <v>41</v>
       </c>
       <c r="AZ15" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA15" t="n">
         <v>126</v>
       </c>
-      <c r="BA15" t="n">
-        <v>151</v>
-      </c>
       <c r="BB15" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BC15" t="n">
         <v>51</v>
@@ -3295,19 +3295,19 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="H16" t="n">
         <v>3.1</v>
       </c>
       <c r="I16" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="J16" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K16" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L16" t="n">
         <v>3.6</v>
@@ -3319,16 +3319,16 @@
         <v>9</v>
       </c>
       <c r="O16" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P16" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="R16" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S16" t="n">
         <v>1.5</v>
@@ -3337,10 +3337,10 @@
         <v>2.5</v>
       </c>
       <c r="U16" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="V16" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W16" t="n">
         <v>7</v>
@@ -3367,16 +3367,16 @@
         <v>6</v>
       </c>
       <c r="AE16" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF16" t="n">
         <v>51</v>
       </c>
       <c r="AG16" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI16" t="n">
         <v>11</v>
@@ -3406,7 +3406,7 @@
         <v>51</v>
       </c>
       <c r="AR16" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS16" t="n">
         <v>201</v>
@@ -3418,7 +3418,7 @@
         <v>8.5</v>
       </c>
       <c r="AV16" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW16" t="n">
         <v>4.75</v>
@@ -6935,46 +6935,46 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.92</v>
+        <v>2.87</v>
       </c>
       <c r="H36" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I36" t="n">
         <v>2.37</v>
       </c>
       <c r="J36" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="K36" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="L36" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="M36" t="n">
         <v>1.01</v>
       </c>
       <c r="N36" t="n">
-        <v>11.5</v>
+        <v>9.4</v>
       </c>
       <c r="O36" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P36" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="R36" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S36" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="T36" t="n">
-        <v>2.47</v>
+        <v>2.52</v>
       </c>
       <c r="U36" t="n">
         <v>1.62</v>
@@ -6983,10 +6983,10 @@
         <v>2.02</v>
       </c>
       <c r="W36" t="n">
-        <v>9</v>
+        <v>9.75</v>
       </c>
       <c r="X36" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Y36" t="n">
         <v>10.25</v>
@@ -6995,16 +6995,16 @@
         <v>37</v>
       </c>
       <c r="AA36" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB36" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AC36" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="AD36" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AE36" t="n">
         <v>12.5</v>
@@ -7013,67 +7013,67 @@
         <v>55</v>
       </c>
       <c r="AG36" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AH36" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AI36" t="n">
         <v>9</v>
       </c>
       <c r="AJ36" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK36" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AL36" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM36" t="n">
         <v>400</v>
       </c>
       <c r="AN36" t="n">
-        <v>4.85</v>
+        <v>4.8</v>
       </c>
       <c r="AO36" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AP36" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AQ36" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AR36" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AS36" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AT36" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AU36" t="n">
         <v>6.7</v>
       </c>
       <c r="AV36" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AW36" t="n">
         <v>4.3</v>
       </c>
       <c r="AX36" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AY36" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AZ36" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="BA36" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="BB36" t="n">
         <v>250</v>
@@ -7117,145 +7117,145 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.27</v>
+        <v>2.22</v>
       </c>
       <c r="H37" t="n">
-        <v>2.95</v>
+        <v>3.2</v>
       </c>
       <c r="I37" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="J37" t="n">
         <v>2.85</v>
       </c>
       <c r="K37" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="L37" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M37" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N37" t="n">
-        <v>6.95</v>
+        <v>7.1</v>
       </c>
       <c r="O37" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="P37" t="n">
-        <v>2.57</v>
+        <v>2.65</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="R37" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S37" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="T37" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="U37" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="V37" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="W37" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="X37" t="n">
-        <v>10.75</v>
+        <v>10</v>
       </c>
       <c r="Y37" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="Z37" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AA37" t="n">
         <v>20</v>
       </c>
       <c r="AB37" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AC37" t="n">
-        <v>7.4</v>
+        <v>8.25</v>
       </c>
       <c r="AD37" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="AE37" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>90</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AH37" t="n">
         <v>15</v>
       </c>
-      <c r="AF37" t="n">
-        <v>80</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>8</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AI37" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>37</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>800</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO37" t="n">
         <v>11.5</v>
       </c>
-      <c r="AJ37" t="n">
-        <v>45</v>
-      </c>
-      <c r="AK37" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL37" t="n">
-        <v>45</v>
-      </c>
-      <c r="AM37" t="n">
-        <v>700</v>
-      </c>
-      <c r="AN37" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="AO37" t="n">
-        <v>11.75</v>
-      </c>
       <c r="AP37" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AQ37" t="n">
         <v>50</v>
       </c>
       <c r="AR37" t="n">
+        <v>90</v>
+      </c>
+      <c r="AS37" t="n">
+        <v>300</v>
+      </c>
+      <c r="AT37" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AU37" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AV37" t="n">
+        <v>75</v>
+      </c>
+      <c r="AW37" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AX37" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY37" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ37" t="n">
         <v>80</v>
       </c>
-      <c r="AS37" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT37" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="AU37" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV37" t="n">
-        <v>65</v>
-      </c>
-      <c r="AW37" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX37" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AY37" t="n">
-        <v>27</v>
-      </c>
-      <c r="AZ37" t="n">
-        <v>100</v>
-      </c>
       <c r="BA37" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="BB37" t="n">
         <v>350</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-12.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-12.xlsx
@@ -2385,148 +2385,148 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3.4</v>
+        <v>3.85</v>
       </c>
       <c r="H11" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="I11" t="n">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="J11" t="n">
-        <v>4</v>
+        <v>4.35</v>
       </c>
       <c r="K11" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="L11" t="n">
-        <v>2.77</v>
+        <v>2.55</v>
       </c>
       <c r="M11" t="n">
         <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>6.5</v>
+        <v>6.55</v>
       </c>
       <c r="O11" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="P11" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="R11" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="S11" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="T11" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="U11" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="V11" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="W11" t="n">
-        <v>8</v>
+        <v>8.75</v>
       </c>
       <c r="X11" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>60</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>45</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>55</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>18</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>110</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AJ11" t="n">
         <v>16.5</v>
       </c>
-      <c r="Y11" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>50</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>37</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>50</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>100</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>20</v>
-      </c>
       <c r="AK11" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AL11" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AM11" t="n">
         <v>201</v>
       </c>
       <c r="AN11" t="n">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="AP11" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AQ11" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AR11" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AS11" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="AU11" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="AV11" t="n">
         <v>80</v>
       </c>
       <c r="AW11" t="n">
-        <v>3.85</v>
+        <v>3.65</v>
       </c>
       <c r="AX11" t="n">
-        <v>11.25</v>
+        <v>9.75</v>
       </c>
       <c r="AY11" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ11" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="BA11" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="BB11" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="BC11" t="n">
         <v>51</v>
@@ -2770,7 +2770,7 @@
         <v>1.03</v>
       </c>
       <c r="N13" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O13" t="n">
         <v>1.17</v>
@@ -3209,7 +3209,7 @@
         <v>51</v>
       </c>
       <c r="AM15" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="AN15" t="n">
         <v>3.6</v>
@@ -3295,13 +3295,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="H16" t="n">
         <v>3.1</v>
       </c>
       <c r="I16" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="J16" t="n">
         <v>3.2</v>
@@ -3316,7 +3316,7 @@
         <v>1.07</v>
       </c>
       <c r="N16" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O16" t="n">
         <v>1.36</v>
@@ -3331,10 +3331,10 @@
         <v>1.67</v>
       </c>
       <c r="S16" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T16" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U16" t="n">
         <v>1.83</v>
@@ -3343,7 +3343,7 @@
         <v>1.83</v>
       </c>
       <c r="W16" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X16" t="n">
         <v>11</v>
@@ -3361,7 +3361,7 @@
         <v>34</v>
       </c>
       <c r="AC16" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD16" t="n">
         <v>6</v>
@@ -3373,10 +3373,10 @@
         <v>51</v>
       </c>
       <c r="AG16" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AH16" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI16" t="n">
         <v>11</v>
@@ -3388,13 +3388,13 @@
         <v>26</v>
       </c>
       <c r="AL16" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM16" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AN16" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO16" t="n">
         <v>15</v>
@@ -3412,7 +3412,7 @@
         <v>201</v>
       </c>
       <c r="AT16" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU16" t="n">
         <v>8.5</v>
@@ -3659,10 +3659,10 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="H18" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I18" t="n">
         <v>2.52</v>
@@ -3680,34 +3680,34 @@
         <v>1.07</v>
       </c>
       <c r="N18" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="O18" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="P18" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="R18" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="S18" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="T18" t="n">
-        <v>2.72</v>
+        <v>2.67</v>
       </c>
       <c r="U18" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="V18" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="W18" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="X18" t="n">
         <v>12</v>
@@ -3716,31 +3716,31 @@
         <v>10</v>
       </c>
       <c r="Z18" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AA18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AB18" t="n">
         <v>35</v>
       </c>
       <c r="AC18" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AD18" t="n">
         <v>6.4</v>
       </c>
       <c r="AE18" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AF18" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AG18" t="n">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="AH18" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AI18" t="n">
         <v>9.75</v>
@@ -3752,10 +3752,10 @@
         <v>22</v>
       </c>
       <c r="AL18" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AM18" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AN18" t="n">
         <v>4.5</v>
@@ -3764,7 +3764,7 @@
         <v>13.5</v>
       </c>
       <c r="AP18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ18" t="n">
         <v>60</v>
@@ -3776,13 +3776,13 @@
         <v>300</v>
       </c>
       <c r="AT18" t="n">
-        <v>2.72</v>
+        <v>2.67</v>
       </c>
       <c r="AU18" t="n">
         <v>7.3</v>
       </c>
       <c r="AV18" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AW18" t="n">
         <v>4.4</v>
@@ -3794,7 +3794,7 @@
         <v>22</v>
       </c>
       <c r="AZ18" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="BA18" t="n">
         <v>100</v>
@@ -3859,10 +3859,10 @@
         <v>3.75</v>
       </c>
       <c r="M19" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N19" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O19" t="n">
         <v>1.5</v>
@@ -4235,10 +4235,10 @@
         <v>3.25</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R21" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S21" t="n">
         <v>1.44</v>
@@ -6953,10 +6953,10 @@
         <v>3</v>
       </c>
       <c r="M36" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N36" t="n">
-        <v>9.4</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="O36" t="n">
         <v>1.28</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-12.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-12.xlsx
@@ -2394,13 +2394,13 @@
         <v>1.95</v>
       </c>
       <c r="J11" t="n">
-        <v>4.35</v>
+        <v>4.3</v>
       </c>
       <c r="K11" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="L11" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="M11" t="n">
         <v>1.04</v>
@@ -2433,10 +2433,10 @@
         <v>1.65</v>
       </c>
       <c r="W11" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="X11" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Y11" t="n">
         <v>13.5</v>
@@ -2445,7 +2445,7 @@
         <v>60</v>
       </c>
       <c r="AA11" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AB11" t="n">
         <v>55</v>
@@ -2457,13 +2457,13 @@
         <v>6.2</v>
       </c>
       <c r="AE11" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AF11" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AG11" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AH11" t="n">
         <v>8.25</v>
@@ -2475,10 +2475,10 @@
         <v>16.5</v>
       </c>
       <c r="AK11" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AL11" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AM11" t="n">
         <v>201</v>
@@ -2490,22 +2490,22 @@
         <v>22</v>
       </c>
       <c r="AP11" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AQ11" t="n">
         <v>120</v>
       </c>
       <c r="AR11" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AS11" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AT11" t="n">
         <v>2.35</v>
       </c>
       <c r="AU11" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AV11" t="n">
         <v>80</v>
@@ -2514,13 +2514,13 @@
         <v>3.65</v>
       </c>
       <c r="AX11" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AY11" t="n">
         <v>21</v>
       </c>
       <c r="AZ11" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="BA11" t="n">
         <v>80</v>
@@ -2570,25 +2570,25 @@
         <v>1.7</v>
       </c>
       <c r="H12" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I12" t="n">
         <v>4.4</v>
       </c>
       <c r="J12" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K12" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="L12" t="n">
-        <v>4.6</v>
+        <v>4.65</v>
       </c>
       <c r="M12" t="n">
         <v>1.01</v>
       </c>
       <c r="N12" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="O12" t="n">
         <v>1.22</v>
@@ -2609,22 +2609,22 @@
         <v>3.14</v>
       </c>
       <c r="U12" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="V12" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="W12" t="n">
         <v>8</v>
       </c>
       <c r="X12" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="Y12" t="n">
         <v>8</v>
       </c>
       <c r="Z12" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AA12" t="n">
         <v>12.5</v>
@@ -2633,25 +2633,25 @@
         <v>22</v>
       </c>
       <c r="AC12" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AD12" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="AE12" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AF12" t="n">
         <v>55</v>
       </c>
       <c r="AG12" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH12" t="n">
         <v>27</v>
       </c>
       <c r="AI12" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AJ12" t="n">
         <v>75</v>
@@ -2666,16 +2666,16 @@
         <v>400</v>
       </c>
       <c r="AN12" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="AO12" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AP12" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AQ12" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AR12" t="n">
         <v>50</v>
@@ -2684,19 +2684,19 @@
         <v>175</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="AU12" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AV12" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AW12" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AX12" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AY12" t="n">
         <v>28</v>
@@ -3113,28 +3113,28 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H15" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I15" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J15" t="n">
         <v>2.3</v>
       </c>
       <c r="K15" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L15" t="n">
         <v>5.5</v>
       </c>
       <c r="M15" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O15" t="n">
         <v>1.33</v>
@@ -3143,10 +3143,10 @@
         <v>3.25</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R15" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="S15" t="n">
         <v>1.44</v>
@@ -3164,7 +3164,7 @@
         <v>6</v>
       </c>
       <c r="X15" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Y15" t="n">
         <v>8.5</v>
@@ -3182,7 +3182,7 @@
         <v>9</v>
       </c>
       <c r="AD15" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE15" t="n">
         <v>19</v>
@@ -3212,10 +3212,10 @@
         <v>1250</v>
       </c>
       <c r="AN15" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO15" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AP15" t="n">
         <v>21</v>
@@ -3239,7 +3239,7 @@
         <v>67</v>
       </c>
       <c r="AW15" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AX15" t="n">
         <v>29</v>
@@ -3251,7 +3251,7 @@
         <v>101</v>
       </c>
       <c r="BA15" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB15" t="n">
         <v>301</v>
@@ -6759,16 +6759,16 @@
         <v>3.4</v>
       </c>
       <c r="I35" t="n">
-        <v>4.3</v>
+        <v>4.25</v>
       </c>
       <c r="J35" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="K35" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="L35" t="n">
-        <v>4.5</v>
+        <v>4.55</v>
       </c>
       <c r="M35" t="n">
         <v>1.01</v>
@@ -6783,10 +6783,10 @@
         <v>2.92</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R35" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="S35" t="n">
         <v>1.47</v>
@@ -6801,10 +6801,10 @@
         <v>1.8</v>
       </c>
       <c r="W35" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="X35" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="Y35" t="n">
         <v>8.25</v>
@@ -6813,7 +6813,7 @@
         <v>14.5</v>
       </c>
       <c r="AA35" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AB35" t="n">
         <v>28</v>
@@ -6822,19 +6822,19 @@
         <v>9.25</v>
       </c>
       <c r="AD35" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AE35" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AF35" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AG35" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="AH35" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI35" t="n">
         <v>14</v>
@@ -6843,55 +6843,55 @@
         <v>70</v>
       </c>
       <c r="AK35" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AL35" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AM35" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AN35" t="n">
         <v>3.6</v>
       </c>
       <c r="AO35" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AP35" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AQ35" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AR35" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AS35" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AT35" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="AU35" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AV35" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AW35" t="n">
         <v>6</v>
       </c>
       <c r="AX35" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AY35" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AZ35" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="BA35" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="BB35" t="n">
         <v>350</v>
@@ -6935,22 +6935,22 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="H36" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I36" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="J36" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K36" t="n">
         <v>2.02</v>
       </c>
       <c r="L36" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="M36" t="n">
         <v>1.02</v>
@@ -6983,10 +6983,10 @@
         <v>2.02</v>
       </c>
       <c r="W36" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="X36" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Y36" t="n">
         <v>10.25</v>
@@ -6995,10 +6995,10 @@
         <v>37</v>
       </c>
       <c r="AA36" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AB36" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AC36" t="n">
         <v>9.75</v>
@@ -7013,7 +7013,7 @@
         <v>55</v>
       </c>
       <c r="AG36" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AH36" t="n">
         <v>12</v>
@@ -7025,10 +7025,10 @@
         <v>25</v>
       </c>
       <c r="AK36" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AL36" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AM36" t="n">
         <v>400</v>
@@ -7037,13 +7037,13 @@
         <v>4.8</v>
       </c>
       <c r="AO36" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AP36" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ36" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AR36" t="n">
         <v>100</v>
@@ -7064,16 +7064,16 @@
         <v>4.3</v>
       </c>
       <c r="AX36" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AY36" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AZ36" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="BA36" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="BB36" t="n">
         <v>250</v>
@@ -7129,7 +7129,7 @@
         <v>2.85</v>
       </c>
       <c r="K37" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="L37" t="n">
         <v>3.6</v>
@@ -7177,7 +7177,7 @@
         <v>21</v>
       </c>
       <c r="AA37" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AB37" t="n">
         <v>35</v>
@@ -7198,7 +7198,7 @@
         <v>8.25</v>
       </c>
       <c r="AH37" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AI37" t="n">
         <v>11.25</v>
@@ -7234,10 +7234,10 @@
         <v>300</v>
       </c>
       <c r="AT37" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="AU37" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AV37" t="n">
         <v>75</v>
@@ -7258,7 +7258,7 @@
         <v>120</v>
       </c>
       <c r="BB37" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="BC37" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-12.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-12.xlsx
@@ -2567,22 +2567,22 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="H12" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I12" t="n">
         <v>4.4</v>
       </c>
       <c r="J12" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K12" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="L12" t="n">
-        <v>4.65</v>
+        <v>4.6</v>
       </c>
       <c r="M12" t="n">
         <v>1.01</v>
@@ -2609,22 +2609,22 @@
         <v>3.14</v>
       </c>
       <c r="U12" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="V12" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="W12" t="n">
         <v>8</v>
       </c>
       <c r="X12" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="Y12" t="n">
         <v>8</v>
       </c>
       <c r="Z12" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AA12" t="n">
         <v>12.5</v>
@@ -2636,10 +2636,10 @@
         <v>12</v>
       </c>
       <c r="AD12" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="AE12" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AF12" t="n">
         <v>55</v>
@@ -2651,7 +2651,7 @@
         <v>27</v>
       </c>
       <c r="AI12" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AJ12" t="n">
         <v>75</v>
@@ -2663,19 +2663,19 @@
         <v>40</v>
       </c>
       <c r="AM12" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AN12" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="AO12" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AP12" t="n">
         <v>16</v>
       </c>
       <c r="AQ12" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AR12" t="n">
         <v>50</v>
@@ -2684,19 +2684,19 @@
         <v>175</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.92</v>
+        <v>2.87</v>
       </c>
       <c r="AU12" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AV12" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AW12" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AX12" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AY12" t="n">
         <v>28</v>
@@ -3316,7 +3316,7 @@
         <v>1.07</v>
       </c>
       <c r="N16" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O16" t="n">
         <v>1.36</v>
@@ -3325,10 +3325,10 @@
         <v>3</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R16" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S16" t="n">
         <v>1.44</v>
@@ -3495,16 +3495,16 @@
         <v>3.5</v>
       </c>
       <c r="M17" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N17" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="O17" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P17" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q17" t="n">
         <v>2.1</v>
@@ -3665,13 +3665,13 @@
         <v>3.35</v>
       </c>
       <c r="I18" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="J18" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K18" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="L18" t="n">
         <v>3.1</v>
@@ -3680,19 +3680,19 @@
         <v>1.07</v>
       </c>
       <c r="N18" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="O18" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="P18" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="R18" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="S18" t="n">
         <v>1.42</v>
@@ -3701,16 +3701,16 @@
         <v>2.67</v>
       </c>
       <c r="U18" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="V18" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="W18" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="X18" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Y18" t="n">
         <v>10</v>
@@ -3719,49 +3719,49 @@
         <v>28</v>
       </c>
       <c r="AA18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AB18" t="n">
         <v>35</v>
       </c>
       <c r="AC18" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AD18" t="n">
         <v>6.4</v>
       </c>
       <c r="AE18" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AF18" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AG18" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="AH18" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AI18" t="n">
         <v>9.75</v>
       </c>
       <c r="AJ18" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AK18" t="n">
         <v>22</v>
       </c>
       <c r="AL18" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AM18" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AN18" t="n">
         <v>4.5</v>
       </c>
       <c r="AO18" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AP18" t="n">
         <v>23</v>
@@ -3785,7 +3785,7 @@
         <v>70</v>
       </c>
       <c r="AW18" t="n">
-        <v>4.4</v>
+        <v>4.45</v>
       </c>
       <c r="AX18" t="n">
         <v>13.5</v>
@@ -5479,46 +5479,46 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.75</v>
+        <v>2.57</v>
       </c>
       <c r="H28" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I28" t="n">
-        <v>2.37</v>
+        <v>2.52</v>
       </c>
       <c r="J28" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="K28" t="n">
         <v>2.07</v>
       </c>
       <c r="L28" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="M28" t="n">
         <v>1.06</v>
       </c>
       <c r="N28" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="O28" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P28" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="R28" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="S28" t="n">
         <v>1.42</v>
       </c>
       <c r="T28" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="U28" t="n">
         <v>1.7</v>
@@ -5530,25 +5530,25 @@
         <v>8.75</v>
       </c>
       <c r="X28" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y28" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="Z28" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AA28" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AB28" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AC28" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AD28" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AE28" t="n">
         <v>13</v>
@@ -5557,70 +5557,70 @@
         <v>60</v>
       </c>
       <c r="AG28" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AH28" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AI28" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AJ28" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AK28" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL28" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AM28" t="n">
         <v>450</v>
       </c>
       <c r="AN28" t="n">
-        <v>4.75</v>
+        <v>4.55</v>
       </c>
       <c r="AO28" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AP28" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ28" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AR28" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AS28" t="n">
         <v>300</v>
       </c>
       <c r="AT28" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="AU28" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AV28" t="n">
+        <v>65</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>14</v>
+      </c>
+      <c r="AY28" t="n">
+        <v>22</v>
+      </c>
+      <c r="AZ28" t="n">
         <v>60</v>
       </c>
-      <c r="AW28" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="AX28" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AY28" t="n">
-        <v>20</v>
-      </c>
-      <c r="AZ28" t="n">
-        <v>55</v>
-      </c>
       <c r="BA28" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="BB28" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BC28" t="n">
         <v>51</v>
@@ -5661,31 +5661,31 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="H29" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I29" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="J29" t="n">
         <v>3.1</v>
       </c>
       <c r="K29" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="L29" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="M29" t="n">
         <v>1.05</v>
       </c>
       <c r="N29" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="O29" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P29" t="n">
         <v>3.45</v>
@@ -5694,13 +5694,13 @@
         <v>1.8</v>
       </c>
       <c r="R29" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S29" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="T29" t="n">
-        <v>2.82</v>
+        <v>2.87</v>
       </c>
       <c r="U29" t="n">
         <v>1.65</v>
@@ -5727,10 +5727,10 @@
         <v>28</v>
       </c>
       <c r="AC29" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AD29" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="AE29" t="n">
         <v>13.5</v>
@@ -5742,16 +5742,16 @@
         <v>9.25</v>
       </c>
       <c r="AH29" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AI29" t="n">
         <v>9.5</v>
       </c>
       <c r="AJ29" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK29" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AL29" t="n">
         <v>27</v>
@@ -5778,28 +5778,28 @@
         <v>250</v>
       </c>
       <c r="AT29" t="n">
-        <v>2.82</v>
+        <v>2.87</v>
       </c>
       <c r="AU29" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AV29" t="n">
         <v>60</v>
       </c>
       <c r="AW29" t="n">
-        <v>4.5</v>
+        <v>4.45</v>
       </c>
       <c r="AX29" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AY29" t="n">
         <v>20</v>
       </c>
       <c r="AZ29" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="BA29" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="BB29" t="n">
         <v>250</v>
@@ -5858,7 +5858,7 @@
         <v>2.62</v>
       </c>
       <c r="L30" t="n">
-        <v>4.75</v>
+        <v>4.8</v>
       </c>
       <c r="M30" t="n">
         <v>1.02</v>
@@ -5870,13 +5870,13 @@
         <v>1.13</v>
       </c>
       <c r="P30" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="R30" t="n">
-        <v>2.7</v>
+        <v>2.67</v>
       </c>
       <c r="S30" t="n">
         <v>1.23</v>
@@ -5939,7 +5939,7 @@
         <v>35</v>
       </c>
       <c r="AM30" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AN30" t="n">
         <v>3.85</v>
@@ -5951,7 +5951,7 @@
         <v>12.5</v>
       </c>
       <c r="AQ30" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AR30" t="n">
         <v>32</v>
@@ -5963,13 +5963,13 @@
         <v>3.75</v>
       </c>
       <c r="AU30" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AV30" t="n">
         <v>45</v>
       </c>
       <c r="AW30" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AX30" t="n">
         <v>25</v>
@@ -6025,13 +6025,13 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="H31" t="n">
         <v>3.6</v>
       </c>
       <c r="I31" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J31" t="n">
         <v>2.32</v>
@@ -6040,7 +6040,7 @@
         <v>2.2</v>
       </c>
       <c r="L31" t="n">
-        <v>4.45</v>
+        <v>4.5</v>
       </c>
       <c r="M31" t="n">
         <v>1.05</v>
@@ -6055,7 +6055,7 @@
         <v>3.4</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="R31" t="n">
         <v>1.91</v>
@@ -6064,7 +6064,7 @@
         <v>1.38</v>
       </c>
       <c r="T31" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="U31" t="n">
         <v>1.78</v>
@@ -6073,10 +6073,10 @@
         <v>1.93</v>
       </c>
       <c r="W31" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="X31" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="Y31" t="n">
         <v>8.25</v>
@@ -6109,7 +6109,7 @@
         <v>23</v>
       </c>
       <c r="AI31" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AJ31" t="n">
         <v>65</v>
@@ -6130,10 +6130,10 @@
         <v>8.75</v>
       </c>
       <c r="AP31" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AQ31" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AR31" t="n">
         <v>60</v>
@@ -6142,16 +6142,16 @@
         <v>250</v>
       </c>
       <c r="AT31" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="AU31" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AV31" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AW31" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AX31" t="n">
         <v>23</v>
@@ -6207,7 +6207,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="H32" t="n">
         <v>3.15</v>
@@ -6222,7 +6222,7 @@
         <v>2.07</v>
       </c>
       <c r="L32" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="M32" t="n">
         <v>1.06</v>
@@ -6240,7 +6240,7 @@
         <v>1.88</v>
       </c>
       <c r="R32" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="S32" t="n">
         <v>1.4</v>
@@ -6333,7 +6333,7 @@
         <v>55</v>
       </c>
       <c r="AW32" t="n">
-        <v>4.6</v>
+        <v>4.55</v>
       </c>
       <c r="AX32" t="n">
         <v>14</v>
@@ -6392,16 +6392,16 @@
         <v>3.2</v>
       </c>
       <c r="H33" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I33" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="J33" t="n">
         <v>3.7</v>
       </c>
       <c r="K33" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="L33" t="n">
         <v>2.55</v>
@@ -6416,7 +6416,7 @@
         <v>1.24</v>
       </c>
       <c r="P33" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="Q33" t="n">
         <v>1.72</v>
@@ -6425,10 +6425,10 @@
         <v>2.05</v>
       </c>
       <c r="S33" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="T33" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="U33" t="n">
         <v>1.65</v>
@@ -6437,13 +6437,13 @@
         <v>2.1</v>
       </c>
       <c r="W33" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="X33" t="n">
         <v>18</v>
       </c>
       <c r="Y33" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="Z33" t="n">
         <v>40</v>
@@ -6482,19 +6482,19 @@
         <v>15</v>
       </c>
       <c r="AL33" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AM33" t="n">
         <v>350</v>
       </c>
       <c r="AN33" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="AO33" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AP33" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AQ33" t="n">
         <v>80</v>
@@ -6506,7 +6506,7 @@
         <v>300</v>
       </c>
       <c r="AT33" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="AU33" t="n">
         <v>7.1</v>
@@ -6521,7 +6521,7 @@
         <v>10</v>
       </c>
       <c r="AY33" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AZ33" t="n">
         <v>35</v>
@@ -7299,10 +7299,10 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="H38" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="I38" t="n">
         <v>1.24</v>
@@ -7323,7 +7323,7 @@
         <v>8.25</v>
       </c>
       <c r="O38" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P38" t="n">
         <v>3.8</v>
@@ -7335,28 +7335,28 @@
         <v>2.07</v>
       </c>
       <c r="S38" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="T38" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="U38" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="V38" t="n">
         <v>1.55</v>
       </c>
       <c r="W38" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X38" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="Y38" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Z38" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AA38" t="n">
         <v>175</v>
@@ -7368,10 +7368,10 @@
         <v>8.25</v>
       </c>
       <c r="AD38" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AE38" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF38" t="n">
         <v>175</v>
@@ -7386,10 +7386,10 @@
         <v>9.25</v>
       </c>
       <c r="AJ38" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AK38" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AL38" t="n">
         <v>37</v>
@@ -7398,13 +7398,13 @@
         <v>1000</v>
       </c>
       <c r="AN38" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AO38" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AP38" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AQ38" t="n">
         <v>500</v>
@@ -7416,7 +7416,7 @@
         <v>51</v>
       </c>
       <c r="AT38" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="AU38" t="n">
         <v>10</v>
@@ -7484,19 +7484,19 @@
         <v>1.39</v>
       </c>
       <c r="H39" t="n">
-        <v>4.5</v>
+        <v>4.45</v>
       </c>
       <c r="I39" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="J39" t="n">
         <v>1.85</v>
       </c>
       <c r="K39" t="n">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="L39" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="M39" t="n">
         <v>1.03</v>
@@ -7523,28 +7523,28 @@
         <v>3.3</v>
       </c>
       <c r="U39" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="V39" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="W39" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="X39" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="Y39" t="n">
         <v>8.25</v>
       </c>
       <c r="Z39" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AA39" t="n">
         <v>10.75</v>
       </c>
       <c r="AB39" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AC39" t="n">
         <v>9</v>
@@ -7559,7 +7559,7 @@
         <v>70</v>
       </c>
       <c r="AG39" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH39" t="n">
         <v>45</v>
@@ -7589,7 +7589,7 @@
         <v>14.5</v>
       </c>
       <c r="AQ39" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AR39" t="n">
         <v>40</v>
@@ -7604,7 +7604,7 @@
         <v>7.8</v>
       </c>
       <c r="AV39" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AW39" t="n">
         <v>8</v>
@@ -7616,10 +7616,10 @@
         <v>35</v>
       </c>
       <c r="AZ39" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="BA39" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="BB39" t="n">
         <v>400</v>
@@ -7672,7 +7672,7 @@
         <v>3.35</v>
       </c>
       <c r="J40" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="K40" t="n">
         <v>2.32</v>
@@ -7705,16 +7705,16 @@
         <v>3.25</v>
       </c>
       <c r="U40" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="V40" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="W40" t="n">
         <v>10.5</v>
       </c>
       <c r="X40" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="Y40" t="n">
         <v>8.5</v>
@@ -7726,7 +7726,7 @@
         <v>13.5</v>
       </c>
       <c r="AB40" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AC40" t="n">
         <v>9</v>
@@ -7735,7 +7735,7 @@
         <v>7.6</v>
       </c>
       <c r="AE40" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AF40" t="n">
         <v>40</v>
@@ -7759,13 +7759,13 @@
         <v>27</v>
       </c>
       <c r="AM40" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AN40" t="n">
         <v>4.15</v>
       </c>
       <c r="AO40" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AP40" t="n">
         <v>14.5</v>
@@ -7774,7 +7774,7 @@
         <v>30</v>
       </c>
       <c r="AR40" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AS40" t="n">
         <v>150</v>
@@ -7845,19 +7845,19 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="H41" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I41" t="n">
         <v>1.88</v>
       </c>
       <c r="J41" t="n">
-        <v>4.1</v>
+        <v>4.15</v>
       </c>
       <c r="K41" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="L41" t="n">
         <v>2.52</v>
@@ -7866,7 +7866,7 @@
         <v>1.06</v>
       </c>
       <c r="N41" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="O41" t="n">
         <v>1.28</v>
@@ -7875,7 +7875,7 @@
         <v>3.3</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="R41" t="n">
         <v>1.88</v>
@@ -7887,16 +7887,16 @@
         <v>2.72</v>
       </c>
       <c r="U41" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="V41" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="W41" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="X41" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y41" t="n">
         <v>12.5</v>
@@ -7911,10 +7911,10 @@
         <v>37</v>
       </c>
       <c r="AC41" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AD41" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AE41" t="n">
         <v>14</v>
@@ -7923,10 +7923,10 @@
         <v>60</v>
       </c>
       <c r="AG41" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AH41" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AI41" t="n">
         <v>8.25</v>
@@ -7938,7 +7938,7 @@
         <v>15</v>
       </c>
       <c r="AL41" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AM41" t="n">
         <v>450</v>
@@ -7950,7 +7950,7 @@
         <v>21</v>
       </c>
       <c r="AP41" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AQ41" t="n">
         <v>110</v>
@@ -7965,7 +7965,7 @@
         <v>2.72</v>
       </c>
       <c r="AU41" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AV41" t="n">
         <v>65</v>
@@ -7974,7 +7974,7 @@
         <v>3.8</v>
       </c>
       <c r="AX41" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AY41" t="n">
         <v>19</v>
@@ -8033,7 +8033,7 @@
         <v>3.3</v>
       </c>
       <c r="I42" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="J42" t="n">
         <v>2.65</v>
@@ -8060,7 +8060,7 @@
         <v>1.91</v>
       </c>
       <c r="R42" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="S42" t="n">
         <v>1.42</v>
@@ -8072,7 +8072,7 @@
         <v>1.75</v>
       </c>
       <c r="V42" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="W42" t="n">
         <v>7.3</v>
@@ -8096,7 +8096,7 @@
         <v>7.2</v>
       </c>
       <c r="AD42" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AE42" t="n">
         <v>14</v>
@@ -8108,13 +8108,13 @@
         <v>10.5</v>
       </c>
       <c r="AH42" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AI42" t="n">
         <v>11.75</v>
       </c>
       <c r="AJ42" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AK42" t="n">
         <v>30</v>
@@ -8147,7 +8147,7 @@
         <v>2.67</v>
       </c>
       <c r="AU42" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AV42" t="n">
         <v>65</v>
@@ -8156,19 +8156,19 @@
         <v>5.3</v>
       </c>
       <c r="AX42" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AY42" t="n">
         <v>25</v>
       </c>
       <c r="AZ42" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="BA42" t="n">
         <v>120</v>
       </c>
       <c r="BB42" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="BC42" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-12.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-12.xlsx
@@ -777,10 +777,10 @@
         <v>3.4</v>
       </c>
       <c r="Q2" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="R2" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="S2" t="n">
         <v>1.4</v>
@@ -962,7 +962,7 @@
         <v>2.4</v>
       </c>
       <c r="R3" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S3" t="n">
         <v>1.53</v>
@@ -974,7 +974,7 @@
         <v>2.25</v>
       </c>
       <c r="V3" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="W3" t="n">
         <v>5</v>
@@ -1144,7 +1144,7 @@
         <v>3.1</v>
       </c>
       <c r="R4" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="S4" t="n">
         <v>1.67</v>
@@ -1156,7 +1156,7 @@
         <v>2.5</v>
       </c>
       <c r="V4" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="W4" t="n">
         <v>5.5</v>
@@ -1875,7 +1875,7 @@
         <v>1.88</v>
       </c>
       <c r="S8" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="T8" t="n">
         <v>2.75</v>
@@ -2567,22 +2567,22 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="H12" t="n">
         <v>3.6</v>
       </c>
       <c r="I12" t="n">
-        <v>4.4</v>
+        <v>4.15</v>
       </c>
       <c r="J12" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="K12" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="L12" t="n">
-        <v>4.6</v>
+        <v>4.45</v>
       </c>
       <c r="M12" t="n">
         <v>1.01</v>
@@ -2615,10 +2615,10 @@
         <v>2.02</v>
       </c>
       <c r="W12" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="X12" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="Y12" t="n">
         <v>8</v>
@@ -2627,7 +2627,7 @@
         <v>14.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AB12" t="n">
         <v>22</v>
@@ -2636,40 +2636,40 @@
         <v>12</v>
       </c>
       <c r="AD12" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AE12" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AF12" t="n">
         <v>55</v>
       </c>
       <c r="AG12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH12" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AI12" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AJ12" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AK12" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AL12" t="n">
         <v>40</v>
       </c>
       <c r="AM12" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AN12" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="AO12" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AP12" t="n">
         <v>16</v>
@@ -2684,25 +2684,25 @@
         <v>175</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="AU12" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AV12" t="n">
         <v>55</v>
       </c>
       <c r="AW12" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AX12" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AY12" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AZ12" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="BA12" t="n">
         <v>150</v>
@@ -3331,10 +3331,10 @@
         <v>1.65</v>
       </c>
       <c r="S16" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="T16" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="U16" t="n">
         <v>1.83</v>
@@ -3513,10 +3513,10 @@
         <v>1.7</v>
       </c>
       <c r="S17" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="T17" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="U17" t="n">
         <v>1.83</v>
@@ -4241,10 +4241,10 @@
         <v>1.73</v>
       </c>
       <c r="S21" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="T21" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="U21" t="n">
         <v>2</v>
@@ -4969,10 +4969,10 @@
         <v>1.67</v>
       </c>
       <c r="S25" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="T25" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="U25" t="n">
         <v>1.83</v>
@@ -5151,7 +5151,7 @@
         <v>2.88</v>
       </c>
       <c r="S26" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="T26" t="n">
         <v>4</v>
@@ -5661,10 +5661,10 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="H29" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I29" t="n">
         <v>2.4</v>
@@ -5673,46 +5673,46 @@
         <v>3.1</v>
       </c>
       <c r="K29" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="L29" t="n">
         <v>3</v>
       </c>
       <c r="M29" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N29" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="O29" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="P29" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="R29" t="n">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="S29" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="T29" t="n">
-        <v>2.87</v>
+        <v>2.92</v>
       </c>
       <c r="U29" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="V29" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="W29" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="X29" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Y29" t="n">
         <v>9.75</v>
@@ -5721,28 +5721,28 @@
         <v>27</v>
       </c>
       <c r="AA29" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AB29" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AC29" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="AD29" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AE29" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AF29" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AG29" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AH29" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AI29" t="n">
         <v>9.5</v>
@@ -5751,49 +5751,49 @@
         <v>25</v>
       </c>
       <c r="AK29" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AL29" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AM29" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AN29" t="n">
-        <v>4.55</v>
+        <v>4.6</v>
       </c>
       <c r="AO29" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AP29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ29" t="n">
         <v>55</v>
       </c>
       <c r="AR29" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AS29" t="n">
         <v>250</v>
       </c>
       <c r="AT29" t="n">
-        <v>2.87</v>
+        <v>2.92</v>
       </c>
       <c r="AU29" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AV29" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AW29" t="n">
-        <v>4.45</v>
+        <v>4.5</v>
       </c>
       <c r="AX29" t="n">
         <v>12.5</v>
       </c>
       <c r="AY29" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AZ29" t="n">
         <v>50</v>
@@ -6762,7 +6762,7 @@
         <v>4.25</v>
       </c>
       <c r="J35" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="K35" t="n">
         <v>2.15</v>
@@ -6774,19 +6774,19 @@
         <v>1.01</v>
       </c>
       <c r="N35" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="O35" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="P35" t="n">
-        <v>2.92</v>
+        <v>2.87</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R35" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S35" t="n">
         <v>1.47</v>
@@ -6795,16 +6795,16 @@
         <v>2.32</v>
       </c>
       <c r="U35" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="V35" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="W35" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="X35" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="Y35" t="n">
         <v>8.25</v>
@@ -6813,16 +6813,16 @@
         <v>14.5</v>
       </c>
       <c r="AA35" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AB35" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AC35" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AD35" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AE35" t="n">
         <v>16</v>
@@ -6831,7 +6831,7 @@
         <v>80</v>
       </c>
       <c r="AG35" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AH35" t="n">
         <v>23</v>
@@ -6858,19 +6858,19 @@
         <v>8.5</v>
       </c>
       <c r="AP35" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AQ35" t="n">
         <v>29</v>
       </c>
       <c r="AR35" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AS35" t="n">
         <v>200</v>
       </c>
       <c r="AT35" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="AU35" t="n">
         <v>7.2</v>
@@ -6888,7 +6888,7 @@
         <v>29</v>
       </c>
       <c r="AZ35" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="BA35" t="n">
         <v>175</v>
@@ -7299,7 +7299,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="H38" t="n">
         <v>5.1</v>
@@ -7323,10 +7323,10 @@
         <v>8.25</v>
       </c>
       <c r="O38" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P38" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="Q38" t="n">
         <v>1.7</v>
@@ -7335,19 +7335,19 @@
         <v>2.07</v>
       </c>
       <c r="S38" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="T38" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="U38" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="V38" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="W38" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X38" t="n">
         <v>80</v>
@@ -7356,7 +7356,7 @@
         <v>35</v>
       </c>
       <c r="Z38" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AA38" t="n">
         <v>175</v>
@@ -7383,7 +7383,7 @@
         <v>5.5</v>
       </c>
       <c r="AI38" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AJ38" t="n">
         <v>6.8</v>
@@ -7416,13 +7416,13 @@
         <v>51</v>
       </c>
       <c r="AT38" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="AU38" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AV38" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AW38" t="n">
         <v>2.95</v>
@@ -7431,13 +7431,13 @@
         <v>5.3</v>
       </c>
       <c r="AY38" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AZ38" t="n">
         <v>13.5</v>
       </c>
       <c r="BA38" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="BB38" t="n">
         <v>300</v>
@@ -7481,16 +7481,16 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="H39" t="n">
-        <v>4.45</v>
+        <v>4.4</v>
       </c>
       <c r="I39" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="J39" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="K39" t="n">
         <v>2.47</v>
@@ -7502,19 +7502,19 @@
         <v>1.03</v>
       </c>
       <c r="N39" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="O39" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P39" t="n">
-        <v>4.3</v>
+        <v>4.45</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="R39" t="n">
-        <v>2.3</v>
+        <v>2.37</v>
       </c>
       <c r="S39" t="n">
         <v>1.29</v>
@@ -7523,40 +7523,40 @@
         <v>3.3</v>
       </c>
       <c r="U39" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="V39" t="n">
-        <v>1.93</v>
+        <v>2.02</v>
       </c>
       <c r="W39" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="X39" t="n">
-        <v>7.4</v>
+        <v>7.9</v>
       </c>
       <c r="Y39" t="n">
         <v>8.25</v>
       </c>
       <c r="Z39" t="n">
-        <v>9.5</v>
+        <v>10.25</v>
       </c>
       <c r="AA39" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AB39" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC39" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AD39" t="n">
         <v>9.25</v>
       </c>
       <c r="AE39" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AF39" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AG39" t="n">
         <v>21</v>
@@ -7571,37 +7571,37 @@
         <v>150</v>
       </c>
       <c r="AK39" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AL39" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM39" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AN39" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="AO39" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AP39" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AQ39" t="n">
         <v>17</v>
       </c>
       <c r="AR39" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AS39" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AT39" t="n">
         <v>3.3</v>
       </c>
       <c r="AU39" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AV39" t="n">
         <v>60</v>
@@ -7672,7 +7672,7 @@
         <v>3.35</v>
       </c>
       <c r="J40" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="K40" t="n">
         <v>2.32</v>
@@ -7690,25 +7690,25 @@
         <v>1.18</v>
       </c>
       <c r="P40" t="n">
-        <v>4.3</v>
+        <v>4.35</v>
       </c>
       <c r="Q40" t="n">
         <v>1.55</v>
       </c>
       <c r="R40" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="S40" t="n">
         <v>1.29</v>
       </c>
       <c r="T40" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="U40" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="V40" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="W40" t="n">
         <v>10.5</v>
@@ -7720,7 +7720,7 @@
         <v>8.5</v>
       </c>
       <c r="Z40" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AA40" t="n">
         <v>13.5</v>
@@ -7735,16 +7735,16 @@
         <v>7.6</v>
       </c>
       <c r="AE40" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AF40" t="n">
         <v>40</v>
       </c>
       <c r="AG40" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AH40" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI40" t="n">
         <v>11.75</v>
@@ -7756,31 +7756,31 @@
         <v>26</v>
       </c>
       <c r="AL40" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AM40" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AN40" t="n">
         <v>4.15</v>
       </c>
       <c r="AO40" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AP40" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AQ40" t="n">
         <v>30</v>
       </c>
       <c r="AR40" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AS40" t="n">
         <v>150</v>
       </c>
       <c r="AT40" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="AU40" t="n">
         <v>6.5</v>
@@ -7792,16 +7792,16 @@
         <v>5.7</v>
       </c>
       <c r="AX40" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AY40" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ40" t="n">
         <v>80</v>
       </c>
       <c r="BA40" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="BB40" t="n">
         <v>200</v>
@@ -7845,10 +7845,10 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="H41" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I41" t="n">
         <v>1.88</v>
@@ -7857,16 +7857,16 @@
         <v>4.15</v>
       </c>
       <c r="K41" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="L41" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="M41" t="n">
         <v>1.06</v>
       </c>
       <c r="N41" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="O41" t="n">
         <v>1.28</v>
@@ -7875,7 +7875,7 @@
         <v>3.3</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="R41" t="n">
         <v>1.88</v>
@@ -7884,7 +7884,7 @@
         <v>1.4</v>
       </c>
       <c r="T41" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="U41" t="n">
         <v>1.72</v>
@@ -7893,10 +7893,10 @@
         <v>2</v>
       </c>
       <c r="W41" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="X41" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y41" t="n">
         <v>12.5</v>
@@ -7911,10 +7911,10 @@
         <v>37</v>
       </c>
       <c r="AC41" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AD41" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AE41" t="n">
         <v>14</v>
@@ -7923,7 +7923,7 @@
         <v>60</v>
       </c>
       <c r="AG41" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AH41" t="n">
         <v>9.25</v>
@@ -7950,7 +7950,7 @@
         <v>21</v>
       </c>
       <c r="AP41" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AQ41" t="n">
         <v>110</v>
@@ -7962,10 +7962,10 @@
         <v>350</v>
       </c>
       <c r="AT41" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="AU41" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AV41" t="n">
         <v>65</v>
@@ -7974,13 +7974,13 @@
         <v>3.8</v>
       </c>
       <c r="AX41" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AY41" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AZ41" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="BA41" t="n">
         <v>70</v>
@@ -8027,22 +8027,22 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="H42" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="I42" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="J42" t="n">
-        <v>2.65</v>
+        <v>2.45</v>
       </c>
       <c r="K42" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="L42" t="n">
-        <v>3.9</v>
+        <v>4.05</v>
       </c>
       <c r="M42" t="n">
         <v>1.06</v>
@@ -8051,121 +8051,121 @@
         <v>7.2</v>
       </c>
       <c r="O42" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="P42" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="R42" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="S42" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="T42" t="n">
-        <v>2.67</v>
+        <v>2.8</v>
       </c>
       <c r="U42" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="V42" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W42" t="n">
-        <v>7.3</v>
+        <v>6.9</v>
       </c>
       <c r="X42" t="n">
-        <v>9.5</v>
+        <v>8.75</v>
       </c>
       <c r="Y42" t="n">
         <v>8.5</v>
       </c>
       <c r="Z42" t="n">
-        <v>18.5</v>
+        <v>15.5</v>
       </c>
       <c r="AA42" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AB42" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AC42" t="n">
         <v>7.2</v>
       </c>
       <c r="AD42" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="AE42" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AF42" t="n">
+        <v>80</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>50</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>35</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>45</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>700</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP42" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AQ42" t="n">
+        <v>35</v>
+      </c>
+      <c r="AR42" t="n">
         <v>65</v>
-      </c>
-      <c r="AG42" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH42" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI42" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AJ42" t="n">
-        <v>45</v>
-      </c>
-      <c r="AK42" t="n">
-        <v>30</v>
-      </c>
-      <c r="AL42" t="n">
-        <v>35</v>
-      </c>
-      <c r="AM42" t="n">
-        <v>500</v>
-      </c>
-      <c r="AN42" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="AO42" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AP42" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AQ42" t="n">
-        <v>40</v>
-      </c>
-      <c r="AR42" t="n">
-        <v>75</v>
       </c>
       <c r="AS42" t="n">
         <v>250</v>
       </c>
       <c r="AT42" t="n">
-        <v>2.67</v>
+        <v>2.8</v>
       </c>
       <c r="AU42" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AV42" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AW42" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="AX42" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AY42" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AZ42" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="BA42" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="BB42" t="n">
         <v>350</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-12.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-12.xlsx
@@ -777,10 +777,10 @@
         <v>3.4</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="R2" t="n">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="S2" t="n">
         <v>1.4</v>
@@ -962,7 +962,7 @@
         <v>2.4</v>
       </c>
       <c r="R3" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S3" t="n">
         <v>1.53</v>
@@ -974,7 +974,7 @@
         <v>2.25</v>
       </c>
       <c r="V3" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="W3" t="n">
         <v>5</v>
@@ -1144,7 +1144,7 @@
         <v>3.1</v>
       </c>
       <c r="R4" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="S4" t="n">
         <v>1.67</v>
@@ -1156,7 +1156,7 @@
         <v>2.5</v>
       </c>
       <c r="V4" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="W4" t="n">
         <v>5.5</v>
@@ -1875,7 +1875,7 @@
         <v>1.88</v>
       </c>
       <c r="S8" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="T8" t="n">
         <v>2.75</v>
@@ -2021,22 +2021,22 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H9" t="n">
         <v>3.5</v>
       </c>
       <c r="I9" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J9" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K9" t="n">
         <v>2.25</v>
       </c>
       <c r="L9" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M9" t="n">
         <v>1.04</v>
@@ -2063,10 +2063,10 @@
         <v>3.25</v>
       </c>
       <c r="U9" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V9" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W9" t="n">
         <v>10</v>
@@ -2105,7 +2105,7 @@
         <v>15</v>
       </c>
       <c r="AI9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ9" t="n">
         <v>29</v>
@@ -2141,7 +2141,7 @@
         <v>3.25</v>
       </c>
       <c r="AU9" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV9" t="n">
         <v>41</v>
@@ -3331,10 +3331,10 @@
         <v>1.65</v>
       </c>
       <c r="S16" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="T16" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="U16" t="n">
         <v>1.83</v>
@@ -3495,16 +3495,16 @@
         <v>3.5</v>
       </c>
       <c r="M17" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N17" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O17" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P17" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q17" t="n">
         <v>2.1</v>
@@ -3513,10 +3513,10 @@
         <v>1.7</v>
       </c>
       <c r="S17" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="T17" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="U17" t="n">
         <v>1.83</v>
@@ -4241,10 +4241,10 @@
         <v>1.73</v>
       </c>
       <c r="S21" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="T21" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="U21" t="n">
         <v>2</v>
@@ -4969,10 +4969,10 @@
         <v>1.67</v>
       </c>
       <c r="S25" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="T25" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="U25" t="n">
         <v>1.83</v>
@@ -5151,7 +5151,7 @@
         <v>2.88</v>
       </c>
       <c r="S26" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="T26" t="n">
         <v>4</v>
@@ -6753,22 +6753,22 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="H35" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I35" t="n">
-        <v>4.25</v>
+        <v>4.05</v>
       </c>
       <c r="J35" t="n">
-        <v>2.32</v>
+        <v>2.37</v>
       </c>
       <c r="K35" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="L35" t="n">
-        <v>4.55</v>
+        <v>4.4</v>
       </c>
       <c r="M35" t="n">
         <v>1.01</v>
@@ -6780,7 +6780,7 @@
         <v>1.32</v>
       </c>
       <c r="P35" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="Q35" t="n">
         <v>1.93</v>
@@ -6789,10 +6789,10 @@
         <v>1.7</v>
       </c>
       <c r="S35" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="T35" t="n">
-        <v>2.32</v>
+        <v>2.57</v>
       </c>
       <c r="U35" t="n">
         <v>1.82</v>
@@ -6804,13 +6804,13 @@
         <v>6.5</v>
       </c>
       <c r="X35" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="Y35" t="n">
         <v>8.25</v>
       </c>
       <c r="Z35" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AA35" t="n">
         <v>15</v>
@@ -6822,7 +6822,7 @@
         <v>9</v>
       </c>
       <c r="AD35" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AE35" t="n">
         <v>16</v>
@@ -6831,19 +6831,19 @@
         <v>80</v>
       </c>
       <c r="AG35" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AH35" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI35" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AJ35" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AK35" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AL35" t="n">
         <v>50</v>
@@ -6852,25 +6852,25 @@
         <v>700</v>
       </c>
       <c r="AN35" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="AO35" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AP35" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AQ35" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AR35" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AS35" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AT35" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="AU35" t="n">
         <v>7.2</v>
@@ -6879,10 +6879,10 @@
         <v>65</v>
       </c>
       <c r="AW35" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="AX35" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AY35" t="n">
         <v>29</v>
@@ -6891,10 +6891,10 @@
         <v>120</v>
       </c>
       <c r="BA35" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="BB35" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="BC35" t="n">
         <v>51</v>
@@ -8027,124 +8027,124 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.88</v>
+        <v>2.05</v>
       </c>
       <c r="H42" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="I42" t="n">
-        <v>3.55</v>
+        <v>3.2</v>
       </c>
       <c r="J42" t="n">
-        <v>2.45</v>
+        <v>2.67</v>
       </c>
       <c r="K42" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="L42" t="n">
-        <v>4.05</v>
+        <v>3.8</v>
       </c>
       <c r="M42" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N42" t="n">
-        <v>7.2</v>
+        <v>6.9</v>
       </c>
       <c r="O42" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="P42" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="R42" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="S42" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="T42" t="n">
-        <v>2.8</v>
+        <v>2.67</v>
       </c>
       <c r="U42" t="n">
         <v>1.85</v>
       </c>
       <c r="V42" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="W42" t="n">
+        <v>7</v>
+      </c>
+      <c r="X42" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC42" t="n">
         <v>6.9</v>
       </c>
-      <c r="X42" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z42" t="n">
+      <c r="AD42" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE42" t="n">
         <v>15.5</v>
-      </c>
-      <c r="AA42" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AB42" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC42" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AE42" t="n">
-        <v>16</v>
       </c>
       <c r="AF42" t="n">
         <v>80</v>
       </c>
       <c r="AG42" t="n">
-        <v>10.25</v>
+        <v>9.25</v>
       </c>
       <c r="AH42" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="AI42" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AJ42" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AK42" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AL42" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AM42" t="n">
         <v>700</v>
       </c>
       <c r="AN42" t="n">
-        <v>3.75</v>
+        <v>3.95</v>
       </c>
       <c r="AO42" t="n">
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="AP42" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AQ42" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AR42" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AS42" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AT42" t="n">
-        <v>2.8</v>
+        <v>2.67</v>
       </c>
       <c r="AU42" t="n">
         <v>7.4</v>
@@ -8153,16 +8153,16 @@
         <v>70</v>
       </c>
       <c r="AW42" t="n">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="AX42" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AY42" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AZ42" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="BA42" t="n">
         <v>150</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-12.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-12.xlsx
@@ -2021,22 +2021,22 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H9" t="n">
         <v>3.5</v>
       </c>
       <c r="I9" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J9" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K9" t="n">
         <v>2.25</v>
       </c>
       <c r="L9" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M9" t="n">
         <v>1.04</v>
@@ -2105,7 +2105,7 @@
         <v>15</v>
       </c>
       <c r="AI9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ9" t="n">
         <v>29</v>
@@ -2141,7 +2141,7 @@
         <v>3.25</v>
       </c>
       <c r="AU9" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV9" t="n">
         <v>41</v>
@@ -3495,16 +3495,16 @@
         <v>3.5</v>
       </c>
       <c r="M17" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O17" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P17" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q17" t="n">
         <v>2.1</v>
@@ -5479,13 +5479,13 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="H28" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I28" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="J28" t="n">
         <v>3.25</v>
@@ -5500,7 +5500,7 @@
         <v>1.06</v>
       </c>
       <c r="N28" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="O28" t="n">
         <v>1.3</v>
@@ -5509,7 +5509,7 @@
         <v>3.2</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="R28" t="n">
         <v>1.83</v>
@@ -5518,7 +5518,7 @@
         <v>1.42</v>
       </c>
       <c r="T28" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="U28" t="n">
         <v>1.7</v>
@@ -5527,7 +5527,7 @@
         <v>2.02</v>
       </c>
       <c r="W28" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="X28" t="n">
         <v>13</v>
@@ -5536,22 +5536,22 @@
         <v>9.75</v>
       </c>
       <c r="Z28" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AA28" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AB28" t="n">
         <v>30</v>
       </c>
       <c r="AC28" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AD28" t="n">
         <v>6.3</v>
       </c>
       <c r="AE28" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AF28" t="n">
         <v>60</v>
@@ -5569,10 +5569,10 @@
         <v>28</v>
       </c>
       <c r="AK28" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL28" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AM28" t="n">
         <v>450</v>
@@ -5584,7 +5584,7 @@
         <v>14.5</v>
       </c>
       <c r="AP28" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ28" t="n">
         <v>65</v>
@@ -5596,10 +5596,10 @@
         <v>300</v>
       </c>
       <c r="AT28" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="AU28" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AV28" t="n">
         <v>65</v>
@@ -5608,7 +5608,7 @@
         <v>4.5</v>
       </c>
       <c r="AX28" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AY28" t="n">
         <v>22</v>
@@ -6207,22 +6207,22 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.57</v>
+        <v>2.47</v>
       </c>
       <c r="H32" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I32" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="J32" t="n">
         <v>3.15</v>
       </c>
-      <c r="I32" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="J32" t="n">
+      <c r="K32" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L32" t="n">
         <v>3.2</v>
-      </c>
-      <c r="K32" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L32" t="n">
-        <v>3.15</v>
       </c>
       <c r="M32" t="n">
         <v>1.06</v>
@@ -6237,10 +6237,10 @@
         <v>3.3</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="R32" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="S32" t="n">
         <v>1.4</v>
@@ -6255,19 +6255,19 @@
         <v>2.1</v>
       </c>
       <c r="W32" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X32" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y32" t="n">
         <v>9.5</v>
       </c>
       <c r="Z32" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AA32" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB32" t="n">
         <v>28</v>
@@ -6276,25 +6276,25 @@
         <v>7.3</v>
       </c>
       <c r="AD32" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AE32" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AF32" t="n">
         <v>55</v>
       </c>
       <c r="AG32" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AH32" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AI32" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AJ32" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AK32" t="n">
         <v>21</v>
@@ -6306,10 +6306,10 @@
         <v>400</v>
       </c>
       <c r="AN32" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="AO32" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AP32" t="n">
         <v>21</v>
@@ -6327,13 +6327,13 @@
         <v>2.72</v>
       </c>
       <c r="AU32" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AV32" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AW32" t="n">
-        <v>4.55</v>
+        <v>4.6</v>
       </c>
       <c r="AX32" t="n">
         <v>14</v>
@@ -6571,19 +6571,19 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="H34" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I34" t="n">
         <v>2.45</v>
       </c>
       <c r="J34" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K34" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="L34" t="n">
         <v>3.05</v>
@@ -6592,7 +6592,7 @@
         <v>1.06</v>
       </c>
       <c r="N34" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="O34" t="n">
         <v>1.32</v>
@@ -6601,16 +6601,16 @@
         <v>3.1</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R34" t="n">
         <v>1.78</v>
       </c>
       <c r="S34" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="T34" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="U34" t="n">
         <v>1.78</v>
@@ -6622,7 +6622,7 @@
         <v>8.25</v>
       </c>
       <c r="X34" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Y34" t="n">
         <v>10</v>
@@ -6637,7 +6637,7 @@
         <v>32</v>
       </c>
       <c r="AC34" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AD34" t="n">
         <v>6.5</v>
@@ -6655,10 +6655,10 @@
         <v>12</v>
       </c>
       <c r="AI34" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AJ34" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK34" t="n">
         <v>21</v>
@@ -6673,7 +6673,7 @@
         <v>4.55</v>
       </c>
       <c r="AO34" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AP34" t="n">
         <v>22</v>
@@ -6682,13 +6682,13 @@
         <v>60</v>
       </c>
       <c r="AR34" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AS34" t="n">
         <v>300</v>
       </c>
       <c r="AT34" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="AU34" t="n">
         <v>7.2</v>
@@ -6935,22 +6935,22 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="H36" t="n">
         <v>3.15</v>
       </c>
       <c r="I36" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="J36" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="K36" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="L36" t="n">
-        <v>2.95</v>
+        <v>2.87</v>
       </c>
       <c r="M36" t="n">
         <v>1.02</v>
@@ -6959,10 +6959,10 @@
         <v>9.449999999999999</v>
       </c>
       <c r="O36" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P36" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="Q36" t="n">
         <v>1.87</v>
@@ -6971,10 +6971,10 @@
         <v>1.83</v>
       </c>
       <c r="S36" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="T36" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="U36" t="n">
         <v>1.62</v>
@@ -6986,16 +6986,16 @@
         <v>9.5</v>
       </c>
       <c r="X36" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Y36" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="Z36" t="n">
         <v>37</v>
       </c>
       <c r="AA36" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AB36" t="n">
         <v>30</v>
@@ -7019,61 +7019,61 @@
         <v>12</v>
       </c>
       <c r="AI36" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AJ36" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>18</v>
+      </c>
+      <c r="AL36" t="n">
         <v>25</v>
-      </c>
-      <c r="AK36" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL36" t="n">
-        <v>26</v>
       </c>
       <c r="AM36" t="n">
         <v>400</v>
       </c>
       <c r="AN36" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="AO36" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AP36" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ36" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AR36" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AS36" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AT36" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="AU36" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AV36" t="n">
         <v>55</v>
       </c>
       <c r="AW36" t="n">
-        <v>4.3</v>
+        <v>4.25</v>
       </c>
       <c r="AX36" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AY36" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AZ36" t="n">
         <v>50</v>
       </c>
       <c r="BA36" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="BB36" t="n">
         <v>250</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-12.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-12.xlsx
@@ -929,46 +929,46 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="H3" t="n">
         <v>3.4</v>
       </c>
       <c r="I3" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="J3" t="n">
         <v>2.38</v>
       </c>
       <c r="K3" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M3" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O3" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P3" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="R3" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S3" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T3" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="U3" t="n">
         <v>2.25</v>
@@ -977,7 +977,7 @@
         <v>1.57</v>
       </c>
       <c r="W3" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="X3" t="n">
         <v>6.5</v>
@@ -992,13 +992,13 @@
         <v>17</v>
       </c>
       <c r="AB3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC3" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD3" t="n">
         <v>6.5</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>7</v>
       </c>
       <c r="AE3" t="n">
         <v>21</v>
@@ -1022,7 +1022,7 @@
         <v>51</v>
       </c>
       <c r="AL3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AM3" t="n">
         <v>201</v>
@@ -1034,22 +1034,22 @@
         <v>9</v>
       </c>
       <c r="AP3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS3" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AU3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV3" t="n">
         <v>81</v>
@@ -1064,10 +1064,10 @@
         <v>41</v>
       </c>
       <c r="AZ3" t="n">
+        <v>126</v>
+      </c>
+      <c r="BA3" t="n">
         <v>151</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>201</v>
       </c>
       <c r="BB3" t="n">
         <v>501</v>
@@ -1311,22 +1311,22 @@
         <v>5.5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O5" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P5" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R5" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S5" t="n">
         <v>1.36</v>
@@ -1475,16 +1475,16 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H6" t="n">
         <v>3.1</v>
       </c>
       <c r="I6" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J6" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K6" t="n">
         <v>1.95</v>
@@ -1505,10 +1505,10 @@
         <v>2.63</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R6" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S6" t="n">
         <v>1.53</v>
@@ -1529,7 +1529,7 @@
         <v>11</v>
       </c>
       <c r="Y6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z6" t="n">
         <v>23</v>
@@ -1562,7 +1562,7 @@
         <v>12</v>
       </c>
       <c r="AJ6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AK6" t="n">
         <v>29</v>
@@ -1571,7 +1571,7 @@
         <v>41</v>
       </c>
       <c r="AM6" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AN6" t="n">
         <v>4.33</v>
@@ -1610,7 +1610,7 @@
         <v>34</v>
       </c>
       <c r="AZ6" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA6" t="n">
         <v>101</v>
@@ -1863,16 +1863,16 @@
         <v>11</v>
       </c>
       <c r="O8" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P8" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R8" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S8" t="n">
         <v>1.4</v>
@@ -2021,22 +2021,22 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H9" t="n">
         <v>3.5</v>
       </c>
       <c r="I9" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J9" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K9" t="n">
         <v>2.25</v>
       </c>
       <c r="L9" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M9" t="n">
         <v>1.04</v>
@@ -2105,7 +2105,7 @@
         <v>15</v>
       </c>
       <c r="AI9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ9" t="n">
         <v>29</v>
@@ -2141,7 +2141,7 @@
         <v>3.25</v>
       </c>
       <c r="AU9" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV9" t="n">
         <v>41</v>
@@ -2931,22 +2931,22 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="H14" t="n">
         <v>3.2</v>
       </c>
       <c r="I14" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="J14" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K14" t="n">
         <v>2</v>
       </c>
       <c r="L14" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="M14" t="n">
         <v>1.08</v>
@@ -2961,34 +2961,34 @@
         <v>2.63</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="R14" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S14" t="n">
         <v>1.53</v>
       </c>
-      <c r="S14" t="n">
-        <v>1.5</v>
-      </c>
       <c r="T14" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="U14" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V14" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="W14" t="n">
         <v>6</v>
       </c>
       <c r="X14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y14" t="n">
         <v>9.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA14" t="n">
         <v>19</v>
@@ -3009,19 +3009,19 @@
         <v>67</v>
       </c>
       <c r="AG14" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH14" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ14" t="n">
         <v>41</v>
       </c>
       <c r="AK14" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL14" t="n">
         <v>41</v>
@@ -3030,10 +3030,10 @@
         <v>1250</v>
       </c>
       <c r="AN14" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP14" t="n">
         <v>26</v>
@@ -3048,7 +3048,7 @@
         <v>201</v>
       </c>
       <c r="AT14" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AU14" t="n">
         <v>9</v>
@@ -3060,19 +3060,19 @@
         <v>5.5</v>
       </c>
       <c r="AX14" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY14" t="n">
         <v>34</v>
       </c>
       <c r="AZ14" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA14" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB14" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC14" t="n">
         <v>51</v>
@@ -3298,37 +3298,37 @@
         <v>2.4</v>
       </c>
       <c r="H16" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="J16" t="n">
         <v>3.1</v>
       </c>
-      <c r="I16" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="J16" t="n">
-        <v>3.2</v>
-      </c>
       <c r="K16" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L16" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M16" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O16" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P16" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.2</v>
+        <v>2.08</v>
       </c>
       <c r="R16" t="n">
-        <v>1.65</v>
+        <v>1.73</v>
       </c>
       <c r="S16" t="n">
         <v>1.44</v>
@@ -3337,16 +3337,16 @@
         <v>2.63</v>
       </c>
       <c r="U16" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V16" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="W16" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y16" t="n">
         <v>10</v>
@@ -3358,13 +3358,13 @@
         <v>21</v>
       </c>
       <c r="AB16" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC16" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD16" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE16" t="n">
         <v>15</v>
@@ -3373,7 +3373,7 @@
         <v>51</v>
       </c>
       <c r="AG16" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AH16" t="n">
         <v>13</v>
@@ -3385,37 +3385,37 @@
         <v>29</v>
       </c>
       <c r="AK16" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL16" t="n">
         <v>34</v>
       </c>
       <c r="AM16" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AN16" t="n">
         <v>4.5</v>
       </c>
       <c r="AO16" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP16" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ16" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR16" t="n">
         <v>67</v>
       </c>
       <c r="AS16" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT16" t="n">
         <v>2.63</v>
       </c>
       <c r="AU16" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV16" t="n">
         <v>51</v>
@@ -3427,7 +3427,7 @@
         <v>17</v>
       </c>
       <c r="AY16" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ16" t="n">
         <v>51</v>
@@ -4053,10 +4053,10 @@
         <v>2.75</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="R20" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S20" t="n">
         <v>1.5</v>
@@ -4387,22 +4387,22 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="H22" t="n">
         <v>3.2</v>
       </c>
       <c r="I22" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="J22" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K22" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L22" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M22" t="n">
         <v>1.08</v>
@@ -4429,22 +4429,22 @@
         <v>2.5</v>
       </c>
       <c r="U22" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V22" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W22" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X22" t="n">
         <v>15</v>
       </c>
       <c r="Y22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z22" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AA22" t="n">
         <v>29</v>
@@ -4453,22 +4453,22 @@
         <v>41</v>
       </c>
       <c r="AC22" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD22" t="n">
         <v>6</v>
       </c>
       <c r="AE22" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF22" t="n">
         <v>51</v>
       </c>
       <c r="AG22" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI22" t="n">
         <v>9.5</v>
@@ -4489,16 +4489,16 @@
         <v>5</v>
       </c>
       <c r="AO22" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP22" t="n">
         <v>29</v>
       </c>
       <c r="AQ22" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR22" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS22" t="n">
         <v>251</v>
@@ -4510,10 +4510,10 @@
         <v>8.5</v>
       </c>
       <c r="AV22" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW22" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AX22" t="n">
         <v>13</v>
@@ -4569,22 +4569,22 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="H23" t="n">
         <v>3.25</v>
       </c>
       <c r="I23" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="J23" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K23" t="n">
         <v>2</v>
       </c>
       <c r="L23" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M23" t="n">
         <v>1.07</v>
@@ -4617,16 +4617,16 @@
         <v>1.8</v>
       </c>
       <c r="W23" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y23" t="n">
         <v>10</v>
       </c>
       <c r="Z23" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA23" t="n">
         <v>23</v>
@@ -4650,19 +4650,19 @@
         <v>7.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI23" t="n">
         <v>11</v>
       </c>
       <c r="AJ23" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AK23" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL23" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM23" t="n">
         <v>351</v>
@@ -4692,7 +4692,7 @@
         <v>8.5</v>
       </c>
       <c r="AV23" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW23" t="n">
         <v>4.75</v>
@@ -4710,7 +4710,7 @@
         <v>81</v>
       </c>
       <c r="BB23" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC23" t="n">
         <v>51</v>
@@ -4751,13 +4751,13 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H24" t="n">
         <v>3.2</v>
       </c>
       <c r="I24" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="J24" t="n">
         <v>2.75</v>
@@ -4766,25 +4766,25 @@
         <v>2.1</v>
       </c>
       <c r="L24" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M24" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O24" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P24" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="R24" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="S24" t="n">
         <v>1.44</v>
@@ -4802,22 +4802,22 @@
         <v>7</v>
       </c>
       <c r="X24" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y24" t="n">
         <v>9</v>
       </c>
       <c r="Z24" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA24" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB24" t="n">
         <v>29</v>
       </c>
       <c r="AC24" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD24" t="n">
         <v>6</v>
@@ -4841,7 +4841,7 @@
         <v>41</v>
       </c>
       <c r="AK24" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL24" t="n">
         <v>41</v>
@@ -4853,7 +4853,7 @@
         <v>4</v>
       </c>
       <c r="AO24" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP24" t="n">
         <v>23</v>
@@ -6753,22 +6753,22 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="H35" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I35" t="n">
-        <v>4.05</v>
+        <v>4</v>
       </c>
       <c r="J35" t="n">
-        <v>2.37</v>
+        <v>2.42</v>
       </c>
       <c r="K35" t="n">
         <v>2.12</v>
       </c>
       <c r="L35" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="M35" t="n">
         <v>1.01</v>
@@ -6777,88 +6777,88 @@
         <v>8</v>
       </c>
       <c r="O35" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P35" t="n">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="R35" t="n">
         <v>1.7</v>
       </c>
       <c r="S35" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="T35" t="n">
-        <v>2.57</v>
+        <v>2.52</v>
       </c>
       <c r="U35" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="V35" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="W35" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="X35" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="Y35" t="n">
         <v>8.25</v>
       </c>
       <c r="Z35" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AA35" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AB35" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC35" t="n">
         <v>9</v>
       </c>
       <c r="AD35" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AE35" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF35" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AG35" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AH35" t="n">
         <v>22</v>
       </c>
       <c r="AI35" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AJ35" t="n">
         <v>65</v>
       </c>
       <c r="AK35" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AL35" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AM35" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AN35" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="AO35" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AP35" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AQ35" t="n">
         <v>32</v>
@@ -6867,25 +6867,25 @@
         <v>65</v>
       </c>
       <c r="AS35" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AT35" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="AU35" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AV35" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AW35" t="n">
         <v>5.8</v>
       </c>
       <c r="AX35" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AY35" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AZ35" t="n">
         <v>120</v>
@@ -6894,7 +6894,7 @@
         <v>150</v>
       </c>
       <c r="BB35" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="BC35" t="n">
         <v>51</v>
@@ -7299,22 +7299,22 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="H38" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="I38" t="n">
         <v>1.24</v>
       </c>
       <c r="J38" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="K38" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="L38" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="M38" t="n">
         <v>1.04</v>
@@ -7326,7 +7326,7 @@
         <v>1.23</v>
       </c>
       <c r="P38" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q38" t="n">
         <v>1.7</v>
@@ -7341,22 +7341,22 @@
         <v>3</v>
       </c>
       <c r="U38" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="V38" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="W38" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="X38" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="Y38" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Z38" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="AA38" t="n">
         <v>175</v>
@@ -7368,7 +7368,7 @@
         <v>8.25</v>
       </c>
       <c r="AD38" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AE38" t="n">
         <v>30</v>
@@ -7383,13 +7383,13 @@
         <v>5.5</v>
       </c>
       <c r="AI38" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AJ38" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AK38" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AL38" t="n">
         <v>37</v>
@@ -7398,13 +7398,13 @@
         <v>1000</v>
       </c>
       <c r="AN38" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AO38" t="n">
+        <v>75</v>
+      </c>
+      <c r="AP38" t="n">
         <v>70</v>
-      </c>
-      <c r="AP38" t="n">
-        <v>65</v>
       </c>
       <c r="AQ38" t="n">
         <v>500</v>
@@ -7484,19 +7484,19 @@
         <v>1.4</v>
       </c>
       <c r="H39" t="n">
-        <v>4.4</v>
+        <v>4.45</v>
       </c>
       <c r="I39" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="J39" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="K39" t="n">
         <v>2.47</v>
       </c>
       <c r="L39" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="M39" t="n">
         <v>1.03</v>
@@ -7508,7 +7508,7 @@
         <v>1.17</v>
       </c>
       <c r="P39" t="n">
-        <v>4.45</v>
+        <v>4.5</v>
       </c>
       <c r="Q39" t="n">
         <v>1.52</v>
@@ -7517,10 +7517,10 @@
         <v>2.37</v>
       </c>
       <c r="S39" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="T39" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="U39" t="n">
         <v>1.7</v>
@@ -7532,13 +7532,13 @@
         <v>8.75</v>
       </c>
       <c r="X39" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="Y39" t="n">
         <v>8.25</v>
       </c>
       <c r="Z39" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AA39" t="n">
         <v>10.5</v>
@@ -7559,13 +7559,13 @@
         <v>60</v>
       </c>
       <c r="AG39" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH39" t="n">
         <v>45</v>
       </c>
       <c r="AI39" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AJ39" t="n">
         <v>150</v>
@@ -7586,19 +7586,19 @@
         <v>6.4</v>
       </c>
       <c r="AP39" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AQ39" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AR39" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AS39" t="n">
         <v>150</v>
       </c>
       <c r="AT39" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="AU39" t="n">
         <v>7.6</v>
@@ -7607,13 +7607,13 @@
         <v>60</v>
       </c>
       <c r="AW39" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AX39" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AY39" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AZ39" t="n">
         <v>200</v>
@@ -7622,7 +7622,7 @@
         <v>200</v>
       </c>
       <c r="BB39" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="BC39" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-12.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-12.xlsx
@@ -947,10 +947,10 @@
         <v>6</v>
       </c>
       <c r="M3" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O3" t="n">
         <v>1.4</v>
@@ -959,10 +959,10 @@
         <v>2.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="R3" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S3" t="n">
         <v>1.5</v>
@@ -1317,16 +1317,16 @@
         <v>11</v>
       </c>
       <c r="O5" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P5" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R5" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S5" t="n">
         <v>1.36</v>
@@ -1493,10 +1493,10 @@
         <v>3.75</v>
       </c>
       <c r="M6" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O6" t="n">
         <v>1.44</v>
@@ -1657,22 +1657,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H7" t="n">
         <v>3</v>
       </c>
       <c r="I7" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="J7" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K7" t="n">
         <v>1.83</v>
       </c>
       <c r="L7" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M7" t="n">
         <v>1.14</v>
@@ -1699,22 +1699,22 @@
         <v>2.1</v>
       </c>
       <c r="U7" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="V7" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="W7" t="n">
         <v>5</v>
       </c>
       <c r="X7" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y7" t="n">
         <v>11</v>
       </c>
       <c r="Z7" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA7" t="n">
         <v>23</v>
@@ -1735,7 +1735,7 @@
         <v>101</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AH7" t="n">
         <v>17</v>
@@ -1756,7 +1756,7 @@
         <v>201</v>
       </c>
       <c r="AN7" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO7" t="n">
         <v>13</v>
@@ -1765,7 +1765,7 @@
         <v>34</v>
       </c>
       <c r="AQ7" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR7" t="n">
         <v>101</v>
@@ -2385,40 +2385,40 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="H11" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="I11" t="n">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="J11" t="n">
-        <v>4.3</v>
+        <v>4.25</v>
       </c>
       <c r="K11" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="L11" t="n">
-        <v>2.57</v>
+        <v>2.65</v>
       </c>
       <c r="M11" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>6.55</v>
+        <v>6.65</v>
       </c>
       <c r="O11" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="P11" t="n">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="R11" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="S11" t="n">
         <v>1.45</v>
@@ -2427,22 +2427,22 @@
         <v>2.37</v>
       </c>
       <c r="U11" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="V11" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="W11" t="n">
-        <v>9.25</v>
+        <v>8.5</v>
       </c>
       <c r="X11" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Y11" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Z11" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AA11" t="n">
         <v>40</v>
@@ -2451,10 +2451,10 @@
         <v>55</v>
       </c>
       <c r="AC11" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD11" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AE11" t="n">
         <v>17.5</v>
@@ -2463,19 +2463,19 @@
         <v>100</v>
       </c>
       <c r="AG11" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="AH11" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="AI11" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AJ11" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="AK11" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AL11" t="n">
         <v>37</v>
@@ -2484,7 +2484,7 @@
         <v>201</v>
       </c>
       <c r="AN11" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="AO11" t="n">
         <v>22</v>
@@ -2502,19 +2502,19 @@
         <v>450</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="AU11" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AV11" t="n">
         <v>80</v>
       </c>
       <c r="AW11" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="AX11" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AY11" t="n">
         <v>21</v>
@@ -2573,22 +2573,22 @@
         <v>3.6</v>
       </c>
       <c r="I12" t="n">
-        <v>4.15</v>
+        <v>4.1</v>
       </c>
       <c r="J12" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="K12" t="n">
         <v>2.2</v>
       </c>
       <c r="L12" t="n">
-        <v>4.45</v>
+        <v>4.4</v>
       </c>
       <c r="M12" t="n">
         <v>1.01</v>
       </c>
       <c r="N12" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="O12" t="n">
         <v>1.22</v>
@@ -2624,7 +2624,7 @@
         <v>8</v>
       </c>
       <c r="Z12" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AA12" t="n">
         <v>13</v>
@@ -2636,10 +2636,10 @@
         <v>12</v>
       </c>
       <c r="AD12" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AE12" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AF12" t="n">
         <v>55</v>
@@ -2660,10 +2660,10 @@
         <v>37</v>
       </c>
       <c r="AL12" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AM12" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AN12" t="n">
         <v>3.7</v>
@@ -2672,10 +2672,10 @@
         <v>8.5</v>
       </c>
       <c r="AP12" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AQ12" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AR12" t="n">
         <v>50</v>
@@ -2684,10 +2684,10 @@
         <v>175</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="AU12" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AV12" t="n">
         <v>55</v>
@@ -2696,10 +2696,10 @@
         <v>6</v>
       </c>
       <c r="AX12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AY12" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AZ12" t="n">
         <v>120</v>
@@ -2708,7 +2708,7 @@
         <v>150</v>
       </c>
       <c r="BB12" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="BC12" t="n">
         <v>51</v>
@@ -2931,28 +2931,28 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="H14" t="n">
         <v>3.2</v>
       </c>
       <c r="I14" t="n">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="J14" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K14" t="n">
         <v>2</v>
       </c>
       <c r="L14" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="M14" t="n">
         <v>1.08</v>
       </c>
       <c r="N14" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O14" t="n">
         <v>1.44</v>
@@ -2967,31 +2967,31 @@
         <v>1.57</v>
       </c>
       <c r="S14" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T14" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="U14" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V14" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="W14" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="X14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y14" t="n">
         <v>9.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA14" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB14" t="n">
         <v>34</v>
@@ -3009,31 +3009,31 @@
         <v>67</v>
       </c>
       <c r="AG14" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI14" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ14" t="n">
         <v>41</v>
       </c>
       <c r="AK14" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL14" t="n">
         <v>41</v>
       </c>
       <c r="AM14" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP14" t="n">
         <v>26</v>
@@ -3048,10 +3048,10 @@
         <v>201</v>
       </c>
       <c r="AT14" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AU14" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV14" t="n">
         <v>67</v>
@@ -3060,19 +3060,19 @@
         <v>5.5</v>
       </c>
       <c r="AX14" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AY14" t="n">
         <v>34</v>
       </c>
       <c r="AZ14" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BA14" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BB14" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BC14" t="n">
         <v>51</v>
@@ -3113,46 +3113,46 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="H15" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I15" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J15" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="K15" t="n">
         <v>2.2</v>
       </c>
       <c r="L15" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M15" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="O15" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P15" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="R15" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S15" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T15" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U15" t="n">
         <v>2</v>
@@ -3161,7 +3161,7 @@
         <v>1.73</v>
       </c>
       <c r="W15" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="X15" t="n">
         <v>7</v>
@@ -3170,16 +3170,16 @@
         <v>8.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB15" t="n">
         <v>29</v>
       </c>
       <c r="AC15" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD15" t="n">
         <v>7.5</v>
@@ -3191,16 +3191,16 @@
         <v>67</v>
       </c>
       <c r="AG15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH15" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI15" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ15" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AK15" t="n">
         <v>41</v>
@@ -3215,13 +3215,13 @@
         <v>3.5</v>
       </c>
       <c r="AO15" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AP15" t="n">
         <v>21</v>
       </c>
       <c r="AQ15" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR15" t="n">
         <v>51</v>
@@ -3230,7 +3230,7 @@
         <v>151</v>
       </c>
       <c r="AT15" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU15" t="n">
         <v>9</v>
@@ -3248,7 +3248,7 @@
         <v>41</v>
       </c>
       <c r="AZ15" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BA15" t="n">
         <v>151</v>
@@ -3313,22 +3313,22 @@
         <v>3.5</v>
       </c>
       <c r="M16" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O16" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P16" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R16" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S16" t="n">
         <v>1.44</v>
@@ -4390,7 +4390,7 @@
         <v>3.4</v>
       </c>
       <c r="H22" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I22" t="n">
         <v>2.2</v>
@@ -4399,52 +4399,52 @@
         <v>4</v>
       </c>
       <c r="K22" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L22" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N22" t="n">
+        <v>9</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P22" t="n">
         <v>3</v>
       </c>
-      <c r="M22" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N22" t="n">
-        <v>8</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P22" t="n">
-        <v>2.75</v>
-      </c>
       <c r="Q22" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="R22" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S22" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T22" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U22" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="V22" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W22" t="n">
         <v>9</v>
       </c>
       <c r="X22" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z22" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AA22" t="n">
         <v>29</v>
@@ -4453,22 +4453,22 @@
         <v>41</v>
       </c>
       <c r="AC22" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AD22" t="n">
         <v>6</v>
       </c>
       <c r="AE22" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF22" t="n">
         <v>51</v>
       </c>
       <c r="AG22" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AH22" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI22" t="n">
         <v>9.5</v>
@@ -4477,19 +4477,19 @@
         <v>21</v>
       </c>
       <c r="AK22" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL22" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM22" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AN22" t="n">
         <v>5</v>
       </c>
       <c r="AO22" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP22" t="n">
         <v>29</v>
@@ -4498,28 +4498,28 @@
         <v>67</v>
       </c>
       <c r="AR22" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS22" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT22" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU22" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV22" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW22" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AX22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY22" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ22" t="n">
         <v>41</v>
@@ -4569,40 +4569,40 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="H23" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I23" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="J23" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="K23" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L23" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M23" t="n">
         <v>1.07</v>
       </c>
       <c r="N23" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O23" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P23" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R23" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S23" t="n">
         <v>1.5</v>
@@ -4620,22 +4620,22 @@
         <v>7.5</v>
       </c>
       <c r="X23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y23" t="n">
         <v>10</v>
       </c>
       <c r="Z23" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA23" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB23" t="n">
         <v>34</v>
       </c>
       <c r="AC23" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD23" t="n">
         <v>6.5</v>
@@ -4647,19 +4647,19 @@
         <v>51</v>
       </c>
       <c r="AG23" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AH23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI23" t="n">
         <v>11</v>
       </c>
       <c r="AJ23" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK23" t="n">
         <v>26</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>23</v>
       </c>
       <c r="AL23" t="n">
         <v>34</v>
@@ -4680,7 +4680,7 @@
         <v>51</v>
       </c>
       <c r="AR23" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS23" t="n">
         <v>201</v>
@@ -4754,10 +4754,10 @@
         <v>2.05</v>
       </c>
       <c r="H24" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I24" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J24" t="n">
         <v>2.75</v>
@@ -4769,10 +4769,10 @@
         <v>4.33</v>
       </c>
       <c r="M24" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O24" t="n">
         <v>1.33</v>
@@ -4802,7 +4802,7 @@
         <v>7</v>
       </c>
       <c r="X24" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Y24" t="n">
         <v>9</v>
@@ -4817,7 +4817,7 @@
         <v>29</v>
       </c>
       <c r="AC24" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AD24" t="n">
         <v>6</v>
@@ -4829,7 +4829,7 @@
         <v>51</v>
       </c>
       <c r="AG24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH24" t="n">
         <v>19</v>
@@ -4847,7 +4847,7 @@
         <v>41</v>
       </c>
       <c r="AM24" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AN24" t="n">
         <v>4</v>
@@ -4862,7 +4862,7 @@
         <v>41</v>
       </c>
       <c r="AR24" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS24" t="n">
         <v>151</v>
@@ -4871,7 +4871,7 @@
         <v>2.63</v>
       </c>
       <c r="AU24" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV24" t="n">
         <v>51</v>
@@ -4892,7 +4892,7 @@
         <v>101</v>
       </c>
       <c r="BB24" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC24" t="n">
         <v>51</v>
@@ -4933,28 +4933,28 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="H25" t="n">
+        <v>3</v>
+      </c>
+      <c r="I25" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J25" t="n">
         <v>3.1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="J25" t="n">
-        <v>3</v>
       </c>
       <c r="K25" t="n">
         <v>2.05</v>
       </c>
       <c r="L25" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M25" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O25" t="n">
         <v>1.36</v>
@@ -4963,16 +4963,16 @@
         <v>3</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R25" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S25" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T25" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U25" t="n">
         <v>1.83</v>
@@ -4984,22 +4984,22 @@
         <v>7</v>
       </c>
       <c r="X25" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y25" t="n">
         <v>10</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>9.5</v>
       </c>
       <c r="Z25" t="n">
         <v>21</v>
       </c>
       <c r="AA25" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB25" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC25" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD25" t="n">
         <v>6</v>
@@ -5011,13 +5011,13 @@
         <v>51</v>
       </c>
       <c r="AG25" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH25" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ25" t="n">
         <v>34</v>
@@ -5038,7 +5038,7 @@
         <v>13</v>
       </c>
       <c r="AP25" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ25" t="n">
         <v>41</v>
@@ -5050,13 +5050,13 @@
         <v>201</v>
       </c>
       <c r="AT25" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU25" t="n">
         <v>8.5</v>
       </c>
       <c r="AV25" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW25" t="n">
         <v>5</v>
@@ -5068,13 +5068,13 @@
         <v>29</v>
       </c>
       <c r="AZ25" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA25" t="n">
         <v>81</v>
       </c>
       <c r="BB25" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC25" t="n">
         <v>51</v>
@@ -5115,7 +5115,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="H26" t="n">
         <v>5.5</v>
@@ -5306,25 +5306,25 @@
         <v>3</v>
       </c>
       <c r="J27" t="n">
-        <v>2.82</v>
+        <v>2.77</v>
       </c>
       <c r="K27" t="n">
         <v>2.12</v>
       </c>
       <c r="L27" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M27" t="n">
         <v>1.07</v>
       </c>
       <c r="N27" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="O27" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P27" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="Q27" t="n">
         <v>1.98</v>
@@ -5336,7 +5336,7 @@
         <v>1.39</v>
       </c>
       <c r="T27" t="n">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="U27" t="n">
         <v>1.75</v>
@@ -5345,28 +5345,28 @@
         <v>1.95</v>
       </c>
       <c r="W27" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="X27" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Y27" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="Z27" t="n">
         <v>22</v>
       </c>
       <c r="AA27" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AB27" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC27" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="AD27" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AE27" t="n">
         <v>14</v>
@@ -5375,19 +5375,19 @@
         <v>65</v>
       </c>
       <c r="AG27" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH27" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AI27" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AJ27" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AK27" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AL27" t="n">
         <v>35</v>
@@ -5396,46 +5396,46 @@
         <v>500</v>
       </c>
       <c r="AN27" t="n">
-        <v>4.15</v>
+        <v>4.2</v>
       </c>
       <c r="AO27" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AP27" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AQ27" t="n">
         <v>45</v>
       </c>
       <c r="AR27" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AS27" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AT27" t="n">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="AU27" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AV27" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AW27" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="AX27" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AY27" t="n">
         <v>23</v>
       </c>
       <c r="AZ27" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="BA27" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="BB27" t="n">
         <v>300</v>
@@ -5479,19 +5479,19 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="H28" t="n">
         <v>3.25</v>
       </c>
       <c r="I28" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="J28" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="K28" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="L28" t="n">
         <v>3.15</v>
@@ -5509,46 +5509,46 @@
         <v>3.2</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="R28" t="n">
         <v>1.83</v>
       </c>
       <c r="S28" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="T28" t="n">
-        <v>2.67</v>
+        <v>2.72</v>
       </c>
       <c r="U28" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="V28" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="W28" t="n">
         <v>8.5</v>
       </c>
       <c r="X28" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AA28" t="n">
         <v>21</v>
       </c>
       <c r="AB28" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AC28" t="n">
         <v>7.3</v>
       </c>
       <c r="AD28" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AE28" t="n">
         <v>13.5</v>
@@ -5563,40 +5563,40 @@
         <v>13</v>
       </c>
       <c r="AI28" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AJ28" t="n">
         <v>28</v>
       </c>
       <c r="AK28" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL28" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AM28" t="n">
         <v>450</v>
       </c>
       <c r="AN28" t="n">
-        <v>4.55</v>
+        <v>4.5</v>
       </c>
       <c r="AO28" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AP28" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ28" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AR28" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AS28" t="n">
         <v>300</v>
       </c>
       <c r="AT28" t="n">
-        <v>2.67</v>
+        <v>2.72</v>
       </c>
       <c r="AU28" t="n">
         <v>7.1</v>
@@ -5605,10 +5605,10 @@
         <v>65</v>
       </c>
       <c r="AW28" t="n">
-        <v>4.5</v>
+        <v>4.55</v>
       </c>
       <c r="AX28" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AY28" t="n">
         <v>22</v>
@@ -5617,7 +5617,7 @@
         <v>60</v>
       </c>
       <c r="BA28" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="BB28" t="n">
         <v>300</v>
@@ -5670,7 +5670,7 @@
         <v>2.4</v>
       </c>
       <c r="J29" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K29" t="n">
         <v>2.22</v>
@@ -5679,34 +5679,34 @@
         <v>3</v>
       </c>
       <c r="M29" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N29" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="O29" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P29" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="Q29" t="n">
         <v>1.75</v>
       </c>
       <c r="R29" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="S29" t="n">
         <v>1.35</v>
       </c>
       <c r="T29" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="U29" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="V29" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="W29" t="n">
         <v>9.75</v>
@@ -5724,10 +5724,10 @@
         <v>19.5</v>
       </c>
       <c r="AB29" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC29" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AD29" t="n">
         <v>7</v>
@@ -5736,7 +5736,7 @@
         <v>13</v>
       </c>
       <c r="AF29" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AG29" t="n">
         <v>9.5</v>
@@ -5778,7 +5778,7 @@
         <v>250</v>
       </c>
       <c r="AT29" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="AU29" t="n">
         <v>7</v>
@@ -5846,25 +5846,25 @@
         <v>1.5</v>
       </c>
       <c r="H30" t="n">
-        <v>4.45</v>
+        <v>4.3</v>
       </c>
       <c r="I30" t="n">
         <v>4.9</v>
       </c>
       <c r="J30" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="K30" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="L30" t="n">
-        <v>4.8</v>
+        <v>4.75</v>
       </c>
       <c r="M30" t="n">
         <v>1.02</v>
       </c>
       <c r="N30" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="O30" t="n">
         <v>1.13</v>
@@ -5891,16 +5891,16 @@
         <v>2.35</v>
       </c>
       <c r="W30" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="X30" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="Z30" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AA30" t="n">
         <v>10.75</v>
@@ -5909,16 +5909,16 @@
         <v>17.5</v>
       </c>
       <c r="AC30" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AD30" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AE30" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AF30" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AG30" t="n">
         <v>22</v>
@@ -5939,19 +5939,19 @@
         <v>35</v>
       </c>
       <c r="AM30" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AN30" t="n">
         <v>3.85</v>
       </c>
       <c r="AO30" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AP30" t="n">
         <v>12.5</v>
       </c>
       <c r="AQ30" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AR30" t="n">
         <v>32</v>
@@ -5963,25 +5963,25 @@
         <v>3.75</v>
       </c>
       <c r="AU30" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AV30" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AW30" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AX30" t="n">
         <v>25</v>
       </c>
       <c r="AY30" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ30" t="n">
         <v>120</v>
       </c>
       <c r="BA30" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="BB30" t="n">
         <v>200</v>
@@ -6025,13 +6025,13 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="H31" t="n">
         <v>3.6</v>
       </c>
       <c r="I31" t="n">
-        <v>4.1</v>
+        <v>4.05</v>
       </c>
       <c r="J31" t="n">
         <v>2.32</v>
@@ -6040,7 +6040,7 @@
         <v>2.2</v>
       </c>
       <c r="L31" t="n">
-        <v>4.5</v>
+        <v>4.45</v>
       </c>
       <c r="M31" t="n">
         <v>1.05</v>
@@ -6055,7 +6055,7 @@
         <v>3.4</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="R31" t="n">
         <v>1.91</v>
@@ -6064,7 +6064,7 @@
         <v>1.38</v>
       </c>
       <c r="T31" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="U31" t="n">
         <v>1.78</v>
@@ -6073,7 +6073,7 @@
         <v>1.93</v>
       </c>
       <c r="W31" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="X31" t="n">
         <v>8.25</v>
@@ -6100,16 +6100,16 @@
         <v>15</v>
       </c>
       <c r="AF31" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AG31" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH31" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI31" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AJ31" t="n">
         <v>65</v>
@@ -6118,7 +6118,7 @@
         <v>37</v>
       </c>
       <c r="AL31" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AM31" t="n">
         <v>500</v>
@@ -6142,13 +6142,13 @@
         <v>250</v>
       </c>
       <c r="AT31" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AU31" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AV31" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AW31" t="n">
         <v>6</v>
@@ -6163,10 +6163,10 @@
         <v>120</v>
       </c>
       <c r="BA31" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="BB31" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="BC31" t="n">
         <v>51</v>
@@ -6213,22 +6213,22 @@
         <v>3.2</v>
       </c>
       <c r="I32" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="J32" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K32" t="n">
         <v>2.1</v>
       </c>
       <c r="L32" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M32" t="n">
         <v>1.06</v>
       </c>
       <c r="N32" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="O32" t="n">
         <v>1.29</v>
@@ -6255,7 +6255,7 @@
         <v>2.1</v>
       </c>
       <c r="W32" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="X32" t="n">
         <v>13</v>
@@ -6270,10 +6270,10 @@
         <v>20</v>
       </c>
       <c r="AB32" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AC32" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AD32" t="n">
         <v>6.3</v>
@@ -6285,7 +6285,7 @@
         <v>55</v>
       </c>
       <c r="AG32" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AH32" t="n">
         <v>14</v>
@@ -6315,7 +6315,7 @@
         <v>21</v>
       </c>
       <c r="AQ32" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AR32" t="n">
         <v>90</v>
@@ -6333,19 +6333,19 @@
         <v>60</v>
       </c>
       <c r="AW32" t="n">
-        <v>4.6</v>
+        <v>4.65</v>
       </c>
       <c r="AX32" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AY32" t="n">
         <v>21</v>
       </c>
       <c r="AZ32" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="BA32" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="BB32" t="n">
         <v>250</v>
@@ -6392,16 +6392,16 @@
         <v>3.2</v>
       </c>
       <c r="H33" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="I33" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="J33" t="n">
         <v>3.7</v>
       </c>
       <c r="K33" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="L33" t="n">
         <v>2.55</v>
@@ -6416,7 +6416,7 @@
         <v>1.24</v>
       </c>
       <c r="P33" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="Q33" t="n">
         <v>1.72</v>
@@ -6425,10 +6425,10 @@
         <v>2.05</v>
       </c>
       <c r="S33" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="T33" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="U33" t="n">
         <v>1.65</v>
@@ -6437,13 +6437,13 @@
         <v>2.1</v>
       </c>
       <c r="W33" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="X33" t="n">
         <v>18</v>
       </c>
       <c r="Y33" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="Z33" t="n">
         <v>40</v>
@@ -6482,19 +6482,19 @@
         <v>15</v>
       </c>
       <c r="AL33" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AM33" t="n">
         <v>350</v>
       </c>
       <c r="AN33" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="AO33" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AP33" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AQ33" t="n">
         <v>80</v>
@@ -6506,7 +6506,7 @@
         <v>300</v>
       </c>
       <c r="AT33" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="AU33" t="n">
         <v>7.1</v>
@@ -6521,7 +6521,7 @@
         <v>10</v>
       </c>
       <c r="AY33" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AZ33" t="n">
         <v>35</v>
@@ -6571,19 +6571,19 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="H34" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I34" t="n">
         <v>2.45</v>
       </c>
       <c r="J34" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K34" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="L34" t="n">
         <v>3.05</v>
@@ -6592,7 +6592,7 @@
         <v>1.06</v>
       </c>
       <c r="N34" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="O34" t="n">
         <v>1.32</v>
@@ -6607,7 +6607,7 @@
         <v>1.78</v>
       </c>
       <c r="S34" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="T34" t="n">
         <v>2.75</v>
@@ -6622,7 +6622,7 @@
         <v>8.25</v>
       </c>
       <c r="X34" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y34" t="n">
         <v>10</v>
@@ -6637,7 +6637,7 @@
         <v>32</v>
       </c>
       <c r="AC34" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AD34" t="n">
         <v>6.5</v>
@@ -6655,10 +6655,10 @@
         <v>12</v>
       </c>
       <c r="AI34" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AJ34" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK34" t="n">
         <v>21</v>
@@ -6670,10 +6670,10 @@
         <v>600</v>
       </c>
       <c r="AN34" t="n">
-        <v>4.55</v>
+        <v>4.5</v>
       </c>
       <c r="AO34" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AP34" t="n">
         <v>22</v>
@@ -6753,22 +6753,22 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="H35" t="n">
         <v>3.3</v>
       </c>
       <c r="I35" t="n">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="J35" t="n">
-        <v>2.42</v>
+        <v>2.37</v>
       </c>
       <c r="K35" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="L35" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="M35" t="n">
         <v>1.01</v>
@@ -6780,13 +6780,13 @@
         <v>1.31</v>
       </c>
       <c r="P35" t="n">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="R35" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="S35" t="n">
         <v>1.4</v>
@@ -6798,22 +6798,22 @@
         <v>1.78</v>
       </c>
       <c r="V35" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="W35" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="X35" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="Y35" t="n">
         <v>8.25</v>
       </c>
       <c r="Z35" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AA35" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AB35" t="n">
         <v>28</v>
@@ -6822,7 +6822,7 @@
         <v>9</v>
       </c>
       <c r="AD35" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AE35" t="n">
         <v>15</v>
@@ -6831,19 +6831,19 @@
         <v>75</v>
       </c>
       <c r="AG35" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AH35" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AI35" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ35" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AK35" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AL35" t="n">
         <v>45</v>
@@ -6852,10 +6852,10 @@
         <v>600</v>
       </c>
       <c r="AN35" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="AO35" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AP35" t="n">
         <v>17.5</v>
@@ -6864,7 +6864,7 @@
         <v>32</v>
       </c>
       <c r="AR35" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AS35" t="n">
         <v>200</v>
@@ -6879,13 +6879,13 @@
         <v>60</v>
       </c>
       <c r="AW35" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="AX35" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AY35" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AZ35" t="n">
         <v>120</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-12.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-12.xlsx
@@ -1293,7 +1293,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="H5" t="n">
         <v>3.7</v>
@@ -1475,7 +1475,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H6" t="n">
         <v>3.1</v>
@@ -1508,7 +1508,7 @@
         <v>2.4</v>
       </c>
       <c r="R6" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S6" t="n">
         <v>1.53</v>
@@ -1863,16 +1863,16 @@
         <v>11</v>
       </c>
       <c r="O8" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="P8" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="R8" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="S8" t="n">
         <v>1.4</v>
@@ -2770,7 +2770,7 @@
         <v>1.03</v>
       </c>
       <c r="N13" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O13" t="n">
         <v>1.17</v>
@@ -3853,7 +3853,7 @@
         <v>3.4</v>
       </c>
       <c r="K19" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="L19" t="n">
         <v>3.75</v>
@@ -4214,7 +4214,7 @@
         <v>5</v>
       </c>
       <c r="J21" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="K21" t="n">
         <v>2.1</v>
@@ -4235,10 +4235,10 @@
         <v>3.25</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R21" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="S21" t="n">
         <v>1.44</v>
@@ -4253,7 +4253,7 @@
         <v>1.73</v>
       </c>
       <c r="W21" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="X21" t="n">
         <v>7.5</v>
@@ -4274,19 +4274,19 @@
         <v>8.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF21" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG21" t="n">
         <v>12</v>
       </c>
       <c r="AH21" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI21" t="n">
         <v>17</v>
@@ -4298,7 +4298,7 @@
         <v>41</v>
       </c>
       <c r="AL21" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM21" t="n">
         <v>1000</v>
@@ -4334,10 +4334,10 @@
         <v>6.5</v>
       </c>
       <c r="AX21" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AY21" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ21" t="n">
         <v>101</v>
@@ -4420,7 +4420,7 @@
         <v>2.15</v>
       </c>
       <c r="R22" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="S22" t="n">
         <v>1.44</v>
@@ -4575,7 +4575,7 @@
         <v>3.3</v>
       </c>
       <c r="I23" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="J23" t="n">
         <v>3.2</v>
@@ -4602,7 +4602,7 @@
         <v>2.2</v>
       </c>
       <c r="R23" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S23" t="n">
         <v>1.5</v>
@@ -4784,7 +4784,7 @@
         <v>2.05</v>
       </c>
       <c r="R24" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="S24" t="n">
         <v>1.44</v>
@@ -4933,22 +4933,22 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H25" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J25" t="n">
         <v>3</v>
-      </c>
-      <c r="I25" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="J25" t="n">
-        <v>3.1</v>
       </c>
       <c r="K25" t="n">
         <v>2.05</v>
       </c>
       <c r="L25" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M25" t="n">
         <v>1.08</v>
@@ -4966,7 +4966,7 @@
         <v>2.2</v>
       </c>
       <c r="R25" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S25" t="n">
         <v>1.5</v>
@@ -4984,10 +4984,10 @@
         <v>7</v>
       </c>
       <c r="X25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y25" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z25" t="n">
         <v>21</v>
@@ -4999,7 +4999,7 @@
         <v>34</v>
       </c>
       <c r="AC25" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD25" t="n">
         <v>6</v>
@@ -5056,7 +5056,7 @@
         <v>8.5</v>
       </c>
       <c r="AV25" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW25" t="n">
         <v>5</v>
@@ -5068,7 +5068,7 @@
         <v>29</v>
       </c>
       <c r="AZ25" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA25" t="n">
         <v>81</v>
@@ -5115,7 +5115,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="H26" t="n">
         <v>5.5</v>
@@ -5262,7 +5262,7 @@
         <v>351</v>
       </c>
       <c r="BD26" t="n">
-        <v>176</v>
+        <v>151</v>
       </c>
     </row>
     <row r="27">
@@ -6753,7 +6753,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="H35" t="n">
         <v>3.3</v>
@@ -6768,7 +6768,7 @@
         <v>2.1</v>
       </c>
       <c r="L35" t="n">
-        <v>4.5</v>
+        <v>4.45</v>
       </c>
       <c r="M35" t="n">
         <v>1.01</v>
@@ -6777,13 +6777,13 @@
         <v>8</v>
       </c>
       <c r="O35" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P35" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R35" t="n">
         <v>1.75</v>
@@ -6798,7 +6798,7 @@
         <v>1.78</v>
       </c>
       <c r="V35" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="W35" t="n">
         <v>6.5</v>
@@ -6828,19 +6828,19 @@
         <v>15</v>
       </c>
       <c r="AF35" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AG35" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AH35" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI35" t="n">
         <v>14</v>
       </c>
       <c r="AJ35" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AK35" t="n">
         <v>40</v>
@@ -6873,7 +6873,7 @@
         <v>2.57</v>
       </c>
       <c r="AU35" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AV35" t="n">
         <v>60</v>
@@ -6885,7 +6885,7 @@
         <v>23</v>
       </c>
       <c r="AY35" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AZ35" t="n">
         <v>120</v>
@@ -6894,7 +6894,7 @@
         <v>150</v>
       </c>
       <c r="BB35" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="BC35" t="n">
         <v>51</v>
@@ -6935,22 +6935,22 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="H36" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I36" t="n">
         <v>2.3</v>
       </c>
       <c r="J36" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K36" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="L36" t="n">
-        <v>2.87</v>
+        <v>2.95</v>
       </c>
       <c r="M36" t="n">
         <v>1.02</v>
@@ -6959,10 +6959,10 @@
         <v>9.449999999999999</v>
       </c>
       <c r="O36" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P36" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="Q36" t="n">
         <v>1.87</v>
@@ -6971,10 +6971,10 @@
         <v>1.83</v>
       </c>
       <c r="S36" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="T36" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="U36" t="n">
         <v>1.62</v>
@@ -6983,55 +6983,55 @@
         <v>2.02</v>
       </c>
       <c r="W36" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X36" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Y36" t="n">
         <v>10.5</v>
       </c>
       <c r="Z36" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AA36" t="n">
         <v>25</v>
       </c>
       <c r="AB36" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AC36" t="n">
         <v>9.75</v>
       </c>
       <c r="AD36" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AE36" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AF36" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AG36" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AH36" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AI36" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AJ36" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK36" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AL36" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AM36" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AN36" t="n">
         <v>4.9</v>
@@ -7040,19 +7040,19 @@
         <v>16.5</v>
       </c>
       <c r="AP36" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ36" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AR36" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AS36" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AT36" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="AU36" t="n">
         <v>6.6</v>
@@ -7064,16 +7064,16 @@
         <v>4.25</v>
       </c>
       <c r="AX36" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AY36" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AZ36" t="n">
         <v>50</v>
       </c>
       <c r="BA36" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="BB36" t="n">
         <v>250</v>
@@ -7120,19 +7120,19 @@
         <v>2.22</v>
       </c>
       <c r="H37" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I37" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="J37" t="n">
         <v>2.85</v>
       </c>
       <c r="K37" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="L37" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="M37" t="n">
         <v>1.02</v>
@@ -7144,7 +7144,7 @@
         <v>1.37</v>
       </c>
       <c r="P37" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="Q37" t="n">
         <v>2.07</v>
@@ -7159,13 +7159,13 @@
         <v>2.45</v>
       </c>
       <c r="U37" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="V37" t="n">
         <v>1.75</v>
       </c>
       <c r="W37" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="X37" t="n">
         <v>10</v>
@@ -7177,7 +7177,7 @@
         <v>21</v>
       </c>
       <c r="AA37" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AB37" t="n">
         <v>35</v>
@@ -7186,16 +7186,16 @@
         <v>8.25</v>
       </c>
       <c r="AD37" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AE37" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AF37" t="n">
         <v>90</v>
       </c>
       <c r="AG37" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AH37" t="n">
         <v>14.5</v>
@@ -7234,7 +7234,7 @@
         <v>300</v>
       </c>
       <c r="AT37" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="AU37" t="n">
         <v>7.5</v>
@@ -7243,10 +7243,10 @@
         <v>75</v>
       </c>
       <c r="AW37" t="n">
-        <v>4.8</v>
+        <v>4.75</v>
       </c>
       <c r="AX37" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AY37" t="n">
         <v>26</v>
@@ -7258,7 +7258,7 @@
         <v>120</v>
       </c>
       <c r="BB37" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="BC37" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-12.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-12.xlsx
@@ -1293,7 +1293,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="H5" t="n">
         <v>3.7</v>
@@ -1475,7 +1475,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H6" t="n">
         <v>3.1</v>
@@ -1508,7 +1508,7 @@
         <v>2.4</v>
       </c>
       <c r="R6" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S6" t="n">
         <v>1.53</v>
@@ -2385,22 +2385,22 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="H11" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I11" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="J11" t="n">
-        <v>4.25</v>
+        <v>4.3</v>
       </c>
       <c r="K11" t="n">
         <v>1.98</v>
       </c>
       <c r="L11" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="M11" t="n">
         <v>1.03</v>
@@ -2418,31 +2418,31 @@
         <v>2.2</v>
       </c>
       <c r="R11" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="S11" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="T11" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="U11" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="V11" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="W11" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X11" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Y11" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AA11" t="n">
         <v>40</v>
@@ -2451,7 +2451,7 @@
         <v>55</v>
       </c>
       <c r="AC11" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AD11" t="n">
         <v>6.1</v>
@@ -2463,16 +2463,16 @@
         <v>100</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="AH11" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AI11" t="n">
         <v>9</v>
       </c>
       <c r="AJ11" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AK11" t="n">
         <v>18.5</v>
@@ -2484,13 +2484,13 @@
         <v>201</v>
       </c>
       <c r="AN11" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="AO11" t="n">
         <v>22</v>
       </c>
       <c r="AP11" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AQ11" t="n">
         <v>120</v>
@@ -2505,28 +2505,28 @@
         <v>2.32</v>
       </c>
       <c r="AU11" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AV11" t="n">
         <v>80</v>
       </c>
       <c r="AW11" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="AX11" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AY11" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AZ11" t="n">
         <v>40</v>
       </c>
       <c r="BA11" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="BB11" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="BC11" t="n">
         <v>51</v>
@@ -2633,7 +2633,7 @@
         <v>22</v>
       </c>
       <c r="AC12" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AD12" t="n">
         <v>7.1</v>
@@ -2672,7 +2672,7 @@
         <v>8.5</v>
       </c>
       <c r="AP12" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AQ12" t="n">
         <v>28</v>
@@ -2684,7 +2684,7 @@
         <v>175</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="AU12" t="n">
         <v>6.9</v>
@@ -2696,10 +2696,10 @@
         <v>6</v>
       </c>
       <c r="AX12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AY12" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AZ12" t="n">
         <v>120</v>
@@ -2821,7 +2821,7 @@
         <v>7.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF13" t="n">
         <v>34</v>
@@ -2830,13 +2830,13 @@
         <v>13</v>
       </c>
       <c r="AH13" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI13" t="n">
         <v>11</v>
       </c>
       <c r="AJ13" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AK13" t="n">
         <v>21</v>
@@ -2848,10 +2848,10 @@
         <v>101</v>
       </c>
       <c r="AN13" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AO13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP13" t="n">
         <v>17</v>
@@ -2860,7 +2860,7 @@
         <v>34</v>
       </c>
       <c r="AR13" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS13" t="n">
         <v>101</v>
@@ -2893,7 +2893,7 @@
         <v>101</v>
       </c>
       <c r="BC13" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BD13" t="n">
         <v>151</v>
@@ -3853,7 +3853,7 @@
         <v>3.4</v>
       </c>
       <c r="K19" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="L19" t="n">
         <v>3.75</v>
@@ -4205,7 +4205,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="H21" t="n">
         <v>3.5</v>
@@ -4214,7 +4214,7 @@
         <v>5</v>
       </c>
       <c r="J21" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="K21" t="n">
         <v>2.1</v>
@@ -4235,10 +4235,10 @@
         <v>3.25</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R21" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S21" t="n">
         <v>1.44</v>
@@ -4271,10 +4271,10 @@
         <v>29</v>
       </c>
       <c r="AC21" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD21" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE21" t="n">
         <v>17</v>
@@ -4301,7 +4301,7 @@
         <v>41</v>
       </c>
       <c r="AM21" t="n">
-        <v>1000</v>
+        <v>351</v>
       </c>
       <c r="AN21" t="n">
         <v>3.6</v>
@@ -4325,7 +4325,7 @@
         <v>2.63</v>
       </c>
       <c r="AU21" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV21" t="n">
         <v>67</v>
@@ -4334,7 +4334,7 @@
         <v>6.5</v>
       </c>
       <c r="AX21" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AY21" t="n">
         <v>34</v>
@@ -4420,7 +4420,7 @@
         <v>2.15</v>
       </c>
       <c r="R22" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="S22" t="n">
         <v>1.44</v>
@@ -4575,7 +4575,7 @@
         <v>3.3</v>
       </c>
       <c r="I23" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="J23" t="n">
         <v>3.2</v>
@@ -4602,7 +4602,7 @@
         <v>2.2</v>
       </c>
       <c r="R23" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S23" t="n">
         <v>1.5</v>
@@ -4784,7 +4784,7 @@
         <v>2.05</v>
       </c>
       <c r="R24" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="S24" t="n">
         <v>1.44</v>
@@ -4966,7 +4966,7 @@
         <v>2.2</v>
       </c>
       <c r="R25" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S25" t="n">
         <v>1.5</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-12.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-12.xlsx
@@ -2403,10 +2403,10 @@
         <v>2.62</v>
       </c>
       <c r="M11" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>6.65</v>
+        <v>6.55</v>
       </c>
       <c r="O11" t="n">
         <v>1.42</v>
@@ -4417,10 +4417,10 @@
         <v>3</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R22" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S22" t="n">
         <v>1.44</v>
@@ -4751,13 +4751,13 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H24" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I24" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="J24" t="n">
         <v>2.75</v>
@@ -4766,13 +4766,13 @@
         <v>2.1</v>
       </c>
       <c r="L24" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M24" t="n">
         <v>1.07</v>
       </c>
       <c r="N24" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O24" t="n">
         <v>1.33</v>
@@ -4781,10 +4781,10 @@
         <v>3.25</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R24" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S24" t="n">
         <v>1.44</v>
@@ -4799,7 +4799,7 @@
         <v>1.83</v>
       </c>
       <c r="W24" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X24" t="n">
         <v>9.5</v>
@@ -4808,7 +4808,7 @@
         <v>9</v>
       </c>
       <c r="Z24" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA24" t="n">
         <v>17</v>
@@ -4817,7 +4817,7 @@
         <v>29</v>
       </c>
       <c r="AC24" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD24" t="n">
         <v>6</v>
@@ -4841,7 +4841,7 @@
         <v>41</v>
       </c>
       <c r="AK24" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL24" t="n">
         <v>41</v>
@@ -4889,7 +4889,7 @@
         <v>67</v>
       </c>
       <c r="BA24" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB24" t="n">
         <v>201</v>
@@ -5306,25 +5306,25 @@
         <v>3</v>
       </c>
       <c r="J27" t="n">
-        <v>2.77</v>
+        <v>2.82</v>
       </c>
       <c r="K27" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="L27" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="M27" t="n">
         <v>1.07</v>
       </c>
       <c r="N27" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="O27" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P27" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="Q27" t="n">
         <v>1.98</v>
@@ -5333,64 +5333,64 @@
         <v>1.78</v>
       </c>
       <c r="S27" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="T27" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="U27" t="n">
         <v>1.75</v>
       </c>
       <c r="V27" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="W27" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="X27" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="Y27" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="Z27" t="n">
         <v>22</v>
       </c>
       <c r="AA27" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AB27" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AC27" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AD27" t="n">
         <v>6.2</v>
       </c>
       <c r="AE27" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AF27" t="n">
         <v>65</v>
       </c>
       <c r="AG27" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AI27" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AJ27" t="n">
         <v>40</v>
       </c>
       <c r="AK27" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AL27" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AM27" t="n">
         <v>500</v>
@@ -5399,40 +5399,40 @@
         <v>4.2</v>
       </c>
       <c r="AO27" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="AP27" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AQ27" t="n">
         <v>45</v>
       </c>
       <c r="AR27" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AS27" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AT27" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="AU27" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AV27" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AW27" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="AX27" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AY27" t="n">
         <v>23</v>
       </c>
       <c r="AZ27" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="BA27" t="n">
         <v>110</v>
@@ -6753,22 +6753,22 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="H35" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I35" t="n">
-        <v>4.25</v>
+        <v>4.2</v>
       </c>
       <c r="J35" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="K35" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="L35" t="n">
-        <v>4.45</v>
+        <v>4.55</v>
       </c>
       <c r="M35" t="n">
         <v>1.01</v>
@@ -6777,13 +6777,13 @@
         <v>8</v>
       </c>
       <c r="O35" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P35" t="n">
-        <v>2.92</v>
+        <v>2.87</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R35" t="n">
         <v>1.75</v>
@@ -6795,13 +6795,13 @@
         <v>2.52</v>
       </c>
       <c r="U35" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="V35" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W35" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="X35" t="n">
         <v>8.25</v>
@@ -6825,43 +6825,43 @@
         <v>6.5</v>
       </c>
       <c r="AE35" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AF35" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AG35" t="n">
-        <v>11.75</v>
+        <v>11</v>
       </c>
       <c r="AH35" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AI35" t="n">
         <v>14</v>
       </c>
       <c r="AJ35" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AK35" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AL35" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AM35" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AN35" t="n">
         <v>3.65</v>
       </c>
       <c r="AO35" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AP35" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AQ35" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AR35" t="n">
         <v>60</v>
@@ -6873,28 +6873,28 @@
         <v>2.57</v>
       </c>
       <c r="AU35" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="AV35" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AW35" t="n">
         <v>6</v>
       </c>
       <c r="AX35" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AY35" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AZ35" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="BA35" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="BB35" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="BC35" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-12.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-12.xlsx
@@ -1481,7 +1481,7 @@
         <v>3.1</v>
       </c>
       <c r="I6" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J6" t="n">
         <v>3.25</v>
@@ -1493,10 +1493,10 @@
         <v>3.75</v>
       </c>
       <c r="M6" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O6" t="n">
         <v>1.44</v>
@@ -1607,7 +1607,7 @@
         <v>19</v>
       </c>
       <c r="AY6" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ6" t="n">
         <v>67</v>
@@ -1705,7 +1705,7 @@
         <v>1.44</v>
       </c>
       <c r="W7" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="X7" t="n">
         <v>8</v>
@@ -1729,7 +1729,7 @@
         <v>6.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF7" t="n">
         <v>101</v>
@@ -1738,10 +1738,10 @@
         <v>7.5</v>
       </c>
       <c r="AH7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI7" t="n">
         <v>17</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>15</v>
       </c>
       <c r="AJ7" t="n">
         <v>41</v>
@@ -1765,7 +1765,7 @@
         <v>34</v>
       </c>
       <c r="AQ7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR7" t="n">
         <v>101</v>
@@ -1857,7 +1857,7 @@
         <v>3.75</v>
       </c>
       <c r="M8" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N8" t="n">
         <v>11</v>
@@ -1866,13 +1866,13 @@
         <v>1.25</v>
       </c>
       <c r="P8" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R8" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S8" t="n">
         <v>1.4</v>
@@ -2021,13 +2021,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="H9" t="n">
         <v>3.5</v>
       </c>
       <c r="I9" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="J9" t="n">
         <v>3</v>
@@ -2039,13 +2039,13 @@
         <v>3.25</v>
       </c>
       <c r="M9" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N9" t="n">
         <v>13</v>
       </c>
       <c r="O9" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="P9" t="n">
         <v>4</v>
@@ -2081,7 +2081,7 @@
         <v>23</v>
       </c>
       <c r="AA9" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB9" t="n">
         <v>23</v>
@@ -2120,7 +2120,7 @@
         <v>151</v>
       </c>
       <c r="AN9" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO9" t="n">
         <v>13</v>
@@ -2156,7 +2156,7 @@
         <v>21</v>
       </c>
       <c r="AZ9" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA9" t="n">
         <v>51</v>
@@ -2770,7 +2770,7 @@
         <v>1.03</v>
       </c>
       <c r="N13" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O13" t="n">
         <v>1.17</v>
@@ -2952,7 +2952,7 @@
         <v>1.08</v>
       </c>
       <c r="N14" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O14" t="n">
         <v>1.44</v>
@@ -2979,7 +2979,7 @@
         <v>1.73</v>
       </c>
       <c r="W14" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X14" t="n">
         <v>9</v>
@@ -3295,28 +3295,28 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="H16" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I16" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="J16" t="n">
         <v>3.1</v>
       </c>
       <c r="K16" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L16" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M16" t="n">
         <v>1.07</v>
       </c>
       <c r="N16" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O16" t="n">
         <v>1.36</v>
@@ -3325,10 +3325,10 @@
         <v>3</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R16" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S16" t="n">
         <v>1.44</v>
@@ -3337,16 +3337,16 @@
         <v>2.63</v>
       </c>
       <c r="U16" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V16" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W16" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y16" t="n">
         <v>10</v>
@@ -3358,13 +3358,13 @@
         <v>21</v>
       </c>
       <c r="AB16" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC16" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE16" t="n">
         <v>15</v>
@@ -3376,7 +3376,7 @@
         <v>8.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI16" t="n">
         <v>11</v>
@@ -3385,22 +3385,22 @@
         <v>29</v>
       </c>
       <c r="AK16" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL16" t="n">
         <v>34</v>
       </c>
       <c r="AM16" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AN16" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO16" t="n">
         <v>13</v>
       </c>
       <c r="AP16" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ16" t="n">
         <v>41</v>
@@ -3409,7 +3409,7 @@
         <v>67</v>
       </c>
       <c r="AS16" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT16" t="n">
         <v>2.63</v>
@@ -3427,7 +3427,7 @@
         <v>17</v>
       </c>
       <c r="AY16" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ16" t="n">
         <v>51</v>
@@ -3477,28 +3477,28 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="H17" t="n">
         <v>3.2</v>
       </c>
       <c r="I17" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="J17" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K17" t="n">
         <v>2.05</v>
       </c>
       <c r="L17" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M17" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N17" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O17" t="n">
         <v>1.33</v>
@@ -3525,25 +3525,25 @@
         <v>1.83</v>
       </c>
       <c r="W17" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z17" t="n">
         <v>26</v>
       </c>
       <c r="AA17" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB17" t="n">
         <v>34</v>
       </c>
       <c r="AC17" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD17" t="n">
         <v>6.5</v>
@@ -3558,16 +3558,16 @@
         <v>8</v>
       </c>
       <c r="AH17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ17" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AK17" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL17" t="n">
         <v>34</v>
@@ -3576,7 +3576,7 @@
         <v>301</v>
       </c>
       <c r="AN17" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO17" t="n">
         <v>15</v>
@@ -3588,7 +3588,7 @@
         <v>51</v>
       </c>
       <c r="AR17" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS17" t="n">
         <v>201</v>
@@ -3603,7 +3603,7 @@
         <v>51</v>
       </c>
       <c r="AW17" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AX17" t="n">
         <v>15</v>
@@ -3615,7 +3615,7 @@
         <v>51</v>
       </c>
       <c r="BA17" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB17" t="n">
         <v>201</v>
@@ -4417,10 +4417,10 @@
         <v>3</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R22" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S22" t="n">
         <v>1.44</v>
@@ -5300,10 +5300,10 @@
         <v>2.2</v>
       </c>
       <c r="H27" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I27" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="J27" t="n">
         <v>2.82</v>
@@ -5312,7 +5312,7 @@
         <v>2.1</v>
       </c>
       <c r="L27" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="M27" t="n">
         <v>1.07</v>
@@ -5336,7 +5336,7 @@
         <v>1.4</v>
       </c>
       <c r="T27" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="U27" t="n">
         <v>1.75</v>
@@ -5345,22 +5345,22 @@
         <v>1.98</v>
       </c>
       <c r="W27" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="X27" t="n">
         <v>10.75</v>
       </c>
       <c r="Y27" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="Z27" t="n">
         <v>22</v>
       </c>
       <c r="AA27" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AB27" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC27" t="n">
         <v>7</v>
@@ -5375,7 +5375,7 @@
         <v>65</v>
       </c>
       <c r="AG27" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AH27" t="n">
         <v>16</v>
@@ -5387,16 +5387,16 @@
         <v>40</v>
       </c>
       <c r="AK27" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL27" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AM27" t="n">
         <v>500</v>
       </c>
       <c r="AN27" t="n">
-        <v>4.2</v>
+        <v>4.15</v>
       </c>
       <c r="AO27" t="n">
         <v>11.75</v>
@@ -5414,7 +5414,7 @@
         <v>250</v>
       </c>
       <c r="AT27" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="AU27" t="n">
         <v>6.9</v>
@@ -5426,13 +5426,13 @@
         <v>5</v>
       </c>
       <c r="AX27" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AY27" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AZ27" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="BA27" t="n">
         <v>110</v>
@@ -6759,7 +6759,7 @@
         <v>3.35</v>
       </c>
       <c r="I35" t="n">
-        <v>4.2</v>
+        <v>4.25</v>
       </c>
       <c r="J35" t="n">
         <v>2.35</v>
@@ -6768,7 +6768,7 @@
         <v>2.12</v>
       </c>
       <c r="L35" t="n">
-        <v>4.55</v>
+        <v>4.5</v>
       </c>
       <c r="M35" t="n">
         <v>1.01</v>
@@ -6780,10 +6780,10 @@
         <v>1.31</v>
       </c>
       <c r="P35" t="n">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R35" t="n">
         <v>1.75</v>
@@ -6798,7 +6798,7 @@
         <v>1.8</v>
       </c>
       <c r="V35" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="W35" t="n">
         <v>6.6</v>
@@ -6831,10 +6831,10 @@
         <v>75</v>
       </c>
       <c r="AG35" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AH35" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI35" t="n">
         <v>14</v>
@@ -6846,10 +6846,10 @@
         <v>45</v>
       </c>
       <c r="AL35" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AM35" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AN35" t="n">
         <v>3.65</v>
@@ -6876,7 +6876,7 @@
         <v>7.1</v>
       </c>
       <c r="AV35" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AW35" t="n">
         <v>6</v>
@@ -6885,13 +6885,13 @@
         <v>24</v>
       </c>
       <c r="AY35" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AZ35" t="n">
+        <v>120</v>
+      </c>
+      <c r="BA35" t="n">
         <v>150</v>
-      </c>
-      <c r="BA35" t="n">
-        <v>175</v>
       </c>
       <c r="BB35" t="n">
         <v>350</v>
@@ -6935,22 +6935,22 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="H36" t="n">
         <v>3.1</v>
       </c>
       <c r="I36" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="J36" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K36" t="n">
         <v>2.02</v>
       </c>
       <c r="L36" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="M36" t="n">
         <v>1.02</v>
@@ -6965,16 +6965,16 @@
         <v>3.05</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="R36" t="n">
         <v>1.83</v>
       </c>
       <c r="S36" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="T36" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="U36" t="n">
         <v>1.62</v>
@@ -6986,28 +6986,28 @@
         <v>10</v>
       </c>
       <c r="X36" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Y36" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="Z36" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AA36" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AB36" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC36" t="n">
         <v>9.75</v>
       </c>
       <c r="AD36" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AE36" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AF36" t="n">
         <v>50</v>
@@ -7025,28 +7025,28 @@
         <v>25</v>
       </c>
       <c r="AK36" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AL36" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM36" t="n">
         <v>350</v>
       </c>
       <c r="AN36" t="n">
-        <v>4.9</v>
+        <v>4.85</v>
       </c>
       <c r="AO36" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AP36" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ36" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AR36" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AS36" t="n">
         <v>250</v>
@@ -7061,7 +7061,7 @@
         <v>55</v>
       </c>
       <c r="AW36" t="n">
-        <v>4.25</v>
+        <v>4.3</v>
       </c>
       <c r="AX36" t="n">
         <v>12.5</v>
@@ -7070,10 +7070,10 @@
         <v>20</v>
       </c>
       <c r="AZ36" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="BA36" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="BB36" t="n">
         <v>250</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-12.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-12.xlsx
@@ -1857,13 +1857,13 @@
         <v>3.75</v>
       </c>
       <c r="M8" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N8" t="n">
         <v>11</v>
       </c>
       <c r="O8" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P8" t="n">
         <v>3.5</v>
@@ -2039,13 +2039,13 @@
         <v>3.25</v>
       </c>
       <c r="M9" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N9" t="n">
         <v>13</v>
       </c>
       <c r="O9" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P9" t="n">
         <v>4</v>
@@ -2749,7 +2749,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H13" t="n">
         <v>3.6</v>
@@ -2770,7 +2770,7 @@
         <v>1.03</v>
       </c>
       <c r="N13" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O13" t="n">
         <v>1.17</v>
@@ -2821,7 +2821,7 @@
         <v>7.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF13" t="n">
         <v>34</v>
@@ -2884,7 +2884,7 @@
         <v>21</v>
       </c>
       <c r="AZ13" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA13" t="n">
         <v>51</v>
@@ -2893,7 +2893,7 @@
         <v>101</v>
       </c>
       <c r="BC13" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BD13" t="n">
         <v>151</v>
@@ -3131,10 +3131,10 @@
         <v>6</v>
       </c>
       <c r="M15" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="O15" t="n">
         <v>1.3</v>
@@ -3477,28 +3477,28 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="H17" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I17" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="J17" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K17" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L17" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M17" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O17" t="n">
         <v>1.33</v>
@@ -3507,10 +3507,10 @@
         <v>3.25</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R17" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="S17" t="n">
         <v>1.44</v>
@@ -3525,7 +3525,7 @@
         <v>1.83</v>
       </c>
       <c r="W17" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X17" t="n">
         <v>13</v>
@@ -3534,7 +3534,7 @@
         <v>11</v>
       </c>
       <c r="Z17" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA17" t="n">
         <v>23</v>
@@ -3543,7 +3543,7 @@
         <v>34</v>
       </c>
       <c r="AC17" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD17" t="n">
         <v>6.5</v>
@@ -3558,28 +3558,28 @@
         <v>8</v>
       </c>
       <c r="AH17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI17" t="n">
         <v>10</v>
       </c>
       <c r="AJ17" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AK17" t="n">
         <v>21</v>
       </c>
       <c r="AL17" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM17" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AN17" t="n">
         <v>4.75</v>
       </c>
       <c r="AO17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP17" t="n">
         <v>26</v>
@@ -3606,19 +3606,19 @@
         <v>4.5</v>
       </c>
       <c r="AX17" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AY17" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ17" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA17" t="n">
         <v>67</v>
       </c>
       <c r="BB17" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC17" t="n">
         <v>81</v>
@@ -4575,10 +4575,10 @@
         <v>3.3</v>
       </c>
       <c r="I23" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="J23" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K23" t="n">
         <v>2.05</v>
@@ -4659,7 +4659,7 @@
         <v>29</v>
       </c>
       <c r="AK23" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL23" t="n">
         <v>34</v>
@@ -4680,7 +4680,7 @@
         <v>51</v>
       </c>
       <c r="AR23" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS23" t="n">
         <v>201</v>
@@ -4772,7 +4772,7 @@
         <v>1.07</v>
       </c>
       <c r="N24" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O24" t="n">
         <v>1.33</v>
@@ -5479,28 +5479,28 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="H28" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="I28" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="J28" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K28" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="L28" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="M28" t="n">
         <v>1.06</v>
       </c>
       <c r="N28" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="O28" t="n">
         <v>1.3</v>
@@ -5515,28 +5515,28 @@
         <v>1.83</v>
       </c>
       <c r="S28" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="T28" t="n">
-        <v>2.72</v>
+        <v>2.67</v>
       </c>
       <c r="U28" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="V28" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W28" t="n">
         <v>8.5</v>
       </c>
       <c r="X28" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Y28" t="n">
         <v>9.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AA28" t="n">
         <v>21</v>
@@ -5545,64 +5545,64 @@
         <v>29</v>
       </c>
       <c r="AC28" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AD28" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AE28" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AF28" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AG28" t="n">
         <v>8.75</v>
       </c>
       <c r="AH28" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AI28" t="n">
         <v>9.75</v>
       </c>
       <c r="AJ28" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AK28" t="n">
         <v>21</v>
       </c>
       <c r="AL28" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AM28" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AN28" t="n">
         <v>4.5</v>
       </c>
       <c r="AO28" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AP28" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ28" t="n">
         <v>60</v>
       </c>
       <c r="AR28" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AS28" t="n">
         <v>300</v>
       </c>
       <c r="AT28" t="n">
-        <v>2.72</v>
+        <v>2.67</v>
       </c>
       <c r="AU28" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="AV28" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AW28" t="n">
         <v>4.55</v>
@@ -5614,7 +5614,7 @@
         <v>22</v>
       </c>
       <c r="AZ28" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="BA28" t="n">
         <v>100</v>
@@ -5843,28 +5843,28 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="H30" t="n">
-        <v>4.3</v>
+        <v>4.45</v>
       </c>
       <c r="I30" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="J30" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="K30" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="L30" t="n">
-        <v>4.75</v>
+        <v>4.8</v>
       </c>
       <c r="M30" t="n">
         <v>1.02</v>
       </c>
       <c r="N30" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="O30" t="n">
         <v>1.13</v>
@@ -5882,13 +5882,13 @@
         <v>1.23</v>
       </c>
       <c r="T30" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="U30" t="n">
         <v>1.53</v>
       </c>
       <c r="V30" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="W30" t="n">
         <v>11</v>
@@ -5897,28 +5897,28 @@
         <v>9.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="Z30" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AA30" t="n">
         <v>10.75</v>
       </c>
       <c r="AB30" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AC30" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD30" t="n">
         <v>9.75</v>
       </c>
-      <c r="AD30" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AE30" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AF30" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AG30" t="n">
         <v>22</v>
@@ -5939,19 +5939,19 @@
         <v>35</v>
       </c>
       <c r="AM30" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AN30" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="AO30" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AP30" t="n">
         <v>12.5</v>
       </c>
       <c r="AQ30" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AR30" t="n">
         <v>32</v>
@@ -5960,13 +5960,13 @@
         <v>110</v>
       </c>
       <c r="AT30" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="AU30" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AV30" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AW30" t="n">
         <v>7.4</v>
@@ -5975,13 +5975,13 @@
         <v>25</v>
       </c>
       <c r="AY30" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AZ30" t="n">
         <v>120</v>
       </c>
       <c r="BA30" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="BB30" t="n">
         <v>200</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-12.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-12.xlsx
@@ -765,10 +765,10 @@
         <v>7.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="O2" t="n">
         <v>1.3</v>
@@ -3027,7 +3027,7 @@
         <v>41</v>
       </c>
       <c r="AM14" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="AN14" t="n">
         <v>4</v>
@@ -3477,13 +3477,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="H17" t="n">
         <v>3.25</v>
       </c>
       <c r="I17" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="J17" t="n">
         <v>3.5</v>
@@ -3492,13 +3492,13 @@
         <v>2.1</v>
       </c>
       <c r="L17" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M17" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N17" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O17" t="n">
         <v>1.33</v>
@@ -3543,7 +3543,7 @@
         <v>34</v>
       </c>
       <c r="AC17" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD17" t="n">
         <v>6.5</v>
@@ -3555,10 +3555,10 @@
         <v>51</v>
       </c>
       <c r="AG17" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI17" t="n">
         <v>10</v>
@@ -3570,10 +3570,10 @@
         <v>21</v>
       </c>
       <c r="AL17" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM17" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AN17" t="n">
         <v>4.75</v>
@@ -3606,19 +3606,19 @@
         <v>4.5</v>
       </c>
       <c r="AX17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AY17" t="n">
         <v>23</v>
       </c>
       <c r="AZ17" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA17" t="n">
         <v>67</v>
       </c>
       <c r="BB17" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC17" t="n">
         <v>81</v>
@@ -3659,7 +3659,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="H18" t="n">
         <v>3.35</v>
@@ -3668,10 +3668,10 @@
         <v>2.55</v>
       </c>
       <c r="J18" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K18" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="L18" t="n">
         <v>3.1</v>
@@ -3683,10 +3683,10 @@
         <v>6.9</v>
       </c>
       <c r="O18" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P18" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="Q18" t="n">
         <v>2.05</v>
@@ -3695,28 +3695,28 @@
         <v>1.72</v>
       </c>
       <c r="S18" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="T18" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="U18" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="V18" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="W18" t="n">
         <v>7.9</v>
       </c>
       <c r="X18" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y18" t="n">
         <v>10</v>
       </c>
       <c r="Z18" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AA18" t="n">
         <v>22</v>
@@ -3731,13 +3731,13 @@
         <v>6.4</v>
       </c>
       <c r="AE18" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AF18" t="n">
         <v>75</v>
       </c>
       <c r="AG18" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AH18" t="n">
         <v>12</v>
@@ -3746,22 +3746,22 @@
         <v>9.75</v>
       </c>
       <c r="AJ18" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AK18" t="n">
         <v>22</v>
       </c>
       <c r="AL18" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AM18" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AN18" t="n">
-        <v>4.5</v>
+        <v>4.45</v>
       </c>
       <c r="AO18" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AP18" t="n">
         <v>23</v>
@@ -3776,7 +3776,7 @@
         <v>300</v>
       </c>
       <c r="AT18" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AU18" t="n">
         <v>7.3</v>
@@ -3785,7 +3785,7 @@
         <v>70</v>
       </c>
       <c r="AW18" t="n">
-        <v>4.45</v>
+        <v>4.4</v>
       </c>
       <c r="AX18" t="n">
         <v>13.5</v>
@@ -4023,16 +4023,16 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="H20" t="n">
         <v>3.4</v>
       </c>
       <c r="I20" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J20" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K20" t="n">
         <v>2.05</v>
@@ -4044,7 +4044,7 @@
         <v>1.08</v>
       </c>
       <c r="N20" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O20" t="n">
         <v>1.4</v>
@@ -4092,7 +4092,7 @@
         <v>7.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE20" t="n">
         <v>21</v>
@@ -4122,7 +4122,7 @@
         <v>201</v>
       </c>
       <c r="AN20" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO20" t="n">
         <v>9.5</v>
@@ -4134,7 +4134,7 @@
         <v>34</v>
       </c>
       <c r="AR20" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS20" t="n">
         <v>201</v>
@@ -4158,7 +4158,7 @@
         <v>41</v>
       </c>
       <c r="AZ20" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BA20" t="n">
         <v>151</v>
@@ -4504,7 +4504,7 @@
         <v>201</v>
       </c>
       <c r="AT22" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="AU22" t="n">
         <v>8</v>
@@ -4868,7 +4868,7 @@
         <v>151</v>
       </c>
       <c r="AT24" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="AU24" t="n">
         <v>8</v>
@@ -5846,19 +5846,19 @@
         <v>1.47</v>
       </c>
       <c r="H30" t="n">
-        <v>4.45</v>
+        <v>4.4</v>
       </c>
       <c r="I30" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="J30" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="K30" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="L30" t="n">
-        <v>4.8</v>
+        <v>4.85</v>
       </c>
       <c r="M30" t="n">
         <v>1.02</v>
@@ -5882,7 +5882,7 @@
         <v>1.23</v>
       </c>
       <c r="T30" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="U30" t="n">
         <v>1.53</v>
@@ -5894,7 +5894,7 @@
         <v>11</v>
       </c>
       <c r="X30" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="Y30" t="n">
         <v>8.5</v>
@@ -5921,16 +5921,16 @@
         <v>45</v>
       </c>
       <c r="AG30" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AH30" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AI30" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AJ30" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AK30" t="n">
         <v>40</v>
@@ -5945,13 +5945,13 @@
         <v>3.8</v>
       </c>
       <c r="AO30" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AP30" t="n">
         <v>12.5</v>
       </c>
       <c r="AQ30" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AR30" t="n">
         <v>32</v>
@@ -5960,10 +5960,10 @@
         <v>110</v>
       </c>
       <c r="AT30" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="AU30" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AV30" t="n">
         <v>45</v>
@@ -5972,7 +5972,7 @@
         <v>7.4</v>
       </c>
       <c r="AX30" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AY30" t="n">
         <v>24</v>
@@ -6935,7 +6935,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="H36" t="n">
         <v>3.1</v>
@@ -6947,10 +6947,10 @@
         <v>3.4</v>
       </c>
       <c r="K36" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="L36" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="M36" t="n">
         <v>1.02</v>
@@ -6998,7 +6998,7 @@
         <v>24</v>
       </c>
       <c r="AB36" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AC36" t="n">
         <v>9.75</v>
@@ -7010,7 +7010,7 @@
         <v>12.5</v>
       </c>
       <c r="AF36" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AG36" t="n">
         <v>8</v>
@@ -7031,7 +7031,7 @@
         <v>27</v>
       </c>
       <c r="AM36" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AN36" t="n">
         <v>4.85</v>
@@ -7052,7 +7052,7 @@
         <v>250</v>
       </c>
       <c r="AT36" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="AU36" t="n">
         <v>6.6</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-12.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-12.xlsx
@@ -1863,16 +1863,16 @@
         <v>11</v>
       </c>
       <c r="O8" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P8" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R8" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S8" t="n">
         <v>1.4</v>
@@ -2021,13 +2021,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="H9" t="n">
         <v>3.5</v>
       </c>
       <c r="I9" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="J9" t="n">
         <v>3</v>
@@ -2081,7 +2081,7 @@
         <v>23</v>
       </c>
       <c r="AA9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB9" t="n">
         <v>23</v>
@@ -2120,7 +2120,7 @@
         <v>151</v>
       </c>
       <c r="AN9" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AO9" t="n">
         <v>13</v>
@@ -2156,7 +2156,7 @@
         <v>21</v>
       </c>
       <c r="AZ9" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA9" t="n">
         <v>51</v>
@@ -2168,7 +2168,7 @@
         <v>451</v>
       </c>
       <c r="BD9" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10">
@@ -2779,10 +2779,10 @@
         <v>5</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R13" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="S13" t="n">
         <v>1.29</v>
@@ -3477,28 +3477,28 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="H17" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I17" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="J17" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K17" t="n">
         <v>2.1</v>
       </c>
       <c r="L17" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M17" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O17" t="n">
         <v>1.33</v>
@@ -3507,10 +3507,10 @@
         <v>3.25</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R17" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S17" t="n">
         <v>1.44</v>
@@ -3555,7 +3555,7 @@
         <v>51</v>
       </c>
       <c r="AG17" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AH17" t="n">
         <v>12</v>
@@ -3564,7 +3564,7 @@
         <v>10</v>
       </c>
       <c r="AJ17" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AK17" t="n">
         <v>21</v>
@@ -3579,7 +3579,7 @@
         <v>4.75</v>
       </c>
       <c r="AO17" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP17" t="n">
         <v>26</v>
@@ -3609,7 +3609,7 @@
         <v>15</v>
       </c>
       <c r="AY17" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ17" t="n">
         <v>51</v>
@@ -3659,22 +3659,22 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.57</v>
+        <v>2.62</v>
       </c>
       <c r="H18" t="n">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="I18" t="n">
-        <v>2.55</v>
+        <v>2.65</v>
       </c>
       <c r="J18" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K18" t="n">
         <v>2.12</v>
       </c>
       <c r="L18" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="M18" t="n">
         <v>1.07</v>
@@ -3683,37 +3683,37 @@
         <v>6.9</v>
       </c>
       <c r="O18" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="P18" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="R18" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="S18" t="n">
         <v>1.4</v>
       </c>
       <c r="T18" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="U18" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V18" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="W18" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="X18" t="n">
         <v>12</v>
       </c>
       <c r="Y18" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="Z18" t="n">
         <v>27</v>
@@ -3722,7 +3722,7 @@
         <v>22</v>
       </c>
       <c r="AB18" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AC18" t="n">
         <v>6.9</v>
@@ -3731,22 +3731,22 @@
         <v>6.4</v>
       </c>
       <c r="AE18" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AF18" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AG18" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AH18" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AI18" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AJ18" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AK18" t="n">
         <v>22</v>
@@ -3755,7 +3755,7 @@
         <v>35</v>
       </c>
       <c r="AM18" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AN18" t="n">
         <v>4.45</v>
@@ -3764,28 +3764,28 @@
         <v>13.5</v>
       </c>
       <c r="AP18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ18" t="n">
         <v>60</v>
       </c>
       <c r="AR18" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AS18" t="n">
         <v>300</v>
       </c>
       <c r="AT18" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="AU18" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AV18" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AW18" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="AX18" t="n">
         <v>13.5</v>
@@ -4044,7 +4044,7 @@
         <v>1.08</v>
       </c>
       <c r="N20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O20" t="n">
         <v>1.4</v>
@@ -4504,7 +4504,7 @@
         <v>201</v>
       </c>
       <c r="AT22" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="AU22" t="n">
         <v>8</v>
@@ -4868,7 +4868,7 @@
         <v>151</v>
       </c>
       <c r="AT24" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="AU24" t="n">
         <v>8</v>
@@ -5145,10 +5145,10 @@
         <v>6.5</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="R26" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="S26" t="n">
         <v>1.22</v>
@@ -5479,22 +5479,22 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.52</v>
+        <v>2.37</v>
       </c>
       <c r="H28" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I28" t="n">
-        <v>2.57</v>
+        <v>2.72</v>
       </c>
       <c r="J28" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="K28" t="n">
         <v>2.07</v>
       </c>
       <c r="L28" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="M28" t="n">
         <v>1.06</v>
@@ -5527,22 +5527,22 @@
         <v>2.05</v>
       </c>
       <c r="W28" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="X28" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y28" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="Z28" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>20</v>
+      </c>
+      <c r="AB28" t="n">
         <v>28</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>29</v>
       </c>
       <c r="AC28" t="n">
         <v>7.2</v>
@@ -5557,43 +5557,43 @@
         <v>55</v>
       </c>
       <c r="AG28" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="AH28" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AI28" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AJ28" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AK28" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL28" t="n">
         <v>29</v>
       </c>
       <c r="AM28" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AN28" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="AO28" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP28" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ28" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AR28" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AS28" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AT28" t="n">
         <v>2.67</v>
@@ -5605,22 +5605,22 @@
         <v>60</v>
       </c>
       <c r="AW28" t="n">
-        <v>4.55</v>
+        <v>4.75</v>
       </c>
       <c r="AX28" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AY28" t="n">
         <v>22</v>
       </c>
       <c r="AZ28" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="BA28" t="n">
         <v>100</v>
       </c>
       <c r="BB28" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BC28" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-12.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-12.xlsx
@@ -1505,10 +1505,10 @@
         <v>2.63</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R6" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S6" t="n">
         <v>1.53</v>
@@ -1863,16 +1863,16 @@
         <v>11</v>
       </c>
       <c r="O8" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P8" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q8" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R8" t="n">
         <v>1.9</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.95</v>
       </c>
       <c r="S8" t="n">
         <v>1.4</v>
@@ -2021,22 +2021,22 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H9" t="n">
         <v>3.5</v>
       </c>
       <c r="I9" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J9" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K9" t="n">
         <v>2.25</v>
       </c>
       <c r="L9" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M9" t="n">
         <v>1.04</v>
@@ -2105,7 +2105,7 @@
         <v>15</v>
       </c>
       <c r="AI9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ9" t="n">
         <v>29</v>
@@ -2141,7 +2141,7 @@
         <v>3.25</v>
       </c>
       <c r="AU9" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV9" t="n">
         <v>41</v>
@@ -2168,7 +2168,7 @@
         <v>451</v>
       </c>
       <c r="BD9" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10">
@@ -2385,28 +2385,28 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="H11" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="I11" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="J11" t="n">
-        <v>4.3</v>
+        <v>4.15</v>
       </c>
       <c r="K11" t="n">
         <v>1.98</v>
       </c>
       <c r="L11" t="n">
-        <v>2.62</v>
+        <v>2.67</v>
       </c>
       <c r="M11" t="n">
         <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>6.55</v>
+        <v>6.5</v>
       </c>
       <c r="O11" t="n">
         <v>1.42</v>
@@ -2415,16 +2415,16 @@
         <v>2.47</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="R11" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="S11" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="T11" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="U11" t="n">
         <v>1.98</v>
@@ -2433,31 +2433,31 @@
         <v>1.65</v>
       </c>
       <c r="W11" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="X11" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Z11" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AA11" t="n">
         <v>40</v>
       </c>
       <c r="AB11" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AC11" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD11" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AE11" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AF11" t="n">
         <v>100</v>
@@ -2466,16 +2466,16 @@
         <v>5.8</v>
       </c>
       <c r="AH11" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AI11" t="n">
         <v>9</v>
       </c>
       <c r="AJ11" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AK11" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AL11" t="n">
         <v>37</v>
@@ -2484,13 +2484,13 @@
         <v>201</v>
       </c>
       <c r="AN11" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="AO11" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP11" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AQ11" t="n">
         <v>120</v>
@@ -2505,28 +2505,28 @@
         <v>2.32</v>
       </c>
       <c r="AU11" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AV11" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AW11" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="AX11" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="AY11" t="n">
         <v>22</v>
       </c>
       <c r="AZ11" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="BA11" t="n">
         <v>90</v>
       </c>
       <c r="BB11" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="BC11" t="n">
         <v>51</v>
@@ -3131,13 +3131,13 @@
         <v>6</v>
       </c>
       <c r="M15" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N15" t="n">
         <v>11</v>
       </c>
       <c r="O15" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="P15" t="n">
         <v>3.4</v>
@@ -3313,13 +3313,13 @@
         <v>3.6</v>
       </c>
       <c r="M16" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O16" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P16" t="n">
         <v>3</v>
@@ -3495,13 +3495,13 @@
         <v>3.25</v>
       </c>
       <c r="M17" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N17" t="n">
         <v>10</v>
       </c>
       <c r="O17" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P17" t="n">
         <v>3.25</v>
@@ -4769,10 +4769,10 @@
         <v>4</v>
       </c>
       <c r="M24" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O24" t="n">
         <v>1.33</v>
@@ -5685,7 +5685,7 @@
         <v>8</v>
       </c>
       <c r="O29" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P29" t="n">
         <v>3.6</v>
@@ -5694,7 +5694,7 @@
         <v>1.75</v>
       </c>
       <c r="R29" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="S29" t="n">
         <v>1.35</v>
@@ -5724,7 +5724,7 @@
         <v>19.5</v>
       </c>
       <c r="AB29" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AC29" t="n">
         <v>8</v>
@@ -5736,7 +5736,7 @@
         <v>13</v>
       </c>
       <c r="AF29" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AG29" t="n">
         <v>9.5</v>
@@ -5781,7 +5781,7 @@
         <v>2.95</v>
       </c>
       <c r="AU29" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AV29" t="n">
         <v>55</v>
@@ -5843,28 +5843,28 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
       <c r="H30" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="I30" t="n">
-        <v>5.1</v>
+        <v>4.6</v>
       </c>
       <c r="J30" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="K30" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="L30" t="n">
-        <v>4.85</v>
+        <v>4.6</v>
       </c>
       <c r="M30" t="n">
         <v>1.02</v>
       </c>
       <c r="N30" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="O30" t="n">
         <v>1.13</v>
@@ -5876,85 +5876,85 @@
         <v>1.42</v>
       </c>
       <c r="R30" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="S30" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="T30" t="n">
         <v>3.7</v>
       </c>
       <c r="U30" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="V30" t="n">
-        <v>2.32</v>
+        <v>2.37</v>
       </c>
       <c r="W30" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="X30" t="n">
-        <v>9.25</v>
+        <v>10</v>
       </c>
       <c r="Y30" t="n">
         <v>8.5</v>
       </c>
       <c r="Z30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA30" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AB30" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AC30" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AD30" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AE30" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AF30" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AG30" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AH30" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AI30" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AJ30" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK30" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AL30" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AM30" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AN30" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="AO30" t="n">
-        <v>6.9</v>
+        <v>7.2</v>
       </c>
       <c r="AP30" t="n">
         <v>12.5</v>
       </c>
       <c r="AQ30" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AR30" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AS30" t="n">
         <v>110</v>
@@ -5963,19 +5963,19 @@
         <v>3.7</v>
       </c>
       <c r="AU30" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AV30" t="n">
         <v>45</v>
       </c>
       <c r="AW30" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="AX30" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AY30" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ30" t="n">
         <v>120</v>
@@ -6025,40 +6025,40 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="H31" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I31" t="n">
-        <v>4.05</v>
+        <v>4.45</v>
       </c>
       <c r="J31" t="n">
-        <v>2.32</v>
+        <v>2.25</v>
       </c>
       <c r="K31" t="n">
         <v>2.2</v>
       </c>
       <c r="L31" t="n">
-        <v>4.45</v>
+        <v>4.7</v>
       </c>
       <c r="M31" t="n">
         <v>1.05</v>
       </c>
       <c r="N31" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="O31" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P31" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="R31" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="S31" t="n">
         <v>1.38</v>
@@ -6076,25 +6076,25 @@
         <v>7.2</v>
       </c>
       <c r="X31" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="Y31" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="Z31" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AA31" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AB31" t="n">
         <v>25</v>
       </c>
       <c r="AC31" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AD31" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AE31" t="n">
         <v>15</v>
@@ -6103,37 +6103,37 @@
         <v>65</v>
       </c>
       <c r="AG31" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH31" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AI31" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AJ31" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AK31" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AL31" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AM31" t="n">
         <v>500</v>
       </c>
       <c r="AN31" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="AO31" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="AP31" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AQ31" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AR31" t="n">
         <v>60</v>
@@ -6151,22 +6151,22 @@
         <v>65</v>
       </c>
       <c r="AW31" t="n">
-        <v>6</v>
+        <v>6.3</v>
       </c>
       <c r="AX31" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AY31" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AZ31" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="BA31" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="BB31" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="BC31" t="n">
         <v>51</v>
@@ -6207,28 +6207,28 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="H32" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I32" t="n">
         <v>2.62</v>
       </c>
       <c r="J32" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K32" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="L32" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M32" t="n">
         <v>1.06</v>
       </c>
       <c r="N32" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="O32" t="n">
         <v>1.29</v>
@@ -6255,7 +6255,7 @@
         <v>2.1</v>
       </c>
       <c r="W32" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="X32" t="n">
         <v>13</v>
@@ -6264,61 +6264,61 @@
         <v>9.5</v>
       </c>
       <c r="Z32" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AA32" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AB32" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AC32" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AD32" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AE32" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AF32" t="n">
         <v>55</v>
       </c>
       <c r="AG32" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH32" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AI32" t="n">
         <v>9.75</v>
       </c>
       <c r="AJ32" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AK32" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL32" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AM32" t="n">
         <v>400</v>
       </c>
       <c r="AN32" t="n">
-        <v>4.5</v>
+        <v>4.55</v>
       </c>
       <c r="AO32" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AP32" t="n">
         <v>21</v>
       </c>
       <c r="AQ32" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AR32" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AS32" t="n">
         <v>250</v>
@@ -6327,25 +6327,25 @@
         <v>2.72</v>
       </c>
       <c r="AU32" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="AV32" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AW32" t="n">
         <v>4.65</v>
       </c>
       <c r="AX32" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AY32" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ32" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="BA32" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="BB32" t="n">
         <v>250</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-12.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-12.xlsx
@@ -1293,28 +1293,28 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="H5" t="n">
         <v>3.7</v>
       </c>
       <c r="I5" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J5" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="K5" t="n">
         <v>2.25</v>
       </c>
       <c r="L5" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O5" t="n">
         <v>1.29</v>
@@ -1344,13 +1344,13 @@
         <v>7</v>
       </c>
       <c r="X5" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y5" t="n">
         <v>8.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA5" t="n">
         <v>13</v>
@@ -1371,7 +1371,7 @@
         <v>51</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH5" t="n">
         <v>26</v>
@@ -1395,13 +1395,13 @@
         <v>3.6</v>
       </c>
       <c r="AO5" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AP5" t="n">
         <v>19</v>
       </c>
       <c r="AQ5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR5" t="n">
         <v>51</v>
@@ -1428,10 +1428,10 @@
         <v>34</v>
       </c>
       <c r="AZ5" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA5" t="n">
         <v>101</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>126</v>
       </c>
       <c r="BB5" t="n">
         <v>251</v>
@@ -1869,10 +1869,10 @@
         <v>3.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R8" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S8" t="n">
         <v>1.4</v>
@@ -2168,7 +2168,7 @@
         <v>451</v>
       </c>
       <c r="BD9" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10">
@@ -3131,22 +3131,22 @@
         <v>6</v>
       </c>
       <c r="M15" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O15" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="P15" t="n">
         <v>3.4</v>
       </c>
       <c r="Q15" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="R15" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="S15" t="n">
         <v>1.4</v>
@@ -3313,13 +3313,13 @@
         <v>3.6</v>
       </c>
       <c r="M16" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N16" t="n">
         <v>9</v>
       </c>
       <c r="O16" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P16" t="n">
         <v>3</v>
@@ -3495,22 +3495,22 @@
         <v>3.25</v>
       </c>
       <c r="M17" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N17" t="n">
         <v>10</v>
       </c>
       <c r="O17" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P17" t="n">
         <v>3.25</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R17" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="S17" t="n">
         <v>1.44</v>
@@ -4751,13 +4751,13 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H24" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I24" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="J24" t="n">
         <v>2.75</v>
@@ -4766,13 +4766,13 @@
         <v>2.1</v>
       </c>
       <c r="L24" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M24" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O24" t="n">
         <v>1.33</v>
@@ -4781,10 +4781,10 @@
         <v>3.25</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R24" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="S24" t="n">
         <v>1.44</v>
@@ -4799,7 +4799,7 @@
         <v>1.83</v>
       </c>
       <c r="W24" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X24" t="n">
         <v>9.5</v>
@@ -4808,7 +4808,7 @@
         <v>9</v>
       </c>
       <c r="Z24" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA24" t="n">
         <v>17</v>
@@ -4817,7 +4817,7 @@
         <v>29</v>
       </c>
       <c r="AC24" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD24" t="n">
         <v>6</v>
@@ -4841,7 +4841,7 @@
         <v>41</v>
       </c>
       <c r="AK24" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL24" t="n">
         <v>41</v>
@@ -4889,7 +4889,7 @@
         <v>67</v>
       </c>
       <c r="BA24" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB24" t="n">
         <v>201</v>
@@ -6389,22 +6389,22 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3.2</v>
+        <v>2.92</v>
       </c>
       <c r="H33" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="I33" t="n">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="J33" t="n">
-        <v>3.7</v>
+        <v>3.45</v>
       </c>
       <c r="K33" t="n">
         <v>2.25</v>
       </c>
       <c r="L33" t="n">
-        <v>2.55</v>
+        <v>2.67</v>
       </c>
       <c r="M33" t="n">
         <v>1.04</v>
@@ -6419,10 +6419,10 @@
         <v>3.65</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="R33" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="S33" t="n">
         <v>1.35</v>
@@ -6434,31 +6434,31 @@
         <v>1.65</v>
       </c>
       <c r="V33" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="W33" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="X33" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="Y33" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="Z33" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AA33" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AB33" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AC33" t="n">
         <v>8.25</v>
       </c>
       <c r="AD33" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AE33" t="n">
         <v>13.5</v>
@@ -6467,19 +6467,19 @@
         <v>55</v>
       </c>
       <c r="AG33" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AH33" t="n">
-        <v>10.25</v>
+        <v>11</v>
       </c>
       <c r="AI33" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AJ33" t="n">
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
       <c r="AK33" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL33" t="n">
         <v>24</v>
@@ -6488,43 +6488,43 @@
         <v>350</v>
       </c>
       <c r="AN33" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="AO33" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AP33" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ33" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AR33" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AS33" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AT33" t="n">
         <v>2.95</v>
       </c>
       <c r="AU33" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AV33" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AW33" t="n">
-        <v>4</v>
+        <v>4.15</v>
       </c>
       <c r="AX33" t="n">
-        <v>10</v>
+        <v>10.75</v>
       </c>
       <c r="AY33" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AZ33" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="BA33" t="n">
         <v>65</v>
@@ -7120,10 +7120,10 @@
         <v>2.22</v>
       </c>
       <c r="H37" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I37" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="J37" t="n">
         <v>2.85</v>
@@ -7132,7 +7132,7 @@
         <v>2.05</v>
       </c>
       <c r="L37" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="M37" t="n">
         <v>1.02</v>
@@ -7144,7 +7144,7 @@
         <v>1.37</v>
       </c>
       <c r="P37" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="Q37" t="n">
         <v>2.07</v>
@@ -7159,13 +7159,13 @@
         <v>2.45</v>
       </c>
       <c r="U37" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="V37" t="n">
         <v>1.75</v>
       </c>
       <c r="W37" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="X37" t="n">
         <v>10</v>
@@ -7174,10 +7174,10 @@
         <v>9.25</v>
       </c>
       <c r="Z37" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AA37" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AB37" t="n">
         <v>35</v>
@@ -7186,16 +7186,16 @@
         <v>8.25</v>
       </c>
       <c r="AD37" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AE37" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AF37" t="n">
         <v>90</v>
       </c>
       <c r="AG37" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AH37" t="n">
         <v>14.5</v>
@@ -7222,7 +7222,7 @@
         <v>11.5</v>
       </c>
       <c r="AP37" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ37" t="n">
         <v>50</v>
@@ -7234,19 +7234,19 @@
         <v>300</v>
       </c>
       <c r="AT37" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="AU37" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AV37" t="n">
         <v>75</v>
       </c>
       <c r="AW37" t="n">
-        <v>4.75</v>
+        <v>4.8</v>
       </c>
       <c r="AX37" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AY37" t="n">
         <v>26</v>
@@ -7258,7 +7258,7 @@
         <v>120</v>
       </c>
       <c r="BB37" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="BC37" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-12.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-12.xlsx
@@ -1129,16 +1129,16 @@
         <v>4.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="N4" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="P4" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q4" t="n">
         <v>3.1</v>
@@ -1663,7 +1663,7 @@
         <v>3</v>
       </c>
       <c r="I7" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J7" t="n">
         <v>3</v>
@@ -1687,10 +1687,10 @@
         <v>2.1</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="R7" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="S7" t="n">
         <v>1.67</v>
@@ -1705,7 +1705,7 @@
         <v>1.44</v>
       </c>
       <c r="W7" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="X7" t="n">
         <v>8</v>
@@ -1729,7 +1729,7 @@
         <v>6.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF7" t="n">
         <v>101</v>
@@ -1738,10 +1738,10 @@
         <v>7.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ7" t="n">
         <v>41</v>
@@ -2579,7 +2579,7 @@
         <v>2.3</v>
       </c>
       <c r="K12" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="L12" t="n">
         <v>4.4</v>
@@ -2648,7 +2648,7 @@
         <v>13</v>
       </c>
       <c r="AH12" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI12" t="n">
         <v>13.5</v>
@@ -2663,7 +2663,7 @@
         <v>37</v>
       </c>
       <c r="AM12" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AN12" t="n">
         <v>3.7</v>
@@ -2678,22 +2678,22 @@
         <v>28</v>
       </c>
       <c r="AR12" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AS12" t="n">
         <v>175</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="AU12" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AV12" t="n">
         <v>55</v>
       </c>
       <c r="AW12" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AX12" t="n">
         <v>23</v>
@@ -2708,7 +2708,7 @@
         <v>150</v>
       </c>
       <c r="BB12" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="BC12" t="n">
         <v>51</v>
@@ -3131,10 +3131,10 @@
         <v>6</v>
       </c>
       <c r="M15" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O15" t="n">
         <v>1.3</v>
@@ -3143,10 +3143,10 @@
         <v>3.4</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="R15" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="S15" t="n">
         <v>1.4</v>
@@ -3477,13 +3477,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="H17" t="n">
         <v>3.2</v>
       </c>
       <c r="I17" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="J17" t="n">
         <v>3.4</v>
@@ -3495,10 +3495,10 @@
         <v>3.25</v>
       </c>
       <c r="M17" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N17" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O17" t="n">
         <v>1.33</v>
@@ -3525,16 +3525,16 @@
         <v>1.83</v>
       </c>
       <c r="W17" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X17" t="n">
         <v>13</v>
       </c>
       <c r="Y17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z17" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA17" t="n">
         <v>23</v>
@@ -3546,7 +3546,7 @@
         <v>9</v>
       </c>
       <c r="AD17" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE17" t="n">
         <v>15</v>
@@ -3573,7 +3573,7 @@
         <v>34</v>
       </c>
       <c r="AM17" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AN17" t="n">
         <v>4.75</v>
@@ -3588,7 +3588,7 @@
         <v>51</v>
       </c>
       <c r="AR17" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS17" t="n">
         <v>201</v>
@@ -3841,10 +3841,10 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="H19" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="I19" t="n">
         <v>3.1</v>
@@ -3898,16 +3898,16 @@
         <v>11</v>
       </c>
       <c r="Z19" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA19" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB19" t="n">
         <v>41</v>
       </c>
       <c r="AC19" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AD19" t="n">
         <v>5.5</v>
@@ -4041,10 +4041,10 @@
         <v>5.5</v>
       </c>
       <c r="M20" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O20" t="n">
         <v>1.4</v>
@@ -4053,10 +4053,10 @@
         <v>2.75</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R20" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S20" t="n">
         <v>1.5</v>
@@ -4405,13 +4405,13 @@
         <v>2.88</v>
       </c>
       <c r="M22" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N22" t="n">
         <v>9</v>
       </c>
       <c r="O22" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P22" t="n">
         <v>3</v>
@@ -4575,10 +4575,10 @@
         <v>3.3</v>
       </c>
       <c r="I23" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="J23" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K23" t="n">
         <v>2.05</v>
@@ -4587,13 +4587,13 @@
         <v>3.6</v>
       </c>
       <c r="M23" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N23" t="n">
         <v>8.5</v>
       </c>
       <c r="O23" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P23" t="n">
         <v>3</v>
@@ -4659,7 +4659,7 @@
         <v>29</v>
       </c>
       <c r="AK23" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL23" t="n">
         <v>34</v>
@@ -4680,7 +4680,7 @@
         <v>51</v>
       </c>
       <c r="AR23" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS23" t="n">
         <v>201</v>
@@ -4769,13 +4769,13 @@
         <v>4.33</v>
       </c>
       <c r="M24" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O24" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P24" t="n">
         <v>3.25</v>
@@ -4933,13 +4933,13 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H25" t="n">
         <v>3.1</v>
       </c>
       <c r="I25" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J25" t="n">
         <v>3</v>
@@ -4951,13 +4951,13 @@
         <v>4</v>
       </c>
       <c r="M25" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N25" t="n">
         <v>8</v>
       </c>
       <c r="O25" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P25" t="n">
         <v>3</v>
@@ -4993,7 +4993,7 @@
         <v>21</v>
       </c>
       <c r="AA25" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB25" t="n">
         <v>34</v>
@@ -5011,13 +5011,13 @@
         <v>51</v>
       </c>
       <c r="AG25" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ25" t="n">
         <v>34</v>
@@ -5038,7 +5038,7 @@
         <v>13</v>
       </c>
       <c r="AP25" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ25" t="n">
         <v>41</v>
@@ -5071,7 +5071,7 @@
         <v>67</v>
       </c>
       <c r="BA25" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB25" t="n">
         <v>251</v>
@@ -5306,31 +5306,31 @@
         <v>3.05</v>
       </c>
       <c r="J27" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="K27" t="n">
         <v>2.1</v>
       </c>
       <c r="L27" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="M27" t="n">
         <v>1.07</v>
       </c>
       <c r="N27" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="O27" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P27" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R27" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="S27" t="n">
         <v>1.4</v>
@@ -5339,10 +5339,10 @@
         <v>2.72</v>
       </c>
       <c r="U27" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="V27" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="W27" t="n">
         <v>7.6</v>
@@ -5351,7 +5351,7 @@
         <v>10.75</v>
       </c>
       <c r="Y27" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="Z27" t="n">
         <v>22</v>
@@ -5360,37 +5360,37 @@
         <v>18</v>
       </c>
       <c r="AB27" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AC27" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AD27" t="n">
         <v>6.2</v>
       </c>
       <c r="AE27" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AF27" t="n">
         <v>65</v>
       </c>
       <c r="AG27" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AH27" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AI27" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AJ27" t="n">
         <v>40</v>
       </c>
       <c r="AK27" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL27" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AM27" t="n">
         <v>500</v>
@@ -5399,7 +5399,7 @@
         <v>4.15</v>
       </c>
       <c r="AO27" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AP27" t="n">
         <v>19.5</v>
@@ -5408,7 +5408,7 @@
         <v>45</v>
       </c>
       <c r="AR27" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AS27" t="n">
         <v>250</v>
@@ -5417,7 +5417,7 @@
         <v>2.72</v>
       </c>
       <c r="AU27" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AV27" t="n">
         <v>60</v>
@@ -5435,7 +5435,7 @@
         <v>80</v>
       </c>
       <c r="BA27" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="BB27" t="n">
         <v>300</v>
@@ -7117,22 +7117,22 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="H37" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I37" t="n">
         <v>3.05</v>
       </c>
       <c r="J37" t="n">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="K37" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="L37" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="M37" t="n">
         <v>1.02</v>
@@ -7153,22 +7153,22 @@
         <v>1.6</v>
       </c>
       <c r="S37" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="T37" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="U37" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="V37" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="W37" t="n">
         <v>6.8</v>
       </c>
       <c r="X37" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="Y37" t="n">
         <v>9.25</v>
@@ -7177,34 +7177,34 @@
         <v>22</v>
       </c>
       <c r="AA37" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AB37" t="n">
         <v>35</v>
       </c>
       <c r="AC37" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AD37" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AE37" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AF37" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AG37" t="n">
         <v>8.25</v>
       </c>
       <c r="AH37" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AI37" t="n">
         <v>11.25</v>
       </c>
       <c r="AJ37" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AK37" t="n">
         <v>29</v>
@@ -7216,13 +7216,13 @@
         <v>800</v>
       </c>
       <c r="AN37" t="n">
-        <v>4</v>
+        <v>4.05</v>
       </c>
       <c r="AO37" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AP37" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ37" t="n">
         <v>50</v>
@@ -7237,7 +7237,7 @@
         <v>2.4</v>
       </c>
       <c r="AU37" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AV37" t="n">
         <v>75</v>
@@ -7258,7 +7258,7 @@
         <v>120</v>
       </c>
       <c r="BB37" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="BC37" t="n">
         <v>51</v>
@@ -7299,19 +7299,19 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="H38" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="I38" t="n">
         <v>1.24</v>
       </c>
       <c r="J38" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="K38" t="n">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="L38" t="n">
         <v>1.7</v>
@@ -7320,10 +7320,10 @@
         <v>1.04</v>
       </c>
       <c r="N38" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="O38" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P38" t="n">
         <v>3.8</v>
@@ -7341,22 +7341,22 @@
         <v>3</v>
       </c>
       <c r="U38" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="V38" t="n">
         <v>1.55</v>
       </c>
       <c r="W38" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X38" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="Y38" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Z38" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="AA38" t="n">
         <v>175</v>
@@ -7365,13 +7365,13 @@
         <v>150</v>
       </c>
       <c r="AC38" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AD38" t="n">
         <v>10.75</v>
       </c>
       <c r="AE38" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF38" t="n">
         <v>175</v>
@@ -7398,13 +7398,13 @@
         <v>1000</v>
       </c>
       <c r="AN38" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AO38" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AP38" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AQ38" t="n">
         <v>500</v>
@@ -7419,7 +7419,7 @@
         <v>3</v>
       </c>
       <c r="AU38" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AV38" t="n">
         <v>120</v>
@@ -7484,19 +7484,19 @@
         <v>1.4</v>
       </c>
       <c r="H39" t="n">
-        <v>4.45</v>
+        <v>4.4</v>
       </c>
       <c r="I39" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="J39" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="K39" t="n">
         <v>2.47</v>
       </c>
       <c r="L39" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="M39" t="n">
         <v>1.03</v>
@@ -7508,22 +7508,22 @@
         <v>1.17</v>
       </c>
       <c r="P39" t="n">
-        <v>4.5</v>
+        <v>4.45</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="R39" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="S39" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="T39" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="U39" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="V39" t="n">
         <v>2.02</v>
@@ -7532,7 +7532,7 @@
         <v>8.75</v>
       </c>
       <c r="X39" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="Y39" t="n">
         <v>8.25</v>
@@ -7559,13 +7559,13 @@
         <v>60</v>
       </c>
       <c r="AG39" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH39" t="n">
         <v>45</v>
       </c>
       <c r="AI39" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AJ39" t="n">
         <v>150</v>
@@ -7586,19 +7586,19 @@
         <v>6.4</v>
       </c>
       <c r="AP39" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AQ39" t="n">
         <v>17.5</v>
       </c>
       <c r="AR39" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AS39" t="n">
         <v>150</v>
       </c>
       <c r="AT39" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="AU39" t="n">
         <v>7.6</v>
@@ -7607,10 +7607,10 @@
         <v>60</v>
       </c>
       <c r="AW39" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AX39" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AY39" t="n">
         <v>32</v>
@@ -7666,7 +7666,7 @@
         <v>1.9</v>
       </c>
       <c r="H40" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="I40" t="n">
         <v>3.35</v>
@@ -7690,31 +7690,31 @@
         <v>1.18</v>
       </c>
       <c r="P40" t="n">
-        <v>4.35</v>
+        <v>4.3</v>
       </c>
       <c r="Q40" t="n">
         <v>1.55</v>
       </c>
       <c r="R40" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="S40" t="n">
         <v>1.29</v>
       </c>
       <c r="T40" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="U40" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="V40" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="W40" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="X40" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="Y40" t="n">
         <v>8.5</v>
@@ -7741,7 +7741,7 @@
         <v>40</v>
       </c>
       <c r="AG40" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH40" t="n">
         <v>22</v>
@@ -7756,7 +7756,7 @@
         <v>26</v>
       </c>
       <c r="AL40" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM40" t="n">
         <v>200</v>
@@ -7771,7 +7771,7 @@
         <v>15</v>
       </c>
       <c r="AQ40" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AR40" t="n">
         <v>50</v>
@@ -7780,7 +7780,7 @@
         <v>150</v>
       </c>
       <c r="AT40" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="AU40" t="n">
         <v>6.5</v>
@@ -7795,7 +7795,7 @@
         <v>17.5</v>
       </c>
       <c r="AY40" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ40" t="n">
         <v>80</v>
@@ -7854,7 +7854,7 @@
         <v>1.88</v>
       </c>
       <c r="J41" t="n">
-        <v>4.15</v>
+        <v>4.2</v>
       </c>
       <c r="K41" t="n">
         <v>2.12</v>
@@ -7866,37 +7866,37 @@
         <v>1.06</v>
       </c>
       <c r="N41" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="O41" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P41" t="n">
         <v>3.3</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="R41" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="S41" t="n">
         <v>1.4</v>
       </c>
       <c r="T41" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="U41" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="V41" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="W41" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="X41" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y41" t="n">
         <v>12.5</v>
@@ -7905,25 +7905,25 @@
         <v>55</v>
       </c>
       <c r="AA41" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AB41" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AC41" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AD41" t="n">
         <v>6.7</v>
       </c>
       <c r="AE41" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AF41" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AG41" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AH41" t="n">
         <v>9.25</v>
@@ -7935,13 +7935,13 @@
         <v>16.5</v>
       </c>
       <c r="AK41" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AL41" t="n">
         <v>25</v>
       </c>
       <c r="AM41" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AN41" t="n">
         <v>5.6</v>
@@ -7950,7 +7950,7 @@
         <v>21</v>
       </c>
       <c r="AP41" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AQ41" t="n">
         <v>110</v>
@@ -7962,10 +7962,10 @@
         <v>350</v>
       </c>
       <c r="AT41" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="AU41" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AV41" t="n">
         <v>65</v>
@@ -7974,7 +7974,7 @@
         <v>3.8</v>
       </c>
       <c r="AX41" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AY41" t="n">
         <v>18.5</v>
@@ -7983,7 +7983,7 @@
         <v>35</v>
       </c>
       <c r="BA41" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="BB41" t="n">
         <v>250</v>
@@ -8030,10 +8030,10 @@
         <v>2.05</v>
       </c>
       <c r="H42" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I42" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J42" t="n">
         <v>2.67</v>
@@ -8063,13 +8063,13 @@
         <v>1.75</v>
       </c>
       <c r="S42" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="T42" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="U42" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="V42" t="n">
         <v>1.87</v>
@@ -8087,7 +8087,7 @@
         <v>18.5</v>
       </c>
       <c r="AA42" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AB42" t="n">
         <v>30</v>
@@ -8102,10 +8102,10 @@
         <v>15.5</v>
       </c>
       <c r="AF42" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AG42" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AH42" t="n">
         <v>16.5</v>
@@ -8114,7 +8114,7 @@
         <v>11.75</v>
       </c>
       <c r="AJ42" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AK42" t="n">
         <v>30</v>
@@ -8141,10 +8141,10 @@
         <v>80</v>
       </c>
       <c r="AS42" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AT42" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AU42" t="n">
         <v>7.4</v>
@@ -8153,7 +8153,7 @@
         <v>70</v>
       </c>
       <c r="AW42" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="AX42" t="n">
         <v>18</v>
@@ -8165,7 +8165,7 @@
         <v>90</v>
       </c>
       <c r="BA42" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="BB42" t="n">
         <v>350</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-12.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-12.xlsx
@@ -1499,10 +1499,10 @@
         <v>7</v>
       </c>
       <c r="O6" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P6" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q6" t="n">
         <v>2.5</v>
@@ -2791,7 +2791,7 @@
         <v>3.5</v>
       </c>
       <c r="U13" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="V13" t="n">
         <v>2.5</v>
@@ -2961,10 +2961,10 @@
         <v>2.63</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R14" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S14" t="n">
         <v>1.5</v>
@@ -3131,10 +3131,10 @@
         <v>6</v>
       </c>
       <c r="M15" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O15" t="n">
         <v>1.3</v>
@@ -3143,10 +3143,10 @@
         <v>3.4</v>
       </c>
       <c r="Q15" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="R15" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="S15" t="n">
         <v>1.4</v>
@@ -3495,10 +3495,10 @@
         <v>3.25</v>
       </c>
       <c r="M17" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O17" t="n">
         <v>1.33</v>
@@ -4405,13 +4405,13 @@
         <v>2.88</v>
       </c>
       <c r="M22" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N22" t="n">
         <v>9</v>
       </c>
       <c r="O22" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P22" t="n">
         <v>3</v>
@@ -4587,13 +4587,13 @@
         <v>3.6</v>
       </c>
       <c r="M23" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N23" t="n">
         <v>8.5</v>
       </c>
       <c r="O23" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P23" t="n">
         <v>3</v>
@@ -4769,13 +4769,13 @@
         <v>4.33</v>
       </c>
       <c r="M24" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N24" t="n">
         <v>10</v>
       </c>
       <c r="O24" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P24" t="n">
         <v>3.25</v>
@@ -4951,13 +4951,13 @@
         <v>4</v>
       </c>
       <c r="M25" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N25" t="n">
         <v>8</v>
       </c>
       <c r="O25" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P25" t="n">
         <v>3</v>
@@ -5309,7 +5309,7 @@
         <v>2.8</v>
       </c>
       <c r="K27" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="L27" t="n">
         <v>3.65</v>
@@ -5333,25 +5333,25 @@
         <v>1.75</v>
       </c>
       <c r="S27" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="T27" t="n">
-        <v>2.72</v>
+        <v>2.67</v>
       </c>
       <c r="U27" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="V27" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="W27" t="n">
         <v>7.6</v>
       </c>
       <c r="X27" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="Y27" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="Z27" t="n">
         <v>22</v>
@@ -5360,7 +5360,7 @@
         <v>18</v>
       </c>
       <c r="AB27" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC27" t="n">
         <v>6.9</v>
@@ -5414,7 +5414,7 @@
         <v>250</v>
       </c>
       <c r="AT27" t="n">
-        <v>2.72</v>
+        <v>2.67</v>
       </c>
       <c r="AU27" t="n">
         <v>7</v>
@@ -5432,7 +5432,7 @@
         <v>24</v>
       </c>
       <c r="AZ27" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="BA27" t="n">
         <v>120</v>
@@ -5479,10 +5479,10 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="H28" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I28" t="n">
         <v>2.72</v>
@@ -5491,10 +5491,10 @@
         <v>3.05</v>
       </c>
       <c r="K28" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="L28" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="M28" t="n">
         <v>1.06</v>
@@ -5527,10 +5527,10 @@
         <v>2.05</v>
       </c>
       <c r="W28" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="X28" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Y28" t="n">
         <v>9.25</v>
@@ -5539,10 +5539,10 @@
         <v>26</v>
       </c>
       <c r="AA28" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AB28" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AC28" t="n">
         <v>7.2</v>
@@ -5557,7 +5557,7 @@
         <v>55</v>
       </c>
       <c r="AG28" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AH28" t="n">
         <v>14.5</v>
@@ -5572,10 +5572,10 @@
         <v>23</v>
       </c>
       <c r="AL28" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AM28" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AN28" t="n">
         <v>4.4</v>
@@ -5608,19 +5608,19 @@
         <v>4.75</v>
       </c>
       <c r="AX28" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AY28" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ28" t="n">
         <v>70</v>
       </c>
       <c r="BA28" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="BB28" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BC28" t="n">
         <v>51</v>
@@ -6571,34 +6571,34 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="H34" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="I34" t="n">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="J34" t="n">
         <v>3.15</v>
       </c>
       <c r="K34" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="L34" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N34" t="n">
+        <v>7</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P34" t="n">
         <v>3.05</v>
-      </c>
-      <c r="M34" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N34" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="O34" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P34" t="n">
-        <v>3.1</v>
       </c>
       <c r="Q34" t="n">
         <v>1.98</v>
@@ -6607,28 +6607,28 @@
         <v>1.78</v>
       </c>
       <c r="S34" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="T34" t="n">
         <v>2.75</v>
       </c>
       <c r="U34" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="V34" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="W34" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="X34" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Y34" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="Z34" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AA34" t="n">
         <v>22</v>
@@ -6637,16 +6637,16 @@
         <v>32</v>
       </c>
       <c r="AC34" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD34" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="AE34" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AF34" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AG34" t="n">
         <v>8</v>
@@ -6658,7 +6658,7 @@
         <v>9.75</v>
       </c>
       <c r="AJ34" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AK34" t="n">
         <v>21</v>
@@ -6667,46 +6667,46 @@
         <v>32</v>
       </c>
       <c r="AM34" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AN34" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="AO34" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AP34" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ34" t="n">
         <v>60</v>
       </c>
       <c r="AR34" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AS34" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AT34" t="n">
         <v>2.75</v>
       </c>
       <c r="AU34" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AV34" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AW34" t="n">
-        <v>4.4</v>
+        <v>4.45</v>
       </c>
       <c r="AX34" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AY34" t="n">
         <v>21</v>
       </c>
       <c r="AZ34" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="BA34" t="n">
         <v>90</v>
@@ -6780,13 +6780,13 @@
         <v>1.31</v>
       </c>
       <c r="P35" t="n">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="R35" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S35" t="n">
         <v>1.4</v>
@@ -6798,10 +6798,10 @@
         <v>1.8</v>
       </c>
       <c r="V35" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="W35" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="X35" t="n">
         <v>8.25</v>
@@ -6846,7 +6846,7 @@
         <v>45</v>
       </c>
       <c r="AL35" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AM35" t="n">
         <v>600</v>
@@ -6858,7 +6858,7 @@
         <v>8.75</v>
       </c>
       <c r="AP35" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AQ35" t="n">
         <v>30</v>
@@ -6876,7 +6876,7 @@
         <v>7.1</v>
       </c>
       <c r="AV35" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AW35" t="n">
         <v>6</v>
@@ -6953,10 +6953,10 @@
         <v>2.95</v>
       </c>
       <c r="M36" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N36" t="n">
-        <v>9.449999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="O36" t="n">
         <v>1.28</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-12.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-12.xlsx
@@ -750,16 +750,16 @@
         <v>1.42</v>
       </c>
       <c r="H2" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I2" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="J2" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="K2" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L2" t="n">
         <v>7.5</v>
@@ -801,7 +801,7 @@
         <v>6</v>
       </c>
       <c r="Y2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z2" t="n">
         <v>9</v>
@@ -813,10 +813,10 @@
         <v>34</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD2" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE2" t="n">
         <v>23</v>
@@ -825,7 +825,7 @@
         <v>81</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH2" t="n">
         <v>41</v>
@@ -834,10 +834,10 @@
         <v>23</v>
       </c>
       <c r="AJ2" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AK2" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AL2" t="n">
         <v>67</v>
@@ -959,10 +959,10 @@
         <v>2.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="R3" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S3" t="n">
         <v>1.5</v>
@@ -971,10 +971,10 @@
         <v>2.5</v>
       </c>
       <c r="U3" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V3" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W3" t="n">
         <v>5.5</v>
@@ -1013,7 +1013,7 @@
         <v>29</v>
       </c>
       <c r="AI3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ3" t="n">
         <v>67</v>
@@ -1028,7 +1028,7 @@
         <v>201</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AO3" t="n">
         <v>9</v>
@@ -1111,7 +1111,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H4" t="n">
         <v>2.8</v>
@@ -1123,16 +1123,16 @@
         <v>3.25</v>
       </c>
       <c r="K4" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="L4" t="n">
         <v>4.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N4" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O4" t="n">
         <v>1.67</v>
@@ -1153,22 +1153,22 @@
         <v>2.1</v>
       </c>
       <c r="U4" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="V4" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W4" t="n">
         <v>5.5</v>
       </c>
       <c r="X4" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Y4" t="n">
         <v>11</v>
       </c>
       <c r="Z4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA4" t="n">
         <v>26</v>
@@ -1180,7 +1180,7 @@
         <v>5</v>
       </c>
       <c r="AD4" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AE4" t="n">
         <v>21</v>
@@ -1296,19 +1296,19 @@
         <v>1.67</v>
       </c>
       <c r="H5" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I5" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J5" t="n">
         <v>2.3</v>
       </c>
       <c r="K5" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L5" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M5" t="n">
         <v>1.06</v>
@@ -1317,49 +1317,49 @@
         <v>10</v>
       </c>
       <c r="O5" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P5" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.93</v>
+        <v>2.03</v>
       </c>
       <c r="R5" t="n">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="S5" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T5" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U5" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V5" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y5" t="n">
         <v>8.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC5" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD5" t="n">
         <v>7</v>
@@ -1389,16 +1389,16 @@
         <v>41</v>
       </c>
       <c r="AM5" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AN5" t="n">
         <v>3.6</v>
       </c>
       <c r="AO5" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AP5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ5" t="n">
         <v>29</v>
@@ -1410,7 +1410,7 @@
         <v>151</v>
       </c>
       <c r="AT5" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU5" t="n">
         <v>8.5</v>
@@ -1422,16 +1422,16 @@
         <v>6.5</v>
       </c>
       <c r="AX5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AY5" t="n">
         <v>34</v>
       </c>
       <c r="AZ5" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA5" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB5" t="n">
         <v>251</v>
@@ -1475,94 +1475,94 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.45</v>
+        <v>2.63</v>
       </c>
       <c r="H6" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="I6" t="n">
         <v>2.9</v>
       </c>
       <c r="J6" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="K6" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L6" t="n">
         <v>3.75</v>
       </c>
       <c r="M6" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="N6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O6" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P6" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="R6" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="S6" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="T6" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="U6" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V6" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W6" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X6" t="n">
         <v>11</v>
       </c>
       <c r="Y6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB6" t="n">
         <v>41</v>
       </c>
       <c r="AC6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AD6" t="n">
         <v>6</v>
       </c>
       <c r="AE6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF6" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG6" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI6" t="n">
         <v>12</v>
       </c>
       <c r="AJ6" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AK6" t="n">
         <v>29</v>
@@ -1574,31 +1574,31 @@
         <v>900</v>
       </c>
       <c r="AN6" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ6" t="n">
         <v>51</v>
       </c>
       <c r="AR6" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV6" t="n">
         <v>81</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>67</v>
       </c>
       <c r="AW6" t="n">
         <v>4.75</v>
@@ -1607,7 +1607,7 @@
         <v>19</v>
       </c>
       <c r="AY6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ6" t="n">
         <v>67</v>
@@ -1616,7 +1616,7 @@
         <v>101</v>
       </c>
       <c r="BB6" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC6" t="n">
         <v>126</v>
@@ -1657,22 +1657,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H7" t="n">
         <v>3</v>
       </c>
       <c r="I7" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="J7" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K7" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="L7" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M7" t="n">
         <v>1.14</v>
@@ -1687,10 +1687,10 @@
         <v>2.1</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="R7" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="S7" t="n">
         <v>1.67</v>
@@ -1699,25 +1699,25 @@
         <v>2.1</v>
       </c>
       <c r="U7" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V7" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="W7" t="n">
         <v>5</v>
       </c>
       <c r="X7" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y7" t="n">
         <v>11</v>
       </c>
       <c r="Z7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB7" t="n">
         <v>41</v>
@@ -1735,7 +1735,7 @@
         <v>101</v>
       </c>
       <c r="AG7" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AH7" t="n">
         <v>17</v>
@@ -1756,7 +1756,7 @@
         <v>201</v>
       </c>
       <c r="AN7" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO7" t="n">
         <v>13</v>
@@ -1839,7 +1839,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H8" t="n">
         <v>3.5</v>
@@ -1851,7 +1851,7 @@
         <v>2.88</v>
       </c>
       <c r="K8" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L8" t="n">
         <v>3.75</v>
@@ -1869,10 +1869,10 @@
         <v>3.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="R8" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="S8" t="n">
         <v>1.4</v>
@@ -1881,31 +1881,31 @@
         <v>2.75</v>
       </c>
       <c r="U8" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V8" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W8" t="n">
         <v>8</v>
       </c>
       <c r="X8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y8" t="n">
         <v>9</v>
       </c>
       <c r="Z8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA8" t="n">
         <v>17</v>
       </c>
       <c r="AB8" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD8" t="n">
         <v>6.5</v>
@@ -1917,10 +1917,10 @@
         <v>51</v>
       </c>
       <c r="AG8" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI8" t="n">
         <v>11</v>
@@ -1935,7 +1935,7 @@
         <v>34</v>
       </c>
       <c r="AM8" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AN8" t="n">
         <v>4.33</v>
@@ -1959,16 +1959,16 @@
         <v>2.75</v>
       </c>
       <c r="AU8" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV8" t="n">
         <v>51</v>
       </c>
       <c r="AW8" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY8" t="n">
         <v>26</v>
@@ -1983,7 +1983,7 @@
         <v>151</v>
       </c>
       <c r="BC8" t="n">
-        <v>126</v>
+        <v>501</v>
       </c>
       <c r="BD8" t="n">
         <v>126</v>
@@ -2021,73 +2021,73 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="H9" t="n">
         <v>3.5</v>
       </c>
       <c r="I9" t="n">
-        <v>2.8</v>
+        <v>2.38</v>
       </c>
       <c r="J9" t="n">
-        <v>2.88</v>
+        <v>3.25</v>
       </c>
       <c r="K9" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L9" t="n">
+        <v>3</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N9" t="n">
+        <v>15</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R9" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T9" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V9" t="n">
         <v>2.25</v>
       </c>
-      <c r="L9" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N9" t="n">
-        <v>13</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P9" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R9" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T9" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V9" t="n">
-        <v>2.2</v>
-      </c>
       <c r="W9" t="n">
+        <v>12</v>
+      </c>
+      <c r="X9" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y9" t="n">
         <v>10</v>
       </c>
-      <c r="X9" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>9.5</v>
-      </c>
       <c r="Z9" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AA9" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AB9" t="n">
         <v>23</v>
       </c>
       <c r="AC9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD9" t="n">
         <v>7</v>
@@ -2102,28 +2102,28 @@
         <v>11</v>
       </c>
       <c r="AH9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>126</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO9" t="n">
         <v>15</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>151</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>13</v>
       </c>
       <c r="AP9" t="n">
         <v>21</v>
@@ -2138,37 +2138,37 @@
         <v>126</v>
       </c>
       <c r="AT9" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU9" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV9" t="n">
         <v>41</v>
       </c>
       <c r="AW9" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AY9" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AZ9" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA9" t="n">
         <v>51</v>
       </c>
       <c r="BB9" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>401</v>
+      </c>
+      <c r="BD9" t="n">
         <v>126</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>451</v>
-      </c>
-      <c r="BD9" t="n">
-        <v>151</v>
       </c>
     </row>
     <row r="10">
@@ -2385,28 +2385,28 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3.65</v>
+        <v>4.15</v>
       </c>
       <c r="H11" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I11" t="n">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="J11" t="n">
-        <v>4.15</v>
+        <v>4.6</v>
       </c>
       <c r="K11" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="L11" t="n">
-        <v>2.67</v>
+        <v>2.5</v>
       </c>
       <c r="M11" t="n">
         <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>6.5</v>
+        <v>6.55</v>
       </c>
       <c r="O11" t="n">
         <v>1.42</v>
@@ -2415,10 +2415,10 @@
         <v>2.47</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="R11" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="S11" t="n">
         <v>1.45</v>
@@ -2433,97 +2433,97 @@
         <v>1.65</v>
       </c>
       <c r="W11" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X11" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>70</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>45</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>60</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>110</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AI11" t="n">
         <v>8.75</v>
       </c>
-      <c r="X11" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>55</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>40</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>50</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>100</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>9</v>
-      </c>
       <c r="AJ11" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="AK11" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AL11" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AM11" t="n">
         <v>201</v>
       </c>
       <c r="AN11" t="n">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="AO11" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AP11" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AQ11" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AR11" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AS11" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AT11" t="n">
         <v>2.32</v>
       </c>
       <c r="AU11" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AV11" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AW11" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AX11" t="n">
-        <v>10.75</v>
+        <v>9.75</v>
       </c>
       <c r="AY11" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ11" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="BA11" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="BB11" t="n">
         <v>300</v>
@@ -2570,52 +2570,52 @@
         <v>1.75</v>
       </c>
       <c r="H12" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I12" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="L12" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N12" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P12" t="n">
         <v>3.6</v>
       </c>
-      <c r="I12" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="J12" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="K12" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="L12" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N12" t="n">
-        <v>11</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P12" t="n">
-        <v>3.45</v>
-      </c>
       <c r="Q12" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R12" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="S12" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="T12" t="n">
-        <v>3.14</v>
+        <v>3.2</v>
       </c>
       <c r="U12" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="V12" t="n">
-        <v>2.02</v>
+        <v>2.07</v>
       </c>
       <c r="W12" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="X12" t="n">
         <v>9.25</v>
@@ -2624,31 +2624,31 @@
         <v>8</v>
       </c>
       <c r="Z12" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AA12" t="n">
         <v>13</v>
       </c>
       <c r="AB12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AC12" t="n">
-        <v>11.75</v>
+        <v>13</v>
       </c>
       <c r="AD12" t="n">
-        <v>7.1</v>
+        <v>7.4</v>
       </c>
       <c r="AE12" t="n">
         <v>13.5</v>
       </c>
       <c r="AF12" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH12" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI12" t="n">
         <v>13.5</v>
@@ -2657,58 +2657,58 @@
         <v>65</v>
       </c>
       <c r="AK12" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AL12" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AM12" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AN12" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="AO12" t="n">
         <v>8.5</v>
       </c>
       <c r="AP12" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AQ12" t="n">
         <v>28</v>
       </c>
       <c r="AR12" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AS12" t="n">
         <v>175</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.87</v>
+        <v>3</v>
       </c>
       <c r="AU12" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AV12" t="n">
         <v>55</v>
       </c>
       <c r="AW12" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AX12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AY12" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AZ12" t="n">
+        <v>110</v>
+      </c>
+      <c r="BA12" t="n">
         <v>120</v>
       </c>
-      <c r="BA12" t="n">
-        <v>150</v>
-      </c>
       <c r="BB12" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="BC12" t="n">
         <v>51</v>
@@ -2749,28 +2749,28 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="H13" t="n">
         <v>3.6</v>
       </c>
       <c r="I13" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J13" t="n">
         <v>2.75</v>
       </c>
       <c r="K13" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L13" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M13" t="n">
         <v>1.03</v>
       </c>
       <c r="N13" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O13" t="n">
         <v>1.17</v>
@@ -2779,10 +2779,10 @@
         <v>5</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="R13" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="S13" t="n">
         <v>1.29</v>
@@ -2791,7 +2791,7 @@
         <v>3.5</v>
       </c>
       <c r="U13" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="V13" t="n">
         <v>2.5</v>
@@ -2809,7 +2809,7 @@
         <v>21</v>
       </c>
       <c r="AA13" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB13" t="n">
         <v>21</v>
@@ -2818,10 +2818,10 @@
         <v>17</v>
       </c>
       <c r="AD13" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF13" t="n">
         <v>34</v>
@@ -2830,13 +2830,13 @@
         <v>13</v>
       </c>
       <c r="AH13" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI13" t="n">
         <v>11</v>
       </c>
       <c r="AJ13" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AK13" t="n">
         <v>21</v>
@@ -2848,19 +2848,19 @@
         <v>101</v>
       </c>
       <c r="AN13" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP13" t="n">
         <v>17</v>
       </c>
       <c r="AQ13" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR13" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS13" t="n">
         <v>101</v>
@@ -2875,7 +2875,7 @@
         <v>41</v>
       </c>
       <c r="AW13" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AX13" t="n">
         <v>15</v>
@@ -2884,7 +2884,7 @@
         <v>21</v>
       </c>
       <c r="AZ13" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA13" t="n">
         <v>51</v>
@@ -2931,136 +2931,136 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="H14" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="I14" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="J14" t="n">
-        <v>2.88</v>
+        <v>3.25</v>
       </c>
       <c r="K14" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="L14" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M14" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O14" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P14" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="R14" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="S14" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="T14" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U14" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="V14" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="W14" t="n">
         <v>6</v>
       </c>
       <c r="X14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y14" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z14" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AA14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE14" t="n">
         <v>21</v>
       </c>
-      <c r="AB14" t="n">
+      <c r="AF14" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ14" t="n">
         <v>34</v>
       </c>
-      <c r="AC14" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>41</v>
-      </c>
       <c r="AK14" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL14" t="n">
         <v>41</v>
       </c>
       <c r="AM14" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO14" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AP14" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ14" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR14" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS14" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="AT14" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="AU14" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV14" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW14" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AX14" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY14" t="n">
         <v>34</v>
@@ -3072,7 +3072,7 @@
         <v>101</v>
       </c>
       <c r="BB14" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC14" t="n">
         <v>51</v>
@@ -3113,136 +3113,136 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="H15" t="n">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="I15" t="n">
         <v>5.25</v>
       </c>
       <c r="J15" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="K15" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L15" t="n">
         <v>6</v>
       </c>
       <c r="M15" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N15" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O15" t="n">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="P15" t="n">
-        <v>3.4</v>
+        <v>2.63</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.03</v>
+        <v>2.4</v>
       </c>
       <c r="R15" t="n">
-        <v>1.78</v>
+        <v>1.53</v>
       </c>
       <c r="S15" t="n">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
       <c r="T15" t="n">
-        <v>2.75</v>
+        <v>2.38</v>
       </c>
       <c r="U15" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V15" t="n">
-        <v>1.73</v>
+        <v>1.57</v>
       </c>
       <c r="W15" t="n">
+        <v>5</v>
+      </c>
+      <c r="X15" t="n">
         <v>6.5</v>
       </c>
-      <c r="X15" t="n">
+      <c r="Y15" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC15" t="n">
         <v>7</v>
       </c>
-      <c r="Y15" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z15" t="n">
+      <c r="AD15" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG15" t="n">
         <v>11</v>
       </c>
-      <c r="AA15" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>13</v>
-      </c>
       <c r="AH15" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI15" t="n">
         <v>19</v>
       </c>
       <c r="AJ15" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AK15" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL15" t="n">
         <v>51</v>
       </c>
       <c r="AM15" t="n">
-        <v>1250</v>
+        <v>351</v>
       </c>
       <c r="AN15" t="n">
         <v>3.5</v>
       </c>
       <c r="AO15" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AP15" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AQ15" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AR15" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS15" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="AT15" t="n">
-        <v>2.75</v>
+        <v>2.38</v>
       </c>
       <c r="AU15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV15" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW15" t="n">
         <v>7</v>
       </c>
       <c r="AX15" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AY15" t="n">
         <v>41</v>
@@ -3254,7 +3254,7 @@
         <v>151</v>
       </c>
       <c r="BB15" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC15" t="n">
         <v>51</v>
@@ -3295,88 +3295,88 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="H16" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I16" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="J16" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="K16" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="L16" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M16" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N16" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O16" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="P16" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="R16" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="S16" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="T16" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="U16" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="V16" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="W16" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="X16" t="n">
         <v>11</v>
       </c>
       <c r="Y16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA16" t="n">
         <v>23</v>
       </c>
-      <c r="AA16" t="n">
-        <v>21</v>
-      </c>
       <c r="AB16" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC16" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="AD16" t="n">
         <v>6</v>
       </c>
       <c r="AE16" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF16" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG16" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI16" t="n">
         <v>11</v>
@@ -3385,40 +3385,40 @@
         <v>29</v>
       </c>
       <c r="AK16" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL16" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM16" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AN16" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP16" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ16" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR16" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV16" t="n">
         <v>67</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>51</v>
       </c>
       <c r="AW16" t="n">
         <v>4.75</v>
@@ -3433,10 +3433,10 @@
         <v>51</v>
       </c>
       <c r="BA16" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB16" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC16" t="n">
         <v>81</v>
@@ -3489,28 +3489,28 @@
         <v>3.4</v>
       </c>
       <c r="K17" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L17" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M17" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N17" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O17" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P17" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="R17" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S17" t="n">
         <v>1.44</v>
@@ -3573,7 +3573,7 @@
         <v>34</v>
       </c>
       <c r="AM17" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AN17" t="n">
         <v>4.75</v>
@@ -3588,7 +3588,7 @@
         <v>51</v>
       </c>
       <c r="AR17" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS17" t="n">
         <v>201</v>
@@ -3659,64 +3659,64 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="H18" t="n">
-        <v>3.1</v>
+        <v>2.95</v>
       </c>
       <c r="I18" t="n">
-        <v>2.65</v>
+        <v>2.75</v>
       </c>
       <c r="J18" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K18" t="n">
-        <v>2.12</v>
+        <v>2.05</v>
       </c>
       <c r="L18" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="M18" t="n">
         <v>1.07</v>
       </c>
       <c r="N18" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="O18" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P18" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="R18" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="S18" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="T18" t="n">
-        <v>2.72</v>
+        <v>2.65</v>
       </c>
       <c r="U18" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="V18" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="W18" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="X18" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Y18" t="n">
         <v>9.75</v>
       </c>
       <c r="Z18" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AA18" t="n">
         <v>22</v>
@@ -3725,43 +3725,43 @@
         <v>32</v>
       </c>
       <c r="AC18" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="AD18" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="AE18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF18" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AG18" t="n">
         <v>8</v>
       </c>
       <c r="AH18" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AI18" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AJ18" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AK18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL18" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AM18" t="n">
         <v>600</v>
       </c>
       <c r="AN18" t="n">
-        <v>4.45</v>
+        <v>4.5</v>
       </c>
       <c r="AO18" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AP18" t="n">
         <v>22</v>
@@ -3770,31 +3770,31 @@
         <v>60</v>
       </c>
       <c r="AR18" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AS18" t="n">
         <v>300</v>
       </c>
       <c r="AT18" t="n">
-        <v>2.72</v>
+        <v>2.65</v>
       </c>
       <c r="AU18" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AV18" t="n">
         <v>65</v>
       </c>
       <c r="AW18" t="n">
-        <v>4.5</v>
+        <v>4.55</v>
       </c>
       <c r="AX18" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AY18" t="n">
         <v>22</v>
       </c>
       <c r="AZ18" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="BA18" t="n">
         <v>100</v>
@@ -3841,22 +3841,22 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="H19" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I19" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="J19" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="K19" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L19" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M19" t="n">
         <v>1.11</v>
@@ -3871,10 +3871,10 @@
         <v>2.5</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R19" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S19" t="n">
         <v>1.57</v>
@@ -3892,10 +3892,10 @@
         <v>6.5</v>
       </c>
       <c r="X19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z19" t="n">
         <v>23</v>
@@ -3919,25 +3919,25 @@
         <v>67</v>
       </c>
       <c r="AG19" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AH19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI19" t="n">
         <v>13</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>12</v>
       </c>
       <c r="AJ19" t="n">
         <v>34</v>
       </c>
       <c r="AK19" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL19" t="n">
         <v>41</v>
       </c>
       <c r="AM19" t="n">
-        <v>201</v>
+        <v>1250</v>
       </c>
       <c r="AN19" t="n">
         <v>4.33</v>
@@ -3955,7 +3955,7 @@
         <v>81</v>
       </c>
       <c r="AS19" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT19" t="n">
         <v>2.25</v>
@@ -3967,7 +3967,7 @@
         <v>67</v>
       </c>
       <c r="AW19" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AX19" t="n">
         <v>19</v>
@@ -4026,25 +4026,25 @@
         <v>1.7</v>
       </c>
       <c r="H20" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I20" t="n">
         <v>5.25</v>
       </c>
       <c r="J20" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="K20" t="n">
         <v>2.05</v>
       </c>
       <c r="L20" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M20" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N20" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="O20" t="n">
         <v>1.4</v>
@@ -4080,7 +4080,7 @@
         <v>9</v>
       </c>
       <c r="Z20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA20" t="n">
         <v>17</v>
@@ -4098,13 +4098,13 @@
         <v>21</v>
       </c>
       <c r="AF20" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG20" t="n">
         <v>11</v>
       </c>
       <c r="AH20" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI20" t="n">
         <v>17</v>
@@ -4125,13 +4125,13 @@
         <v>3.5</v>
       </c>
       <c r="AO20" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AP20" t="n">
         <v>23</v>
       </c>
       <c r="AQ20" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR20" t="n">
         <v>51</v>
@@ -4205,76 +4205,76 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.7</v>
+        <v>2.15</v>
       </c>
       <c r="H21" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="I21" t="n">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="J21" t="n">
-        <v>2.38</v>
+        <v>2.88</v>
       </c>
       <c r="K21" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L21" t="n">
-        <v>5.5</v>
+        <v>4.33</v>
       </c>
       <c r="M21" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N21" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O21" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="P21" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.08</v>
+        <v>2.25</v>
       </c>
       <c r="R21" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="S21" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T21" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U21" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V21" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="W21" t="n">
         <v>6.5</v>
       </c>
       <c r="X21" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC21" t="n">
         <v>7.5</v>
       </c>
-      <c r="Y21" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>9</v>
-      </c>
       <c r="AD21" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE21" t="n">
         <v>17</v>
@@ -4283,19 +4283,19 @@
         <v>51</v>
       </c>
       <c r="AG21" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AH21" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AI21" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AJ21" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AK21" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL21" t="n">
         <v>41</v>
@@ -4304,25 +4304,25 @@
         <v>351</v>
       </c>
       <c r="AN21" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="AO21" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AP21" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AQ21" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AR21" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS21" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT21" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU21" t="n">
         <v>8.5</v>
@@ -4331,22 +4331,22 @@
         <v>67</v>
       </c>
       <c r="AW21" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="AX21" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AY21" t="n">
         <v>34</v>
       </c>
       <c r="AZ21" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA21" t="n">
         <v>101</v>
       </c>
-      <c r="BA21" t="n">
-        <v>126</v>
-      </c>
       <c r="BB21" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC21" t="n">
         <v>81</v>
@@ -4387,22 +4387,22 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="H22" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I22" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="J22" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K22" t="n">
         <v>2.05</v>
       </c>
       <c r="L22" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M22" t="n">
         <v>1.07</v>
@@ -4417,10 +4417,10 @@
         <v>3</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R22" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S22" t="n">
         <v>1.44</v>
@@ -4438,7 +4438,7 @@
         <v>9</v>
       </c>
       <c r="X22" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y22" t="n">
         <v>12</v>
@@ -4453,7 +4453,7 @@
         <v>41</v>
       </c>
       <c r="AC22" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD22" t="n">
         <v>6</v>
@@ -4477,10 +4477,10 @@
         <v>21</v>
       </c>
       <c r="AK22" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL22" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM22" t="n">
         <v>301</v>
@@ -4495,7 +4495,7 @@
         <v>29</v>
       </c>
       <c r="AQ22" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR22" t="n">
         <v>81</v>
@@ -4507,7 +4507,7 @@
         <v>2.63</v>
       </c>
       <c r="AU22" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV22" t="n">
         <v>51</v>
@@ -4516,7 +4516,7 @@
         <v>4.33</v>
       </c>
       <c r="AX22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY22" t="n">
         <v>23</v>
@@ -4569,55 +4569,55 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H23" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I23" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="J23" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K23" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L23" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N23" t="n">
+        <v>10</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P23" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q23" t="n">
         <v>2.05</v>
       </c>
-      <c r="L23" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N23" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P23" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>2.2</v>
-      </c>
       <c r="R23" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="S23" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T23" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U23" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="V23" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W23" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X23" t="n">
         <v>11</v>
@@ -4632,22 +4632,22 @@
         <v>21</v>
       </c>
       <c r="AB23" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC23" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AD23" t="n">
         <v>6.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF23" t="n">
         <v>51</v>
       </c>
       <c r="AG23" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AH23" t="n">
         <v>13</v>
@@ -4659,37 +4659,37 @@
         <v>29</v>
       </c>
       <c r="AK23" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL23" t="n">
         <v>34</v>
       </c>
       <c r="AM23" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="AN23" t="n">
         <v>4.5</v>
       </c>
       <c r="AO23" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP23" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ23" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR23" t="n">
         <v>67</v>
       </c>
       <c r="AS23" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT23" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU23" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV23" t="n">
         <v>51</v>
@@ -4701,7 +4701,7 @@
         <v>17</v>
       </c>
       <c r="AY23" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ23" t="n">
         <v>51</v>
@@ -4751,28 +4751,28 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H24" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I24" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="J24" t="n">
         <v>2.75</v>
       </c>
       <c r="K24" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L24" t="n">
         <v>4.33</v>
       </c>
       <c r="M24" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O24" t="n">
         <v>1.33</v>
@@ -4781,10 +4781,10 @@
         <v>3.25</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="R24" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S24" t="n">
         <v>1.44</v>
@@ -4808,16 +4808,16 @@
         <v>9</v>
       </c>
       <c r="Z24" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA24" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB24" t="n">
         <v>29</v>
       </c>
       <c r="AC24" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AD24" t="n">
         <v>6</v>
@@ -4829,7 +4829,7 @@
         <v>51</v>
       </c>
       <c r="AG24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH24" t="n">
         <v>19</v>
@@ -4847,13 +4847,13 @@
         <v>41</v>
       </c>
       <c r="AM24" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AN24" t="n">
         <v>4</v>
       </c>
       <c r="AO24" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP24" t="n">
         <v>23</v>
@@ -4862,7 +4862,7 @@
         <v>41</v>
       </c>
       <c r="AR24" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS24" t="n">
         <v>151</v>
@@ -4871,7 +4871,7 @@
         <v>2.63</v>
       </c>
       <c r="AU24" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV24" t="n">
         <v>51</v>
@@ -4892,7 +4892,7 @@
         <v>101</v>
       </c>
       <c r="BB24" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC24" t="n">
         <v>51</v>
@@ -4933,76 +4933,76 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="H25" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="I25" t="n">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="J25" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="K25" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L25" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M25" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N25" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O25" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="P25" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.2</v>
+        <v>2.03</v>
       </c>
       <c r="R25" t="n">
-        <v>1.65</v>
+        <v>1.83</v>
       </c>
       <c r="S25" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="T25" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U25" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V25" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="W25" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y25" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC25" t="n">
         <v>9.5</v>
       </c>
-      <c r="Z25" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>8</v>
-      </c>
       <c r="AD25" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE25" t="n">
         <v>15</v>
@@ -5011,58 +5011,58 @@
         <v>51</v>
       </c>
       <c r="AG25" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="AH25" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AI25" t="n">
         <v>13</v>
       </c>
       <c r="AJ25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK25" t="n">
         <v>34</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>29</v>
       </c>
       <c r="AL25" t="n">
         <v>41</v>
       </c>
       <c r="AM25" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AN25" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO25" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AP25" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ25" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR25" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS25" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT25" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="AU25" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV25" t="n">
         <v>51</v>
       </c>
       <c r="AW25" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX25" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY25" t="n">
         <v>29</v>
@@ -5074,7 +5074,7 @@
         <v>101</v>
       </c>
       <c r="BB25" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC25" t="n">
         <v>51</v>
@@ -5118,7 +5118,7 @@
         <v>1.38</v>
       </c>
       <c r="H26" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="I26" t="n">
         <v>7</v>
@@ -5172,7 +5172,7 @@
         <v>9</v>
       </c>
       <c r="Z26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA26" t="n">
         <v>10</v>
@@ -5199,10 +5199,10 @@
         <v>41</v>
       </c>
       <c r="AI26" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ26" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AK26" t="n">
         <v>41</v>
@@ -5211,7 +5211,7 @@
         <v>41</v>
       </c>
       <c r="AM26" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AN26" t="n">
         <v>3.75</v>
@@ -5223,7 +5223,7 @@
         <v>13</v>
       </c>
       <c r="AQ26" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AR26" t="n">
         <v>29</v>
@@ -5244,7 +5244,7 @@
         <v>8.5</v>
       </c>
       <c r="AX26" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AY26" t="n">
         <v>29</v>
@@ -5262,7 +5262,7 @@
         <v>351</v>
       </c>
       <c r="BD26" t="n">
-        <v>151</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27">
@@ -5300,19 +5300,19 @@
         <v>2.2</v>
       </c>
       <c r="H27" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I27" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="J27" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="K27" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="L27" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="M27" t="n">
         <v>1.07</v>
@@ -5339,19 +5339,19 @@
         <v>2.67</v>
       </c>
       <c r="U27" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="V27" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="W27" t="n">
         <v>7.6</v>
       </c>
       <c r="X27" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="Y27" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="Z27" t="n">
         <v>22</v>
@@ -5360,7 +5360,7 @@
         <v>18</v>
       </c>
       <c r="AB27" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AC27" t="n">
         <v>6.9</v>
@@ -5372,7 +5372,7 @@
         <v>14</v>
       </c>
       <c r="AF27" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AG27" t="n">
         <v>9</v>
@@ -5393,7 +5393,7 @@
         <v>37</v>
       </c>
       <c r="AM27" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AN27" t="n">
         <v>4.15</v>
@@ -5408,7 +5408,7 @@
         <v>45</v>
       </c>
       <c r="AR27" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AS27" t="n">
         <v>250</v>
@@ -5417,10 +5417,10 @@
         <v>2.67</v>
       </c>
       <c r="AU27" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AV27" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AW27" t="n">
         <v>5</v>
@@ -5429,10 +5429,10 @@
         <v>17</v>
       </c>
       <c r="AY27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ27" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="BA27" t="n">
         <v>120</v>
@@ -5479,91 +5479,91 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.4</v>
+        <v>2.47</v>
       </c>
       <c r="H28" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I28" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="J28" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K28" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L28" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N28" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P28" t="n">
         <v>3.05</v>
       </c>
-      <c r="K28" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L28" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N28" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P28" t="n">
-        <v>3.2</v>
-      </c>
       <c r="Q28" t="n">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="R28" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="S28" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="T28" t="n">
-        <v>2.67</v>
+        <v>2.8</v>
       </c>
       <c r="U28" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="V28" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W28" t="n">
-        <v>8.5</v>
+        <v>7.9</v>
       </c>
       <c r="X28" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y28" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AA28" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AB28" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AC28" t="n">
-        <v>7.2</v>
+        <v>6.9</v>
       </c>
       <c r="AD28" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AE28" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AF28" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AG28" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AH28" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AI28" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AJ28" t="n">
         <v>32</v>
@@ -5575,16 +5575,16 @@
         <v>30</v>
       </c>
       <c r="AM28" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AN28" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="AO28" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AP28" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ28" t="n">
         <v>55</v>
@@ -5596,31 +5596,31 @@
         <v>250</v>
       </c>
       <c r="AT28" t="n">
-        <v>2.67</v>
+        <v>2.8</v>
       </c>
       <c r="AU28" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="AV28" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AW28" t="n">
         <v>4.75</v>
       </c>
       <c r="AX28" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AY28" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AZ28" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="BA28" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="BB28" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BC28" t="n">
         <v>51</v>
@@ -5661,22 +5661,22 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="H29" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="I29" t="n">
-        <v>2.4</v>
+        <v>2.52</v>
       </c>
       <c r="J29" t="n">
-        <v>3.05</v>
+        <v>2.95</v>
       </c>
       <c r="K29" t="n">
         <v>2.22</v>
       </c>
       <c r="L29" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M29" t="n">
         <v>1.05</v>
@@ -5685,7 +5685,7 @@
         <v>8</v>
       </c>
       <c r="O29" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P29" t="n">
         <v>3.6</v>
@@ -5694,7 +5694,7 @@
         <v>1.75</v>
       </c>
       <c r="R29" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="S29" t="n">
         <v>1.35</v>
@@ -5709,19 +5709,19 @@
         <v>2.12</v>
       </c>
       <c r="W29" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="X29" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y29" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AA29" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AB29" t="n">
         <v>26</v>
@@ -5730,7 +5730,7 @@
         <v>8</v>
       </c>
       <c r="AD29" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AE29" t="n">
         <v>13</v>
@@ -5739,40 +5739,40 @@
         <v>50</v>
       </c>
       <c r="AG29" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AH29" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AI29" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AJ29" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AK29" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AL29" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM29" t="n">
         <v>350</v>
       </c>
       <c r="AN29" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="AO29" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AP29" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AQ29" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AR29" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AS29" t="n">
         <v>250</v>
@@ -5787,16 +5787,16 @@
         <v>55</v>
       </c>
       <c r="AW29" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="AX29" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AY29" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AZ29" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="BA29" t="n">
         <v>80</v>
@@ -5843,148 +5843,148 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.53</v>
+        <v>1.85</v>
       </c>
       <c r="H30" t="n">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="I30" t="n">
-        <v>4.6</v>
+        <v>3.4</v>
       </c>
       <c r="J30" t="n">
-        <v>2</v>
+        <v>2.35</v>
       </c>
       <c r="K30" t="n">
-        <v>2.57</v>
+        <v>2.42</v>
       </c>
       <c r="L30" t="n">
-        <v>4.6</v>
+        <v>3.7</v>
       </c>
       <c r="M30" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N30" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="O30" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="P30" t="n">
-        <v>5.1</v>
+        <v>4.75</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="R30" t="n">
-        <v>2.65</v>
+        <v>2.5</v>
       </c>
       <c r="S30" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="T30" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="U30" t="n">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="V30" t="n">
-        <v>2.37</v>
+        <v>2.52</v>
       </c>
       <c r="W30" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="X30" t="n">
-        <v>10</v>
+        <v>11.75</v>
       </c>
       <c r="Y30" t="n">
         <v>8.5</v>
       </c>
       <c r="Z30" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AA30" t="n">
         <v>13</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>11</v>
       </c>
       <c r="AB30" t="n">
         <v>17.5</v>
       </c>
       <c r="AC30" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AD30" t="n">
-        <v>9.5</v>
+        <v>8.25</v>
       </c>
       <c r="AE30" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>50</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>25</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>175</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP30" t="n">
         <v>13.5</v>
       </c>
-      <c r="AF30" t="n">
+      <c r="AQ30" t="n">
+        <v>28</v>
+      </c>
+      <c r="AR30" t="n">
         <v>40</v>
       </c>
-      <c r="AG30" t="n">
-        <v>20</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>35</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AJ30" t="n">
+      <c r="AS30" t="n">
+        <v>120</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>40</v>
+      </c>
+      <c r="AW30" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AX30" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AY30" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ30" t="n">
+        <v>75</v>
+      </c>
+      <c r="BA30" t="n">
         <v>80</v>
       </c>
-      <c r="AK30" t="n">
-        <v>37</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>200</v>
-      </c>
-      <c r="AN30" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="AO30" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AP30" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AQ30" t="n">
-        <v>19</v>
-      </c>
-      <c r="AR30" t="n">
-        <v>35</v>
-      </c>
-      <c r="AS30" t="n">
-        <v>110</v>
-      </c>
-      <c r="AT30" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="AU30" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AV30" t="n">
-        <v>45</v>
-      </c>
-      <c r="AW30" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX30" t="n">
-        <v>24</v>
-      </c>
-      <c r="AY30" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ30" t="n">
-        <v>120</v>
-      </c>
-      <c r="BA30" t="n">
-        <v>120</v>
-      </c>
       <c r="BB30" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="BC30" t="n">
         <v>500</v>
@@ -6025,19 +6025,19 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="H31" t="n">
         <v>3.65</v>
       </c>
       <c r="I31" t="n">
-        <v>4.45</v>
+        <v>4.25</v>
       </c>
       <c r="J31" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="K31" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="L31" t="n">
         <v>4.7</v>
@@ -6046,31 +6046,31 @@
         <v>1.05</v>
       </c>
       <c r="N31" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="O31" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P31" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q31" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="T31" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="U31" t="n">
         <v>1.8</v>
       </c>
-      <c r="R31" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="S31" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="T31" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="U31" t="n">
-        <v>1.78</v>
-      </c>
       <c r="V31" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="W31" t="n">
         <v>7.2</v>
@@ -6079,40 +6079,40 @@
         <v>8</v>
       </c>
       <c r="Y31" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="Z31" t="n">
         <v>13</v>
       </c>
       <c r="AA31" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AB31" t="n">
         <v>25</v>
       </c>
       <c r="AC31" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="AD31" t="n">
         <v>7.2</v>
       </c>
       <c r="AE31" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AF31" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AG31" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH31" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AI31" t="n">
         <v>14.5</v>
       </c>
       <c r="AJ31" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AK31" t="n">
         <v>40</v>
@@ -6121,16 +6121,16 @@
         <v>45</v>
       </c>
       <c r="AM31" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AN31" t="n">
         <v>3.55</v>
       </c>
       <c r="AO31" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AP31" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AQ31" t="n">
         <v>28</v>
@@ -6142,22 +6142,22 @@
         <v>250</v>
       </c>
       <c r="AT31" t="n">
-        <v>2.82</v>
+        <v>2.77</v>
       </c>
       <c r="AU31" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AV31" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AW31" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AX31" t="n">
         <v>25</v>
       </c>
       <c r="AY31" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AZ31" t="n">
         <v>150</v>
@@ -6207,46 +6207,46 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="H32" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I32" t="n">
-        <v>2.62</v>
+        <v>2.7</v>
       </c>
       <c r="J32" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="K32" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="L32" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M32" t="n">
         <v>1.06</v>
       </c>
       <c r="N32" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="O32" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P32" t="n">
         <v>3.3</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="R32" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="S32" t="n">
         <v>1.4</v>
       </c>
       <c r="T32" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="U32" t="n">
         <v>1.65</v>
@@ -6258,25 +6258,25 @@
         <v>8.5</v>
       </c>
       <c r="X32" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y32" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="Z32" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AA32" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AB32" t="n">
         <v>28</v>
       </c>
       <c r="AC32" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AD32" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AE32" t="n">
         <v>12.5</v>
@@ -6285,10 +6285,10 @@
         <v>55</v>
       </c>
       <c r="AG32" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AH32" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AI32" t="n">
         <v>9.75</v>
@@ -6297,52 +6297,52 @@
         <v>32</v>
       </c>
       <c r="AK32" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AL32" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AM32" t="n">
         <v>400</v>
       </c>
       <c r="AN32" t="n">
-        <v>4.55</v>
+        <v>4.45</v>
       </c>
       <c r="AO32" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP32" t="n">
         <v>21</v>
       </c>
       <c r="AQ32" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AR32" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AS32" t="n">
         <v>250</v>
       </c>
       <c r="AT32" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="AU32" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AV32" t="n">
         <v>55</v>
       </c>
       <c r="AW32" t="n">
-        <v>4.65</v>
+        <v>4.75</v>
       </c>
       <c r="AX32" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AY32" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ32" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="BA32" t="n">
         <v>90</v>
@@ -6389,7 +6389,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="H33" t="n">
         <v>3.55</v>
@@ -6404,37 +6404,37 @@
         <v>2.25</v>
       </c>
       <c r="L33" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="M33" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N33" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="O33" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P33" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="Q33" t="n">
         <v>1.75</v>
       </c>
       <c r="R33" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="S33" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="T33" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="U33" t="n">
         <v>1.65</v>
       </c>
       <c r="V33" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="W33" t="n">
         <v>10.75</v>
@@ -6452,13 +6452,13 @@
         <v>24</v>
       </c>
       <c r="AB33" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AC33" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AD33" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AE33" t="n">
         <v>13.5</v>
@@ -6470,7 +6470,7 @@
         <v>8.75</v>
       </c>
       <c r="AH33" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AI33" t="n">
         <v>8.75</v>
@@ -6488,7 +6488,7 @@
         <v>350</v>
       </c>
       <c r="AN33" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="AO33" t="n">
         <v>15.5</v>
@@ -6506,7 +6506,7 @@
         <v>250</v>
       </c>
       <c r="AT33" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="AU33" t="n">
         <v>7</v>
@@ -6518,7 +6518,7 @@
         <v>4.15</v>
       </c>
       <c r="AX33" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AY33" t="n">
         <v>18</v>
@@ -6571,22 +6571,22 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.6</v>
+        <v>2.47</v>
       </c>
       <c r="H34" t="n">
         <v>3.2</v>
       </c>
       <c r="I34" t="n">
-        <v>2.47</v>
+        <v>2.62</v>
       </c>
       <c r="J34" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="K34" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="L34" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M34" t="n">
         <v>1.07</v>
@@ -6610,7 +6610,7 @@
         <v>1.4</v>
       </c>
       <c r="T34" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="U34" t="n">
         <v>1.75</v>
@@ -6619,28 +6619,28 @@
         <v>1.95</v>
       </c>
       <c r="W34" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="X34" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y34" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="Z34" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AA34" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AB34" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AC34" t="n">
         <v>7</v>
       </c>
       <c r="AD34" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AE34" t="n">
         <v>14</v>
@@ -6649,19 +6649,19 @@
         <v>65</v>
       </c>
       <c r="AG34" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AH34" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI34" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AJ34" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AK34" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL34" t="n">
         <v>32</v>
@@ -6670,16 +6670,16 @@
         <v>500</v>
       </c>
       <c r="AN34" t="n">
-        <v>4.6</v>
+        <v>4.45</v>
       </c>
       <c r="AO34" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP34" t="n">
         <v>21</v>
       </c>
       <c r="AQ34" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AR34" t="n">
         <v>90</v>
@@ -6688,28 +6688,28 @@
         <v>250</v>
       </c>
       <c r="AT34" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="AU34" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AV34" t="n">
         <v>60</v>
       </c>
       <c r="AW34" t="n">
-        <v>4.45</v>
+        <v>4.6</v>
       </c>
       <c r="AX34" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AY34" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AZ34" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="BA34" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="BB34" t="n">
         <v>300</v>
@@ -6753,127 +6753,127 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="H35" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="I35" t="n">
-        <v>4.25</v>
+        <v>4.35</v>
       </c>
       <c r="J35" t="n">
-        <v>2.35</v>
+        <v>2.47</v>
       </c>
       <c r="K35" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="L35" t="n">
-        <v>4.5</v>
+        <v>4.65</v>
       </c>
       <c r="M35" t="n">
         <v>1.01</v>
       </c>
       <c r="N35" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P35" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="T35" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="U35" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V35" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="W35" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="X35" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="Y35" t="n">
         <v>8</v>
       </c>
-      <c r="O35" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="P35" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="R35" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S35" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T35" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="U35" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V35" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W35" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X35" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>8.25</v>
-      </c>
       <c r="Z35" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AA35" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AB35" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AC35" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AD35" t="n">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="AE35" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AF35" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AG35" t="n">
-        <v>11.25</v>
+        <v>12.5</v>
       </c>
       <c r="AH35" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AI35" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AJ35" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AK35" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AL35" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AM35" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="AN35" t="n">
         <v>3.65</v>
       </c>
       <c r="AO35" t="n">
-        <v>8.75</v>
+        <v>9.5</v>
       </c>
       <c r="AP35" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AQ35" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AR35" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AS35" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AT35" t="n">
-        <v>2.57</v>
+        <v>2.42</v>
       </c>
       <c r="AU35" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="AV35" t="n">
         <v>65</v>
@@ -6882,16 +6882,16 @@
         <v>6</v>
       </c>
       <c r="AX35" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AY35" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AZ35" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="BA35" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="BB35" t="n">
         <v>350</v>
@@ -6935,61 +6935,61 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.92</v>
+        <v>2.87</v>
       </c>
       <c r="H36" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="I36" t="n">
-        <v>2.35</v>
+        <v>2.52</v>
       </c>
       <c r="J36" t="n">
         <v>3.4</v>
       </c>
       <c r="K36" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="L36" t="n">
-        <v>2.95</v>
+        <v>3.15</v>
       </c>
       <c r="M36" t="n">
         <v>1.01</v>
       </c>
       <c r="N36" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="O36" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P36" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="R36" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S36" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="T36" t="n">
-        <v>2.55</v>
+        <v>2.47</v>
       </c>
       <c r="U36" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="V36" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="W36" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X36" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y36" t="n">
         <v>10</v>
-      </c>
-      <c r="X36" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="Y36" t="n">
-        <v>10.25</v>
       </c>
       <c r="Z36" t="n">
         <v>37</v>
@@ -6998,79 +6998,79 @@
         <v>24</v>
       </c>
       <c r="AB36" t="n">
+        <v>28</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AJ36" t="n">
         <v>29</v>
       </c>
-      <c r="AC36" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>55</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>8</v>
-      </c>
-      <c r="AH36" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AI36" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ36" t="n">
-        <v>25</v>
-      </c>
       <c r="AK36" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AL36" t="n">
         <v>27</v>
       </c>
       <c r="AM36" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AN36" t="n">
-        <v>4.85</v>
+        <v>4.8</v>
       </c>
       <c r="AO36" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AP36" t="n">
         <v>21</v>
       </c>
       <c r="AQ36" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AR36" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AS36" t="n">
         <v>250</v>
       </c>
       <c r="AT36" t="n">
-        <v>2.52</v>
+        <v>2.42</v>
       </c>
       <c r="AU36" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AV36" t="n">
         <v>55</v>
       </c>
       <c r="AW36" t="n">
-        <v>4.3</v>
+        <v>4.45</v>
       </c>
       <c r="AX36" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AY36" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ36" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="BA36" t="n">
         <v>90</v>
@@ -7117,115 +7117,115 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.25</v>
+        <v>2.32</v>
       </c>
       <c r="H37" t="n">
-        <v>3.15</v>
+        <v>2.87</v>
       </c>
       <c r="I37" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="J37" t="n">
-        <v>2.87</v>
+        <v>2.95</v>
       </c>
       <c r="K37" t="n">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="L37" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="M37" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N37" t="n">
-        <v>7.1</v>
+        <v>6.95</v>
       </c>
       <c r="O37" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P37" t="n">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="R37" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S37" t="n">
         <v>1.44</v>
       </c>
       <c r="T37" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="U37" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V37" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="W37" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="X37" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="Y37" t="n">
         <v>9.25</v>
       </c>
       <c r="Z37" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AA37" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AB37" t="n">
         <v>35</v>
       </c>
       <c r="AC37" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="AD37" t="n">
-        <v>6.1</v>
+        <v>5.6</v>
       </c>
       <c r="AE37" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AF37" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AG37" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="AH37" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AI37" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AJ37" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AK37" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AL37" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AM37" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="AN37" t="n">
-        <v>4.05</v>
+        <v>4.15</v>
       </c>
       <c r="AO37" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="AP37" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ37" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AR37" t="n">
         <v>90</v>
@@ -7234,31 +7234,31 @@
         <v>300</v>
       </c>
       <c r="AT37" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="AU37" t="n">
-        <v>7.3</v>
+        <v>6.8</v>
       </c>
       <c r="AV37" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AW37" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="AX37" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AY37" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AZ37" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="BA37" t="n">
         <v>120</v>
       </c>
       <c r="BB37" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="BC37" t="n">
         <v>51</v>
@@ -7299,31 +7299,31 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>10.25</v>
+        <v>11.25</v>
       </c>
       <c r="H38" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="I38" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="J38" t="n">
-        <v>8.75</v>
+        <v>9.75</v>
       </c>
       <c r="K38" t="n">
         <v>2.47</v>
       </c>
       <c r="L38" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="M38" t="n">
         <v>1.04</v>
       </c>
       <c r="N38" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="O38" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P38" t="n">
         <v>3.8</v>
@@ -7347,31 +7347,31 @@
         <v>1.55</v>
       </c>
       <c r="W38" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="X38" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="Y38" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="Z38" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="AA38" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AB38" t="n">
         <v>150</v>
       </c>
       <c r="AC38" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AD38" t="n">
         <v>10.75</v>
       </c>
       <c r="AE38" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF38" t="n">
         <v>175</v>
@@ -7398,13 +7398,13 @@
         <v>1000</v>
       </c>
       <c r="AN38" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="AO38" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AP38" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AQ38" t="n">
         <v>500</v>
@@ -7419,7 +7419,7 @@
         <v>3</v>
       </c>
       <c r="AU38" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AV38" t="n">
         <v>120</v>
@@ -7431,16 +7431,16 @@
         <v>5.3</v>
       </c>
       <c r="AY38" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AZ38" t="n">
         <v>13.5</v>
       </c>
       <c r="BA38" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="BB38" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BC38" t="n">
         <v>51</v>
@@ -7481,22 +7481,22 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="H39" t="n">
-        <v>4.4</v>
+        <v>4.35</v>
       </c>
       <c r="I39" t="n">
-        <v>6.3</v>
+        <v>5.3</v>
       </c>
       <c r="J39" t="n">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="K39" t="n">
         <v>2.47</v>
       </c>
       <c r="L39" t="n">
-        <v>5.8</v>
+        <v>5.2</v>
       </c>
       <c r="M39" t="n">
         <v>1.03</v>
@@ -7508,13 +7508,13 @@
         <v>1.17</v>
       </c>
       <c r="P39" t="n">
-        <v>4.45</v>
+        <v>4.4</v>
       </c>
       <c r="Q39" t="n">
         <v>1.53</v>
       </c>
       <c r="R39" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="S39" t="n">
         <v>1.29</v>
@@ -7523,25 +7523,25 @@
         <v>3.3</v>
       </c>
       <c r="U39" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="V39" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="W39" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="X39" t="n">
-        <v>7.7</v>
+        <v>8.25</v>
       </c>
       <c r="Y39" t="n">
         <v>8.25</v>
       </c>
       <c r="Z39" t="n">
-        <v>10</v>
+        <v>10.75</v>
       </c>
       <c r="AA39" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AB39" t="n">
         <v>21</v>
@@ -7550,76 +7550,76 @@
         <v>9.25</v>
       </c>
       <c r="AD39" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AE39" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AF39" t="n">
         <v>60</v>
       </c>
       <c r="AG39" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AH39" t="n">
+        <v>35</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>100</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL39" t="n">
         <v>45</v>
-      </c>
-      <c r="AI39" t="n">
-        <v>20</v>
-      </c>
-      <c r="AJ39" t="n">
-        <v>150</v>
-      </c>
-      <c r="AK39" t="n">
-        <v>60</v>
-      </c>
-      <c r="AL39" t="n">
-        <v>50</v>
       </c>
       <c r="AM39" t="n">
         <v>400</v>
       </c>
       <c r="AN39" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="AO39" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="AP39" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AQ39" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AR39" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AS39" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AT39" t="n">
         <v>3.3</v>
       </c>
       <c r="AU39" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AV39" t="n">
         <v>60</v>
       </c>
       <c r="AW39" t="n">
-        <v>8</v>
+        <v>7.2</v>
       </c>
       <c r="AX39" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="AY39" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AZ39" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="BA39" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="BB39" t="n">
         <v>350</v>
@@ -7663,22 +7663,22 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="H40" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I40" t="n">
-        <v>3.35</v>
+        <v>3.85</v>
       </c>
       <c r="J40" t="n">
-        <v>2.42</v>
+        <v>2.3</v>
       </c>
       <c r="K40" t="n">
         <v>2.32</v>
       </c>
       <c r="L40" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="M40" t="n">
         <v>1.03</v>
@@ -7687,91 +7687,91 @@
         <v>9</v>
       </c>
       <c r="O40" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P40" t="n">
-        <v>4.3</v>
+        <v>4.25</v>
       </c>
       <c r="Q40" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R40" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S40" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T40" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U40" t="n">
         <v>1.55</v>
       </c>
-      <c r="R40" t="n">
+      <c r="V40" t="n">
         <v>2.3</v>
       </c>
-      <c r="S40" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T40" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U40" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="V40" t="n">
-        <v>2.37</v>
-      </c>
       <c r="W40" t="n">
-        <v>10.25</v>
+        <v>9.5</v>
       </c>
       <c r="X40" t="n">
-        <v>11.25</v>
+        <v>10</v>
       </c>
       <c r="Y40" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="Z40" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="AA40" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AB40" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AC40" t="n">
         <v>9</v>
       </c>
       <c r="AD40" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AE40" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="AF40" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AG40" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AH40" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AI40" t="n">
-        <v>11.75</v>
+        <v>13</v>
       </c>
       <c r="AJ40" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AK40" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="AL40" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AM40" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AN40" t="n">
-        <v>4.15</v>
+        <v>3.9</v>
       </c>
       <c r="AO40" t="n">
-        <v>9.5</v>
+        <v>8.75</v>
       </c>
       <c r="AP40" t="n">
         <v>15</v>
       </c>
       <c r="AQ40" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AR40" t="n">
         <v>50</v>
@@ -7780,31 +7780,31 @@
         <v>150</v>
       </c>
       <c r="AT40" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="AU40" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="AV40" t="n">
         <v>45</v>
       </c>
       <c r="AW40" t="n">
-        <v>5.7</v>
+        <v>6.1</v>
       </c>
       <c r="AX40" t="n">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="AY40" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AZ40" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="BA40" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="BB40" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BC40" t="n">
         <v>500</v>
@@ -7845,22 +7845,22 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>3.65</v>
+        <v>3.3</v>
       </c>
       <c r="H41" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I41" t="n">
-        <v>1.88</v>
+        <v>2.02</v>
       </c>
       <c r="J41" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="K41" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="L41" t="n">
-        <v>2.5</v>
+        <v>2.65</v>
       </c>
       <c r="M41" t="n">
         <v>1.06</v>
@@ -7875,7 +7875,7 @@
         <v>3.3</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="R41" t="n">
         <v>1.87</v>
@@ -7887,103 +7887,103 @@
         <v>2.72</v>
       </c>
       <c r="U41" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="V41" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="W41" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="X41" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="Y41" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="Z41" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AA41" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB41" t="n">
         <v>35</v>
-      </c>
-      <c r="AB41" t="n">
-        <v>40</v>
       </c>
       <c r="AC41" t="n">
         <v>7.4</v>
       </c>
       <c r="AD41" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="AE41" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AF41" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AG41" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="AH41" t="n">
-        <v>9.25</v>
+        <v>10</v>
       </c>
       <c r="AI41" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AJ41" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="AK41" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AL41" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>450</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP41" t="n">
         <v>25</v>
       </c>
-      <c r="AM41" t="n">
-        <v>500</v>
-      </c>
-      <c r="AN41" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AO41" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP41" t="n">
-        <v>28</v>
-      </c>
       <c r="AQ41" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AR41" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AS41" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AT41" t="n">
         <v>2.72</v>
       </c>
       <c r="AU41" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="AV41" t="n">
         <v>65</v>
       </c>
       <c r="AW41" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="AX41" t="n">
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="AY41" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AZ41" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="BA41" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="BB41" t="n">
         <v>250</v>
@@ -8027,37 +8027,37 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.05</v>
+        <v>1.78</v>
       </c>
       <c r="H42" t="n">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="I42" t="n">
-        <v>3.25</v>
+        <v>4.7</v>
       </c>
       <c r="J42" t="n">
-        <v>2.67</v>
+        <v>2.32</v>
       </c>
       <c r="K42" t="n">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="L42" t="n">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="M42" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N42" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="O42" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="P42" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="R42" t="n">
         <v>1.75</v>
@@ -8066,106 +8066,106 @@
         <v>1.4</v>
       </c>
       <c r="T42" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="U42" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V42" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="W42" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X42" t="n">
-        <v>9.5</v>
+        <v>8.25</v>
       </c>
       <c r="Y42" t="n">
-        <v>8.75</v>
+        <v>7.9</v>
       </c>
       <c r="Z42" t="n">
-        <v>18.5</v>
+        <v>15.5</v>
       </c>
       <c r="AA42" t="n">
-        <v>17.5</v>
+        <v>14.5</v>
       </c>
       <c r="AB42" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>70</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>100</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>600</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP42" t="n">
+        <v>16</v>
+      </c>
+      <c r="AQ42" t="n">
         <v>30</v>
       </c>
-      <c r="AC42" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE42" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AF42" t="n">
-        <v>75</v>
-      </c>
-      <c r="AG42" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AH42" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI42" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AJ42" t="n">
-        <v>45</v>
-      </c>
-      <c r="AK42" t="n">
+      <c r="AR42" t="n">
+        <v>55</v>
+      </c>
+      <c r="AS42" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT42" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU42" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AV42" t="n">
+        <v>55</v>
+      </c>
+      <c r="AW42" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AX42" t="n">
+        <v>28</v>
+      </c>
+      <c r="AY42" t="n">
         <v>30</v>
       </c>
-      <c r="AL42" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM42" t="n">
-        <v>700</v>
-      </c>
-      <c r="AN42" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="AO42" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AP42" t="n">
-        <v>20</v>
-      </c>
-      <c r="AQ42" t="n">
-        <v>40</v>
-      </c>
-      <c r="AR42" t="n">
-        <v>80</v>
-      </c>
-      <c r="AS42" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT42" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="AU42" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AV42" t="n">
-        <v>70</v>
-      </c>
-      <c r="AW42" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="AX42" t="n">
-        <v>18</v>
-      </c>
-      <c r="AY42" t="n">
-        <v>26</v>
-      </c>
       <c r="AZ42" t="n">
-        <v>90</v>
+        <v>175</v>
       </c>
       <c r="BA42" t="n">
-        <v>120</v>
+        <v>175</v>
       </c>
       <c r="BB42" t="n">
         <v>350</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-12.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-12.xlsx
@@ -771,16 +771,16 @@
         <v>11</v>
       </c>
       <c r="O2" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P2" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R2" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S2" t="n">
         <v>1.4</v>
@@ -929,16 +929,16 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="H3" t="n">
         <v>3.4</v>
       </c>
       <c r="I3" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="J3" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="K3" t="n">
         <v>2.05</v>
@@ -959,10 +959,10 @@
         <v>2.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="R3" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S3" t="n">
         <v>1.5</v>
@@ -971,10 +971,10 @@
         <v>2.5</v>
       </c>
       <c r="U3" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V3" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W3" t="n">
         <v>5.5</v>
@@ -992,13 +992,13 @@
         <v>17</v>
       </c>
       <c r="AB3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC3" t="n">
         <v>7</v>
       </c>
       <c r="AD3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE3" t="n">
         <v>21</v>
@@ -1013,7 +1013,7 @@
         <v>29</v>
       </c>
       <c r="AI3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ3" t="n">
         <v>67</v>
@@ -1028,7 +1028,7 @@
         <v>201</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AO3" t="n">
         <v>9</v>
@@ -1049,7 +1049,7 @@
         <v>2.5</v>
       </c>
       <c r="AU3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV3" t="n">
         <v>81</v>
@@ -1064,10 +1064,10 @@
         <v>41</v>
       </c>
       <c r="AZ3" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BA3" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BB3" t="n">
         <v>501</v>
@@ -1129,16 +1129,16 @@
         <v>4.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="N4" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="P4" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Q4" t="n">
         <v>3.1</v>
@@ -1484,31 +1484,31 @@
         <v>2.9</v>
       </c>
       <c r="J6" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K6" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="L6" t="n">
         <v>3.75</v>
       </c>
       <c r="M6" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N6" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P6" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="R6" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S6" t="n">
         <v>1.62</v>
@@ -1517,10 +1517,10 @@
         <v>2.2</v>
       </c>
       <c r="U6" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V6" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W6" t="n">
         <v>6</v>
@@ -1529,19 +1529,19 @@
         <v>11</v>
       </c>
       <c r="Y6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z6" t="n">
         <v>26</v>
       </c>
       <c r="AA6" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AB6" t="n">
         <v>41</v>
       </c>
       <c r="AC6" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AD6" t="n">
         <v>6</v>
@@ -1556,7 +1556,7 @@
         <v>6.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI6" t="n">
         <v>12</v>
@@ -2385,10 +2385,10 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>4.15</v>
+        <v>4.1</v>
       </c>
       <c r="H11" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I11" t="n">
         <v>1.9</v>
@@ -2397,7 +2397,7 @@
         <v>4.6</v>
       </c>
       <c r="K11" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="L11" t="n">
         <v>2.5</v>
@@ -2418,13 +2418,13 @@
         <v>2.2</v>
       </c>
       <c r="R11" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="S11" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="T11" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="U11" t="n">
         <v>1.98</v>
@@ -2433,10 +2433,10 @@
         <v>1.65</v>
       </c>
       <c r="W11" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="X11" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y11" t="n">
         <v>14.5</v>
@@ -2445,19 +2445,19 @@
         <v>70</v>
       </c>
       <c r="AA11" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AB11" t="n">
         <v>60</v>
       </c>
       <c r="AC11" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AD11" t="n">
         <v>6.2</v>
       </c>
       <c r="AE11" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AF11" t="n">
         <v>110</v>
@@ -2466,7 +2466,7 @@
         <v>5.7</v>
       </c>
       <c r="AH11" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AI11" t="n">
         <v>8.75</v>
@@ -2478,7 +2478,7 @@
         <v>17.5</v>
       </c>
       <c r="AL11" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AM11" t="n">
         <v>201</v>
@@ -2487,10 +2487,10 @@
         <v>5.7</v>
       </c>
       <c r="AO11" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AP11" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AQ11" t="n">
         <v>150</v>
@@ -2505,7 +2505,7 @@
         <v>2.32</v>
       </c>
       <c r="AU11" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AV11" t="n">
         <v>80</v>
@@ -2514,7 +2514,7 @@
         <v>3.6</v>
       </c>
       <c r="AX11" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AY11" t="n">
         <v>21</v>
@@ -2576,13 +2576,13 @@
         <v>4.05</v>
       </c>
       <c r="J12" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="K12" t="n">
         <v>2.22</v>
       </c>
       <c r="L12" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="M12" t="n">
         <v>1.03</v>
@@ -2597,7 +2597,7 @@
         <v>3.6</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R12" t="n">
         <v>2.05</v>
@@ -2621,13 +2621,13 @@
         <v>9.25</v>
       </c>
       <c r="Y12" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="Z12" t="n">
         <v>14.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AB12" t="n">
         <v>21</v>
@@ -2645,10 +2645,10 @@
         <v>50</v>
       </c>
       <c r="AG12" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI12" t="n">
         <v>13.5</v>
@@ -2663,7 +2663,7 @@
         <v>35</v>
       </c>
       <c r="AM12" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AN12" t="n">
         <v>3.75</v>
@@ -2672,13 +2672,13 @@
         <v>8.5</v>
       </c>
       <c r="AP12" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AQ12" t="n">
         <v>28</v>
       </c>
       <c r="AR12" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AS12" t="n">
         <v>175</v>
@@ -2687,19 +2687,19 @@
         <v>3</v>
       </c>
       <c r="AU12" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AV12" t="n">
         <v>55</v>
       </c>
       <c r="AW12" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AX12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AY12" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ12" t="n">
         <v>110</v>
@@ -2708,7 +2708,7 @@
         <v>120</v>
       </c>
       <c r="BB12" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BC12" t="n">
         <v>51</v>
@@ -2931,46 +2931,46 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I14" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="J14" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K14" t="n">
         <v>1.91</v>
       </c>
       <c r="L14" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M14" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N14" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O14" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P14" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="R14" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S14" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="T14" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="U14" t="n">
         <v>2.2</v>
@@ -2982,22 +2982,22 @@
         <v>6</v>
       </c>
       <c r="X14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z14" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA14" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB14" t="n">
         <v>41</v>
       </c>
       <c r="AC14" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AD14" t="n">
         <v>6</v>
@@ -3036,28 +3036,28 @@
         <v>15</v>
       </c>
       <c r="AP14" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ14" t="n">
         <v>51</v>
       </c>
       <c r="AR14" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS14" t="n">
         <v>301</v>
       </c>
       <c r="AT14" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AU14" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV14" t="n">
         <v>81</v>
       </c>
       <c r="AW14" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX14" t="n">
         <v>19</v>
@@ -4032,19 +4032,19 @@
         <v>5.25</v>
       </c>
       <c r="J20" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="K20" t="n">
         <v>2.05</v>
       </c>
       <c r="L20" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M20" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N20" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="O20" t="n">
         <v>1.4</v>
@@ -4080,7 +4080,7 @@
         <v>9</v>
       </c>
       <c r="Z20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA20" t="n">
         <v>17</v>
@@ -4104,7 +4104,7 @@
         <v>11</v>
       </c>
       <c r="AH20" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI20" t="n">
         <v>17</v>
@@ -4125,13 +4125,13 @@
         <v>3.5</v>
       </c>
       <c r="AO20" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AP20" t="n">
         <v>23</v>
       </c>
       <c r="AQ20" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR20" t="n">
         <v>51</v>
@@ -4158,13 +4158,13 @@
         <v>41</v>
       </c>
       <c r="AZ20" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BA20" t="n">
         <v>151</v>
       </c>
       <c r="BB20" t="n">
-        <v>501</v>
+        <v>351</v>
       </c>
       <c r="BC20" t="n">
         <v>81</v>
@@ -4235,10 +4235,10 @@
         <v>2.75</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R21" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S21" t="n">
         <v>1.5</v>
@@ -4387,22 +4387,22 @@
         </is>
       </c>
       <c r="G22" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H22" t="n">
         <v>3.25</v>
       </c>
-      <c r="H22" t="n">
-        <v>3.2</v>
-      </c>
       <c r="I22" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="J22" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K22" t="n">
         <v>2.05</v>
       </c>
       <c r="L22" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M22" t="n">
         <v>1.07</v>
@@ -4411,16 +4411,16 @@
         <v>9</v>
       </c>
       <c r="O22" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P22" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R22" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S22" t="n">
         <v>1.44</v>
@@ -4429,22 +4429,22 @@
         <v>2.63</v>
       </c>
       <c r="U22" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V22" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W22" t="n">
         <v>9</v>
       </c>
       <c r="X22" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z22" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AA22" t="n">
         <v>29</v>
@@ -4453,13 +4453,13 @@
         <v>41</v>
       </c>
       <c r="AC22" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF22" t="n">
         <v>51</v>
@@ -4468,40 +4468,40 @@
         <v>7</v>
       </c>
       <c r="AH22" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI22" t="n">
         <v>9.5</v>
       </c>
       <c r="AJ22" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK22" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL22" t="n">
         <v>34</v>
       </c>
       <c r="AM22" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AN22" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AO22" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP22" t="n">
         <v>29</v>
       </c>
       <c r="AQ22" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR22" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS22" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT22" t="n">
         <v>2.63</v>
@@ -4513,10 +4513,10 @@
         <v>51</v>
       </c>
       <c r="AW22" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AX22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY22" t="n">
         <v>23</v>
@@ -4951,22 +4951,22 @@
         <v>4.33</v>
       </c>
       <c r="M25" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O25" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P25" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="R25" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="S25" t="n">
         <v>1.4</v>
@@ -5664,13 +5664,13 @@
         <v>2.4</v>
       </c>
       <c r="H29" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I29" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="J29" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="K29" t="n">
         <v>2.22</v>
@@ -5730,13 +5730,13 @@
         <v>8</v>
       </c>
       <c r="AD29" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AE29" t="n">
         <v>13</v>
       </c>
       <c r="AF29" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AG29" t="n">
         <v>9.75</v>
@@ -5748,10 +5748,10 @@
         <v>9.75</v>
       </c>
       <c r="AJ29" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AK29" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AL29" t="n">
         <v>27</v>
@@ -5772,7 +5772,7 @@
         <v>50</v>
       </c>
       <c r="AR29" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AS29" t="n">
         <v>250</v>
@@ -5781,7 +5781,7 @@
         <v>2.95</v>
       </c>
       <c r="AU29" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AV29" t="n">
         <v>55</v>
@@ -5790,7 +5790,7 @@
         <v>4.6</v>
       </c>
       <c r="AX29" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AY29" t="n">
         <v>20</v>
@@ -6034,10 +6034,10 @@
         <v>4.25</v>
       </c>
       <c r="J31" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="K31" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="L31" t="n">
         <v>4.7</v>
@@ -6061,10 +6061,10 @@
         <v>1.91</v>
       </c>
       <c r="S31" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="T31" t="n">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="U31" t="n">
         <v>1.8</v>
@@ -6085,7 +6085,7 @@
         <v>13</v>
       </c>
       <c r="AA31" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AB31" t="n">
         <v>25</v>
@@ -6127,10 +6127,10 @@
         <v>3.55</v>
       </c>
       <c r="AO31" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AP31" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AQ31" t="n">
         <v>28</v>
@@ -6142,7 +6142,7 @@
         <v>250</v>
       </c>
       <c r="AT31" t="n">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="AU31" t="n">
         <v>7.6</v>
@@ -7120,16 +7120,16 @@
         <v>2.32</v>
       </c>
       <c r="H37" t="n">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="I37" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="J37" t="n">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
       <c r="K37" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="L37" t="n">
         <v>3.7</v>
@@ -7141,64 +7141,64 @@
         <v>6.95</v>
       </c>
       <c r="O37" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="P37" t="n">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="R37" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S37" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="T37" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="U37" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="V37" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W37" t="n">
-        <v>6.7</v>
+        <v>7.1</v>
       </c>
       <c r="X37" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="Y37" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="Z37" t="n">
         <v>25</v>
       </c>
       <c r="AA37" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB37" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AC37" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD37" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AE37" t="n">
         <v>14</v>
       </c>
       <c r="AF37" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AG37" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AH37" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AI37" t="n">
         <v>11</v>
@@ -7210,7 +7210,7 @@
         <v>30</v>
       </c>
       <c r="AL37" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AM37" t="n">
         <v>600</v>
@@ -7219,25 +7219,25 @@
         <v>4.15</v>
       </c>
       <c r="AO37" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AP37" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AQ37" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AR37" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AS37" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AT37" t="n">
-        <v>2.37</v>
+        <v>2.42</v>
       </c>
       <c r="AU37" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AV37" t="n">
         <v>60</v>
@@ -7246,7 +7246,7 @@
         <v>5</v>
       </c>
       <c r="AX37" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AY37" t="n">
         <v>24</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-12.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-12.xlsx
@@ -1135,10 +1135,10 @@
         <v>5.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="P4" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q4" t="n">
         <v>3.1</v>
@@ -1323,10 +1323,10 @@
         <v>3.4</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R5" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S5" t="n">
         <v>1.4</v>
@@ -1493,10 +1493,10 @@
         <v>3.75</v>
       </c>
       <c r="M6" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N6" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O6" t="n">
         <v>1.57</v>
@@ -2394,13 +2394,13 @@
         <v>1.9</v>
       </c>
       <c r="J11" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="K11" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="L11" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="M11" t="n">
         <v>1.04</v>
@@ -2418,13 +2418,13 @@
         <v>2.2</v>
       </c>
       <c r="R11" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="S11" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="T11" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="U11" t="n">
         <v>1.98</v>
@@ -2433,40 +2433,40 @@
         <v>1.65</v>
       </c>
       <c r="W11" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="X11" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y11" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Z11" t="n">
         <v>70</v>
       </c>
       <c r="AA11" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AB11" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AC11" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AD11" t="n">
         <v>6.2</v>
       </c>
       <c r="AE11" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AF11" t="n">
         <v>110</v>
       </c>
       <c r="AG11" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AH11" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AI11" t="n">
         <v>8.75</v>
@@ -2475,7 +2475,7 @@
         <v>16</v>
       </c>
       <c r="AK11" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AL11" t="n">
         <v>37</v>
@@ -2487,25 +2487,25 @@
         <v>5.7</v>
       </c>
       <c r="AO11" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AP11" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AQ11" t="n">
         <v>150</v>
       </c>
       <c r="AR11" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AS11" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="AU11" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AV11" t="n">
         <v>80</v>
@@ -2514,7 +2514,7 @@
         <v>3.6</v>
       </c>
       <c r="AX11" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AY11" t="n">
         <v>21</v>
@@ -2770,7 +2770,7 @@
         <v>1.03</v>
       </c>
       <c r="N13" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O13" t="n">
         <v>1.17</v>
@@ -2967,10 +2967,10 @@
         <v>1.44</v>
       </c>
       <c r="S14" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="T14" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="U14" t="n">
         <v>2.2</v>
@@ -2997,13 +2997,13 @@
         <v>41</v>
       </c>
       <c r="AC14" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AD14" t="n">
         <v>6</v>
       </c>
       <c r="AE14" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF14" t="n">
         <v>81</v>
@@ -3036,7 +3036,7 @@
         <v>15</v>
       </c>
       <c r="AP14" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ14" t="n">
         <v>51</v>
@@ -3048,10 +3048,10 @@
         <v>301</v>
       </c>
       <c r="AT14" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AU14" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV14" t="n">
         <v>81</v>
@@ -4023,22 +4023,22 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="H20" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I20" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J20" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="K20" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L20" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M20" t="n">
         <v>1.07</v>
@@ -4080,16 +4080,16 @@
         <v>9</v>
       </c>
       <c r="Z20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA20" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB20" t="n">
         <v>34</v>
       </c>
       <c r="AC20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD20" t="n">
         <v>7</v>
@@ -4101,19 +4101,19 @@
         <v>67</v>
       </c>
       <c r="AG20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH20" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI20" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ20" t="n">
         <v>51</v>
       </c>
       <c r="AK20" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL20" t="n">
         <v>51</v>
@@ -4125,13 +4125,13 @@
         <v>3.5</v>
       </c>
       <c r="AO20" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AP20" t="n">
         <v>23</v>
       </c>
       <c r="AQ20" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR20" t="n">
         <v>51</v>
@@ -4149,16 +4149,16 @@
         <v>67</v>
       </c>
       <c r="AW20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AX20" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AY20" t="n">
         <v>41</v>
       </c>
       <c r="AZ20" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BA20" t="n">
         <v>151</v>
@@ -4205,22 +4205,22 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="H21" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I21" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="J21" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K21" t="n">
         <v>2</v>
       </c>
       <c r="L21" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M21" t="n">
         <v>1.08</v>
@@ -4235,10 +4235,10 @@
         <v>2.75</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="R21" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S21" t="n">
         <v>1.5</v>
@@ -4247,22 +4247,22 @@
         <v>2.5</v>
       </c>
       <c r="U21" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V21" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W21" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X21" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z21" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA21" t="n">
         <v>19</v>
@@ -4280,22 +4280,22 @@
         <v>17</v>
       </c>
       <c r="AF21" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG21" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI21" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ21" t="n">
         <v>41</v>
       </c>
       <c r="AK21" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL21" t="n">
         <v>41</v>
@@ -4304,13 +4304,13 @@
         <v>351</v>
       </c>
       <c r="AN21" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP21" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ21" t="n">
         <v>41</v>
@@ -4325,7 +4325,7 @@
         <v>2.5</v>
       </c>
       <c r="AU21" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV21" t="n">
         <v>67</v>
@@ -4334,19 +4334,19 @@
         <v>5.5</v>
       </c>
       <c r="AX21" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY21" t="n">
         <v>34</v>
       </c>
       <c r="AZ21" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA21" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB21" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BC21" t="n">
         <v>81</v>
@@ -4951,22 +4951,22 @@
         <v>4.33</v>
       </c>
       <c r="M25" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O25" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P25" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="R25" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="S25" t="n">
         <v>1.4</v>
@@ -5306,13 +5306,13 @@
         <v>3</v>
       </c>
       <c r="J27" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="K27" t="n">
         <v>2.1</v>
       </c>
       <c r="L27" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="M27" t="n">
         <v>1.07</v>
@@ -5333,10 +5333,10 @@
         <v>1.75</v>
       </c>
       <c r="S27" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="T27" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="U27" t="n">
         <v>1.78</v>
@@ -5375,7 +5375,7 @@
         <v>70</v>
       </c>
       <c r="AG27" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AH27" t="n">
         <v>15.5</v>
@@ -5393,7 +5393,7 @@
         <v>37</v>
       </c>
       <c r="AM27" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AN27" t="n">
         <v>4.15</v>
@@ -5408,16 +5408,16 @@
         <v>45</v>
       </c>
       <c r="AR27" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AS27" t="n">
         <v>250</v>
       </c>
       <c r="AT27" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AU27" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AV27" t="n">
         <v>65</v>
@@ -5488,13 +5488,13 @@
         <v>2.7</v>
       </c>
       <c r="J28" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K28" t="n">
         <v>2.1</v>
       </c>
       <c r="L28" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M28" t="n">
         <v>1.07</v>
@@ -5503,10 +5503,10 @@
         <v>6.9</v>
       </c>
       <c r="O28" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P28" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="Q28" t="n">
         <v>1.98</v>
@@ -5527,52 +5527,52 @@
         <v>2</v>
       </c>
       <c r="W28" t="n">
-        <v>7.9</v>
+        <v>8.5</v>
       </c>
       <c r="X28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y28" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="Z28" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AA28" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB28" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AC28" t="n">
         <v>6.9</v>
       </c>
       <c r="AD28" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AE28" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AF28" t="n">
         <v>60</v>
       </c>
       <c r="AG28" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AH28" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AI28" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AJ28" t="n">
         <v>32</v>
       </c>
       <c r="AK28" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL28" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AM28" t="n">
         <v>450</v>
@@ -5581,25 +5581,25 @@
         <v>4.5</v>
       </c>
       <c r="AO28" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AP28" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ28" t="n">
         <v>55</v>
       </c>
       <c r="AR28" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AS28" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AT28" t="n">
         <v>2.8</v>
       </c>
       <c r="AU28" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AV28" t="n">
         <v>55</v>
@@ -5608,16 +5608,16 @@
         <v>4.75</v>
       </c>
       <c r="AX28" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AY28" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ28" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="BA28" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="BB28" t="n">
         <v>250</v>
@@ -5661,22 +5661,22 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.4</v>
+        <v>2.65</v>
       </c>
       <c r="H29" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="I29" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="J29" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="K29" t="n">
         <v>2.22</v>
       </c>
       <c r="L29" t="n">
-        <v>3.1</v>
+        <v>2.87</v>
       </c>
       <c r="M29" t="n">
         <v>1.05</v>
@@ -5709,70 +5709,70 @@
         <v>2.12</v>
       </c>
       <c r="W29" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X29" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="Y29" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z29" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AA29" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AB29" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC29" t="n">
         <v>8</v>
       </c>
       <c r="AD29" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AE29" t="n">
         <v>13</v>
       </c>
       <c r="AF29" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AG29" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="AH29" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AI29" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="AJ29" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AK29" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AL29" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AM29" t="n">
         <v>350</v>
       </c>
       <c r="AN29" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO29" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AP29" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AQ29" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AR29" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AS29" t="n">
         <v>250</v>
@@ -5781,28 +5781,28 @@
         <v>2.95</v>
       </c>
       <c r="AU29" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AV29" t="n">
         <v>55</v>
       </c>
       <c r="AW29" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="AX29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY29" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AZ29" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="BA29" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="BB29" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="BC29" t="n">
         <v>51</v>
@@ -5843,22 +5843,22 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="H30" t="n">
         <v>3.8</v>
       </c>
       <c r="I30" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J30" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="K30" t="n">
         <v>2.42</v>
       </c>
       <c r="L30" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="M30" t="n">
         <v>1.03</v>
@@ -5870,7 +5870,7 @@
         <v>1.15</v>
       </c>
       <c r="P30" t="n">
-        <v>4.75</v>
+        <v>4.7</v>
       </c>
       <c r="Q30" t="n">
         <v>1.47</v>
@@ -5879,10 +5879,10 @@
         <v>2.5</v>
       </c>
       <c r="S30" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="T30" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="U30" t="n">
         <v>1.47</v>
@@ -5891,22 +5891,22 @@
         <v>2.52</v>
       </c>
       <c r="W30" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="X30" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="Y30" t="n">
         <v>8.5</v>
       </c>
       <c r="Z30" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AA30" t="n">
         <v>13</v>
       </c>
       <c r="AB30" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AC30" t="n">
         <v>9.5</v>
@@ -5921,22 +5921,22 @@
         <v>35</v>
       </c>
       <c r="AG30" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AH30" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI30" t="n">
         <v>12</v>
       </c>
       <c r="AJ30" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AK30" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL30" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AM30" t="n">
         <v>175</v>
@@ -5945,22 +5945,22 @@
         <v>4.25</v>
       </c>
       <c r="AO30" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AP30" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AQ30" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AR30" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AS30" t="n">
         <v>120</v>
       </c>
       <c r="AT30" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="AU30" t="n">
         <v>6.4</v>
@@ -5969,16 +5969,16 @@
         <v>40</v>
       </c>
       <c r="AW30" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AX30" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AY30" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AZ30" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="BA30" t="n">
         <v>80</v>
@@ -6389,22 +6389,22 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.95</v>
+        <v>2.87</v>
       </c>
       <c r="H33" t="n">
         <v>3.55</v>
       </c>
       <c r="I33" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="J33" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K33" t="n">
         <v>2.25</v>
       </c>
       <c r="L33" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="M33" t="n">
         <v>1.05</v>
@@ -6437,22 +6437,22 @@
         <v>2.1</v>
       </c>
       <c r="W33" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="X33" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Y33" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="Z33" t="n">
         <v>35</v>
       </c>
       <c r="AA33" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AB33" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AC33" t="n">
         <v>8</v>
@@ -6470,37 +6470,37 @@
         <v>8.75</v>
       </c>
       <c r="AH33" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AI33" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AJ33" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AK33" t="n">
         <v>16</v>
       </c>
       <c r="AL33" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AM33" t="n">
         <v>350</v>
       </c>
       <c r="AN33" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="AO33" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AP33" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ33" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AR33" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AS33" t="n">
         <v>250</v>
@@ -6509,16 +6509,16 @@
         <v>3</v>
       </c>
       <c r="AU33" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AV33" t="n">
         <v>55</v>
       </c>
       <c r="AW33" t="n">
-        <v>4.15</v>
+        <v>4.2</v>
       </c>
       <c r="AX33" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AY33" t="n">
         <v>18</v>
@@ -6759,13 +6759,13 @@
         <v>3.15</v>
       </c>
       <c r="I35" t="n">
-        <v>4.35</v>
+        <v>4.3</v>
       </c>
       <c r="J35" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="K35" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="L35" t="n">
         <v>4.65</v>
@@ -6783,7 +6783,7 @@
         <v>3</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="R35" t="n">
         <v>1.8</v>
@@ -6792,19 +6792,19 @@
         <v>1.42</v>
       </c>
       <c r="T35" t="n">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="U35" t="n">
         <v>1.7</v>
       </c>
       <c r="V35" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="W35" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="X35" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="Y35" t="n">
         <v>8</v>
@@ -6819,7 +6819,7 @@
         <v>25</v>
       </c>
       <c r="AC35" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AD35" t="n">
         <v>6.2</v>
@@ -6831,52 +6831,52 @@
         <v>60</v>
       </c>
       <c r="AG35" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH35" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI35" t="n">
         <v>13.5</v>
       </c>
       <c r="AJ35" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AK35" t="n">
         <v>40</v>
       </c>
       <c r="AL35" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AM35" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AN35" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="AO35" t="n">
         <v>9.5</v>
       </c>
       <c r="AP35" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AQ35" t="n">
         <v>35</v>
       </c>
       <c r="AR35" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AS35" t="n">
         <v>250</v>
       </c>
       <c r="AT35" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="AU35" t="n">
         <v>6.9</v>
       </c>
       <c r="AV35" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AW35" t="n">
         <v>6</v>
@@ -6894,7 +6894,7 @@
         <v>175</v>
       </c>
       <c r="BB35" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="BC35" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-12.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-12.xlsx
@@ -747,28 +747,28 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="H2" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="I2" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="J2" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="K2" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L2" t="n">
         <v>7.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="O2" t="n">
         <v>1.29</v>
@@ -813,10 +813,10 @@
         <v>34</v>
       </c>
       <c r="AC2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE2" t="n">
         <v>23</v>
@@ -825,7 +825,7 @@
         <v>81</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH2" t="n">
         <v>41</v>
@@ -834,10 +834,10 @@
         <v>23</v>
       </c>
       <c r="AJ2" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AK2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AL2" t="n">
         <v>67</v>
@@ -929,16 +929,16 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="H3" t="n">
         <v>3.4</v>
       </c>
       <c r="I3" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="J3" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="K3" t="n">
         <v>2.05</v>
@@ -950,7 +950,7 @@
         <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O3" t="n">
         <v>1.4</v>
@@ -971,16 +971,16 @@
         <v>2.5</v>
       </c>
       <c r="U3" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V3" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W3" t="n">
         <v>5.5</v>
       </c>
       <c r="X3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y3" t="n">
         <v>9</v>
@@ -992,13 +992,13 @@
         <v>17</v>
       </c>
       <c r="AB3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC3" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE3" t="n">
         <v>21</v>
@@ -1010,10 +1010,10 @@
         <v>12</v>
       </c>
       <c r="AH3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ3" t="n">
         <v>67</v>
@@ -1028,7 +1028,7 @@
         <v>201</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AO3" t="n">
         <v>9</v>
@@ -1049,10 +1049,10 @@
         <v>2.5</v>
       </c>
       <c r="AU3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV3" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW3" t="n">
         <v>7</v>
@@ -1064,10 +1064,10 @@
         <v>41</v>
       </c>
       <c r="AZ3" t="n">
+        <v>126</v>
+      </c>
+      <c r="BA3" t="n">
         <v>151</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>201</v>
       </c>
       <c r="BB3" t="n">
         <v>501</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="H5" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I5" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J5" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K5" t="n">
         <v>2.2</v>
@@ -1314,7 +1314,7 @@
         <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O5" t="n">
         <v>1.3</v>
@@ -1323,10 +1323,10 @@
         <v>3.4</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R5" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S5" t="n">
         <v>1.4</v>
@@ -1386,13 +1386,13 @@
         <v>41</v>
       </c>
       <c r="AL5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM5" t="n">
         <v>351</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO5" t="n">
         <v>8.5</v>
@@ -1419,7 +1419,7 @@
         <v>51</v>
       </c>
       <c r="AW5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AX5" t="n">
         <v>29</v>
@@ -1434,7 +1434,7 @@
         <v>126</v>
       </c>
       <c r="BB5" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BC5" t="n">
         <v>126</v>
@@ -2770,7 +2770,7 @@
         <v>1.03</v>
       </c>
       <c r="N13" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O13" t="n">
         <v>1.17</v>
@@ -3113,13 +3113,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="H15" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I15" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J15" t="n">
         <v>2.4</v>
@@ -3161,16 +3161,16 @@
         <v>1.57</v>
       </c>
       <c r="W15" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="X15" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y15" t="n">
         <v>9</v>
       </c>
       <c r="Z15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA15" t="n">
         <v>17</v>
@@ -3194,7 +3194,7 @@
         <v>11</v>
       </c>
       <c r="AH15" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI15" t="n">
         <v>19</v>
@@ -3233,16 +3233,16 @@
         <v>2.38</v>
       </c>
       <c r="AU15" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV15" t="n">
         <v>81</v>
       </c>
       <c r="AW15" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AX15" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AY15" t="n">
         <v>41</v>
@@ -4023,67 +4023,67 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="H20" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I20" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="J20" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="K20" t="n">
         <v>2.1</v>
       </c>
       <c r="L20" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N20" t="n">
+        <v>8</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T20" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U20" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W20" t="n">
         <v>6</v>
       </c>
-      <c r="M20" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N20" t="n">
-        <v>9</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P20" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T20" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U20" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W20" t="n">
-        <v>5.5</v>
-      </c>
       <c r="X20" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Y20" t="n">
         <v>9</v>
       </c>
       <c r="Z20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA20" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB20" t="n">
         <v>34</v>
@@ -4092,28 +4092,28 @@
         <v>8</v>
       </c>
       <c r="AD20" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF20" t="n">
         <v>67</v>
       </c>
       <c r="AG20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH20" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI20" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ20" t="n">
         <v>51</v>
       </c>
       <c r="AK20" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL20" t="n">
         <v>51</v>
@@ -4122,16 +4122,16 @@
         <v>201</v>
       </c>
       <c r="AN20" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO20" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AP20" t="n">
         <v>23</v>
       </c>
       <c r="AQ20" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR20" t="n">
         <v>51</v>
@@ -4140,28 +4140,28 @@
         <v>201</v>
       </c>
       <c r="AT20" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU20" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV20" t="n">
         <v>67</v>
       </c>
       <c r="AW20" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AX20" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AY20" t="n">
         <v>41</v>
       </c>
       <c r="AZ20" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA20" t="n">
         <v>126</v>
-      </c>
-      <c r="BA20" t="n">
-        <v>151</v>
       </c>
       <c r="BB20" t="n">
         <v>351</v>
@@ -4205,16 +4205,16 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="H21" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I21" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="J21" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K21" t="n">
         <v>2</v>
@@ -4223,28 +4223,28 @@
         <v>4.5</v>
       </c>
       <c r="M21" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O21" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P21" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R21" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S21" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T21" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="U21" t="n">
         <v>2</v>
@@ -4259,10 +4259,10 @@
         <v>8.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA21" t="n">
         <v>19</v>
@@ -4271,7 +4271,7 @@
         <v>34</v>
       </c>
       <c r="AC21" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AD21" t="n">
         <v>6</v>
@@ -4283,7 +4283,7 @@
         <v>67</v>
       </c>
       <c r="AG21" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH21" t="n">
         <v>19</v>
@@ -4295,7 +4295,7 @@
         <v>41</v>
       </c>
       <c r="AK21" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL21" t="n">
         <v>41</v>
@@ -4304,13 +4304,13 @@
         <v>351</v>
       </c>
       <c r="AN21" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP21" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ21" t="n">
         <v>41</v>
@@ -4322,7 +4322,7 @@
         <v>201</v>
       </c>
       <c r="AT21" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AU21" t="n">
         <v>9</v>
@@ -4569,16 +4569,16 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H23" t="n">
         <v>3.4</v>
       </c>
       <c r="I23" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J23" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K23" t="n">
         <v>2.1</v>
@@ -4590,7 +4590,7 @@
         <v>1.06</v>
       </c>
       <c r="N23" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O23" t="n">
         <v>1.33</v>
@@ -4620,7 +4620,7 @@
         <v>8</v>
       </c>
       <c r="X23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y23" t="n">
         <v>10</v>
@@ -4671,7 +4671,7 @@
         <v>4.5</v>
       </c>
       <c r="AO23" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP23" t="n">
         <v>23</v>
@@ -4957,16 +4957,16 @@
         <v>10</v>
       </c>
       <c r="O25" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P25" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="R25" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S25" t="n">
         <v>1.4</v>
@@ -6207,22 +6207,22 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.4</v>
+        <v>2.32</v>
       </c>
       <c r="H32" t="n">
         <v>3.2</v>
       </c>
       <c r="I32" t="n">
-        <v>2.7</v>
+        <v>2.82</v>
       </c>
       <c r="J32" t="n">
-        <v>3.05</v>
+        <v>2.92</v>
       </c>
       <c r="K32" t="n">
         <v>2.1</v>
       </c>
       <c r="L32" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="M32" t="n">
         <v>1.06</v>
@@ -6231,22 +6231,22 @@
         <v>7.4</v>
       </c>
       <c r="O32" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P32" t="n">
         <v>3.3</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="R32" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="S32" t="n">
         <v>1.4</v>
       </c>
       <c r="T32" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="U32" t="n">
         <v>1.65</v>
@@ -6255,22 +6255,22 @@
         <v>2.1</v>
       </c>
       <c r="W32" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="X32" t="n">
         <v>12.5</v>
       </c>
       <c r="Y32" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="Z32" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>18</v>
+      </c>
+      <c r="AB32" t="n">
         <v>26</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>28</v>
       </c>
       <c r="AC32" t="n">
         <v>7.4</v>
@@ -6279,76 +6279,76 @@
         <v>6.3</v>
       </c>
       <c r="AE32" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AF32" t="n">
         <v>55</v>
       </c>
       <c r="AG32" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="AH32" t="n">
         <v>15</v>
       </c>
       <c r="AI32" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="AJ32" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AK32" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AL32" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AM32" t="n">
         <v>400</v>
       </c>
       <c r="AN32" t="n">
-        <v>4.45</v>
+        <v>4.3</v>
       </c>
       <c r="AO32" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AP32" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AQ32" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AR32" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AS32" t="n">
         <v>250</v>
       </c>
       <c r="AT32" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="AU32" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AV32" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AW32" t="n">
-        <v>4.75</v>
+        <v>4.85</v>
       </c>
       <c r="AX32" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AY32" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ32" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="BA32" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="BB32" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BC32" t="n">
         <v>51</v>
@@ -6753,16 +6753,16 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="H35" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="I35" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="J35" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="K35" t="n">
         <v>2.02</v>
@@ -6771,58 +6771,58 @@
         <v>4.65</v>
       </c>
       <c r="M35" t="n">
-        <v>1.01</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="N35" t="n">
-        <v>8.1</v>
+        <v>1.06</v>
       </c>
       <c r="O35" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P35" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="R35" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="S35" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="T35" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="U35" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="V35" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="W35" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="X35" t="n">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="Y35" t="n">
         <v>8</v>
       </c>
       <c r="Z35" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AA35" t="n">
         <v>14.5</v>
       </c>
       <c r="AB35" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AC35" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD35" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AE35" t="n">
         <v>13.5</v>
@@ -6831,40 +6831,40 @@
         <v>60</v>
       </c>
       <c r="AG35" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AH35" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AI35" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AJ35" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AK35" t="n">
         <v>40</v>
       </c>
       <c r="AL35" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AM35" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AN35" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="AO35" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AP35" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AQ35" t="n">
         <v>35</v>
       </c>
       <c r="AR35" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AS35" t="n">
         <v>250</v>
@@ -6879,22 +6879,22 @@
         <v>60</v>
       </c>
       <c r="AW35" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AX35" t="n">
         <v>25</v>
       </c>
       <c r="AY35" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AZ35" t="n">
         <v>150</v>
       </c>
       <c r="BA35" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="BB35" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="BC35" t="n">
         <v>51</v>
@@ -7135,10 +7135,10 @@
         <v>3.7</v>
       </c>
       <c r="M37" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N37" t="n">
-        <v>6.95</v>
+        <v>7.1</v>
       </c>
       <c r="O37" t="n">
         <v>1.37</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-12.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-12.xlsx
@@ -1314,7 +1314,7 @@
         <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O5" t="n">
         <v>1.3</v>
@@ -2406,7 +2406,7 @@
         <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>6.55</v>
+        <v>6.6</v>
       </c>
       <c r="O11" t="n">
         <v>1.42</v>
@@ -2570,19 +2570,19 @@
         <v>1.75</v>
       </c>
       <c r="H12" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I12" t="n">
         <v>4.05</v>
       </c>
       <c r="J12" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="K12" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="L12" t="n">
-        <v>4.2</v>
+        <v>4.25</v>
       </c>
       <c r="M12" t="n">
         <v>1.03</v>
@@ -2597,16 +2597,16 @@
         <v>3.6</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="R12" t="n">
         <v>2.05</v>
       </c>
       <c r="S12" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="T12" t="n">
-        <v>3.2</v>
+        <v>3.26</v>
       </c>
       <c r="U12" t="n">
         <v>1.6</v>
@@ -2627,7 +2627,7 @@
         <v>14.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AB12" t="n">
         <v>21</v>
@@ -2636,7 +2636,7 @@
         <v>13</v>
       </c>
       <c r="AD12" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AE12" t="n">
         <v>13.5</v>
@@ -2648,7 +2648,7 @@
         <v>14.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI12" t="n">
         <v>13.5</v>
@@ -2663,7 +2663,7 @@
         <v>35</v>
       </c>
       <c r="AM12" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AN12" t="n">
         <v>3.75</v>
@@ -2672,34 +2672,34 @@
         <v>8.5</v>
       </c>
       <c r="AP12" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AQ12" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AR12" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AS12" t="n">
         <v>175</v>
       </c>
       <c r="AT12" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="AU12" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AV12" t="n">
         <v>55</v>
       </c>
       <c r="AW12" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AX12" t="n">
         <v>21</v>
       </c>
       <c r="AY12" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ12" t="n">
         <v>110</v>
@@ -2708,7 +2708,7 @@
         <v>120</v>
       </c>
       <c r="BB12" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BC12" t="n">
         <v>51</v>
@@ -2749,22 +2749,22 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.25</v>
+        <v>2.55</v>
       </c>
       <c r="H13" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I13" t="n">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="J13" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="K13" t="n">
         <v>2.38</v>
       </c>
       <c r="L13" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M13" t="n">
         <v>1.03</v>
@@ -2779,16 +2779,16 @@
         <v>5</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R13" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="S13" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="T13" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="U13" t="n">
         <v>1.5</v>
@@ -2797,25 +2797,25 @@
         <v>2.5</v>
       </c>
       <c r="W13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y13" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z13" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AA13" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC13" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD13" t="n">
         <v>7</v>
@@ -2827,19 +2827,19 @@
         <v>34</v>
       </c>
       <c r="AG13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH13" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ13" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AK13" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL13" t="n">
         <v>23</v>
@@ -2851,10 +2851,10 @@
         <v>4.75</v>
       </c>
       <c r="AO13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP13" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ13" t="n">
         <v>41</v>
@@ -2866,7 +2866,7 @@
         <v>101</v>
       </c>
       <c r="AT13" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AU13" t="n">
         <v>7</v>
@@ -2878,10 +2878,10 @@
         <v>5</v>
       </c>
       <c r="AX13" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AY13" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AZ13" t="n">
         <v>41</v>
@@ -2955,10 +2955,10 @@
         <v>6.5</v>
       </c>
       <c r="O14" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P14" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Q14" t="n">
         <v>2.7</v>
@@ -4569,40 +4569,40 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H23" t="n">
         <v>3.4</v>
       </c>
       <c r="I23" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="J23" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K23" t="n">
         <v>2.1</v>
       </c>
       <c r="L23" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M23" t="n">
         <v>1.06</v>
       </c>
       <c r="N23" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O23" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P23" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="R23" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S23" t="n">
         <v>1.44</v>
@@ -4653,10 +4653,10 @@
         <v>13</v>
       </c>
       <c r="AI23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ23" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AK23" t="n">
         <v>23</v>
@@ -4677,7 +4677,7 @@
         <v>23</v>
       </c>
       <c r="AQ23" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR23" t="n">
         <v>67</v>
@@ -4698,7 +4698,7 @@
         <v>4.75</v>
       </c>
       <c r="AX23" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AY23" t="n">
         <v>26</v>
@@ -4707,7 +4707,7 @@
         <v>51</v>
       </c>
       <c r="BA23" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB23" t="n">
         <v>201</v>
@@ -4751,19 +4751,19 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H24" t="n">
         <v>3.2</v>
       </c>
       <c r="I24" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="J24" t="n">
         <v>2.75</v>
       </c>
       <c r="K24" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L24" t="n">
         <v>4.33</v>
@@ -4802,16 +4802,16 @@
         <v>7</v>
       </c>
       <c r="X24" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y24" t="n">
         <v>9</v>
       </c>
       <c r="Z24" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA24" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB24" t="n">
         <v>29</v>
@@ -4853,7 +4853,7 @@
         <v>4</v>
       </c>
       <c r="AO24" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP24" t="n">
         <v>23</v>
@@ -4951,10 +4951,10 @@
         <v>4.33</v>
       </c>
       <c r="M25" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O25" t="n">
         <v>1.29</v>
@@ -4963,10 +4963,10 @@
         <v>3.5</v>
       </c>
       <c r="Q25" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R25" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S25" t="n">
         <v>1.4</v>
@@ -6028,16 +6028,16 @@
         <v>1.7</v>
       </c>
       <c r="H31" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="I31" t="n">
-        <v>4.25</v>
+        <v>4.35</v>
       </c>
       <c r="J31" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="K31" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="L31" t="n">
         <v>4.7</v>
@@ -6073,7 +6073,7 @@
         <v>1.91</v>
       </c>
       <c r="W31" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="X31" t="n">
         <v>8</v>
@@ -6085,10 +6085,10 @@
         <v>13</v>
       </c>
       <c r="AA31" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AB31" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AC31" t="n">
         <v>7.7</v>
@@ -6103,34 +6103,34 @@
         <v>70</v>
       </c>
       <c r="AG31" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH31" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI31" t="n">
         <v>14.5</v>
       </c>
       <c r="AJ31" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AK31" t="n">
         <v>40</v>
       </c>
       <c r="AL31" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AM31" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AN31" t="n">
         <v>3.55</v>
       </c>
       <c r="AO31" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AP31" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AQ31" t="n">
         <v>28</v>
@@ -6145,7 +6145,7 @@
         <v>2.8</v>
       </c>
       <c r="AU31" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AV31" t="n">
         <v>70</v>
@@ -6157,7 +6157,7 @@
         <v>25</v>
       </c>
       <c r="AY31" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AZ31" t="n">
         <v>150</v>
@@ -6774,7 +6774,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="N35" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="O35" t="n">
         <v>1.28</v>
@@ -7135,10 +7135,10 @@
         <v>3.7</v>
       </c>
       <c r="M37" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N37" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="O37" t="n">
         <v>1.37</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-12.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-12.xlsx
@@ -765,10 +765,10 @@
         <v>7.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="O2" t="n">
         <v>1.29</v>
@@ -950,7 +950,7 @@
         <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O3" t="n">
         <v>1.4</v>
@@ -959,10 +959,10 @@
         <v>2.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="R3" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S3" t="n">
         <v>1.5</v>
@@ -1478,7 +1478,7 @@
         <v>2.63</v>
       </c>
       <c r="H6" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I6" t="n">
         <v>2.9</v>
@@ -1493,10 +1493,10 @@
         <v>3.75</v>
       </c>
       <c r="M6" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N6" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O6" t="n">
         <v>1.57</v>
@@ -1511,10 +1511,10 @@
         <v>1.4</v>
       </c>
       <c r="S6" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="T6" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="U6" t="n">
         <v>2.25</v>
@@ -1556,19 +1556,19 @@
         <v>6.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI6" t="n">
         <v>12</v>
       </c>
       <c r="AJ6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AK6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM6" t="n">
         <v>900</v>
@@ -1592,7 +1592,7 @@
         <v>351</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AU6" t="n">
         <v>9.5</v>
@@ -1613,7 +1613,7 @@
         <v>67</v>
       </c>
       <c r="BA6" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB6" t="n">
         <v>351</v>
@@ -2570,16 +2570,16 @@
         <v>1.75</v>
       </c>
       <c r="H12" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I12" t="n">
         <v>4.05</v>
       </c>
       <c r="J12" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="K12" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="L12" t="n">
         <v>4.25</v>
@@ -2591,16 +2591,16 @@
         <v>11.9</v>
       </c>
       <c r="O12" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P12" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="Q12" t="n">
         <v>1.62</v>
       </c>
       <c r="R12" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="S12" t="n">
         <v>1.31</v>
@@ -2612,7 +2612,7 @@
         <v>1.6</v>
       </c>
       <c r="V12" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="W12" t="n">
         <v>8.5</v>
@@ -2621,7 +2621,7 @@
         <v>9.25</v>
       </c>
       <c r="Y12" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="Z12" t="n">
         <v>14.5</v>
@@ -2636,7 +2636,7 @@
         <v>13</v>
       </c>
       <c r="AD12" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="AE12" t="n">
         <v>13.5</v>
@@ -2645,7 +2645,7 @@
         <v>50</v>
       </c>
       <c r="AG12" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH12" t="n">
         <v>25</v>
@@ -2672,10 +2672,10 @@
         <v>8.5</v>
       </c>
       <c r="AP12" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AQ12" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AR12" t="n">
         <v>50</v>
@@ -2684,7 +2684,7 @@
         <v>175</v>
       </c>
       <c r="AT12" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="AU12" t="n">
         <v>6.9</v>
@@ -2693,10 +2693,10 @@
         <v>55</v>
       </c>
       <c r="AW12" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AX12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AY12" t="n">
         <v>25</v>
@@ -2749,13 +2749,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="H13" t="n">
         <v>3.5</v>
       </c>
       <c r="I13" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="J13" t="n">
         <v>3</v>
@@ -2809,10 +2809,10 @@
         <v>26</v>
       </c>
       <c r="AA13" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB13" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC13" t="n">
         <v>15</v>
@@ -2937,22 +2937,22 @@
         <v>2.9</v>
       </c>
       <c r="I14" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="J14" t="n">
         <v>3.4</v>
       </c>
       <c r="K14" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="L14" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M14" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N14" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O14" t="n">
         <v>1.57</v>
@@ -2967,28 +2967,28 @@
         <v>1.44</v>
       </c>
       <c r="S14" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U14" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V14" t="n">
         <v>1.57</v>
-      </c>
-      <c r="T14" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U14" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.62</v>
       </c>
       <c r="W14" t="n">
         <v>6</v>
       </c>
       <c r="X14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y14" t="n">
         <v>11</v>
       </c>
       <c r="Z14" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA14" t="n">
         <v>26</v>
@@ -2997,19 +2997,19 @@
         <v>41</v>
       </c>
       <c r="AC14" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AD14" t="n">
         <v>6</v>
       </c>
       <c r="AE14" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF14" t="n">
         <v>81</v>
       </c>
       <c r="AG14" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AH14" t="n">
         <v>13</v>
@@ -3021,7 +3021,7 @@
         <v>34</v>
       </c>
       <c r="AK14" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL14" t="n">
         <v>41</v>
@@ -3036,7 +3036,7 @@
         <v>15</v>
       </c>
       <c r="AP14" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ14" t="n">
         <v>51</v>
@@ -3045,13 +3045,13 @@
         <v>101</v>
       </c>
       <c r="AS14" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AT14" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AU14" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV14" t="n">
         <v>81</v>
@@ -4599,10 +4599,10 @@
         <v>3</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R23" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S23" t="n">
         <v>1.44</v>
@@ -4957,16 +4957,16 @@
         <v>11</v>
       </c>
       <c r="O25" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P25" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="R25" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="S25" t="n">
         <v>1.4</v>
@@ -5300,19 +5300,19 @@
         <v>2.2</v>
       </c>
       <c r="H27" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I27" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="J27" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="K27" t="n">
         <v>2.1</v>
       </c>
       <c r="L27" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="M27" t="n">
         <v>1.07</v>
@@ -5321,10 +5321,10 @@
         <v>6.9</v>
       </c>
       <c r="O27" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P27" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="Q27" t="n">
         <v>2</v>
@@ -5333,10 +5333,10 @@
         <v>1.75</v>
       </c>
       <c r="S27" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="T27" t="n">
-        <v>2.7</v>
+        <v>2.67</v>
       </c>
       <c r="U27" t="n">
         <v>1.78</v>
@@ -5345,7 +5345,7 @@
         <v>1.93</v>
       </c>
       <c r="W27" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="X27" t="n">
         <v>10.75</v>
@@ -5357,7 +5357,7 @@
         <v>22</v>
       </c>
       <c r="AA27" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AB27" t="n">
         <v>29</v>
@@ -5372,13 +5372,13 @@
         <v>14</v>
       </c>
       <c r="AF27" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AG27" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AH27" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AI27" t="n">
         <v>11</v>
@@ -5387,10 +5387,10 @@
         <v>40</v>
       </c>
       <c r="AK27" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL27" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AM27" t="n">
         <v>500</v>
@@ -5399,28 +5399,28 @@
         <v>4.15</v>
       </c>
       <c r="AO27" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AP27" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AQ27" t="n">
         <v>45</v>
       </c>
       <c r="AR27" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AS27" t="n">
         <v>250</v>
       </c>
       <c r="AT27" t="n">
-        <v>2.7</v>
+        <v>2.67</v>
       </c>
       <c r="AU27" t="n">
         <v>7</v>
       </c>
       <c r="AV27" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AW27" t="n">
         <v>5</v>
@@ -5429,7 +5429,7 @@
         <v>17</v>
       </c>
       <c r="AY27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ27" t="n">
         <v>80</v>
@@ -5867,10 +5867,10 @@
         <v>9.5</v>
       </c>
       <c r="O30" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="P30" t="n">
-        <v>4.7</v>
+        <v>4.65</v>
       </c>
       <c r="Q30" t="n">
         <v>1.47</v>
@@ -5888,13 +5888,13 @@
         <v>1.47</v>
       </c>
       <c r="V30" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="W30" t="n">
         <v>11.25</v>
       </c>
       <c r="X30" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="Y30" t="n">
         <v>8.5</v>
@@ -5981,7 +5981,7 @@
         <v>70</v>
       </c>
       <c r="BA30" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="BB30" t="n">
         <v>175</v>
@@ -6028,16 +6028,16 @@
         <v>1.7</v>
       </c>
       <c r="H31" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I31" t="n">
-        <v>4.35</v>
+        <v>4.25</v>
       </c>
       <c r="J31" t="n">
         <v>2.27</v>
       </c>
       <c r="K31" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="L31" t="n">
         <v>4.7</v>
@@ -6055,7 +6055,7 @@
         <v>3.4</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="R31" t="n">
         <v>1.91</v>
@@ -6067,13 +6067,13 @@
         <v>2.8</v>
       </c>
       <c r="U31" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="V31" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="W31" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="X31" t="n">
         <v>8</v>
@@ -6088,7 +6088,7 @@
         <v>13.5</v>
       </c>
       <c r="AB31" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AC31" t="n">
         <v>7.7</v>
@@ -6103,34 +6103,34 @@
         <v>70</v>
       </c>
       <c r="AG31" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH31" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI31" t="n">
         <v>14.5</v>
       </c>
       <c r="AJ31" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AK31" t="n">
         <v>40</v>
       </c>
       <c r="AL31" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AM31" t="n">
         <v>500</v>
       </c>
       <c r="AN31" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="AO31" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AP31" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AQ31" t="n">
         <v>28</v>
@@ -6571,22 +6571,22 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="H34" t="n">
         <v>3.2</v>
       </c>
       <c r="I34" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="J34" t="n">
         <v>3.05</v>
       </c>
       <c r="K34" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="L34" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M34" t="n">
         <v>1.07</v>
@@ -6610,7 +6610,7 @@
         <v>1.4</v>
       </c>
       <c r="T34" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="U34" t="n">
         <v>1.75</v>
@@ -6619,28 +6619,28 @@
         <v>1.95</v>
       </c>
       <c r="W34" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="X34" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y34" t="n">
         <v>9.5</v>
       </c>
       <c r="Z34" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AA34" t="n">
         <v>21</v>
       </c>
       <c r="AB34" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AC34" t="n">
         <v>7</v>
       </c>
       <c r="AD34" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AE34" t="n">
         <v>14</v>
@@ -6649,10 +6649,10 @@
         <v>65</v>
       </c>
       <c r="AG34" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AH34" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AI34" t="n">
         <v>10</v>
@@ -6661,7 +6661,7 @@
         <v>30</v>
       </c>
       <c r="AK34" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL34" t="n">
         <v>32</v>
@@ -6670,7 +6670,7 @@
         <v>500</v>
       </c>
       <c r="AN34" t="n">
-        <v>4.45</v>
+        <v>4.4</v>
       </c>
       <c r="AO34" t="n">
         <v>13</v>
@@ -6688,31 +6688,31 @@
         <v>250</v>
       </c>
       <c r="AT34" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="AU34" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AV34" t="n">
         <v>60</v>
       </c>
       <c r="AW34" t="n">
-        <v>4.6</v>
+        <v>4.65</v>
       </c>
       <c r="AX34" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AY34" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ34" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="BA34" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="BB34" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BC34" t="n">
         <v>51</v>
@@ -6753,22 +6753,22 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="H35" t="n">
         <v>3.25</v>
       </c>
       <c r="I35" t="n">
-        <v>4.5</v>
+        <v>4.45</v>
       </c>
       <c r="J35" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="K35" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="L35" t="n">
-        <v>4.65</v>
+        <v>4.7</v>
       </c>
       <c r="M35" t="n">
         <v>8.199999999999999</v>
@@ -6780,31 +6780,31 @@
         <v>1.28</v>
       </c>
       <c r="P35" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R35" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="S35" t="n">
         <v>1.4</v>
       </c>
       <c r="T35" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="U35" t="n">
         <v>1.72</v>
       </c>
       <c r="V35" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="W35" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="X35" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="Y35" t="n">
         <v>8</v>
@@ -6816,25 +6816,25 @@
         <v>14.5</v>
       </c>
       <c r="AB35" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AC35" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AD35" t="n">
         <v>6.4</v>
       </c>
       <c r="AE35" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AF35" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AG35" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH35" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AI35" t="n">
         <v>14</v>
@@ -6843,40 +6843,40 @@
         <v>80</v>
       </c>
       <c r="AK35" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AL35" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AM35" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AN35" t="n">
         <v>3.6</v>
       </c>
       <c r="AO35" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AP35" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AQ35" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AR35" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AS35" t="n">
         <v>250</v>
       </c>
       <c r="AT35" t="n">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="AU35" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AV35" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AW35" t="n">
         <v>6.1</v>
@@ -6885,13 +6885,13 @@
         <v>25</v>
       </c>
       <c r="AY35" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AZ35" t="n">
         <v>150</v>
       </c>
       <c r="BA35" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="BB35" t="n">
         <v>350</v>
@@ -6935,16 +6935,16 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="H36" t="n">
         <v>2.9</v>
       </c>
       <c r="I36" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="J36" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K36" t="n">
         <v>1.95</v>
@@ -6974,7 +6974,7 @@
         <v>1.42</v>
       </c>
       <c r="T36" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="U36" t="n">
         <v>1.6</v>
@@ -7013,7 +7013,7 @@
         <v>50</v>
       </c>
       <c r="AG36" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AH36" t="n">
         <v>13</v>
@@ -7067,10 +7067,10 @@
         <v>14</v>
       </c>
       <c r="AY36" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ36" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="BA36" t="n">
         <v>90</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-12.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-12.xlsx
@@ -777,10 +777,10 @@
         <v>3.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R2" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S2" t="n">
         <v>1.4</v>
@@ -929,16 +929,16 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="H3" t="n">
         <v>3.4</v>
       </c>
       <c r="I3" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="J3" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="K3" t="n">
         <v>2.05</v>
@@ -980,7 +980,7 @@
         <v>5.5</v>
       </c>
       <c r="X3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y3" t="n">
         <v>9</v>
@@ -989,16 +989,16 @@
         <v>12</v>
       </c>
       <c r="AA3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB3" t="n">
         <v>34</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AD3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE3" t="n">
         <v>21</v>
@@ -1010,10 +1010,10 @@
         <v>12</v>
       </c>
       <c r="AH3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ3" t="n">
         <v>67</v>
@@ -1028,7 +1028,7 @@
         <v>201</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AO3" t="n">
         <v>9</v>
@@ -1052,7 +1052,7 @@
         <v>9.5</v>
       </c>
       <c r="AV3" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW3" t="n">
         <v>7</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="H5" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I5" t="n">
         <v>5.5</v>
       </c>
       <c r="J5" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="K5" t="n">
         <v>2.2</v>
@@ -1317,16 +1317,16 @@
         <v>10</v>
       </c>
       <c r="O5" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P5" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R5" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="S5" t="n">
         <v>1.4</v>
@@ -1335,16 +1335,16 @@
         <v>2.75</v>
       </c>
       <c r="U5" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V5" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W5" t="n">
         <v>6.5</v>
       </c>
       <c r="X5" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Y5" t="n">
         <v>8.5</v>
@@ -1359,16 +1359,16 @@
         <v>29</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD5" t="n">
         <v>7</v>
       </c>
       <c r="AE5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF5" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG5" t="n">
         <v>13</v>
@@ -1413,10 +1413,10 @@
         <v>2.75</v>
       </c>
       <c r="AU5" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV5" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW5" t="n">
         <v>7</v>
@@ -1687,10 +1687,10 @@
         <v>2.1</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="R7" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="S7" t="n">
         <v>1.67</v>
@@ -2573,7 +2573,7 @@
         <v>3.7</v>
       </c>
       <c r="I12" t="n">
-        <v>4.05</v>
+        <v>4</v>
       </c>
       <c r="J12" t="n">
         <v>2.3</v>
@@ -2621,7 +2621,7 @@
         <v>9.25</v>
       </c>
       <c r="Y12" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="Z12" t="n">
         <v>14.5</v>
@@ -2630,31 +2630,31 @@
         <v>13</v>
       </c>
       <c r="AB12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AC12" t="n">
         <v>13</v>
       </c>
       <c r="AD12" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AE12" t="n">
         <v>13.5</v>
       </c>
       <c r="AF12" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AG12" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI12" t="n">
         <v>13.5</v>
       </c>
       <c r="AJ12" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AK12" t="n">
         <v>35</v>
@@ -2696,7 +2696,7 @@
         <v>5.9</v>
       </c>
       <c r="AX12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AY12" t="n">
         <v>25</v>
@@ -2931,19 +2931,19 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H14" t="n">
         <v>2.9</v>
       </c>
       <c r="I14" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J14" t="n">
         <v>3.4</v>
       </c>
       <c r="K14" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="L14" t="n">
         <v>4</v>
@@ -3009,7 +3009,7 @@
         <v>81</v>
       </c>
       <c r="AG14" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AH14" t="n">
         <v>13</v>
@@ -3069,7 +3069,7 @@
         <v>67</v>
       </c>
       <c r="BA14" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB14" t="n">
         <v>351</v>
@@ -4775,16 +4775,16 @@
         <v>9</v>
       </c>
       <c r="O24" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P24" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R24" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S24" t="n">
         <v>1.44</v>
@@ -4957,16 +4957,16 @@
         <v>11</v>
       </c>
       <c r="O25" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P25" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="R25" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="S25" t="n">
         <v>1.4</v>
@@ -5297,109 +5297,109 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="H27" t="n">
         <v>3.15</v>
       </c>
       <c r="I27" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="J27" t="n">
-        <v>2.82</v>
+        <v>2.75</v>
       </c>
       <c r="K27" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="L27" t="n">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="M27" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N27" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="O27" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P27" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="Q27" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="R27" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="S27" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="T27" t="n">
-        <v>2.67</v>
+        <v>2.62</v>
       </c>
       <c r="U27" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="V27" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="W27" t="n">
-        <v>7.4</v>
+        <v>7.1</v>
       </c>
       <c r="X27" t="n">
-        <v>10.75</v>
+        <v>10</v>
       </c>
       <c r="Y27" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="Z27" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AA27" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AB27" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AC27" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="AD27" t="n">
         <v>6.2</v>
       </c>
       <c r="AE27" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF27" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AG27" t="n">
         <v>9</v>
       </c>
       <c r="AH27" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AI27" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AJ27" t="n">
+        <v>45</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL27" t="n">
         <v>40</v>
       </c>
-      <c r="AK27" t="n">
-        <v>27</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>35</v>
-      </c>
       <c r="AM27" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AN27" t="n">
-        <v>4.15</v>
+        <v>4</v>
       </c>
       <c r="AO27" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="AP27" t="n">
         <v>20</v>
@@ -5414,31 +5414,31 @@
         <v>250</v>
       </c>
       <c r="AT27" t="n">
-        <v>2.67</v>
+        <v>2.62</v>
       </c>
       <c r="AU27" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AV27" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AW27" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="AX27" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AY27" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AZ27" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="BA27" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="BB27" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="BC27" t="n">
         <v>51</v>
@@ -5479,13 +5479,13 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.47</v>
+        <v>2.4</v>
       </c>
       <c r="H28" t="n">
         <v>3.1</v>
       </c>
       <c r="I28" t="n">
-        <v>2.7</v>
+        <v>2.77</v>
       </c>
       <c r="J28" t="n">
         <v>3</v>
@@ -5500,73 +5500,73 @@
         <v>1.07</v>
       </c>
       <c r="N28" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="O28" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="P28" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="R28" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="S28" t="n">
         <v>1.39</v>
       </c>
       <c r="T28" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="U28" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="V28" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="W28" t="n">
-        <v>8.5</v>
+        <v>7.7</v>
       </c>
       <c r="X28" t="n">
-        <v>13</v>
+        <v>11.75</v>
       </c>
       <c r="Y28" t="n">
         <v>9.25</v>
       </c>
       <c r="Z28" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AA28" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AB28" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AC28" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="AD28" t="n">
         <v>6.1</v>
       </c>
       <c r="AE28" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF28" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AG28" t="n">
         <v>8.5</v>
       </c>
       <c r="AH28" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AI28" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AJ28" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AK28" t="n">
         <v>24</v>
@@ -5575,16 +5575,16 @@
         <v>32</v>
       </c>
       <c r="AM28" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AN28" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="AO28" t="n">
         <v>13</v>
       </c>
       <c r="AP28" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ28" t="n">
         <v>55</v>
@@ -5593,19 +5593,19 @@
         <v>80</v>
       </c>
       <c r="AS28" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AT28" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="AU28" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AV28" t="n">
         <v>55</v>
       </c>
       <c r="AW28" t="n">
-        <v>4.75</v>
+        <v>4.8</v>
       </c>
       <c r="AX28" t="n">
         <v>15</v>
@@ -5661,46 +5661,46 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.65</v>
+        <v>2.57</v>
       </c>
       <c r="H29" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I29" t="n">
-        <v>2.3</v>
+        <v>2.37</v>
       </c>
       <c r="J29" t="n">
         <v>3.2</v>
       </c>
       <c r="K29" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="L29" t="n">
-        <v>2.87</v>
+        <v>2.95</v>
       </c>
       <c r="M29" t="n">
         <v>1.05</v>
       </c>
       <c r="N29" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="O29" t="n">
         <v>1.25</v>
       </c>
       <c r="P29" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="R29" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S29" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="T29" t="n">
-        <v>2.95</v>
+        <v>2.87</v>
       </c>
       <c r="U29" t="n">
         <v>1.65</v>
@@ -5709,64 +5709,64 @@
         <v>2.12</v>
       </c>
       <c r="W29" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="X29" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Y29" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="Z29" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB29" t="n">
         <v>27</v>
       </c>
       <c r="AC29" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AD29" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AE29" t="n">
         <v>13</v>
       </c>
       <c r="AF29" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AG29" t="n">
         <v>9.25</v>
       </c>
       <c r="AH29" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AI29" t="n">
         <v>9.25</v>
       </c>
       <c r="AJ29" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AK29" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AL29" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AM29" t="n">
         <v>350</v>
       </c>
       <c r="AN29" t="n">
-        <v>4.75</v>
+        <v>4.65</v>
       </c>
       <c r="AO29" t="n">
         <v>14</v>
       </c>
       <c r="AP29" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ29" t="n">
         <v>60</v>
@@ -5778,31 +5778,31 @@
         <v>250</v>
       </c>
       <c r="AT29" t="n">
-        <v>2.95</v>
+        <v>2.87</v>
       </c>
       <c r="AU29" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AV29" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AW29" t="n">
-        <v>4.4</v>
+        <v>4.45</v>
       </c>
       <c r="AX29" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AY29" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AZ29" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="BA29" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="BB29" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BC29" t="n">
         <v>51</v>
@@ -5843,7 +5843,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="H30" t="n">
         <v>3.8</v>
@@ -5858,7 +5858,7 @@
         <v>2.42</v>
       </c>
       <c r="L30" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="M30" t="n">
         <v>1.03</v>
@@ -5867,10 +5867,10 @@
         <v>9.5</v>
       </c>
       <c r="O30" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="P30" t="n">
-        <v>4.65</v>
+        <v>4.7</v>
       </c>
       <c r="Q30" t="n">
         <v>1.47</v>
@@ -5894,7 +5894,7 @@
         <v>11.25</v>
       </c>
       <c r="X30" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="Y30" t="n">
         <v>8.5</v>
@@ -5936,10 +5936,10 @@
         <v>25</v>
       </c>
       <c r="AL30" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AM30" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AN30" t="n">
         <v>4.25</v>
@@ -5975,13 +5975,13 @@
         <v>17</v>
       </c>
       <c r="AY30" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AZ30" t="n">
         <v>70</v>
       </c>
       <c r="BA30" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="BB30" t="n">
         <v>175</v>
@@ -6395,16 +6395,16 @@
         <v>3.55</v>
       </c>
       <c r="I33" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="J33" t="n">
         <v>3.4</v>
       </c>
       <c r="K33" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="L33" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="M33" t="n">
         <v>1.05</v>
@@ -6416,19 +6416,19 @@
         <v>1.25</v>
       </c>
       <c r="P33" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="R33" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S33" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="T33" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="U33" t="n">
         <v>1.65</v>
@@ -6440,7 +6440,7 @@
         <v>10.5</v>
       </c>
       <c r="X33" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Y33" t="n">
         <v>10.5</v>
@@ -6452,7 +6452,7 @@
         <v>23</v>
       </c>
       <c r="AB33" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AC33" t="n">
         <v>8</v>
@@ -6479,55 +6479,55 @@
         <v>20</v>
       </c>
       <c r="AK33" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AL33" t="n">
         <v>25</v>
       </c>
       <c r="AM33" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AN33" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="AO33" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AP33" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ33" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AR33" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AS33" t="n">
         <v>250</v>
       </c>
       <c r="AT33" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="AU33" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AV33" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AW33" t="n">
         <v>4.2</v>
       </c>
       <c r="AX33" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AY33" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AZ33" t="n">
         <v>40</v>
       </c>
       <c r="BA33" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="BB33" t="n">
         <v>200</v>
@@ -6753,115 +6753,115 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="H35" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I35" t="n">
-        <v>4.45</v>
+        <v>5.3</v>
       </c>
       <c r="J35" t="n">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="K35" t="n">
         <v>2.05</v>
       </c>
       <c r="L35" t="n">
-        <v>4.7</v>
+        <v>5.2</v>
       </c>
       <c r="M35" t="n">
-        <v>8.199999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="N35" t="n">
-        <v>1.03</v>
+        <v>9.75</v>
       </c>
       <c r="O35" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P35" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="R35" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S35" t="n">
         <v>1.4</v>
       </c>
       <c r="T35" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="U35" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="V35" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="W35" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="X35" t="n">
-        <v>8.5</v>
+        <v>7.6</v>
       </c>
       <c r="Y35" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="Z35" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA35" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AB35" t="n">
         <v>25</v>
       </c>
       <c r="AC35" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="AD35" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="AE35" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AF35" t="n">
         <v>65</v>
       </c>
       <c r="AG35" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH35" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="AI35" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AJ35" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="AK35" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AL35" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AM35" t="n">
         <v>500</v>
       </c>
       <c r="AN35" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="AO35" t="n">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="AP35" t="n">
         <v>18</v>
       </c>
       <c r="AQ35" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AR35" t="n">
         <v>65</v>
@@ -6873,28 +6873,28 @@
         <v>2.47</v>
       </c>
       <c r="AU35" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AV35" t="n">
         <v>65</v>
       </c>
       <c r="AW35" t="n">
-        <v>6.1</v>
+        <v>6.7</v>
       </c>
       <c r="AX35" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AY35" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AZ35" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="BA35" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="BB35" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="BC35" t="n">
         <v>51</v>
@@ -7135,10 +7135,10 @@
         <v>3.7</v>
       </c>
       <c r="M37" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N37" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="O37" t="n">
         <v>1.37</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-12.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-12.xlsx
@@ -777,10 +777,10 @@
         <v>3.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R2" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S2" t="n">
         <v>1.4</v>
@@ -846,7 +846,7 @@
         <v>201</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="AO2" t="n">
         <v>7</v>
@@ -882,7 +882,7 @@
         <v>41</v>
       </c>
       <c r="AZ2" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BA2" t="n">
         <v>201</v>
@@ -959,10 +959,10 @@
         <v>2.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="R3" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S3" t="n">
         <v>1.5</v>
@@ -1302,7 +1302,7 @@
         <v>5.5</v>
       </c>
       <c r="J5" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K5" t="n">
         <v>2.2</v>
@@ -1317,16 +1317,16 @@
         <v>10</v>
       </c>
       <c r="O5" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P5" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q5" t="n">
         <v>2.05</v>
       </c>
       <c r="R5" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S5" t="n">
         <v>1.4</v>
@@ -1344,7 +1344,7 @@
         <v>6.5</v>
       </c>
       <c r="X5" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Y5" t="n">
         <v>8.5</v>
@@ -1359,7 +1359,7 @@
         <v>29</v>
       </c>
       <c r="AC5" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD5" t="n">
         <v>7</v>
@@ -1368,7 +1368,7 @@
         <v>19</v>
       </c>
       <c r="AF5" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG5" t="n">
         <v>13</v>
@@ -1386,13 +1386,13 @@
         <v>41</v>
       </c>
       <c r="AL5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM5" t="n">
         <v>351</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO5" t="n">
         <v>8.5</v>
@@ -2385,37 +2385,37 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>4.1</v>
+        <v>4.35</v>
       </c>
       <c r="H11" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="I11" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="J11" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="K11" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="L11" t="n">
-        <v>2.52</v>
+        <v>2.4</v>
       </c>
       <c r="M11" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>6.6</v>
+        <v>6.65</v>
       </c>
       <c r="O11" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="P11" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="R11" t="n">
         <v>1.53</v>
@@ -2427,55 +2427,55 @@
         <v>2.37</v>
       </c>
       <c r="U11" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="V11" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="W11" t="n">
         <v>9.75</v>
       </c>
       <c r="X11" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Z11" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AA11" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AB11" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AC11" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AD11" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AE11" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AF11" t="n">
         <v>110</v>
       </c>
       <c r="AG11" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
       <c r="AI11" t="n">
         <v>8.75</v>
       </c>
       <c r="AJ11" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AK11" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL11" t="n">
         <v>37</v>
@@ -2484,46 +2484,46 @@
         <v>201</v>
       </c>
       <c r="AN11" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="AO11" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AP11" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AQ11" t="n">
         <v>150</v>
       </c>
       <c r="AR11" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AS11" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AT11" t="n">
         <v>2.35</v>
       </c>
       <c r="AU11" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AV11" t="n">
         <v>80</v>
       </c>
       <c r="AW11" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AX11" t="n">
-        <v>9.75</v>
+        <v>9</v>
       </c>
       <c r="AY11" t="n">
         <v>21</v>
       </c>
       <c r="AZ11" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="BA11" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="BB11" t="n">
         <v>300</v>
@@ -2931,34 +2931,34 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="H14" t="n">
         <v>2.9</v>
       </c>
       <c r="I14" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="J14" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="K14" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="L14" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M14" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N14" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O14" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P14" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Q14" t="n">
         <v>2.7</v>
@@ -2979,19 +2979,19 @@
         <v>1.57</v>
       </c>
       <c r="W14" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X14" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y14" t="n">
         <v>10</v>
       </c>
-      <c r="Y14" t="n">
-        <v>11</v>
-      </c>
       <c r="Z14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA14" t="n">
         <v>23</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>26</v>
       </c>
       <c r="AB14" t="n">
         <v>41</v>
@@ -3012,40 +3012,40 @@
         <v>7</v>
       </c>
       <c r="AH14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI14" t="n">
         <v>13</v>
       </c>
-      <c r="AI14" t="n">
-        <v>12</v>
-      </c>
       <c r="AJ14" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AK14" t="n">
         <v>34</v>
       </c>
       <c r="AL14" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM14" t="n">
         <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO14" t="n">
         <v>15</v>
       </c>
       <c r="AP14" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ14" t="n">
         <v>51</v>
       </c>
       <c r="AR14" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS14" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AT14" t="n">
         <v>2.2</v>
@@ -3057,16 +3057,16 @@
         <v>81</v>
       </c>
       <c r="AW14" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AX14" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY14" t="n">
         <v>34</v>
       </c>
       <c r="AZ14" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA14" t="n">
         <v>126</v>
@@ -3113,22 +3113,22 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="H15" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I15" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J15" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K15" t="n">
         <v>2</v>
       </c>
       <c r="L15" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M15" t="n">
         <v>1.08</v>
@@ -3155,10 +3155,10 @@
         <v>2.38</v>
       </c>
       <c r="U15" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V15" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W15" t="n">
         <v>5.5</v>
@@ -3182,7 +3182,7 @@
         <v>7</v>
       </c>
       <c r="AD15" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE15" t="n">
         <v>21</v>
@@ -3191,19 +3191,19 @@
         <v>81</v>
       </c>
       <c r="AG15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH15" t="n">
         <v>23</v>
       </c>
       <c r="AI15" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ15" t="n">
         <v>51</v>
       </c>
       <c r="AK15" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL15" t="n">
         <v>51</v>
@@ -3212,10 +3212,10 @@
         <v>351</v>
       </c>
       <c r="AN15" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO15" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP15" t="n">
         <v>26</v>
@@ -3248,7 +3248,7 @@
         <v>41</v>
       </c>
       <c r="AZ15" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BA15" t="n">
         <v>151</v>
@@ -4751,22 +4751,22 @@
         </is>
       </c>
       <c r="G24" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="H24" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J24" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K24" t="n">
         <v>2.05</v>
       </c>
-      <c r="H24" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I24" t="n">
+      <c r="L24" t="n">
         <v>4</v>
-      </c>
-      <c r="J24" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K24" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L24" t="n">
-        <v>4.33</v>
       </c>
       <c r="M24" t="n">
         <v>1.07</v>
@@ -4802,16 +4802,16 @@
         <v>7</v>
       </c>
       <c r="X24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y24" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA24" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB24" t="n">
         <v>29</v>
@@ -4832,7 +4832,7 @@
         <v>10</v>
       </c>
       <c r="AH24" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI24" t="n">
         <v>13</v>
@@ -4841,7 +4841,7 @@
         <v>41</v>
       </c>
       <c r="AK24" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL24" t="n">
         <v>41</v>
@@ -4853,7 +4853,7 @@
         <v>4</v>
       </c>
       <c r="AO24" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP24" t="n">
         <v>23</v>
@@ -4865,7 +4865,7 @@
         <v>67</v>
       </c>
       <c r="AS24" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT24" t="n">
         <v>2.63</v>
@@ -5139,10 +5139,10 @@
         <v>23</v>
       </c>
       <c r="O26" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="P26" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Q26" t="n">
         <v>1.36</v>
@@ -5297,46 +5297,46 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="H27" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I27" t="n">
         <v>3.15</v>
       </c>
-      <c r="I27" t="n">
-        <v>3.2</v>
-      </c>
       <c r="J27" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="K27" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="L27" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="M27" t="n">
         <v>1.08</v>
       </c>
       <c r="N27" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="O27" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P27" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="R27" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="S27" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="T27" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="U27" t="n">
         <v>1.82</v>
@@ -5348,40 +5348,40 @@
         <v>7.1</v>
       </c>
       <c r="X27" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="Y27" t="n">
         <v>8.75</v>
       </c>
       <c r="Z27" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AA27" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AB27" t="n">
         <v>30</v>
       </c>
       <c r="AC27" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AD27" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AE27" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AF27" t="n">
         <v>75</v>
       </c>
       <c r="AG27" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AH27" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AI27" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AJ27" t="n">
         <v>45</v>
@@ -5396,10 +5396,10 @@
         <v>600</v>
       </c>
       <c r="AN27" t="n">
-        <v>4</v>
+        <v>4.05</v>
       </c>
       <c r="AO27" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AP27" t="n">
         <v>20</v>
@@ -5414,28 +5414,28 @@
         <v>250</v>
       </c>
       <c r="AT27" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="AU27" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AV27" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AW27" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="AX27" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AY27" t="n">
         <v>26</v>
       </c>
       <c r="AZ27" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="BA27" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="BB27" t="n">
         <v>350</v>
@@ -5843,19 +5843,19 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="H30" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I30" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="J30" t="n">
         <v>2.37</v>
       </c>
       <c r="K30" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="L30" t="n">
         <v>3.65</v>
@@ -5870,7 +5870,7 @@
         <v>1.15</v>
       </c>
       <c r="P30" t="n">
-        <v>4.7</v>
+        <v>4.75</v>
       </c>
       <c r="Q30" t="n">
         <v>1.47</v>
@@ -5885,13 +5885,13 @@
         <v>3.5</v>
       </c>
       <c r="U30" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="V30" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="W30" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="X30" t="n">
         <v>12</v>
@@ -5900,22 +5900,22 @@
         <v>8.5</v>
       </c>
       <c r="Z30" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AA30" t="n">
         <v>13</v>
       </c>
       <c r="AB30" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AC30" t="n">
         <v>9.5</v>
       </c>
       <c r="AD30" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AE30" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AF30" t="n">
         <v>35</v>
@@ -5930,16 +5930,16 @@
         <v>12</v>
       </c>
       <c r="AJ30" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AK30" t="n">
         <v>25</v>
       </c>
       <c r="AL30" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AM30" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AN30" t="n">
         <v>4.25</v>
@@ -5963,19 +5963,19 @@
         <v>3.5</v>
       </c>
       <c r="AU30" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AV30" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AW30" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AX30" t="n">
         <v>17</v>
       </c>
       <c r="AY30" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AZ30" t="n">
         <v>70</v>
@@ -6028,52 +6028,52 @@
         <v>1.7</v>
       </c>
       <c r="H31" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="I31" t="n">
-        <v>4.25</v>
+        <v>4.3</v>
       </c>
       <c r="J31" t="n">
         <v>2.27</v>
       </c>
       <c r="K31" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="L31" t="n">
-        <v>4.7</v>
+        <v>4.75</v>
       </c>
       <c r="M31" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N31" t="n">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="O31" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="P31" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="R31" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="S31" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="T31" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="U31" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="V31" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="W31" t="n">
-        <v>7.2</v>
+        <v>6.9</v>
       </c>
       <c r="X31" t="n">
         <v>8</v>
@@ -6082,55 +6082,55 @@
         <v>8.25</v>
       </c>
       <c r="Z31" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AA31" t="n">
         <v>13.5</v>
       </c>
       <c r="AB31" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AC31" t="n">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="AD31" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AE31" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AF31" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AG31" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH31" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI31" t="n">
         <v>14.5</v>
       </c>
       <c r="AJ31" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AK31" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AL31" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AM31" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AN31" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="AO31" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AP31" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AQ31" t="n">
         <v>28</v>
@@ -6142,10 +6142,10 @@
         <v>250</v>
       </c>
       <c r="AT31" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="AU31" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AV31" t="n">
         <v>70</v>
@@ -6157,16 +6157,16 @@
         <v>25</v>
       </c>
       <c r="AY31" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AZ31" t="n">
         <v>150</v>
       </c>
       <c r="BA31" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="BB31" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="BC31" t="n">
         <v>51</v>
@@ -6207,19 +6207,19 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.32</v>
+        <v>2.25</v>
       </c>
       <c r="H32" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I32" t="n">
-        <v>2.82</v>
+        <v>2.9</v>
       </c>
       <c r="J32" t="n">
-        <v>2.92</v>
+        <v>2.87</v>
       </c>
       <c r="K32" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="L32" t="n">
         <v>3.45</v>
@@ -6231,52 +6231,52 @@
         <v>7.4</v>
       </c>
       <c r="O32" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P32" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="R32" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="S32" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="T32" t="n">
-        <v>2.72</v>
+        <v>2.77</v>
       </c>
       <c r="U32" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="V32" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="W32" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="X32" t="n">
-        <v>12.5</v>
+        <v>11.25</v>
       </c>
       <c r="Y32" t="n">
         <v>9</v>
       </c>
       <c r="Z32" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AA32" t="n">
         <v>18</v>
       </c>
       <c r="AB32" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC32" t="n">
         <v>7.4</v>
       </c>
       <c r="AD32" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AE32" t="n">
         <v>13</v>
@@ -6285,31 +6285,31 @@
         <v>55</v>
       </c>
       <c r="AG32" t="n">
-        <v>9.25</v>
+        <v>10</v>
       </c>
       <c r="AH32" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI32" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AJ32" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AK32" t="n">
         <v>24</v>
       </c>
       <c r="AL32" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AM32" t="n">
         <v>400</v>
       </c>
       <c r="AN32" t="n">
-        <v>4.3</v>
+        <v>4.25</v>
       </c>
       <c r="AO32" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AP32" t="n">
         <v>19.5</v>
@@ -6324,31 +6324,31 @@
         <v>250</v>
       </c>
       <c r="AT32" t="n">
-        <v>2.72</v>
+        <v>2.77</v>
       </c>
       <c r="AU32" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AV32" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AW32" t="n">
-        <v>4.85</v>
+        <v>4.9</v>
       </c>
       <c r="AX32" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AY32" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ32" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="BA32" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="BB32" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BC32" t="n">
         <v>51</v>
@@ -6771,10 +6771,10 @@
         <v>5.2</v>
       </c>
       <c r="M35" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N35" t="n">
-        <v>9.75</v>
+        <v>12</v>
       </c>
       <c r="O35" t="n">
         <v>1.27</v>
@@ -6792,7 +6792,7 @@
         <v>1.4</v>
       </c>
       <c r="T35" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="U35" t="n">
         <v>1.75</v>
@@ -6831,7 +6831,7 @@
         <v>65</v>
       </c>
       <c r="AG35" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AH35" t="n">
         <v>35</v>
@@ -6843,10 +6843,10 @@
         <v>110</v>
       </c>
       <c r="AK35" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AL35" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AM35" t="n">
         <v>500</v>
@@ -6855,7 +6855,7 @@
         <v>3.45</v>
       </c>
       <c r="AO35" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AP35" t="n">
         <v>18</v>
@@ -6873,7 +6873,7 @@
         <v>2.47</v>
       </c>
       <c r="AU35" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AV35" t="n">
         <v>65</v>
@@ -6882,13 +6882,13 @@
         <v>6.7</v>
       </c>
       <c r="AX35" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AY35" t="n">
         <v>32</v>
       </c>
       <c r="AZ35" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="BA35" t="n">
         <v>200</v>
@@ -6935,22 +6935,22 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.9</v>
+        <v>2.82</v>
       </c>
       <c r="H36" t="n">
         <v>2.9</v>
       </c>
       <c r="I36" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="J36" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="K36" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="L36" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="M36" t="n">
         <v>1.01</v>
@@ -6974,7 +6974,7 @@
         <v>1.42</v>
       </c>
       <c r="T36" t="n">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="U36" t="n">
         <v>1.6</v>
@@ -6989,16 +6989,16 @@
         <v>16</v>
       </c>
       <c r="Y36" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="Z36" t="n">
         <v>37</v>
       </c>
       <c r="AA36" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AB36" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AC36" t="n">
         <v>9</v>
@@ -7013,22 +7013,22 @@
         <v>50</v>
       </c>
       <c r="AG36" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AH36" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AI36" t="n">
         <v>9.25</v>
       </c>
       <c r="AJ36" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AK36" t="n">
         <v>21</v>
       </c>
       <c r="AL36" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AM36" t="n">
         <v>350</v>
@@ -7037,40 +7037,40 @@
         <v>4.8</v>
       </c>
       <c r="AO36" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AP36" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ36" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AR36" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AS36" t="n">
         <v>250</v>
       </c>
       <c r="AT36" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="AU36" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AV36" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AW36" t="n">
-        <v>4.45</v>
+        <v>4.5</v>
       </c>
       <c r="AX36" t="n">
         <v>14</v>
       </c>
       <c r="AY36" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ36" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="BA36" t="n">
         <v>90</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-12.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-12.xlsx
@@ -929,16 +929,16 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="H3" t="n">
         <v>3.4</v>
       </c>
       <c r="I3" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="J3" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="K3" t="n">
         <v>2.05</v>
@@ -980,7 +980,7 @@
         <v>5.5</v>
       </c>
       <c r="X3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y3" t="n">
         <v>9</v>
@@ -989,16 +989,16 @@
         <v>12</v>
       </c>
       <c r="AA3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB3" t="n">
         <v>34</v>
       </c>
       <c r="AC3" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE3" t="n">
         <v>21</v>
@@ -1010,10 +1010,10 @@
         <v>12</v>
       </c>
       <c r="AH3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ3" t="n">
         <v>67</v>
@@ -1028,7 +1028,7 @@
         <v>201</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AO3" t="n">
         <v>9</v>
@@ -1052,7 +1052,7 @@
         <v>9.5</v>
       </c>
       <c r="AV3" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW3" t="n">
         <v>7</v>
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H4" t="n">
         <v>2.8</v>
       </c>
       <c r="I4" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J4" t="n">
         <v>3.25</v>
@@ -1153,22 +1153,22 @@
         <v>2.1</v>
       </c>
       <c r="U4" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="V4" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="W4" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="X4" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y4" t="n">
         <v>11</v>
       </c>
       <c r="Z4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA4" t="n">
         <v>26</v>
@@ -1180,7 +1180,7 @@
         <v>5</v>
       </c>
       <c r="AD4" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AE4" t="n">
         <v>21</v>
@@ -1189,10 +1189,10 @@
         <v>101</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI4" t="n">
         <v>15</v>
@@ -1234,10 +1234,10 @@
         <v>10</v>
       </c>
       <c r="AV4" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AW4" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX4" t="n">
         <v>23</v>
@@ -1293,19 +1293,19 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="H5" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I5" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J5" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="K5" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L5" t="n">
         <v>5.5</v>
@@ -1317,28 +1317,28 @@
         <v>10</v>
       </c>
       <c r="O5" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P5" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q5" t="n">
         <v>2.05</v>
       </c>
       <c r="R5" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V5" t="n">
         <v>1.8</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.73</v>
       </c>
       <c r="W5" t="n">
         <v>6.5</v>
@@ -1350,7 +1350,7 @@
         <v>8.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA5" t="n">
         <v>15</v>
@@ -1359,19 +1359,19 @@
         <v>29</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD5" t="n">
         <v>7</v>
       </c>
       <c r="AE5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF5" t="n">
         <v>51</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH5" t="n">
         <v>26</v>
@@ -1395,7 +1395,7 @@
         <v>3.6</v>
       </c>
       <c r="AO5" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AP5" t="n">
         <v>21</v>
@@ -1410,16 +1410,16 @@
         <v>151</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU5" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV5" t="n">
         <v>67</v>
       </c>
       <c r="AW5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AX5" t="n">
         <v>29</v>
@@ -1475,22 +1475,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="H6" t="n">
         <v>2.88</v>
       </c>
       <c r="I6" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="J6" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K6" t="n">
         <v>1.83</v>
       </c>
       <c r="L6" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M6" t="n">
         <v>1.14</v>
@@ -1499,10 +1499,10 @@
         <v>5.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="P6" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q6" t="n">
         <v>2.88</v>
@@ -1517,10 +1517,10 @@
         <v>2.1</v>
       </c>
       <c r="U6" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="V6" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="W6" t="n">
         <v>6</v>
@@ -1529,7 +1529,7 @@
         <v>11</v>
       </c>
       <c r="Y6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z6" t="n">
         <v>26</v>
@@ -1556,10 +1556,10 @@
         <v>6.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ6" t="n">
         <v>34</v>
@@ -1574,7 +1574,7 @@
         <v>900</v>
       </c>
       <c r="AN6" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO6" t="n">
         <v>17</v>
@@ -1604,7 +1604,7 @@
         <v>4.75</v>
       </c>
       <c r="AX6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY6" t="n">
         <v>34</v>
@@ -2385,67 +2385,67 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>4.35</v>
+        <v>4.5</v>
       </c>
       <c r="H11" t="n">
         <v>3.25</v>
       </c>
       <c r="I11" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="J11" t="n">
-        <v>4.75</v>
+        <v>4.9</v>
       </c>
       <c r="K11" t="n">
         <v>2.02</v>
       </c>
       <c r="L11" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="M11" t="n">
         <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>6.65</v>
+        <v>6.7</v>
       </c>
       <c r="O11" t="n">
         <v>1.4</v>
       </c>
       <c r="P11" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="R11" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="S11" t="n">
         <v>1.45</v>
       </c>
       <c r="T11" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="U11" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="V11" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="W11" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="X11" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y11" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AA11" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AB11" t="n">
         <v>65</v>
@@ -2463,40 +2463,40 @@
         <v>110</v>
       </c>
       <c r="AG11" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AH11" t="n">
         <v>7.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AJ11" t="n">
         <v>14.5</v>
       </c>
       <c r="AK11" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AL11" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AM11" t="n">
         <v>201</v>
       </c>
       <c r="AN11" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AO11" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AP11" t="n">
         <v>35</v>
       </c>
       <c r="AQ11" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AR11" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AS11" t="n">
         <v>500</v>
@@ -2511,19 +2511,19 @@
         <v>80</v>
       </c>
       <c r="AW11" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="AX11" t="n">
         <v>9</v>
       </c>
       <c r="AY11" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ11" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="BA11" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="BB11" t="n">
         <v>300</v>
@@ -2573,16 +2573,16 @@
         <v>3.7</v>
       </c>
       <c r="I12" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J12" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K12" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="L12" t="n">
-        <v>4.25</v>
+        <v>4.3</v>
       </c>
       <c r="M12" t="n">
         <v>1.03</v>
@@ -2621,7 +2621,7 @@
         <v>9.25</v>
       </c>
       <c r="Y12" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="Z12" t="n">
         <v>14.5</v>
@@ -2630,7 +2630,7 @@
         <v>13</v>
       </c>
       <c r="AB12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AC12" t="n">
         <v>13</v>
@@ -2642,19 +2642,19 @@
         <v>13.5</v>
       </c>
       <c r="AF12" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AG12" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH12" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI12" t="n">
         <v>13.5</v>
       </c>
       <c r="AJ12" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AK12" t="n">
         <v>35</v>
@@ -2672,10 +2672,10 @@
         <v>8.5</v>
       </c>
       <c r="AP12" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AQ12" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AR12" t="n">
         <v>50</v>
@@ -2684,19 +2684,19 @@
         <v>175</v>
       </c>
       <c r="AT12" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="AU12" t="n">
         <v>6.9</v>
       </c>
       <c r="AV12" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AW12" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AX12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AY12" t="n">
         <v>25</v>
@@ -2943,7 +2943,7 @@
         <v>3.2</v>
       </c>
       <c r="K14" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="L14" t="n">
         <v>4.33</v>
@@ -4951,22 +4951,22 @@
         <v>4.33</v>
       </c>
       <c r="M25" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O25" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P25" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="R25" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="S25" t="n">
         <v>1.4</v>
@@ -5115,7 +5115,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="H26" t="n">
         <v>5.75</v>
@@ -5127,7 +5127,7 @@
         <v>1.8</v>
       </c>
       <c r="K26" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="L26" t="n">
         <v>6</v>
@@ -5136,55 +5136,55 @@
         <v>1.01</v>
       </c>
       <c r="N26" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="O26" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="P26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="R26" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="S26" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="T26" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="U26" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="V26" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="W26" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="X26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y26" t="n">
         <v>9</v>
       </c>
       <c r="Z26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA26" t="n">
         <v>10</v>
       </c>
       <c r="AB26" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC26" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AD26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE26" t="n">
         <v>17</v>
@@ -5193,7 +5193,7 @@
         <v>41</v>
       </c>
       <c r="AG26" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AH26" t="n">
         <v>41</v>
@@ -5202,19 +5202,19 @@
         <v>21</v>
       </c>
       <c r="AJ26" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AK26" t="n">
         <v>41</v>
       </c>
       <c r="AL26" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM26" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="AN26" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO26" t="n">
         <v>6.5</v>
@@ -5229,37 +5229,37 @@
         <v>29</v>
       </c>
       <c r="AS26" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AT26" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="AU26" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV26" t="n">
         <v>41</v>
       </c>
       <c r="AW26" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AX26" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AY26" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ26" t="n">
         <v>101</v>
       </c>
       <c r="BA26" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB26" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC26" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="BD26" t="n">
         <v>176</v>
@@ -5479,16 +5479,16 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="H28" t="n">
         <v>3.1</v>
       </c>
       <c r="I28" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="J28" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K28" t="n">
         <v>2.1</v>
@@ -5500,7 +5500,7 @@
         <v>1.07</v>
       </c>
       <c r="N28" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="O28" t="n">
         <v>1.34</v>
@@ -5515,10 +5515,10 @@
         <v>1.72</v>
       </c>
       <c r="S28" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="T28" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="U28" t="n">
         <v>1.78</v>
@@ -5527,13 +5527,13 @@
         <v>1.93</v>
       </c>
       <c r="W28" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="X28" t="n">
         <v>11.75</v>
       </c>
       <c r="Y28" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="Z28" t="n">
         <v>26</v>
@@ -5542,10 +5542,10 @@
         <v>21</v>
       </c>
       <c r="AB28" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AC28" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AD28" t="n">
         <v>6.1</v>
@@ -5557,16 +5557,16 @@
         <v>65</v>
       </c>
       <c r="AG28" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AH28" t="n">
         <v>14</v>
       </c>
       <c r="AI28" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AJ28" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AK28" t="n">
         <v>24</v>
@@ -5590,13 +5590,13 @@
         <v>55</v>
       </c>
       <c r="AR28" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AS28" t="n">
         <v>250</v>
       </c>
       <c r="AT28" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="AU28" t="n">
         <v>6.8</v>
@@ -5605,7 +5605,7 @@
         <v>55</v>
       </c>
       <c r="AW28" t="n">
-        <v>4.8</v>
+        <v>4.75</v>
       </c>
       <c r="AX28" t="n">
         <v>15</v>
@@ -5617,7 +5617,7 @@
         <v>65</v>
       </c>
       <c r="BA28" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="BB28" t="n">
         <v>250</v>
@@ -5661,28 +5661,28 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.57</v>
+        <v>2.67</v>
       </c>
       <c r="H29" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I29" t="n">
-        <v>2.37</v>
+        <v>2.27</v>
       </c>
       <c r="J29" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K29" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="L29" t="n">
-        <v>2.95</v>
+        <v>2.87</v>
       </c>
       <c r="M29" t="n">
         <v>1.05</v>
       </c>
       <c r="N29" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="O29" t="n">
         <v>1.25</v>
@@ -5697,40 +5697,40 @@
         <v>1.98</v>
       </c>
       <c r="S29" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="T29" t="n">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="U29" t="n">
         <v>1.65</v>
       </c>
       <c r="V29" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="W29" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="X29" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Y29" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="Z29" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AA29" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AB29" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AC29" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AD29" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AE29" t="n">
         <v>13</v>
@@ -5739,19 +5739,19 @@
         <v>55</v>
       </c>
       <c r="AG29" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AH29" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AI29" t="n">
         <v>9.25</v>
       </c>
       <c r="AJ29" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AK29" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AL29" t="n">
         <v>26</v>
@@ -5760,7 +5760,7 @@
         <v>350</v>
       </c>
       <c r="AN29" t="n">
-        <v>4.65</v>
+        <v>4.75</v>
       </c>
       <c r="AO29" t="n">
         <v>14</v>
@@ -5778,7 +5778,7 @@
         <v>250</v>
       </c>
       <c r="AT29" t="n">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="AU29" t="n">
         <v>7</v>
@@ -5787,19 +5787,19 @@
         <v>60</v>
       </c>
       <c r="AW29" t="n">
-        <v>4.45</v>
+        <v>4.35</v>
       </c>
       <c r="AX29" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AY29" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AZ29" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="BA29" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="BB29" t="n">
         <v>250</v>
@@ -5846,16 +5846,16 @@
         <v>1.88</v>
       </c>
       <c r="H30" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I30" t="n">
         <v>3.35</v>
       </c>
       <c r="J30" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K30" t="n">
         <v>2.37</v>
-      </c>
-      <c r="K30" t="n">
-        <v>2.4</v>
       </c>
       <c r="L30" t="n">
         <v>3.65</v>
@@ -5864,64 +5864,64 @@
         <v>1.03</v>
       </c>
       <c r="N30" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="O30" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="P30" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
       <c r="R30" t="n">
-        <v>2.5</v>
+        <v>2.37</v>
       </c>
       <c r="S30" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="T30" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="U30" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="V30" t="n">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="W30" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="X30" t="n">
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="Y30" t="n">
         <v>8.5</v>
       </c>
       <c r="Z30" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AB30" t="n">
         <v>18.5</v>
       </c>
-      <c r="AA30" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>17.5</v>
-      </c>
       <c r="AC30" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AD30" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AE30" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AF30" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AG30" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AH30" t="n">
         <v>23</v>
@@ -5936,49 +5936,49 @@
         <v>25</v>
       </c>
       <c r="AL30" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AM30" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AN30" t="n">
-        <v>4.25</v>
+        <v>4.2</v>
       </c>
       <c r="AO30" t="n">
         <v>9.25</v>
       </c>
       <c r="AP30" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AQ30" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AR30" t="n">
         <v>45</v>
       </c>
       <c r="AS30" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AT30" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AU30" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AV30" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AW30" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AX30" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AY30" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AZ30" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="BA30" t="n">
         <v>80</v>
@@ -6395,16 +6395,16 @@
         <v>3.55</v>
       </c>
       <c r="I33" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="J33" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K33" t="n">
         <v>2.22</v>
       </c>
       <c r="L33" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="M33" t="n">
         <v>1.05</v>
@@ -6419,10 +6419,10 @@
         <v>3.55</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="R33" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S33" t="n">
         <v>1.35</v>
@@ -6440,7 +6440,7 @@
         <v>10.5</v>
       </c>
       <c r="X33" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Y33" t="n">
         <v>10.5</v>
@@ -6473,7 +6473,7 @@
         <v>11</v>
       </c>
       <c r="AI33" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AJ33" t="n">
         <v>20</v>
@@ -6488,7 +6488,7 @@
         <v>400</v>
       </c>
       <c r="AN33" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="AO33" t="n">
         <v>15.5</v>
@@ -6515,7 +6515,7 @@
         <v>60</v>
       </c>
       <c r="AW33" t="n">
-        <v>4.2</v>
+        <v>4.15</v>
       </c>
       <c r="AX33" t="n">
         <v>11</v>
@@ -6935,28 +6935,28 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="H36" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="I36" t="n">
         <v>2.55</v>
       </c>
       <c r="J36" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K36" t="n">
         <v>1.98</v>
       </c>
       <c r="L36" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="M36" t="n">
         <v>1.01</v>
       </c>
       <c r="N36" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="O36" t="n">
         <v>1.29</v>
@@ -6983,10 +6983,10 @@
         <v>2.05</v>
       </c>
       <c r="W36" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X36" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y36" t="n">
         <v>9.75</v>
@@ -6995,10 +6995,10 @@
         <v>37</v>
       </c>
       <c r="AA36" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AB36" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AC36" t="n">
         <v>9</v>
@@ -7007,16 +7007,16 @@
         <v>5.7</v>
       </c>
       <c r="AE36" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AF36" t="n">
         <v>50</v>
       </c>
       <c r="AG36" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="AH36" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AI36" t="n">
         <v>9.25</v>
@@ -7028,25 +7028,25 @@
         <v>21</v>
       </c>
       <c r="AL36" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AM36" t="n">
         <v>350</v>
       </c>
       <c r="AN36" t="n">
-        <v>4.8</v>
+        <v>4.75</v>
       </c>
       <c r="AO36" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AP36" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AQ36" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AR36" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AS36" t="n">
         <v>250</v>
@@ -7055,10 +7055,10 @@
         <v>2.45</v>
       </c>
       <c r="AU36" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AV36" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AW36" t="n">
         <v>4.5</v>
@@ -7067,10 +7067,10 @@
         <v>14</v>
       </c>
       <c r="AY36" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AZ36" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="BA36" t="n">
         <v>90</v>
@@ -7120,25 +7120,25 @@
         <v>2.32</v>
       </c>
       <c r="H37" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="I37" t="n">
         <v>3.15</v>
       </c>
       <c r="J37" t="n">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="K37" t="n">
         <v>1.98</v>
       </c>
       <c r="L37" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="M37" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N37" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="O37" t="n">
         <v>1.37</v>
@@ -7165,7 +7165,7 @@
         <v>1.83</v>
       </c>
       <c r="W37" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="X37" t="n">
         <v>11.25</v>
@@ -7177,10 +7177,10 @@
         <v>25</v>
       </c>
       <c r="AA37" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AB37" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AC37" t="n">
         <v>7.6</v>
@@ -7195,19 +7195,19 @@
         <v>70</v>
       </c>
       <c r="AG37" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AH37" t="n">
         <v>16</v>
       </c>
       <c r="AI37" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AJ37" t="n">
         <v>45</v>
       </c>
       <c r="AK37" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AL37" t="n">
         <v>40</v>
@@ -7234,7 +7234,7 @@
         <v>250</v>
       </c>
       <c r="AT37" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="AU37" t="n">
         <v>6.7</v>
@@ -7249,7 +7249,7 @@
         <v>18</v>
       </c>
       <c r="AY37" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ37" t="n">
         <v>90</v>
@@ -7258,7 +7258,7 @@
         <v>120</v>
       </c>
       <c r="BB37" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="BC37" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-12.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-12.xlsx
@@ -929,28 +929,28 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="H3" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I3" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="J3" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="K3" t="n">
         <v>2.05</v>
       </c>
       <c r="L3" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O3" t="n">
         <v>1.4</v>
@@ -971,10 +971,10 @@
         <v>2.5</v>
       </c>
       <c r="U3" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V3" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W3" t="n">
         <v>5.5</v>
@@ -986,7 +986,7 @@
         <v>9</v>
       </c>
       <c r="Z3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA3" t="n">
         <v>17</v>
@@ -995,16 +995,16 @@
         <v>34</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AD3" t="n">
         <v>6.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF3" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG3" t="n">
         <v>12</v>
@@ -1016,10 +1016,10 @@
         <v>19</v>
       </c>
       <c r="AJ3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AK3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL3" t="n">
         <v>51</v>
@@ -1031,13 +1031,13 @@
         <v>3.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AP3" t="n">
         <v>23</v>
       </c>
       <c r="AQ3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR3" t="n">
         <v>51</v>
@@ -1055,16 +1055,16 @@
         <v>67</v>
       </c>
       <c r="AW3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AX3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AY3" t="n">
         <v>41</v>
       </c>
       <c r="AZ3" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BA3" t="n">
         <v>151</v>
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H4" t="n">
         <v>2.8</v>
       </c>
       <c r="I4" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="J4" t="n">
         <v>3.25</v>
@@ -1153,22 +1153,22 @@
         <v>2.1</v>
       </c>
       <c r="U4" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="V4" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W4" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="X4" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Y4" t="n">
         <v>11</v>
       </c>
       <c r="Z4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA4" t="n">
         <v>26</v>
@@ -1180,7 +1180,7 @@
         <v>5</v>
       </c>
       <c r="AD4" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AE4" t="n">
         <v>21</v>
@@ -1189,10 +1189,10 @@
         <v>101</v>
       </c>
       <c r="AG4" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AH4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI4" t="n">
         <v>15</v>
@@ -1234,10 +1234,10 @@
         <v>10</v>
       </c>
       <c r="AV4" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AW4" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AX4" t="n">
         <v>23</v>
@@ -1311,10 +1311,10 @@
         <v>5.5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O5" t="n">
         <v>1.33</v>
@@ -1475,13 +1475,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="H6" t="n">
         <v>2.88</v>
       </c>
       <c r="I6" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J6" t="n">
         <v>3.5</v>
@@ -1604,7 +1604,7 @@
         <v>4.75</v>
       </c>
       <c r="AX6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY6" t="n">
         <v>34</v>
@@ -1657,13 +1657,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="I7" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="J7" t="n">
         <v>3.1</v>
@@ -1693,16 +1693,16 @@
         <v>1.33</v>
       </c>
       <c r="S7" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="T7" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="U7" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="V7" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="W7" t="n">
         <v>5</v>
@@ -1720,10 +1720,10 @@
         <v>26</v>
       </c>
       <c r="AB7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AC7" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AD7" t="n">
         <v>6.5</v>
@@ -1759,7 +1759,7 @@
         <v>4</v>
       </c>
       <c r="AO7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP7" t="n">
         <v>34</v>
@@ -1777,7 +1777,7 @@
         <v>2.1</v>
       </c>
       <c r="AU7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV7" t="n">
         <v>101</v>
@@ -2385,7 +2385,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>4.5</v>
+        <v>4.45</v>
       </c>
       <c r="H11" t="n">
         <v>3.25</v>
@@ -2394,13 +2394,13 @@
         <v>1.8</v>
       </c>
       <c r="J11" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="K11" t="n">
         <v>2.02</v>
       </c>
       <c r="L11" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="M11" t="n">
         <v>1.03</v>
@@ -2421,40 +2421,40 @@
         <v>1.55</v>
       </c>
       <c r="S11" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="T11" t="n">
         <v>2.4</v>
       </c>
       <c r="U11" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V11" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="W11" t="n">
         <v>10</v>
       </c>
       <c r="X11" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y11" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Z11" t="n">
         <v>80</v>
       </c>
       <c r="AA11" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AB11" t="n">
         <v>65</v>
       </c>
       <c r="AC11" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AE11" t="n">
         <v>18.5</v>
@@ -2463,22 +2463,22 @@
         <v>110</v>
       </c>
       <c r="AG11" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AI11" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AJ11" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AK11" t="n">
         <v>16.5</v>
       </c>
       <c r="AL11" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AM11" t="n">
         <v>201</v>
@@ -2487,22 +2487,22 @@
         <v>6</v>
       </c>
       <c r="AO11" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AP11" t="n">
         <v>35</v>
       </c>
       <c r="AQ11" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AR11" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AS11" t="n">
         <v>500</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="AU11" t="n">
         <v>7.8</v>
@@ -2523,7 +2523,7 @@
         <v>32</v>
       </c>
       <c r="BA11" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="BB11" t="n">
         <v>300</v>
@@ -4939,13 +4939,13 @@
         <v>3.3</v>
       </c>
       <c r="I25" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J25" t="n">
         <v>2.6</v>
       </c>
       <c r="K25" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L25" t="n">
         <v>4.33</v>
@@ -4957,16 +4957,16 @@
         <v>10</v>
       </c>
       <c r="O25" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P25" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="R25" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S25" t="n">
         <v>1.4</v>
@@ -4993,7 +4993,7 @@
         <v>17</v>
       </c>
       <c r="AA25" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB25" t="n">
         <v>26</v>
@@ -5071,7 +5071,7 @@
         <v>67</v>
       </c>
       <c r="BA25" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB25" t="n">
         <v>201</v>
@@ -5118,10 +5118,10 @@
         <v>1.36</v>
       </c>
       <c r="H26" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="I26" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="J26" t="n">
         <v>1.8</v>
@@ -5136,7 +5136,7 @@
         <v>1.01</v>
       </c>
       <c r="N26" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="O26" t="n">
         <v>1.08</v>
@@ -5145,10 +5145,10 @@
         <v>8</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="R26" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="S26" t="n">
         <v>1.18</v>
@@ -5193,7 +5193,7 @@
         <v>41</v>
       </c>
       <c r="AG26" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AH26" t="n">
         <v>41</v>
@@ -5220,7 +5220,7 @@
         <v>6.5</v>
       </c>
       <c r="AP26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ26" t="n">
         <v>15</v>
@@ -5479,34 +5479,34 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.42</v>
+        <v>2.22</v>
       </c>
       <c r="H28" t="n">
         <v>3.1</v>
       </c>
       <c r="I28" t="n">
-        <v>2.75</v>
+        <v>3.05</v>
       </c>
       <c r="J28" t="n">
-        <v>3.05</v>
+        <v>2.82</v>
       </c>
       <c r="K28" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="L28" t="n">
-        <v>3.3</v>
+        <v>3.65</v>
       </c>
       <c r="M28" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N28" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="O28" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P28" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="Q28" t="n">
         <v>2.05</v>
@@ -5518,7 +5518,7 @@
         <v>1.4</v>
       </c>
       <c r="T28" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="U28" t="n">
         <v>1.78</v>
@@ -5527,25 +5527,25 @@
         <v>1.93</v>
       </c>
       <c r="W28" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="X28" t="n">
-        <v>11.75</v>
+        <v>10.75</v>
       </c>
       <c r="Y28" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z28" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA28" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AB28" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AC28" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AD28" t="n">
         <v>6.1</v>
@@ -5554,73 +5554,73 @@
         <v>14</v>
       </c>
       <c r="AF28" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AG28" t="n">
         <v>8.75</v>
       </c>
       <c r="AH28" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AI28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ28" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AK28" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AL28" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AM28" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AN28" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="AO28" t="n">
-        <v>13</v>
+        <v>11.75</v>
       </c>
       <c r="AP28" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AQ28" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AR28" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AS28" t="n">
         <v>250</v>
       </c>
       <c r="AT28" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="AU28" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AV28" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AW28" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AX28" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY28" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AZ28" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="BA28" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="BB28" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BC28" t="n">
         <v>51</v>
@@ -5664,7 +5664,7 @@
         <v>2.67</v>
       </c>
       <c r="H29" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I29" t="n">
         <v>2.27</v>
@@ -5682,10 +5682,10 @@
         <v>1.05</v>
       </c>
       <c r="N29" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="O29" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P29" t="n">
         <v>3.55</v>
@@ -5727,7 +5727,7 @@
         <v>28</v>
       </c>
       <c r="AC29" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AD29" t="n">
         <v>6.9</v>
@@ -5754,7 +5754,7 @@
         <v>17.5</v>
       </c>
       <c r="AL29" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AM29" t="n">
         <v>350</v>
@@ -5763,7 +5763,7 @@
         <v>4.75</v>
       </c>
       <c r="AO29" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AP29" t="n">
         <v>21</v>
@@ -5781,10 +5781,10 @@
         <v>2.9</v>
       </c>
       <c r="AU29" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AV29" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AW29" t="n">
         <v>4.35</v>
@@ -5846,10 +5846,10 @@
         <v>1.88</v>
       </c>
       <c r="H30" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I30" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="J30" t="n">
         <v>2.4</v>
@@ -5858,7 +5858,7 @@
         <v>2.37</v>
       </c>
       <c r="L30" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="M30" t="n">
         <v>1.03</v>
@@ -5867,34 +5867,34 @@
         <v>9.25</v>
       </c>
       <c r="O30" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="P30" t="n">
-        <v>4.5</v>
+        <v>4.55</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="R30" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="S30" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="T30" t="n">
         <v>3.4</v>
       </c>
       <c r="U30" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="V30" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="W30" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="X30" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="Y30" t="n">
         <v>8.5</v>
@@ -5903,7 +5903,7 @@
         <v>18</v>
       </c>
       <c r="AA30" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AB30" t="n">
         <v>18.5</v>
@@ -5912,7 +5912,7 @@
         <v>9.25</v>
       </c>
       <c r="AD30" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AE30" t="n">
         <v>11.75</v>
@@ -5921,13 +5921,13 @@
         <v>37</v>
       </c>
       <c r="AG30" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AH30" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI30" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AJ30" t="n">
         <v>50</v>
@@ -5936,7 +5936,7 @@
         <v>25</v>
       </c>
       <c r="AL30" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AM30" t="n">
         <v>200</v>
@@ -5957,7 +5957,7 @@
         <v>45</v>
       </c>
       <c r="AS30" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AT30" t="n">
         <v>3.4</v>
@@ -5969,19 +5969,19 @@
         <v>40</v>
       </c>
       <c r="AW30" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AX30" t="n">
         <v>17.5</v>
       </c>
       <c r="AY30" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AZ30" t="n">
         <v>75</v>
       </c>
       <c r="BA30" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="BB30" t="n">
         <v>175</v>
@@ -6028,25 +6028,25 @@
         <v>1.7</v>
       </c>
       <c r="H31" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="I31" t="n">
-        <v>4.3</v>
+        <v>4.25</v>
       </c>
       <c r="J31" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="K31" t="n">
         <v>2.18</v>
       </c>
       <c r="L31" t="n">
-        <v>4.75</v>
+        <v>4.7</v>
       </c>
       <c r="M31" t="n">
         <v>1.06</v>
       </c>
       <c r="N31" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="O31" t="n">
         <v>1.29</v>
@@ -6061,28 +6061,28 @@
         <v>1.85</v>
       </c>
       <c r="S31" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="T31" t="n">
         <v>2.75</v>
       </c>
       <c r="U31" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="V31" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="W31" t="n">
         <v>6.9</v>
       </c>
       <c r="X31" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="Y31" t="n">
         <v>8.25</v>
       </c>
       <c r="Z31" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AA31" t="n">
         <v>13.5</v>
@@ -6091,16 +6091,16 @@
         <v>27</v>
       </c>
       <c r="AC31" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AD31" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AE31" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AF31" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AG31" t="n">
         <v>12</v>
@@ -6112,7 +6112,7 @@
         <v>14.5</v>
       </c>
       <c r="AJ31" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AK31" t="n">
         <v>45</v>
@@ -6130,13 +6130,13 @@
         <v>8.5</v>
       </c>
       <c r="AP31" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AQ31" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AR31" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AS31" t="n">
         <v>250</v>
@@ -6145,13 +6145,13 @@
         <v>2.75</v>
       </c>
       <c r="AU31" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AV31" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AW31" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AX31" t="n">
         <v>25</v>
@@ -6213,10 +6213,10 @@
         <v>3.25</v>
       </c>
       <c r="I32" t="n">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="J32" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="K32" t="n">
         <v>2.12</v>
@@ -6234,7 +6234,7 @@
         <v>1.28</v>
       </c>
       <c r="P32" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="Q32" t="n">
         <v>1.85</v>
@@ -6255,10 +6255,10 @@
         <v>2.05</v>
       </c>
       <c r="W32" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="X32" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="Y32" t="n">
         <v>9</v>
@@ -6270,7 +6270,7 @@
         <v>18</v>
       </c>
       <c r="AB32" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AC32" t="n">
         <v>7.4</v>
@@ -6285,22 +6285,22 @@
         <v>55</v>
       </c>
       <c r="AG32" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AH32" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AI32" t="n">
         <v>10.5</v>
       </c>
       <c r="AJ32" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AK32" t="n">
         <v>24</v>
       </c>
       <c r="AL32" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AM32" t="n">
         <v>400</v>
@@ -6312,13 +6312,13 @@
         <v>12</v>
       </c>
       <c r="AP32" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AQ32" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AR32" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AS32" t="n">
         <v>250</v>
@@ -6327,22 +6327,22 @@
         <v>2.77</v>
       </c>
       <c r="AU32" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AV32" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AW32" t="n">
         <v>4.9</v>
       </c>
       <c r="AX32" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AY32" t="n">
         <v>22</v>
       </c>
       <c r="AZ32" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="BA32" t="n">
         <v>100</v>
@@ -6586,13 +6586,13 @@
         <v>2.12</v>
       </c>
       <c r="L34" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M34" t="n">
         <v>1.07</v>
       </c>
       <c r="N34" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="O34" t="n">
         <v>1.33</v>
@@ -6601,10 +6601,10 @@
         <v>3.05</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R34" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="S34" t="n">
         <v>1.4</v>
@@ -6613,13 +6613,13 @@
         <v>2.75</v>
       </c>
       <c r="U34" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="V34" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="W34" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="X34" t="n">
         <v>12</v>
@@ -6634,13 +6634,13 @@
         <v>21</v>
       </c>
       <c r="AB34" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AC34" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AD34" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AE34" t="n">
         <v>14</v>
@@ -6649,7 +6649,7 @@
         <v>65</v>
       </c>
       <c r="AG34" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AH34" t="n">
         <v>13.5</v>
@@ -6661,7 +6661,7 @@
         <v>30</v>
       </c>
       <c r="AK34" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL34" t="n">
         <v>32</v>
@@ -6676,7 +6676,7 @@
         <v>13</v>
       </c>
       <c r="AP34" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ34" t="n">
         <v>55</v>
@@ -6691,7 +6691,7 @@
         <v>2.75</v>
       </c>
       <c r="AU34" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AV34" t="n">
         <v>60</v>
@@ -6700,16 +6700,16 @@
         <v>4.65</v>
       </c>
       <c r="AX34" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AY34" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AZ34" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="BA34" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="BB34" t="n">
         <v>250</v>
@@ -6935,40 +6935,40 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.8</v>
+        <v>2.67</v>
       </c>
       <c r="H36" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="I36" t="n">
-        <v>2.55</v>
+        <v>2.67</v>
       </c>
       <c r="J36" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="K36" t="n">
         <v>1.98</v>
       </c>
       <c r="L36" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="M36" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N36" t="n">
-        <v>7.7</v>
+        <v>12</v>
       </c>
       <c r="O36" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P36" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="R36" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="S36" t="n">
         <v>1.42</v>
@@ -6983,28 +6983,28 @@
         <v>2.05</v>
       </c>
       <c r="W36" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="X36" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Y36" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="Z36" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AA36" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AB36" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC36" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AD36" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AE36" t="n">
         <v>11.75</v>
@@ -7013,16 +7013,16 @@
         <v>50</v>
       </c>
       <c r="AG36" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="AH36" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AI36" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AJ36" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AK36" t="n">
         <v>21</v>
@@ -7034,16 +7034,16 @@
         <v>350</v>
       </c>
       <c r="AN36" t="n">
-        <v>4.75</v>
+        <v>4.6</v>
       </c>
       <c r="AO36" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AP36" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ36" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AR36" t="n">
         <v>100</v>
@@ -7061,16 +7061,16 @@
         <v>55</v>
       </c>
       <c r="AW36" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="AX36" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AY36" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AZ36" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="BA36" t="n">
         <v>90</v>
@@ -7135,10 +7135,10 @@
         <v>3.75</v>
       </c>
       <c r="M37" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N37" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="O37" t="n">
         <v>1.37</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-12.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-12.xlsx
@@ -1141,10 +1141,10 @@
         <v>2.1</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="R4" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="S4" t="n">
         <v>1.67</v>
@@ -1293,64 +1293,64 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="H5" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I5" t="n">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="J5" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="K5" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L5" t="n">
         <v>5.5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P5" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q5" t="n">
         <v>2.05</v>
       </c>
       <c r="R5" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S5" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T5" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U5" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V5" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W5" t="n">
         <v>6.5</v>
       </c>
       <c r="X5" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Y5" t="n">
         <v>8.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA5" t="n">
         <v>15</v>
@@ -1359,19 +1359,19 @@
         <v>29</v>
       </c>
       <c r="AC5" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD5" t="n">
         <v>7</v>
       </c>
       <c r="AE5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF5" t="n">
         <v>51</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH5" t="n">
         <v>26</v>
@@ -1386,16 +1386,16 @@
         <v>41</v>
       </c>
       <c r="AL5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM5" t="n">
         <v>351</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AP5" t="n">
         <v>21</v>
@@ -1410,22 +1410,22 @@
         <v>151</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU5" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV5" t="n">
         <v>67</v>
       </c>
       <c r="AW5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AX5" t="n">
         <v>29</v>
       </c>
       <c r="AY5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ5" t="n">
         <v>101</v>
@@ -1475,34 +1475,34 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="H6" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="I6" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="J6" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="K6" t="n">
         <v>1.83</v>
       </c>
       <c r="L6" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M6" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N6" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O6" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="P6" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q6" t="n">
         <v>2.88</v>
@@ -1511,10 +1511,10 @@
         <v>1.4</v>
       </c>
       <c r="S6" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T6" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="U6" t="n">
         <v>2.38</v>
@@ -1523,19 +1523,19 @@
         <v>1.53</v>
       </c>
       <c r="W6" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X6" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="Y6" t="n">
         <v>11</v>
       </c>
       <c r="Z6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA6" t="n">
         <v>26</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>29</v>
       </c>
       <c r="AB6" t="n">
         <v>41</v>
@@ -1553,16 +1553,16 @@
         <v>81</v>
       </c>
       <c r="AG6" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AH6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI6" t="n">
         <v>13</v>
       </c>
       <c r="AJ6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AK6" t="n">
         <v>34</v>
@@ -1574,10 +1574,10 @@
         <v>900</v>
       </c>
       <c r="AN6" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP6" t="n">
         <v>34</v>
@@ -1592,7 +1592,7 @@
         <v>351</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AU6" t="n">
         <v>9.5</v>
@@ -1601,16 +1601,16 @@
         <v>81</v>
       </c>
       <c r="AW6" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AX6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ6" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA6" t="n">
         <v>126</v>
@@ -1693,10 +1693,10 @@
         <v>1.33</v>
       </c>
       <c r="S7" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="T7" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="U7" t="n">
         <v>2.63</v>
@@ -2576,7 +2576,7 @@
         <v>4.1</v>
       </c>
       <c r="J12" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="K12" t="n">
         <v>2.25</v>
@@ -2684,13 +2684,13 @@
         <v>175</v>
       </c>
       <c r="AT12" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="AU12" t="n">
         <v>6.9</v>
       </c>
       <c r="AV12" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AW12" t="n">
         <v>6</v>
@@ -3113,16 +3113,16 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="H15" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I15" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J15" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K15" t="n">
         <v>2</v>
@@ -3143,16 +3143,16 @@
         <v>2.63</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="R15" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S15" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T15" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="U15" t="n">
         <v>2.2</v>
@@ -3182,7 +3182,7 @@
         <v>7</v>
       </c>
       <c r="AD15" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE15" t="n">
         <v>21</v>
@@ -3191,7 +3191,7 @@
         <v>81</v>
       </c>
       <c r="AG15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH15" t="n">
         <v>23</v>
@@ -3212,10 +3212,10 @@
         <v>351</v>
       </c>
       <c r="AN15" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO15" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AP15" t="n">
         <v>26</v>
@@ -3230,7 +3230,7 @@
         <v>251</v>
       </c>
       <c r="AT15" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AU15" t="n">
         <v>9.5</v>
@@ -3248,7 +3248,7 @@
         <v>41</v>
       </c>
       <c r="AZ15" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BA15" t="n">
         <v>151</v>
@@ -4933,28 +4933,28 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H25" t="n">
         <v>3.3</v>
       </c>
       <c r="I25" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="J25" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K25" t="n">
         <v>2.2</v>
       </c>
       <c r="L25" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M25" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O25" t="n">
         <v>1.29</v>
@@ -4963,10 +4963,10 @@
         <v>3.5</v>
       </c>
       <c r="Q25" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R25" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S25" t="n">
         <v>1.4</v>
@@ -4975,16 +4975,16 @@
         <v>2.75</v>
       </c>
       <c r="U25" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="V25" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="W25" t="n">
         <v>7.5</v>
       </c>
       <c r="X25" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Y25" t="n">
         <v>9</v>
@@ -4993,28 +4993,28 @@
         <v>17</v>
       </c>
       <c r="AA25" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB25" t="n">
         <v>26</v>
       </c>
       <c r="AC25" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD25" t="n">
         <v>6.5</v>
       </c>
       <c r="AE25" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF25" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH25" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI25" t="n">
         <v>13</v>
@@ -5023,13 +5023,13 @@
         <v>41</v>
       </c>
       <c r="AK25" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL25" t="n">
         <v>34</v>
       </c>
-      <c r="AL25" t="n">
-        <v>41</v>
-      </c>
       <c r="AM25" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AN25" t="n">
         <v>4</v>
@@ -5041,7 +5041,7 @@
         <v>21</v>
       </c>
       <c r="AQ25" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR25" t="n">
         <v>51</v>
@@ -5115,10 +5115,10 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="H26" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="I26" t="n">
         <v>6.5</v>
@@ -5145,16 +5145,16 @@
         <v>8</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="R26" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="S26" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="T26" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="U26" t="n">
         <v>1.53</v>
@@ -5184,7 +5184,7 @@
         <v>29</v>
       </c>
       <c r="AD26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE26" t="n">
         <v>17</v>
@@ -5193,13 +5193,13 @@
         <v>41</v>
       </c>
       <c r="AG26" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AH26" t="n">
         <v>41</v>
       </c>
       <c r="AI26" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ26" t="n">
         <v>67</v>
@@ -5250,7 +5250,7 @@
         <v>26</v>
       </c>
       <c r="AZ26" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BA26" t="n">
         <v>81</v>
@@ -5262,7 +5262,7 @@
         <v>251</v>
       </c>
       <c r="BD26" t="n">
-        <v>176</v>
+        <v>151</v>
       </c>
     </row>
     <row r="27">
@@ -5479,46 +5479,46 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.22</v>
+        <v>2.37</v>
       </c>
       <c r="H28" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="I28" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="J28" t="n">
-        <v>2.82</v>
+        <v>3</v>
       </c>
       <c r="K28" t="n">
-        <v>2.07</v>
+        <v>2.02</v>
       </c>
       <c r="L28" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="M28" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N28" t="n">
-        <v>6.7</v>
+        <v>6.3</v>
       </c>
       <c r="O28" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="P28" t="n">
-        <v>2.95</v>
+        <v>2.85</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="R28" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="S28" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T28" t="n">
-        <v>2.7</v>
+        <v>2.62</v>
       </c>
       <c r="U28" t="n">
         <v>1.78</v>
@@ -5527,43 +5527,43 @@
         <v>1.93</v>
       </c>
       <c r="W28" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="X28" t="n">
-        <v>10.75</v>
+        <v>11.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="Z28" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA28" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AB28" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AC28" t="n">
-        <v>6.7</v>
+        <v>6.3</v>
       </c>
       <c r="AD28" t="n">
-        <v>6.1</v>
+        <v>5.7</v>
       </c>
       <c r="AE28" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AF28" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AG28" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AH28" t="n">
         <v>15.5</v>
       </c>
       <c r="AI28" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AJ28" t="n">
         <v>40</v>
@@ -5572,34 +5572,34 @@
         <v>28</v>
       </c>
       <c r="AL28" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AM28" t="n">
         <v>600</v>
       </c>
       <c r="AN28" t="n">
-        <v>4.2</v>
+        <v>4.35</v>
       </c>
       <c r="AO28" t="n">
-        <v>11.75</v>
+        <v>13</v>
       </c>
       <c r="AP28" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AQ28" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AR28" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AS28" t="n">
         <v>250</v>
       </c>
       <c r="AT28" t="n">
-        <v>2.7</v>
+        <v>2.62</v>
       </c>
       <c r="AU28" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="AV28" t="n">
         <v>60</v>
@@ -5611,13 +5611,13 @@
         <v>17</v>
       </c>
       <c r="AY28" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ28" t="n">
         <v>80</v>
       </c>
       <c r="BA28" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="BB28" t="n">
         <v>300</v>
@@ -5661,31 +5661,31 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.67</v>
+        <v>2.8</v>
       </c>
       <c r="H29" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I29" t="n">
-        <v>2.27</v>
+        <v>2.18</v>
       </c>
       <c r="J29" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="K29" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="L29" t="n">
-        <v>2.87</v>
+        <v>2.77</v>
       </c>
       <c r="M29" t="n">
         <v>1.05</v>
       </c>
       <c r="N29" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="O29" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P29" t="n">
         <v>3.55</v>
@@ -5697,10 +5697,10 @@
         <v>1.98</v>
       </c>
       <c r="S29" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="T29" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="U29" t="n">
         <v>1.65</v>
@@ -5709,31 +5709,31 @@
         <v>2.1</v>
       </c>
       <c r="W29" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="X29" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y29" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AA29" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB29" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AC29" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AD29" t="n">
         <v>6.9</v>
       </c>
       <c r="AE29" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AF29" t="n">
         <v>55</v>
@@ -5742,16 +5742,16 @@
         <v>9</v>
       </c>
       <c r="AH29" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AI29" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AJ29" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK29" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AL29" t="n">
         <v>25</v>
@@ -5760,49 +5760,49 @@
         <v>350</v>
       </c>
       <c r="AN29" t="n">
-        <v>4.75</v>
+        <v>4.9</v>
       </c>
       <c r="AO29" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AP29" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ29" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AR29" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AS29" t="n">
         <v>250</v>
       </c>
       <c r="AT29" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="AU29" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AV29" t="n">
         <v>55</v>
       </c>
       <c r="AW29" t="n">
-        <v>4.35</v>
+        <v>4.25</v>
       </c>
       <c r="AX29" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="AY29" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AZ29" t="n">
         <v>45</v>
       </c>
       <c r="BA29" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="BB29" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="BC29" t="n">
         <v>51</v>
@@ -5843,22 +5843,22 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.88</v>
+        <v>1.75</v>
       </c>
       <c r="H30" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="I30" t="n">
         <v>3.75</v>
       </c>
-      <c r="I30" t="n">
-        <v>3.3</v>
-      </c>
       <c r="J30" t="n">
-        <v>2.4</v>
+        <v>2.22</v>
       </c>
       <c r="K30" t="n">
-        <v>2.37</v>
+        <v>2.42</v>
       </c>
       <c r="L30" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="M30" t="n">
         <v>1.03</v>
@@ -5870,121 +5870,121 @@
         <v>1.16</v>
       </c>
       <c r="P30" t="n">
-        <v>4.55</v>
+        <v>4.6</v>
       </c>
       <c r="Q30" t="n">
         <v>1.5</v>
       </c>
       <c r="R30" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="T30" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="U30" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V30" t="n">
         <v>2.4</v>
       </c>
-      <c r="S30" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="T30" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U30" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="V30" t="n">
-        <v>2.5</v>
-      </c>
       <c r="W30" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="X30" t="n">
-        <v>11.75</v>
+        <v>10.75</v>
       </c>
       <c r="Y30" t="n">
         <v>8.5</v>
       </c>
       <c r="Z30" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB30" t="n">
         <v>18</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>18.5</v>
       </c>
       <c r="AC30" t="n">
         <v>9.25</v>
       </c>
       <c r="AD30" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="AE30" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="AF30" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AG30" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AH30" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AI30" t="n">
-        <v>11.75</v>
+        <v>13</v>
       </c>
       <c r="AJ30" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AK30" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AL30" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM30" t="n">
         <v>200</v>
       </c>
       <c r="AN30" t="n">
-        <v>4.2</v>
+        <v>4.05</v>
       </c>
       <c r="AO30" t="n">
-        <v>9.25</v>
+        <v>8.5</v>
       </c>
       <c r="AP30" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AQ30" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AR30" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AS30" t="n">
         <v>120</v>
       </c>
       <c r="AT30" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="AU30" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AV30" t="n">
         <v>40</v>
       </c>
       <c r="AW30" t="n">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
       <c r="AX30" t="n">
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
       <c r="AY30" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AZ30" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="BA30" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="BB30" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="BC30" t="n">
         <v>500</v>
@@ -6028,19 +6028,19 @@
         <v>1.7</v>
       </c>
       <c r="H31" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="I31" t="n">
-        <v>4.25</v>
+        <v>4.35</v>
       </c>
       <c r="J31" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="K31" t="n">
         <v>2.18</v>
       </c>
       <c r="L31" t="n">
-        <v>4.7</v>
+        <v>4.75</v>
       </c>
       <c r="M31" t="n">
         <v>1.06</v>
@@ -6052,13 +6052,13 @@
         <v>1.29</v>
       </c>
       <c r="P31" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="R31" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="S31" t="n">
         <v>1.4</v>
@@ -6067,16 +6067,16 @@
         <v>2.75</v>
       </c>
       <c r="U31" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="V31" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="W31" t="n">
         <v>6.9</v>
       </c>
       <c r="X31" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="Y31" t="n">
         <v>8.25</v>
@@ -6097,28 +6097,28 @@
         <v>7.1</v>
       </c>
       <c r="AE31" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AF31" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AG31" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH31" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI31" t="n">
         <v>14.5</v>
       </c>
       <c r="AJ31" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AK31" t="n">
         <v>45</v>
       </c>
       <c r="AL31" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AM31" t="n">
         <v>600</v>
@@ -6145,13 +6145,13 @@
         <v>2.75</v>
       </c>
       <c r="AU31" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AV31" t="n">
         <v>75</v>
       </c>
       <c r="AW31" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AX31" t="n">
         <v>25</v>
@@ -6163,7 +6163,7 @@
         <v>150</v>
       </c>
       <c r="BA31" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="BB31" t="n">
         <v>450</v>
@@ -6398,10 +6398,10 @@
         <v>2.12</v>
       </c>
       <c r="J33" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K33" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="L33" t="n">
         <v>2.7</v>
@@ -6428,7 +6428,7 @@
         <v>1.35</v>
       </c>
       <c r="T33" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="U33" t="n">
         <v>1.65</v>
@@ -6440,7 +6440,7 @@
         <v>10.5</v>
       </c>
       <c r="X33" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Y33" t="n">
         <v>10.5</v>
@@ -6473,7 +6473,7 @@
         <v>11</v>
       </c>
       <c r="AI33" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AJ33" t="n">
         <v>20</v>
@@ -6506,22 +6506,22 @@
         <v>250</v>
       </c>
       <c r="AT33" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="AU33" t="n">
         <v>7</v>
       </c>
       <c r="AV33" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AW33" t="n">
-        <v>4.15</v>
+        <v>4.2</v>
       </c>
       <c r="AX33" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AY33" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AZ33" t="n">
         <v>40</v>
@@ -7126,19 +7126,19 @@
         <v>3.15</v>
       </c>
       <c r="J37" t="n">
-        <v>2.87</v>
+        <v>2.95</v>
       </c>
       <c r="K37" t="n">
         <v>1.98</v>
       </c>
       <c r="L37" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="M37" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N37" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="O37" t="n">
         <v>1.37</v>
@@ -7165,25 +7165,25 @@
         <v>1.83</v>
       </c>
       <c r="W37" t="n">
-        <v>7.2</v>
+        <v>6.9</v>
       </c>
       <c r="X37" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="Y37" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="Z37" t="n">
         <v>25</v>
       </c>
       <c r="AA37" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AB37" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AC37" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AD37" t="n">
         <v>5.7</v>
@@ -7195,22 +7195,22 @@
         <v>70</v>
       </c>
       <c r="AG37" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="AH37" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AI37" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AJ37" t="n">
         <v>45</v>
       </c>
       <c r="AK37" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AL37" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AM37" t="n">
         <v>600</v>
@@ -7219,16 +7219,16 @@
         <v>4.15</v>
       </c>
       <c r="AO37" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AP37" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AQ37" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AR37" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AS37" t="n">
         <v>250</v>
@@ -7246,19 +7246,19 @@
         <v>5</v>
       </c>
       <c r="AX37" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AY37" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AZ37" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="BA37" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="BB37" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="BC37" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-12.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-12.xlsx
@@ -1299,7 +1299,7 @@
         <v>3.6</v>
       </c>
       <c r="I5" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J5" t="n">
         <v>2.25</v>
@@ -1311,22 +1311,22 @@
         <v>5.5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="O5" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P5" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q5" t="n">
         <v>2.05</v>
       </c>
       <c r="R5" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S5" t="n">
         <v>1.4</v>
@@ -2385,7 +2385,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>4.45</v>
+        <v>4.5</v>
       </c>
       <c r="H11" t="n">
         <v>3.25</v>
@@ -2403,10 +2403,10 @@
         <v>2.4</v>
       </c>
       <c r="M11" t="n">
-        <v>1.03</v>
+        <v>1.09</v>
       </c>
       <c r="N11" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="O11" t="n">
         <v>1.4</v>
@@ -2427,16 +2427,16 @@
         <v>2.4</v>
       </c>
       <c r="U11" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="V11" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="W11" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="X11" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y11" t="n">
         <v>15</v>
@@ -2448,13 +2448,13 @@
         <v>50</v>
       </c>
       <c r="AB11" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AC11" t="n">
         <v>7.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AE11" t="n">
         <v>18.5</v>
@@ -2469,7 +2469,7 @@
         <v>7.4</v>
       </c>
       <c r="AI11" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AJ11" t="n">
         <v>14</v>
@@ -2505,13 +2505,13 @@
         <v>2.37</v>
       </c>
       <c r="AU11" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="AV11" t="n">
         <v>80</v>
       </c>
       <c r="AW11" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="AX11" t="n">
         <v>9</v>
@@ -2573,7 +2573,7 @@
         <v>3.7</v>
       </c>
       <c r="I12" t="n">
-        <v>4.1</v>
+        <v>4.05</v>
       </c>
       <c r="J12" t="n">
         <v>2.27</v>
@@ -2582,7 +2582,7 @@
         <v>2.25</v>
       </c>
       <c r="L12" t="n">
-        <v>4.3</v>
+        <v>4.25</v>
       </c>
       <c r="M12" t="n">
         <v>1.03</v>
@@ -2591,10 +2591,10 @@
         <v>11.9</v>
       </c>
       <c r="O12" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P12" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="Q12" t="n">
         <v>1.62</v>
@@ -2615,22 +2615,22 @@
         <v>2.05</v>
       </c>
       <c r="W12" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="X12" t="n">
         <v>9.25</v>
       </c>
       <c r="Y12" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="Z12" t="n">
         <v>14.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AC12" t="n">
         <v>13</v>
@@ -2645,7 +2645,7 @@
         <v>50</v>
       </c>
       <c r="AG12" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AH12" t="n">
         <v>25</v>
@@ -2672,10 +2672,10 @@
         <v>8.5</v>
       </c>
       <c r="AP12" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AQ12" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AR12" t="n">
         <v>50</v>
@@ -2696,7 +2696,7 @@
         <v>6</v>
       </c>
       <c r="AX12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AY12" t="n">
         <v>25</v>
@@ -2708,7 +2708,7 @@
         <v>120</v>
       </c>
       <c r="BB12" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BC12" t="n">
         <v>51</v>
@@ -5115,13 +5115,13 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="H26" t="n">
         <v>5.5</v>
       </c>
       <c r="I26" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J26" t="n">
         <v>1.8</v>
@@ -5151,10 +5151,10 @@
         <v>3.4</v>
       </c>
       <c r="S26" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="T26" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="U26" t="n">
         <v>1.53</v>
@@ -5262,7 +5262,7 @@
         <v>251</v>
       </c>
       <c r="BD26" t="n">
-        <v>151</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27">
@@ -5661,13 +5661,13 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="H29" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I29" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="J29" t="n">
         <v>3.35</v>
@@ -5712,16 +5712,16 @@
         <v>10.25</v>
       </c>
       <c r="X29" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y29" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="Z29" t="n">
         <v>32</v>
       </c>
       <c r="AA29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AB29" t="n">
         <v>29</v>
@@ -5730,7 +5730,7 @@
         <v>8</v>
       </c>
       <c r="AD29" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AE29" t="n">
         <v>13.5</v>
@@ -5751,28 +5751,28 @@
         <v>21</v>
       </c>
       <c r="AK29" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AL29" t="n">
         <v>25</v>
       </c>
       <c r="AM29" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AN29" t="n">
-        <v>4.9</v>
+        <v>4.85</v>
       </c>
       <c r="AO29" t="n">
         <v>15</v>
       </c>
       <c r="AP29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ29" t="n">
         <v>65</v>
       </c>
       <c r="AR29" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AS29" t="n">
         <v>250</v>
@@ -5843,148 +5843,148 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="H30" t="n">
         <v>3.85</v>
       </c>
       <c r="I30" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="J30" t="n">
-        <v>2.22</v>
+        <v>2.27</v>
       </c>
       <c r="K30" t="n">
         <v>2.42</v>
       </c>
       <c r="L30" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="M30" t="n">
         <v>1.03</v>
       </c>
       <c r="N30" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="O30" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="P30" t="n">
-        <v>4.6</v>
+        <v>4.65</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="R30" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="S30" t="n">
         <v>1.26</v>
       </c>
       <c r="T30" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="U30" t="n">
         <v>1.5</v>
       </c>
       <c r="V30" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="W30" t="n">
         <v>10.75</v>
       </c>
       <c r="X30" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="Y30" t="n">
         <v>8.5</v>
       </c>
       <c r="Z30" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AA30" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AB30" t="n">
         <v>18</v>
       </c>
       <c r="AC30" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AD30" t="n">
         <v>8.25</v>
       </c>
       <c r="AE30" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AF30" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AG30" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AH30" t="n">
         <v>25</v>
       </c>
       <c r="AI30" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AJ30" t="n">
         <v>55</v>
       </c>
       <c r="AK30" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AL30" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM30" t="n">
         <v>200</v>
       </c>
       <c r="AN30" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="AO30" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AP30" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AQ30" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AR30" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AS30" t="n">
         <v>120</v>
       </c>
       <c r="AT30" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="AU30" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AV30" t="n">
         <v>40</v>
       </c>
       <c r="AW30" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AX30" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AY30" t="n">
         <v>19.5</v>
       </c>
-      <c r="AY30" t="n">
-        <v>21</v>
-      </c>
       <c r="AZ30" t="n">
+        <v>80</v>
+      </c>
+      <c r="BA30" t="n">
         <v>90</v>
       </c>
-      <c r="BA30" t="n">
-        <v>100</v>
-      </c>
       <c r="BB30" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="BC30" t="n">
         <v>500</v>
@@ -6025,22 +6025,22 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="H31" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I31" t="n">
-        <v>4.35</v>
+        <v>4.55</v>
       </c>
       <c r="J31" t="n">
-        <v>2.27</v>
+        <v>2.22</v>
       </c>
       <c r="K31" t="n">
         <v>2.18</v>
       </c>
       <c r="L31" t="n">
-        <v>4.75</v>
+        <v>4.9</v>
       </c>
       <c r="M31" t="n">
         <v>1.06</v>
@@ -6052,37 +6052,37 @@
         <v>1.29</v>
       </c>
       <c r="P31" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="R31" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="S31" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="T31" t="n">
         <v>2.75</v>
       </c>
       <c r="U31" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="V31" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="W31" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="X31" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="Y31" t="n">
         <v>8.25</v>
       </c>
       <c r="Z31" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AA31" t="n">
         <v>13.5</v>
@@ -6094,49 +6094,49 @@
         <v>7.5</v>
       </c>
       <c r="AD31" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AE31" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AF31" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AG31" t="n">
         <v>12.5</v>
       </c>
       <c r="AH31" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AI31" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AJ31" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AK31" t="n">
         <v>45</v>
       </c>
       <c r="AL31" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AM31" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AN31" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="AO31" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AP31" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AQ31" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AR31" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AS31" t="n">
         <v>250</v>
@@ -6145,16 +6145,16 @@
         <v>2.75</v>
       </c>
       <c r="AU31" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AV31" t="n">
         <v>75</v>
       </c>
       <c r="AW31" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AX31" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AY31" t="n">
         <v>32</v>
@@ -6163,7 +6163,7 @@
         <v>150</v>
       </c>
       <c r="BA31" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="BB31" t="n">
         <v>450</v>
@@ -6207,22 +6207,22 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="H32" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I32" t="n">
-        <v>2.87</v>
+        <v>3.05</v>
       </c>
       <c r="J32" t="n">
-        <v>2.85</v>
+        <v>2.77</v>
       </c>
       <c r="K32" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="L32" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="M32" t="n">
         <v>1.06</v>
@@ -6234,7 +6234,7 @@
         <v>1.28</v>
       </c>
       <c r="P32" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="Q32" t="n">
         <v>1.85</v>
@@ -6246,31 +6246,31 @@
         <v>1.39</v>
       </c>
       <c r="T32" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="U32" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="V32" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="W32" t="n">
         <v>8.5</v>
       </c>
       <c r="X32" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="Y32" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="Z32" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA32" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AB32" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AC32" t="n">
         <v>7.4</v>
@@ -6288,67 +6288,67 @@
         <v>9.75</v>
       </c>
       <c r="AH32" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AI32" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AJ32" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AK32" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AL32" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AM32" t="n">
         <v>400</v>
       </c>
       <c r="AN32" t="n">
-        <v>4.25</v>
+        <v>4.2</v>
       </c>
       <c r="AO32" t="n">
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="AP32" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AQ32" t="n">
         <v>45</v>
       </c>
       <c r="AR32" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AS32" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AT32" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="AU32" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AV32" t="n">
         <v>60</v>
       </c>
       <c r="AW32" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="AX32" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AY32" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AZ32" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="BA32" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="BB32" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BC32" t="n">
         <v>51</v>
@@ -6389,7 +6389,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="H33" t="n">
         <v>3.55</v>
@@ -6398,10 +6398,10 @@
         <v>2.12</v>
       </c>
       <c r="J33" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K33" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="L33" t="n">
         <v>2.7</v>
@@ -6413,16 +6413,16 @@
         <v>8</v>
       </c>
       <c r="O33" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P33" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="R33" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S33" t="n">
         <v>1.35</v>
@@ -6437,19 +6437,19 @@
         <v>2.1</v>
       </c>
       <c r="W33" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="X33" t="n">
         <v>15.5</v>
       </c>
       <c r="Y33" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="Z33" t="n">
         <v>35</v>
       </c>
       <c r="AA33" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AB33" t="n">
         <v>30</v>
@@ -6467,7 +6467,7 @@
         <v>55</v>
       </c>
       <c r="AG33" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AH33" t="n">
         <v>11</v>
@@ -6512,16 +6512,16 @@
         <v>7</v>
       </c>
       <c r="AV33" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AW33" t="n">
-        <v>4.2</v>
+        <v>4.15</v>
       </c>
       <c r="AX33" t="n">
         <v>10.75</v>
       </c>
       <c r="AY33" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AZ33" t="n">
         <v>40</v>
@@ -6571,22 +6571,22 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="H34" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I34" t="n">
-        <v>2.65</v>
+        <v>2.8</v>
       </c>
       <c r="J34" t="n">
-        <v>3.05</v>
+        <v>2.95</v>
       </c>
       <c r="K34" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="L34" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M34" t="n">
         <v>1.07</v>
@@ -6610,31 +6610,31 @@
         <v>1.4</v>
       </c>
       <c r="T34" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="U34" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="V34" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="W34" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="X34" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Y34" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="Z34" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AA34" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AB34" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AC34" t="n">
         <v>6.9</v>
@@ -6649,46 +6649,46 @@
         <v>65</v>
       </c>
       <c r="AG34" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="AH34" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AI34" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AJ34" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AK34" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AL34" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AM34" t="n">
         <v>500</v>
       </c>
       <c r="AN34" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="AO34" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AP34" t="n">
         <v>20</v>
       </c>
       <c r="AQ34" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AR34" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AS34" t="n">
         <v>250</v>
       </c>
       <c r="AT34" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="AU34" t="n">
         <v>6.9</v>
@@ -6697,22 +6697,22 @@
         <v>60</v>
       </c>
       <c r="AW34" t="n">
-        <v>4.65</v>
+        <v>4.8</v>
       </c>
       <c r="AX34" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AY34" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ34" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="BA34" t="n">
         <v>100</v>
       </c>
       <c r="BB34" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BC34" t="n">
         <v>51</v>
@@ -7117,28 +7117,28 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="H37" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="I37" t="n">
         <v>3.15</v>
       </c>
       <c r="J37" t="n">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
       <c r="K37" t="n">
         <v>1.98</v>
       </c>
       <c r="L37" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="M37" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N37" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="O37" t="n">
         <v>1.37</v>
@@ -7156,37 +7156,37 @@
         <v>1.42</v>
       </c>
       <c r="T37" t="n">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="U37" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="V37" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="W37" t="n">
-        <v>6.9</v>
+        <v>7.2</v>
       </c>
       <c r="X37" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Y37" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="Z37" t="n">
         <v>25</v>
       </c>
       <c r="AA37" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB37" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AC37" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AD37" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AE37" t="n">
         <v>14</v>
@@ -7195,10 +7195,10 @@
         <v>70</v>
       </c>
       <c r="AG37" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="AH37" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AI37" t="n">
         <v>11</v>
@@ -7207,55 +7207,55 @@
         <v>45</v>
       </c>
       <c r="AK37" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AL37" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AM37" t="n">
         <v>600</v>
       </c>
       <c r="AN37" t="n">
-        <v>4.15</v>
+        <v>4.2</v>
       </c>
       <c r="AO37" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AP37" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ37" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AR37" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AS37" t="n">
         <v>250</v>
       </c>
       <c r="AT37" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AU37" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AV37" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AW37" t="n">
         <v>5</v>
       </c>
       <c r="AX37" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AY37" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AZ37" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="BA37" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="BB37" t="n">
         <v>300</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-12.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-12.xlsx
@@ -1111,40 +1111,40 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="H4" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="I4" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="J4" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="K4" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="L4" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M4" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N4" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="P4" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="R4" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="S4" t="n">
         <v>1.67</v>
@@ -1162,16 +1162,16 @@
         <v>5.5</v>
       </c>
       <c r="X4" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Y4" t="n">
         <v>11</v>
       </c>
       <c r="Z4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AB4" t="n">
         <v>41</v>
@@ -1186,7 +1186,7 @@
         <v>21</v>
       </c>
       <c r="AF4" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AG4" t="n">
         <v>7</v>
@@ -1195,13 +1195,13 @@
         <v>15</v>
       </c>
       <c r="AI4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AK4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL4" t="n">
         <v>51</v>
@@ -1210,10 +1210,10 @@
         <v>201</v>
       </c>
       <c r="AN4" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP4" t="n">
         <v>34</v>
@@ -1240,7 +1240,7 @@
         <v>5</v>
       </c>
       <c r="AX4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AY4" t="n">
         <v>41</v>
@@ -1249,10 +1249,10 @@
         <v>81</v>
       </c>
       <c r="BA4" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BB4" t="n">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="BC4" t="n">
         <v>81</v>
@@ -1657,28 +1657,28 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H7" t="n">
         <v>2.88</v>
       </c>
       <c r="I7" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="J7" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K7" t="n">
         <v>1.8</v>
       </c>
       <c r="L7" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N7" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O7" t="n">
         <v>1.67</v>
@@ -1708,16 +1708,16 @@
         <v>5</v>
       </c>
       <c r="X7" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y7" t="n">
         <v>11</v>
       </c>
       <c r="Z7" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA7" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB7" t="n">
         <v>51</v>
@@ -1726,7 +1726,7 @@
         <v>5</v>
       </c>
       <c r="AD7" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE7" t="n">
         <v>23</v>
@@ -1735,13 +1735,13 @@
         <v>101</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AH7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI7" t="n">
         <v>17</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>15</v>
       </c>
       <c r="AJ7" t="n">
         <v>41</v>
@@ -1756,10 +1756,10 @@
         <v>201</v>
       </c>
       <c r="AN7" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP7" t="n">
         <v>34</v>
@@ -2391,16 +2391,16 @@
         <v>3.25</v>
       </c>
       <c r="I11" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="J11" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="K11" t="n">
         <v>2.02</v>
       </c>
       <c r="L11" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="M11" t="n">
         <v>1.09</v>
@@ -2433,25 +2433,25 @@
         <v>1.65</v>
       </c>
       <c r="W11" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="X11" t="n">
         <v>24</v>
       </c>
       <c r="Y11" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Z11" t="n">
         <v>80</v>
       </c>
       <c r="AA11" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AB11" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AC11" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AD11" t="n">
         <v>6.4</v>
@@ -2463,7 +2463,7 @@
         <v>110</v>
       </c>
       <c r="AG11" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AH11" t="n">
         <v>7.4</v>
@@ -2478,25 +2478,25 @@
         <v>16.5</v>
       </c>
       <c r="AL11" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AM11" t="n">
         <v>201</v>
       </c>
       <c r="AN11" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AO11" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AP11" t="n">
         <v>35</v>
       </c>
       <c r="AQ11" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AR11" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AS11" t="n">
         <v>500</v>
@@ -2505,16 +2505,16 @@
         <v>2.37</v>
       </c>
       <c r="AU11" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AV11" t="n">
         <v>80</v>
       </c>
       <c r="AW11" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="AX11" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AY11" t="n">
         <v>20</v>
@@ -2523,7 +2523,7 @@
         <v>32</v>
       </c>
       <c r="BA11" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="BB11" t="n">
         <v>300</v>
@@ -2567,22 +2567,22 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="H12" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I12" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="J12" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K12" t="n">
         <v>2.27</v>
       </c>
-      <c r="K12" t="n">
-        <v>2.25</v>
-      </c>
       <c r="L12" t="n">
-        <v>4.25</v>
+        <v>4.3</v>
       </c>
       <c r="M12" t="n">
         <v>1.03</v>
@@ -2609,7 +2609,7 @@
         <v>3.26</v>
       </c>
       <c r="U12" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="V12" t="n">
         <v>2.05</v>
@@ -2618,16 +2618,16 @@
         <v>8.25</v>
       </c>
       <c r="X12" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="Y12" t="n">
         <v>8.25</v>
       </c>
       <c r="Z12" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AA12" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AB12" t="n">
         <v>22</v>
@@ -2636,19 +2636,19 @@
         <v>13</v>
       </c>
       <c r="AD12" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AF12" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AG12" t="n">
         <v>14.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI12" t="n">
         <v>13.5</v>
@@ -2666,16 +2666,16 @@
         <v>350</v>
       </c>
       <c r="AN12" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="AO12" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AP12" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AQ12" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AR12" t="n">
         <v>50</v>
@@ -2684,7 +2684,7 @@
         <v>175</v>
       </c>
       <c r="AT12" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="AU12" t="n">
         <v>6.9</v>
@@ -2696,7 +2696,7 @@
         <v>6</v>
       </c>
       <c r="AX12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AY12" t="n">
         <v>25</v>
@@ -2708,7 +2708,7 @@
         <v>120</v>
       </c>
       <c r="BB12" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BC12" t="n">
         <v>51</v>
@@ -6389,82 +6389,82 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="H33" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="I33" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="J33" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K33" t="n">
         <v>2.22</v>
       </c>
       <c r="L33" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="M33" t="n">
         <v>1.05</v>
       </c>
       <c r="N33" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="O33" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P33" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="R33" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="S33" t="n">
         <v>1.35</v>
       </c>
       <c r="T33" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="U33" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="V33" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="W33" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="X33" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y33" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="Z33" t="n">
         <v>35</v>
       </c>
       <c r="AA33" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AB33" t="n">
         <v>30</v>
       </c>
       <c r="AC33" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD33" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AE33" t="n">
         <v>13.5</v>
       </c>
       <c r="AF33" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AG33" t="n">
         <v>8.5</v>
@@ -6476,28 +6476,28 @@
         <v>9</v>
       </c>
       <c r="AJ33" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK33" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AL33" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AM33" t="n">
         <v>400</v>
       </c>
       <c r="AN33" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="AO33" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AP33" t="n">
         <v>22</v>
       </c>
       <c r="AQ33" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AR33" t="n">
         <v>100</v>
@@ -6506,7 +6506,7 @@
         <v>250</v>
       </c>
       <c r="AT33" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="AU33" t="n">
         <v>7</v>
@@ -6515,10 +6515,10 @@
         <v>60</v>
       </c>
       <c r="AW33" t="n">
-        <v>4.15</v>
+        <v>4.2</v>
       </c>
       <c r="AX33" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AY33" t="n">
         <v>18.5</v>
@@ -6574,16 +6574,16 @@
         <v>2.35</v>
       </c>
       <c r="H34" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I34" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="J34" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="K34" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="L34" t="n">
         <v>3.4</v>
@@ -6592,7 +6592,7 @@
         <v>1.07</v>
       </c>
       <c r="N34" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="O34" t="n">
         <v>1.33</v>
@@ -6601,16 +6601,16 @@
         <v>3.05</v>
       </c>
       <c r="Q34" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R34" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="S34" t="n">
         <v>1.4</v>
       </c>
       <c r="T34" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="U34" t="n">
         <v>1.75</v>
@@ -6619,10 +6619,10 @@
         <v>1.95</v>
       </c>
       <c r="W34" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="X34" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="Y34" t="n">
         <v>9.25</v>
@@ -6637,10 +6637,10 @@
         <v>29</v>
       </c>
       <c r="AC34" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AD34" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AE34" t="n">
         <v>14</v>
@@ -6649,16 +6649,16 @@
         <v>65</v>
       </c>
       <c r="AG34" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AH34" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AI34" t="n">
         <v>10.25</v>
       </c>
       <c r="AJ34" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AK34" t="n">
         <v>25</v>
@@ -6676,7 +6676,7 @@
         <v>12.5</v>
       </c>
       <c r="AP34" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AQ34" t="n">
         <v>50</v>
@@ -6688,10 +6688,10 @@
         <v>250</v>
       </c>
       <c r="AT34" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="AU34" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AV34" t="n">
         <v>60</v>
@@ -6709,7 +6709,7 @@
         <v>70</v>
       </c>
       <c r="BA34" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="BB34" t="n">
         <v>300</v>
@@ -7117,34 +7117,34 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.35</v>
+        <v>2.27</v>
       </c>
       <c r="H37" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="I37" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="J37" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="K37" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="L37" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="M37" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="N37" t="n">
-        <v>7.1</v>
+        <v>8.77</v>
       </c>
       <c r="O37" t="n">
         <v>1.37</v>
       </c>
       <c r="P37" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="Q37" t="n">
         <v>2.07</v>
@@ -7159,52 +7159,52 @@
         <v>2.47</v>
       </c>
       <c r="U37" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="V37" t="n">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="W37" t="n">
-        <v>7.2</v>
+        <v>6.9</v>
       </c>
       <c r="X37" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="Y37" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="Z37" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AA37" t="n">
         <v>20</v>
       </c>
       <c r="AB37" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AC37" t="n">
-        <v>7.6</v>
+        <v>7.9</v>
       </c>
       <c r="AD37" t="n">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="AE37" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AF37" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AG37" t="n">
         <v>8.25</v>
       </c>
       <c r="AH37" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI37" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AJ37" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AK37" t="n">
         <v>30</v>
@@ -7213,16 +7213,16 @@
         <v>40</v>
       </c>
       <c r="AM37" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="AN37" t="n">
-        <v>4.2</v>
+        <v>4.05</v>
       </c>
       <c r="AO37" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AP37" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ37" t="n">
         <v>50</v>
@@ -7237,28 +7237,28 @@
         <v>2.45</v>
       </c>
       <c r="AU37" t="n">
-        <v>6.6</v>
+        <v>7.1</v>
       </c>
       <c r="AV37" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AW37" t="n">
-        <v>5</v>
+        <v>4.85</v>
       </c>
       <c r="AX37" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AY37" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ37" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="BA37" t="n">
         <v>120</v>
       </c>
       <c r="BB37" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="BC37" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-12.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-12.xlsx
@@ -1129,10 +1129,10 @@
         <v>4</v>
       </c>
       <c r="M4" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="N4" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="O4" t="n">
         <v>1.62</v>
@@ -1663,10 +1663,10 @@
         <v>2.88</v>
       </c>
       <c r="I7" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J7" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K7" t="n">
         <v>1.8</v>
@@ -1675,10 +1675,10 @@
         <v>5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="N7" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="O7" t="n">
         <v>1.67</v>
@@ -1693,10 +1693,10 @@
         <v>1.33</v>
       </c>
       <c r="S7" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="T7" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="U7" t="n">
         <v>2.63</v>
@@ -1708,16 +1708,16 @@
         <v>5</v>
       </c>
       <c r="X7" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y7" t="n">
         <v>11</v>
       </c>
       <c r="Z7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB7" t="n">
         <v>51</v>
@@ -1738,7 +1738,7 @@
         <v>7.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI7" t="n">
         <v>17</v>
@@ -1750,7 +1750,7 @@
         <v>41</v>
       </c>
       <c r="AL7" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AM7" t="n">
         <v>201</v>
@@ -1759,7 +1759,7 @@
         <v>3.75</v>
       </c>
       <c r="AO7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP7" t="n">
         <v>34</v>
@@ -1774,7 +1774,7 @@
         <v>500</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AU7" t="n">
         <v>11</v>
@@ -2567,28 +2567,28 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="H12" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I12" t="n">
-        <v>4.1</v>
+        <v>4.25</v>
       </c>
       <c r="J12" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="K12" t="n">
         <v>2.25</v>
       </c>
-      <c r="K12" t="n">
-        <v>2.27</v>
-      </c>
       <c r="L12" t="n">
-        <v>4.3</v>
+        <v>4.45</v>
       </c>
       <c r="M12" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N12" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="O12" t="n">
         <v>1.2</v>
@@ -2600,37 +2600,37 @@
         <v>1.62</v>
       </c>
       <c r="R12" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="S12" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="T12" t="n">
-        <v>3.26</v>
+        <v>3.38</v>
       </c>
       <c r="U12" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="V12" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="W12" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="X12" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="Y12" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="Z12" t="n">
         <v>14</v>
       </c>
       <c r="AA12" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AC12" t="n">
         <v>13</v>
@@ -2639,28 +2639,28 @@
         <v>7.5</v>
       </c>
       <c r="AE12" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG12" t="n">
         <v>14</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>55</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>14.5</v>
       </c>
       <c r="AH12" t="n">
         <v>26</v>
       </c>
       <c r="AI12" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AJ12" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AK12" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AL12" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AM12" t="n">
         <v>350</v>
@@ -2684,7 +2684,7 @@
         <v>175</v>
       </c>
       <c r="AT12" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="AU12" t="n">
         <v>6.9</v>
@@ -2693,19 +2693,19 @@
         <v>55</v>
       </c>
       <c r="AW12" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AX12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AY12" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AZ12" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="BA12" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="BB12" t="n">
         <v>300</v>
@@ -6571,28 +6571,28 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.35</v>
+        <v>2.42</v>
       </c>
       <c r="H34" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I34" t="n">
-        <v>2.77</v>
+        <v>2.7</v>
       </c>
       <c r="J34" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="K34" t="n">
         <v>2.12</v>
       </c>
       <c r="L34" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M34" t="n">
         <v>1.07</v>
       </c>
       <c r="N34" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="O34" t="n">
         <v>1.33</v>
@@ -6601,10 +6601,10 @@
         <v>3.05</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R34" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="S34" t="n">
         <v>1.4</v>
@@ -6622,25 +6622,25 @@
         <v>8</v>
       </c>
       <c r="X34" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="Y34" t="n">
         <v>9.25</v>
       </c>
       <c r="Z34" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AA34" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AB34" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AC34" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AD34" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AE34" t="n">
         <v>14</v>
@@ -6652,34 +6652,34 @@
         <v>8.5</v>
       </c>
       <c r="AH34" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AI34" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AJ34" t="n">
         <v>32</v>
       </c>
       <c r="AK34" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL34" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AM34" t="n">
         <v>500</v>
       </c>
       <c r="AN34" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="AO34" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AP34" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AQ34" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AR34" t="n">
         <v>80</v>
@@ -6691,25 +6691,25 @@
         <v>2.75</v>
       </c>
       <c r="AU34" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AV34" t="n">
         <v>60</v>
       </c>
       <c r="AW34" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="AX34" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AY34" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ34" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="BA34" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="BB34" t="n">
         <v>300</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-12.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-12.xlsx
@@ -6571,28 +6571,28 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.42</v>
+        <v>2.32</v>
       </c>
       <c r="H34" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I34" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="J34" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="K34" t="n">
         <v>2.12</v>
       </c>
       <c r="L34" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M34" t="n">
         <v>1.07</v>
       </c>
       <c r="N34" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="O34" t="n">
         <v>1.33</v>
@@ -6613,34 +6613,34 @@
         <v>2.75</v>
       </c>
       <c r="U34" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="V34" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="W34" t="n">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="X34" t="n">
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="Y34" t="n">
         <v>9.25</v>
       </c>
       <c r="Z34" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AA34" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AB34" t="n">
         <v>30</v>
       </c>
       <c r="AC34" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AD34" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AE34" t="n">
         <v>14</v>
@@ -6649,37 +6649,37 @@
         <v>65</v>
       </c>
       <c r="AG34" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AH34" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AI34" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AJ34" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AK34" t="n">
         <v>24</v>
       </c>
       <c r="AL34" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AM34" t="n">
         <v>500</v>
       </c>
       <c r="AN34" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="AO34" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AP34" t="n">
         <v>20</v>
       </c>
       <c r="AQ34" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AR34" t="n">
         <v>80</v>
@@ -6691,22 +6691,22 @@
         <v>2.75</v>
       </c>
       <c r="AU34" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AV34" t="n">
         <v>60</v>
       </c>
       <c r="AW34" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="AX34" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AY34" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ34" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="BA34" t="n">
         <v>100</v>
